--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A73E2-6B0B-45BB-BD57-C325F995A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E2FF2-C436-4891-BA78-F01859058953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -466,11 +466,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C649" sqref="C649"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -528,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -552,7 +553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -576,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -600,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -624,7 +625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -648,7 +649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -672,7 +673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -696,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -720,7 +721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -744,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -768,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -792,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -816,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -840,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -864,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21</v>
       </c>
@@ -888,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
@@ -912,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
@@ -936,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21</v>
       </c>
@@ -960,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -984,7 +985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>21</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22</v>
       </c>
@@ -1254,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>22</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>26</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>28</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>28</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>28</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>23</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>23</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>23</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>23</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>23</v>
       </c>
@@ -2238,7 +2239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>23</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>23</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>23</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>23</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>23</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>23</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>23</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>24</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>24</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>24</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>24</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>24</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>24</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>24</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>24</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>25</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>25</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>25</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>25</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>25</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>25</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>25</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>25</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>25</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>29</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>29</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>29</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>29</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>30</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>30</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>30</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>30</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>30</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>30</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>39</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>39</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>39</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>39</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>39</v>
       </c>
@@ -3366,7 +3367,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>39</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>39</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>39</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>39</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>39</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>39</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>39</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>39</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>39</v>
       </c>
@@ -3588,7 +3589,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>39</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>39</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>39</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>39</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>39</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>39</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>39</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>39</v>
       </c>
@@ -3780,7 +3781,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>39</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>39</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>39</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>39</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>39</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>39</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>39</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>39</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>39</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>39</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>39</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>39</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>39</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>39</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>39</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>39</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>39</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>39</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>39</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>39</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>39</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>39</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>39</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>39</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>39</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>39</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>39</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>39</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>39</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>39</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>39</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>39</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>39</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>39</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>39</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>39</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>39</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>39</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>39</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>39</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>39</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>39</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>39</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>39</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>39</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>39</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>39</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>39</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>39</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>39</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>39</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>39</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>39</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>39</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>39</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>39</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>39</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>39</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>39</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>39</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>39</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>39</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>39</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>39</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>39</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>39</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>39</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>39</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>39</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>39</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>39</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>39</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>39</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>39</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>39</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>39</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>39</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>39</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>39</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>39</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>39</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>39</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>39</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>39</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>39</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>39</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>39</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>39</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>39</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>39</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>39</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>39</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>39</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>39</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>39</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>39</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>39</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>39</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>39</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>39</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>39</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>39</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>39</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>39</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>39</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>39</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>39</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>39</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>39</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>39</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>39</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>39</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>39</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>39</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>39</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>39</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>39</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>39</v>
       </c>
@@ -6600,7 +6601,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>39</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>39</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>39</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>39</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>39</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>39</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>39</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>39</v>
       </c>
@@ -6792,7 +6793,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>39</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>39</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>39</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>39</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>39</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>39</v>
       </c>
@@ -6936,7 +6937,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>39</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>39</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>39</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>39</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>39</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>39</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>39</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>39</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>39</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>39</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>39</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>39</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>39</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>39</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>39</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>39</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>39</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>39</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>39</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>39</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>39</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>39</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>39</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>39</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>39</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>39</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>39</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>39</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>39</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>39</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>39</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>39</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>39</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>39</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>39</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>39</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>39</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>39</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>39</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>39</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>39</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>39</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>39</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>210</v>
       </c>
       <c r="C312">
-        <v>52</v>
+        <v>5.2</v>
       </c>
       <c r="D312">
         <v>7.5</v>
@@ -8007,7 +8008,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>39</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>39</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>39</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>39</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>39</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>39</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>39</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>39</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>39</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>39</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>39</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>39</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>39</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>39</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>39</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>39</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>39</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>39</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>40</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>40</v>
       </c>
@@ -8483,7 +8484,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>40</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>40</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>40</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>40</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>40</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>40</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>40</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>40</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>40</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>40</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>40</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>40</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>40</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>40</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>40</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>40</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>40</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>40</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>40</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>40</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>40</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>40</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>40</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>40</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>40</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>40</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>40</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>40</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>40</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>40</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>40</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>40</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>40</v>
       </c>
@@ -9275,7 +9276,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>40</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>40</v>
       </c>
@@ -9323,7 +9324,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>40</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>40</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>40</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>40</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>40</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>40</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>40</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>40</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>40</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>40</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>40</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>40</v>
       </c>
@@ -9611,7 +9612,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>40</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>40</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>40</v>
       </c>
@@ -9683,7 +9684,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>40</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>40</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>40</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>40</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>40</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>40</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>40</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>40</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>40</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>40</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>40</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>40</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>40</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>40</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>40</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>40</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>40</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>40</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>40</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>40</v>
       </c>
@@ -10202,7 +10203,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>40</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>40</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>40</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>40</v>
       </c>
@@ -10310,7 +10311,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>40</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>40</v>
       </c>
@@ -10364,7 +10365,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>40</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>40</v>
       </c>
@@ -10418,7 +10419,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>40</v>
       </c>
@@ -10442,7 +10443,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>40</v>
       </c>
@@ -10466,7 +10467,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>40</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>40</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>40</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>40</v>
       </c>
@@ -10562,7 +10563,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>40</v>
       </c>
@@ -10586,7 +10587,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>40</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>40</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>40</v>
       </c>
@@ -10658,7 +10659,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>40</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>40</v>
       </c>
@@ -10706,7 +10707,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>40</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>40</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>40</v>
       </c>
@@ -10778,7 +10779,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>40</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>40</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>40</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>40</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>40</v>
       </c>
@@ -10898,7 +10899,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>40</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>40</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>40</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>40</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>40</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>40</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>40</v>
       </c>
@@ -11066,7 +11067,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>40</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>40</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>40</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>40</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>40</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>40</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>40</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>40</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>40</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>40</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>40</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>40</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>40</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>40</v>
       </c>
@@ -11402,7 +11403,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>40</v>
       </c>
@@ -11426,7 +11427,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>40</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>40</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>40</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>40</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>40</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>40</v>
       </c>
@@ -11570,7 +11571,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>40</v>
       </c>
@@ -11594,7 +11595,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>40</v>
       </c>
@@ -11618,7 +11619,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>40</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>40</v>
       </c>
@@ -11666,7 +11667,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>40</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>40</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>40</v>
       </c>
@@ -11738,7 +11739,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>40</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>40</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>40</v>
       </c>
@@ -11810,7 +11811,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>40</v>
       </c>
@@ -11834,7 +11835,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>40</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>40</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>40</v>
       </c>
@@ -11906,7 +11907,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>40</v>
       </c>
@@ -11930,7 +11931,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>40</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>40</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>40</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>40</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>40</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>40</v>
       </c>
@@ -12074,7 +12075,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>40</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>38</v>
       </c>
@@ -12122,7 +12123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>38</v>
       </c>
@@ -12146,7 +12147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>38</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>38</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>38</v>
       </c>
@@ -12218,7 +12219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>38</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>38</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>38</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>38</v>
       </c>
@@ -12329,7 +12330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>38</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>38</v>
       </c>
@@ -12377,7 +12378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>38</v>
       </c>
@@ -12401,7 +12402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>38</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>38</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>38</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>38</v>
       </c>
@@ -12497,7 +12498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>38</v>
       </c>
@@ -12521,7 +12522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>38</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>38</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>38</v>
       </c>
@@ -12593,7 +12594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>38</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>38</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>38</v>
       </c>
@@ -12665,7 +12666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>38</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>38</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>38</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>38</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>38</v>
       </c>
@@ -12785,7 +12786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>38</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>38</v>
       </c>
@@ -12833,7 +12834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>38</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>38</v>
       </c>
@@ -12881,7 +12882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>38</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>38</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>38</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>38</v>
       </c>
@@ -12977,7 +12978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>38</v>
       </c>
@@ -13004,7 +13005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>38</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>38</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>38</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>38</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>38</v>
       </c>
@@ -13121,7 +13122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>38</v>
       </c>
@@ -13145,7 +13146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>38</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>38</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>38</v>
       </c>
@@ -13217,7 +13218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>38</v>
       </c>
@@ -13241,7 +13242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>38</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>38</v>
       </c>
@@ -13289,7 +13290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>38</v>
       </c>
@@ -13313,7 +13314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>38</v>
       </c>
@@ -13337,7 +13338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>38</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>38</v>
       </c>
@@ -13385,7 +13386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>38</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>38</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>38</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>38</v>
       </c>
@@ -13481,7 +13482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>38</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>38</v>
       </c>
@@ -13529,7 +13530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>38</v>
       </c>
@@ -13553,7 +13554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>38</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>38</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>38</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>38</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>38</v>
       </c>
@@ -13697,7 +13698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>38</v>
       </c>
@@ -13721,7 +13722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>39</v>
       </c>
@@ -13745,7 +13746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>39</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>37</v>
       </c>
@@ -13793,7 +13794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>37</v>
       </c>
@@ -13817,7 +13818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>37</v>
       </c>
@@ -13841,7 +13842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>37</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>37</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>37</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>37</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>37</v>
       </c>
@@ -13961,7 +13962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>37</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>37</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>37</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>37</v>
       </c>
@@ -14057,7 +14058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>37</v>
       </c>
@@ -14081,7 +14082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>37</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>37</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>37</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>37</v>
       </c>
@@ -14177,7 +14178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>37</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>37</v>
       </c>
@@ -14225,7 +14226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>37</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>37</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>37</v>
       </c>
@@ -14297,7 +14298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>37</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>37</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>37</v>
       </c>
@@ -14369,7 +14370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>37</v>
       </c>
@@ -14393,7 +14394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>37</v>
       </c>
@@ -14417,7 +14418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>37</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>37</v>
       </c>
@@ -14465,7 +14466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>37</v>
       </c>
@@ -14489,7 +14490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>37</v>
       </c>
@@ -14513,7 +14514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>37</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>37</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>37</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>37</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>37</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>37</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>37</v>
       </c>
@@ -14681,7 +14682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>37</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>37</v>
       </c>
@@ -14729,7 +14730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>37</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>37</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>37</v>
       </c>
@@ -14801,7 +14802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>37</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>37</v>
       </c>
@@ -14849,7 +14850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>37</v>
       </c>
@@ -14873,7 +14874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>37</v>
       </c>
@@ -14897,7 +14898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>37</v>
       </c>
@@ -14921,7 +14922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>37</v>
       </c>
@@ -14945,7 +14946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>37</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>37</v>
       </c>
@@ -14993,7 +14994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>37</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>37</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>37</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>37</v>
       </c>
@@ -15089,7 +15090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>37</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>37</v>
       </c>
@@ -15137,7 +15138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>37</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>37</v>
       </c>
@@ -15185,7 +15186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>37</v>
       </c>
@@ -15209,7 +15210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>37</v>
       </c>
@@ -15233,7 +15234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>37</v>
       </c>
@@ -15257,7 +15258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>37</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>37</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>37</v>
       </c>
@@ -15329,7 +15330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>37</v>
       </c>
@@ -15353,7 +15354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>37</v>
       </c>
@@ -15377,7 +15378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>37</v>
       </c>
@@ -15401,7 +15402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>37</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>37</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>37</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>37</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>37</v>
       </c>
@@ -15521,7 +15522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>39</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>37</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>40</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>36</v>
       </c>
@@ -15617,7 +15618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>36</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>36</v>
       </c>
@@ -15665,7 +15666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>36</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>36</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>36</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>36</v>
       </c>
@@ -15761,7 +15762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>36</v>
       </c>
@@ -15785,7 +15786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>36</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>36</v>
       </c>
@@ -15833,7 +15834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>36</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>36</v>
       </c>
@@ -15881,7 +15882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>36</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>36</v>
       </c>
@@ -15929,7 +15930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>36</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>36</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>36</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>36</v>
       </c>
@@ -16025,7 +16026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>36</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>36</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>36</v>
       </c>
@@ -16097,7 +16098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>36</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>36</v>
       </c>
@@ -16145,7 +16146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>36</v>
       </c>
@@ -16169,7 +16170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>36</v>
       </c>
@@ -16193,7 +16194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>36</v>
       </c>
@@ -16217,7 +16218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>36</v>
       </c>
@@ -16241,7 +16242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>36</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>36</v>
       </c>
@@ -16289,7 +16290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>36</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>36</v>
       </c>
@@ -16337,7 +16338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>36</v>
       </c>
@@ -16361,7 +16362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>36</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>36</v>
       </c>
@@ -16409,7 +16410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>36</v>
       </c>
@@ -16433,7 +16434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>36</v>
       </c>
@@ -16457,7 +16458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>36</v>
       </c>
@@ -16481,7 +16482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>36</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>36</v>
       </c>
@@ -16529,7 +16530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>36</v>
       </c>
@@ -16553,7 +16554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>36</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>36</v>
       </c>
@@ -16601,7 +16602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>36</v>
       </c>
@@ -16625,7 +16626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>36</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>36</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>36</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>35</v>
       </c>
@@ -16721,7 +16722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>35</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>35</v>
       </c>
@@ -16769,7 +16770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>35</v>
       </c>
@@ -16793,7 +16794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>35</v>
       </c>
@@ -16817,7 +16818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>35</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>35</v>
       </c>
@@ -16865,7 +16866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>35</v>
       </c>
@@ -16889,7 +16890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>35</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>35</v>
       </c>
@@ -16937,7 +16938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>35</v>
       </c>
@@ -16961,7 +16962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>35</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>35</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>35</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>35</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>35</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>35</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>35</v>
       </c>
@@ -17129,7 +17130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>35</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>35</v>
       </c>
@@ -17177,7 +17178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>35</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>35</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>35</v>
       </c>
@@ -17249,7 +17250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>35</v>
       </c>
@@ -17273,7 +17274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>35</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>35</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>35</v>
       </c>
@@ -17345,7 +17346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>35</v>
       </c>
@@ -17369,7 +17370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>35</v>
       </c>
@@ -17393,7 +17394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>35</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>35</v>
       </c>
@@ -17441,7 +17442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>35</v>
       </c>
@@ -17466,7 +17467,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I705" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="A1:I705" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="51.14"/>
+        <filter val="51.22"/>
+        <filter val="51.6"/>
+        <filter val="52"/>
+        <filter val="52.26"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E2F4BF-7666-49D6-BB72-E8C13ED661B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74224A-C40E-4F5A-81E5-59F0AF9DC2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -472,8 +472,8 @@
   <dimension ref="A1:J705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A670" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1200,7 @@
         <v>5.92</v>
       </c>
       <c r="H31">
-        <f t="shared" ref="H31:H50" si="0">(G31*100/F31)/100</f>
+        <f>(G31*100/F31)/100</f>
         <v>0.3292547274749722</v>
       </c>
       <c r="I31" t="s">
@@ -1230,7 +1230,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H31:H50" si="0">(G32*100/F32)/100</f>
         <v>0.29333333333333333</v>
       </c>
       <c r="I32" t="s">

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74224A-C40E-4F5A-81E5-59F0AF9DC2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F95C4C-CB1E-4FEC-A92C-1C1A1885E43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$705</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$731</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="16">
   <si>
     <t>Parcela</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Transecto</t>
+  </si>
+  <si>
+    <t>22/8/2025</t>
   </si>
 </sst>
 </file>
@@ -469,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J705"/>
+  <dimension ref="A1:J828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y22" sqref="Y22"/>
+      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C825" sqref="C825"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,7 +1233,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H31:H50" si="0">(G32*100/F32)/100</f>
+        <f t="shared" ref="H32:H50" si="0">(G32*100/F32)/100</f>
         <v>0.29333333333333333</v>
       </c>
       <c r="I32" t="s">
@@ -16894,8 +16897,2837 @@
         <v>12</v>
       </c>
     </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>3</v>
+      </c>
+      <c r="B706">
+        <v>34</v>
+      </c>
+      <c r="C706">
+        <v>1</v>
+      </c>
+      <c r="D706">
+        <v>21.41</v>
+      </c>
+      <c r="E706">
+        <v>17.5</v>
+      </c>
+      <c r="F706">
+        <v>100</v>
+      </c>
+      <c r="I706" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>3</v>
+      </c>
+      <c r="B707">
+        <v>34</v>
+      </c>
+      <c r="C707">
+        <v>2</v>
+      </c>
+      <c r="D707">
+        <v>10.57</v>
+      </c>
+      <c r="E707">
+        <v>11.5</v>
+      </c>
+      <c r="F707">
+        <v>14</v>
+      </c>
+      <c r="I707" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>3</v>
+      </c>
+      <c r="B708">
+        <v>34</v>
+      </c>
+      <c r="C708">
+        <v>3</v>
+      </c>
+      <c r="D708">
+        <v>15.45</v>
+      </c>
+      <c r="E708">
+        <v>14</v>
+      </c>
+      <c r="F708">
+        <v>50</v>
+      </c>
+      <c r="I708" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>3</v>
+      </c>
+      <c r="B709">
+        <v>34</v>
+      </c>
+      <c r="C709">
+        <v>4</v>
+      </c>
+      <c r="D709">
+        <v>22.82</v>
+      </c>
+      <c r="E709">
+        <v>17.5</v>
+      </c>
+      <c r="F709">
+        <v>80</v>
+      </c>
+      <c r="I709" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>3</v>
+      </c>
+      <c r="B710">
+        <v>34</v>
+      </c>
+      <c r="C710">
+        <v>5</v>
+      </c>
+      <c r="D710">
+        <v>10.58</v>
+      </c>
+      <c r="E710">
+        <v>10.5</v>
+      </c>
+      <c r="F710">
+        <v>20</v>
+      </c>
+      <c r="I710" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>3</v>
+      </c>
+      <c r="B711">
+        <v>34</v>
+      </c>
+      <c r="C711">
+        <v>6</v>
+      </c>
+      <c r="D711">
+        <v>29.21</v>
+      </c>
+      <c r="E711">
+        <v>26</v>
+      </c>
+      <c r="F711">
+        <v>230</v>
+      </c>
+      <c r="I711" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>3</v>
+      </c>
+      <c r="B712">
+        <v>34</v>
+      </c>
+      <c r="C712">
+        <v>7</v>
+      </c>
+      <c r="D712">
+        <v>19.18</v>
+      </c>
+      <c r="E712">
+        <v>17</v>
+      </c>
+      <c r="F712">
+        <v>130</v>
+      </c>
+      <c r="I712" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>3</v>
+      </c>
+      <c r="B713">
+        <v>34</v>
+      </c>
+      <c r="C713">
+        <v>8</v>
+      </c>
+      <c r="D713">
+        <v>22.94</v>
+      </c>
+      <c r="E713">
+        <v>20.5</v>
+      </c>
+      <c r="F713">
+        <v>160</v>
+      </c>
+      <c r="I713" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>3</v>
+      </c>
+      <c r="B714">
+        <v>34</v>
+      </c>
+      <c r="C714">
+        <v>9</v>
+      </c>
+      <c r="D714">
+        <v>13.22</v>
+      </c>
+      <c r="E714">
+        <v>14.5</v>
+      </c>
+      <c r="F714">
+        <v>40</v>
+      </c>
+      <c r="I714" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>3</v>
+      </c>
+      <c r="B715">
+        <v>34</v>
+      </c>
+      <c r="C715">
+        <v>10</v>
+      </c>
+      <c r="D715">
+        <v>33.58</v>
+      </c>
+      <c r="E715">
+        <v>34</v>
+      </c>
+      <c r="F715">
+        <v>340</v>
+      </c>
+      <c r="I715" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>3</v>
+      </c>
+      <c r="B716">
+        <v>34</v>
+      </c>
+      <c r="C716">
+        <v>11</v>
+      </c>
+      <c r="D716">
+        <v>9.49</v>
+      </c>
+      <c r="E716">
+        <v>8</v>
+      </c>
+      <c r="F716">
+        <v>13</v>
+      </c>
+      <c r="I716" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>3</v>
+      </c>
+      <c r="B717">
+        <v>34</v>
+      </c>
+      <c r="C717">
+        <v>12</v>
+      </c>
+      <c r="D717">
+        <v>10.43</v>
+      </c>
+      <c r="E717">
+        <v>12</v>
+      </c>
+      <c r="F717">
+        <v>13.5</v>
+      </c>
+      <c r="I717" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>3</v>
+      </c>
+      <c r="B718">
+        <v>34</v>
+      </c>
+      <c r="C718">
+        <v>13</v>
+      </c>
+      <c r="D718">
+        <v>22.96</v>
+      </c>
+      <c r="E718">
+        <v>20.5</v>
+      </c>
+      <c r="F718">
+        <v>176</v>
+      </c>
+      <c r="I718" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>3</v>
+      </c>
+      <c r="B719">
+        <v>34</v>
+      </c>
+      <c r="C719">
+        <v>14</v>
+      </c>
+      <c r="D719">
+        <v>9.82</v>
+      </c>
+      <c r="E719">
+        <v>9.5</v>
+      </c>
+      <c r="F719">
+        <v>14.5</v>
+      </c>
+      <c r="I719" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>3</v>
+      </c>
+      <c r="B720">
+        <v>34</v>
+      </c>
+      <c r="C720">
+        <v>15</v>
+      </c>
+      <c r="D720">
+        <v>11.62</v>
+      </c>
+      <c r="E720">
+        <v>10.5</v>
+      </c>
+      <c r="F720">
+        <v>15.5</v>
+      </c>
+      <c r="I720" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>3</v>
+      </c>
+      <c r="B721">
+        <v>34</v>
+      </c>
+      <c r="C721">
+        <v>16</v>
+      </c>
+      <c r="D721">
+        <v>11.31</v>
+      </c>
+      <c r="E721">
+        <v>11</v>
+      </c>
+      <c r="F721">
+        <v>19.5</v>
+      </c>
+      <c r="I721" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>3</v>
+      </c>
+      <c r="B722">
+        <v>34</v>
+      </c>
+      <c r="C722">
+        <v>17</v>
+      </c>
+      <c r="D722">
+        <v>36.72</v>
+      </c>
+      <c r="E722">
+        <v>35</v>
+      </c>
+      <c r="F722">
+        <v>390</v>
+      </c>
+      <c r="I722" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>3</v>
+      </c>
+      <c r="B723">
+        <v>34</v>
+      </c>
+      <c r="C723">
+        <v>18</v>
+      </c>
+      <c r="D723">
+        <v>17.12</v>
+      </c>
+      <c r="E723">
+        <v>16.5</v>
+      </c>
+      <c r="F723">
+        <v>70</v>
+      </c>
+      <c r="I723" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="B724">
+        <v>34</v>
+      </c>
+      <c r="C724">
+        <v>19</v>
+      </c>
+      <c r="D724">
+        <v>35.15</v>
+      </c>
+      <c r="E724">
+        <v>22.5</v>
+      </c>
+      <c r="F724">
+        <v>170</v>
+      </c>
+      <c r="I724" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>3</v>
+      </c>
+      <c r="B725">
+        <v>34</v>
+      </c>
+      <c r="C725">
+        <v>20</v>
+      </c>
+      <c r="D725">
+        <v>59.2</v>
+      </c>
+      <c r="E725">
+        <v>54</v>
+      </c>
+      <c r="F725">
+        <v>1300</v>
+      </c>
+      <c r="I725" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>3</v>
+      </c>
+      <c r="B726">
+        <v>34</v>
+      </c>
+      <c r="C726">
+        <v>21</v>
+      </c>
+      <c r="D726">
+        <v>11.5</v>
+      </c>
+      <c r="E726">
+        <v>9.5</v>
+      </c>
+      <c r="F726">
+        <v>20</v>
+      </c>
+      <c r="I726" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>3</v>
+      </c>
+      <c r="B727">
+        <v>34</v>
+      </c>
+      <c r="C727">
+        <v>22</v>
+      </c>
+      <c r="D727">
+        <v>18.75</v>
+      </c>
+      <c r="E727">
+        <v>13.5</v>
+      </c>
+      <c r="F727">
+        <v>23</v>
+      </c>
+      <c r="I727" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>3</v>
+      </c>
+      <c r="B728">
+        <v>34</v>
+      </c>
+      <c r="C728">
+        <v>23</v>
+      </c>
+      <c r="D728">
+        <v>15.64</v>
+      </c>
+      <c r="E728">
+        <v>11</v>
+      </c>
+      <c r="F728">
+        <v>15</v>
+      </c>
+      <c r="I728" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>3</v>
+      </c>
+      <c r="B729">
+        <v>34</v>
+      </c>
+      <c r="C729">
+        <v>24</v>
+      </c>
+      <c r="D729">
+        <v>60.47</v>
+      </c>
+      <c r="E729">
+        <v>178</v>
+      </c>
+      <c r="F729">
+        <v>5400</v>
+      </c>
+      <c r="I729" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>3</v>
+      </c>
+      <c r="B730">
+        <v>34</v>
+      </c>
+      <c r="C730">
+        <v>25</v>
+      </c>
+      <c r="D730">
+        <v>45.48</v>
+      </c>
+      <c r="E730">
+        <v>41</v>
+      </c>
+      <c r="F730">
+        <v>630</v>
+      </c>
+      <c r="I730" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>3</v>
+      </c>
+      <c r="B731">
+        <v>35</v>
+      </c>
+      <c r="C731">
+        <v>33</v>
+      </c>
+      <c r="D731">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E731">
+        <v>10</v>
+      </c>
+      <c r="F731">
+        <v>10</v>
+      </c>
+      <c r="I731" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>3</v>
+      </c>
+      <c r="B732">
+        <v>33</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732">
+        <v>11.63</v>
+      </c>
+      <c r="E732">
+        <v>13</v>
+      </c>
+      <c r="F732">
+        <v>20</v>
+      </c>
+      <c r="I732" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>3</v>
+      </c>
+      <c r="B733">
+        <v>33</v>
+      </c>
+      <c r="C733">
+        <v>2</v>
+      </c>
+      <c r="D733">
+        <v>13.33</v>
+      </c>
+      <c r="E733">
+        <v>11</v>
+      </c>
+      <c r="F733">
+        <v>15.5</v>
+      </c>
+      <c r="I733" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>3</v>
+      </c>
+      <c r="B734">
+        <v>33</v>
+      </c>
+      <c r="C734">
+        <v>3</v>
+      </c>
+      <c r="D734">
+        <v>38.21</v>
+      </c>
+      <c r="E734">
+        <v>40</v>
+      </c>
+      <c r="F734">
+        <v>480</v>
+      </c>
+      <c r="I734" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>3</v>
+      </c>
+      <c r="B735">
+        <v>33</v>
+      </c>
+      <c r="C735">
+        <v>4</v>
+      </c>
+      <c r="D735">
+        <v>13.49</v>
+      </c>
+      <c r="E735">
+        <v>11.5</v>
+      </c>
+      <c r="F735">
+        <v>13.5</v>
+      </c>
+      <c r="I735" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>3</v>
+      </c>
+      <c r="B736">
+        <v>33</v>
+      </c>
+      <c r="C736">
+        <v>5</v>
+      </c>
+      <c r="D736">
+        <v>14.19</v>
+      </c>
+      <c r="E736">
+        <v>16.5</v>
+      </c>
+      <c r="F736">
+        <v>40</v>
+      </c>
+      <c r="I736" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>3</v>
+      </c>
+      <c r="B737">
+        <v>33</v>
+      </c>
+      <c r="C737">
+        <v>6</v>
+      </c>
+      <c r="D737">
+        <v>46.47</v>
+      </c>
+      <c r="E737">
+        <v>48</v>
+      </c>
+      <c r="F737">
+        <v>700</v>
+      </c>
+      <c r="I737" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>3</v>
+      </c>
+      <c r="B738">
+        <v>33</v>
+      </c>
+      <c r="C738">
+        <v>7</v>
+      </c>
+      <c r="D738">
+        <v>57.83</v>
+      </c>
+      <c r="E738">
+        <v>61</v>
+      </c>
+      <c r="F738">
+        <v>1580</v>
+      </c>
+      <c r="I738" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>3</v>
+      </c>
+      <c r="B739">
+        <v>33</v>
+      </c>
+      <c r="C739">
+        <v>8</v>
+      </c>
+      <c r="D739">
+        <v>33.03</v>
+      </c>
+      <c r="E739">
+        <v>30.5</v>
+      </c>
+      <c r="F739">
+        <v>280</v>
+      </c>
+      <c r="I739" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>3</v>
+      </c>
+      <c r="B740">
+        <v>33</v>
+      </c>
+      <c r="C740">
+        <v>9</v>
+      </c>
+      <c r="D740">
+        <v>30.22</v>
+      </c>
+      <c r="E740">
+        <v>25.5</v>
+      </c>
+      <c r="F740">
+        <v>200</v>
+      </c>
+      <c r="I740" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>3</v>
+      </c>
+      <c r="B741">
+        <v>33</v>
+      </c>
+      <c r="C741">
+        <v>10</v>
+      </c>
+      <c r="D741">
+        <v>14.15</v>
+      </c>
+      <c r="E741">
+        <v>13.5</v>
+      </c>
+      <c r="F741">
+        <v>40</v>
+      </c>
+      <c r="I741" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>3</v>
+      </c>
+      <c r="B742">
+        <v>33</v>
+      </c>
+      <c r="C742">
+        <v>11</v>
+      </c>
+      <c r="D742">
+        <v>19.62</v>
+      </c>
+      <c r="E742">
+        <v>18</v>
+      </c>
+      <c r="F742">
+        <v>80</v>
+      </c>
+      <c r="I742" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>3</v>
+      </c>
+      <c r="B743">
+        <v>33</v>
+      </c>
+      <c r="C743">
+        <v>12</v>
+      </c>
+      <c r="D743">
+        <v>73.47</v>
+      </c>
+      <c r="E743">
+        <v>109</v>
+      </c>
+      <c r="F743">
+        <v>2790</v>
+      </c>
+      <c r="I743" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>3</v>
+      </c>
+      <c r="B744">
+        <v>33</v>
+      </c>
+      <c r="C744">
+        <v>13</v>
+      </c>
+      <c r="D744">
+        <v>48.27</v>
+      </c>
+      <c r="E744">
+        <v>48</v>
+      </c>
+      <c r="F744">
+        <v>950</v>
+      </c>
+      <c r="I744" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>3</v>
+      </c>
+      <c r="B745">
+        <v>33</v>
+      </c>
+      <c r="C745">
+        <v>14</v>
+      </c>
+      <c r="D745">
+        <v>70.63</v>
+      </c>
+      <c r="E745">
+        <v>104</v>
+      </c>
+      <c r="F745">
+        <v>2800</v>
+      </c>
+      <c r="I745" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>3</v>
+      </c>
+      <c r="B746">
+        <v>33</v>
+      </c>
+      <c r="C746">
+        <v>15</v>
+      </c>
+      <c r="D746">
+        <v>12.69</v>
+      </c>
+      <c r="E746">
+        <v>12</v>
+      </c>
+      <c r="F746">
+        <v>27.5</v>
+      </c>
+      <c r="I746" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>3</v>
+      </c>
+      <c r="B747">
+        <v>33</v>
+      </c>
+      <c r="C747">
+        <v>16</v>
+      </c>
+      <c r="D747">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E747">
+        <v>14.5</v>
+      </c>
+      <c r="F747">
+        <v>40</v>
+      </c>
+      <c r="I747" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>3</v>
+      </c>
+      <c r="B748">
+        <v>33</v>
+      </c>
+      <c r="C748">
+        <v>17</v>
+      </c>
+      <c r="D748">
+        <v>19.54</v>
+      </c>
+      <c r="E748">
+        <v>12.5</v>
+      </c>
+      <c r="F748">
+        <v>60</v>
+      </c>
+      <c r="I748" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>3</v>
+      </c>
+      <c r="B749">
+        <v>33</v>
+      </c>
+      <c r="C749">
+        <v>18</v>
+      </c>
+      <c r="D749">
+        <v>23.4</v>
+      </c>
+      <c r="E749">
+        <v>20</v>
+      </c>
+      <c r="F749">
+        <v>120</v>
+      </c>
+      <c r="I749" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>3</v>
+      </c>
+      <c r="B750">
+        <v>33</v>
+      </c>
+      <c r="C750">
+        <v>19</v>
+      </c>
+      <c r="D750">
+        <v>32.85</v>
+      </c>
+      <c r="E750">
+        <v>32</v>
+      </c>
+      <c r="F750">
+        <v>340</v>
+      </c>
+      <c r="I750" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>3</v>
+      </c>
+      <c r="B751">
+        <v>33</v>
+      </c>
+      <c r="C751">
+        <v>20</v>
+      </c>
+      <c r="D751">
+        <v>20.79</v>
+      </c>
+      <c r="E751">
+        <v>23.5</v>
+      </c>
+      <c r="F751">
+        <v>120</v>
+      </c>
+      <c r="I751" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>3</v>
+      </c>
+      <c r="B752">
+        <v>33</v>
+      </c>
+      <c r="C752">
+        <v>21</v>
+      </c>
+      <c r="D752">
+        <v>11.56</v>
+      </c>
+      <c r="E752">
+        <v>12</v>
+      </c>
+      <c r="F752">
+        <v>22.5</v>
+      </c>
+      <c r="I752" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>3</v>
+      </c>
+      <c r="B753">
+        <v>33</v>
+      </c>
+      <c r="C753">
+        <v>22</v>
+      </c>
+      <c r="D753">
+        <v>20.29</v>
+      </c>
+      <c r="E753">
+        <v>18.5</v>
+      </c>
+      <c r="F753">
+        <v>80</v>
+      </c>
+      <c r="I753" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754">
+        <v>33</v>
+      </c>
+      <c r="C754">
+        <v>23</v>
+      </c>
+      <c r="D754">
+        <v>19.43</v>
+      </c>
+      <c r="E754">
+        <v>20</v>
+      </c>
+      <c r="F754">
+        <v>100</v>
+      </c>
+      <c r="I754" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>3</v>
+      </c>
+      <c r="B755">
+        <v>33</v>
+      </c>
+      <c r="C755">
+        <v>24</v>
+      </c>
+      <c r="D755">
+        <v>22.23</v>
+      </c>
+      <c r="E755">
+        <v>21</v>
+      </c>
+      <c r="F755">
+        <v>130</v>
+      </c>
+      <c r="I755" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>3</v>
+      </c>
+      <c r="B756">
+        <v>33</v>
+      </c>
+      <c r="C756">
+        <v>25</v>
+      </c>
+      <c r="D756">
+        <v>19.45</v>
+      </c>
+      <c r="E756">
+        <v>16</v>
+      </c>
+      <c r="F756">
+        <v>70</v>
+      </c>
+      <c r="I756" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>3</v>
+      </c>
+      <c r="B757">
+        <v>33</v>
+      </c>
+      <c r="C757">
+        <v>26</v>
+      </c>
+      <c r="D757">
+        <v>22</v>
+      </c>
+      <c r="E757">
+        <v>17.5</v>
+      </c>
+      <c r="F757">
+        <v>90</v>
+      </c>
+      <c r="I757" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>3</v>
+      </c>
+      <c r="B758">
+        <v>33</v>
+      </c>
+      <c r="C758">
+        <v>27</v>
+      </c>
+      <c r="D758">
+        <v>16.32</v>
+      </c>
+      <c r="E758">
+        <v>16</v>
+      </c>
+      <c r="F758">
+        <v>60</v>
+      </c>
+      <c r="I758" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>3</v>
+      </c>
+      <c r="B759">
+        <v>33</v>
+      </c>
+      <c r="C759">
+        <v>28</v>
+      </c>
+      <c r="D759">
+        <v>8.4</v>
+      </c>
+      <c r="E759">
+        <v>8.5</v>
+      </c>
+      <c r="F759">
+        <v>10.5</v>
+      </c>
+      <c r="I759" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>3</v>
+      </c>
+      <c r="B760">
+        <v>33</v>
+      </c>
+      <c r="C760">
+        <v>29</v>
+      </c>
+      <c r="D760">
+        <v>7.71</v>
+      </c>
+      <c r="E760">
+        <v>8</v>
+      </c>
+      <c r="F760">
+        <v>4.5</v>
+      </c>
+      <c r="I760" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>3</v>
+      </c>
+      <c r="B761">
+        <v>33</v>
+      </c>
+      <c r="C761">
+        <v>30</v>
+      </c>
+      <c r="D761">
+        <v>16.91</v>
+      </c>
+      <c r="E761">
+        <v>17.5</v>
+      </c>
+      <c r="F761">
+        <v>80</v>
+      </c>
+      <c r="I761" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>3</v>
+      </c>
+      <c r="B762">
+        <v>33</v>
+      </c>
+      <c r="C762">
+        <v>31</v>
+      </c>
+      <c r="D762">
+        <v>20.8</v>
+      </c>
+      <c r="E762">
+        <v>21.5</v>
+      </c>
+      <c r="F762">
+        <v>80</v>
+      </c>
+      <c r="I762" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>3</v>
+      </c>
+      <c r="B763">
+        <v>33</v>
+      </c>
+      <c r="C763">
+        <v>32</v>
+      </c>
+      <c r="D763">
+        <v>17.93</v>
+      </c>
+      <c r="E763">
+        <v>17</v>
+      </c>
+      <c r="F763">
+        <v>80</v>
+      </c>
+      <c r="I763" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>3</v>
+      </c>
+      <c r="B764">
+        <v>33</v>
+      </c>
+      <c r="C764">
+        <v>33</v>
+      </c>
+      <c r="D764">
+        <v>24.67</v>
+      </c>
+      <c r="E764">
+        <v>26.5</v>
+      </c>
+      <c r="F764">
+        <v>140</v>
+      </c>
+      <c r="I764" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>3</v>
+      </c>
+      <c r="B765">
+        <v>33</v>
+      </c>
+      <c r="C765">
+        <v>34</v>
+      </c>
+      <c r="D765">
+        <v>12.81</v>
+      </c>
+      <c r="E765">
+        <v>12</v>
+      </c>
+      <c r="F765">
+        <v>40</v>
+      </c>
+      <c r="I765" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>3</v>
+      </c>
+      <c r="B766">
+        <v>33</v>
+      </c>
+      <c r="C766">
+        <v>35</v>
+      </c>
+      <c r="D766">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E766">
+        <v>9.5</v>
+      </c>
+      <c r="F766">
+        <v>10.5</v>
+      </c>
+      <c r="I766" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>3</v>
+      </c>
+      <c r="B767">
+        <v>33</v>
+      </c>
+      <c r="C767">
+        <v>36</v>
+      </c>
+      <c r="D767">
+        <v>13.95</v>
+      </c>
+      <c r="E767">
+        <v>12</v>
+      </c>
+      <c r="F767">
+        <v>40</v>
+      </c>
+      <c r="I767" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>3</v>
+      </c>
+      <c r="B768">
+        <v>33</v>
+      </c>
+      <c r="C768">
+        <v>37</v>
+      </c>
+      <c r="D768">
+        <v>15.56</v>
+      </c>
+      <c r="E768">
+        <v>11.5</v>
+      </c>
+      <c r="F768">
+        <v>40</v>
+      </c>
+      <c r="I768" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>3</v>
+      </c>
+      <c r="B769">
+        <v>33</v>
+      </c>
+      <c r="C769">
+        <v>38</v>
+      </c>
+      <c r="D769">
+        <v>17.97</v>
+      </c>
+      <c r="E769">
+        <v>15</v>
+      </c>
+      <c r="F769">
+        <v>50</v>
+      </c>
+      <c r="I769" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>3</v>
+      </c>
+      <c r="B770">
+        <v>33</v>
+      </c>
+      <c r="C770">
+        <v>39</v>
+      </c>
+      <c r="D770">
+        <v>5.08</v>
+      </c>
+      <c r="E770">
+        <v>5.5</v>
+      </c>
+      <c r="F770">
+        <v>1.5</v>
+      </c>
+      <c r="I770" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>3</v>
+      </c>
+      <c r="B771">
+        <v>33</v>
+      </c>
+      <c r="C771">
+        <v>40</v>
+      </c>
+      <c r="D771">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="E771">
+        <v>13.5</v>
+      </c>
+      <c r="F771">
+        <v>30</v>
+      </c>
+      <c r="I771" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>3</v>
+      </c>
+      <c r="B772">
+        <v>33</v>
+      </c>
+      <c r="C772">
+        <v>41</v>
+      </c>
+      <c r="D772">
+        <v>47.75</v>
+      </c>
+      <c r="E772">
+        <v>57.5</v>
+      </c>
+      <c r="F772">
+        <v>1000</v>
+      </c>
+      <c r="I772" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>3</v>
+      </c>
+      <c r="B773">
+        <v>33</v>
+      </c>
+      <c r="C773">
+        <v>42</v>
+      </c>
+      <c r="D773">
+        <v>24.93</v>
+      </c>
+      <c r="E773">
+        <v>24</v>
+      </c>
+      <c r="F773">
+        <v>180</v>
+      </c>
+      <c r="I773" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>3</v>
+      </c>
+      <c r="B774">
+        <v>33</v>
+      </c>
+      <c r="C774">
+        <v>43</v>
+      </c>
+      <c r="D774">
+        <v>14.14</v>
+      </c>
+      <c r="E774">
+        <v>17.5</v>
+      </c>
+      <c r="F774">
+        <v>60</v>
+      </c>
+      <c r="I774" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>3</v>
+      </c>
+      <c r="B775">
+        <v>33</v>
+      </c>
+      <c r="C775">
+        <v>44</v>
+      </c>
+      <c r="D775">
+        <v>11.05</v>
+      </c>
+      <c r="E775">
+        <v>11.5</v>
+      </c>
+      <c r="F775">
+        <v>10.5</v>
+      </c>
+      <c r="I775" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>3</v>
+      </c>
+      <c r="B776">
+        <v>33</v>
+      </c>
+      <c r="C776">
+        <v>45</v>
+      </c>
+      <c r="D776">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E776">
+        <v>9</v>
+      </c>
+      <c r="F776">
+        <v>11</v>
+      </c>
+      <c r="I776" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>3</v>
+      </c>
+      <c r="B777">
+        <v>33</v>
+      </c>
+      <c r="C777">
+        <v>46</v>
+      </c>
+      <c r="D777">
+        <v>5.93</v>
+      </c>
+      <c r="E777">
+        <v>9</v>
+      </c>
+      <c r="F777">
+        <v>5</v>
+      </c>
+      <c r="I777" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>3</v>
+      </c>
+      <c r="B778">
+        <v>33</v>
+      </c>
+      <c r="C778">
+        <v>47</v>
+      </c>
+      <c r="D778">
+        <v>12.65</v>
+      </c>
+      <c r="E778">
+        <v>13.5</v>
+      </c>
+      <c r="F778">
+        <v>30</v>
+      </c>
+      <c r="I778" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>3</v>
+      </c>
+      <c r="B779">
+        <v>33</v>
+      </c>
+      <c r="C779">
+        <v>48</v>
+      </c>
+      <c r="D779">
+        <v>17.87</v>
+      </c>
+      <c r="E779">
+        <v>14.5</v>
+      </c>
+      <c r="F779">
+        <v>70</v>
+      </c>
+      <c r="I779" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>3</v>
+      </c>
+      <c r="B780">
+        <v>33</v>
+      </c>
+      <c r="C780">
+        <v>49</v>
+      </c>
+      <c r="D780">
+        <v>13.86</v>
+      </c>
+      <c r="E780">
+        <v>17</v>
+      </c>
+      <c r="F780">
+        <v>40</v>
+      </c>
+      <c r="I780" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>3</v>
+      </c>
+      <c r="B781">
+        <v>33</v>
+      </c>
+      <c r="C781">
+        <v>50</v>
+      </c>
+      <c r="D781">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="E781">
+        <v>29</v>
+      </c>
+      <c r="F781">
+        <v>260</v>
+      </c>
+      <c r="I781" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>3</v>
+      </c>
+      <c r="B782">
+        <v>33</v>
+      </c>
+      <c r="C782">
+        <v>51</v>
+      </c>
+      <c r="D782">
+        <v>25.77</v>
+      </c>
+      <c r="E782">
+        <v>16.5</v>
+      </c>
+      <c r="F782">
+        <v>140</v>
+      </c>
+      <c r="I782" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>3</v>
+      </c>
+      <c r="B783">
+        <v>33</v>
+      </c>
+      <c r="C783">
+        <v>52</v>
+      </c>
+      <c r="D783">
+        <v>21.61</v>
+      </c>
+      <c r="E783">
+        <v>17</v>
+      </c>
+      <c r="F783">
+        <v>70</v>
+      </c>
+      <c r="I783" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>3</v>
+      </c>
+      <c r="B784">
+        <v>33</v>
+      </c>
+      <c r="C784">
+        <v>53</v>
+      </c>
+      <c r="D784">
+        <v>32.69</v>
+      </c>
+      <c r="E784">
+        <v>32.5</v>
+      </c>
+      <c r="F784">
+        <v>350</v>
+      </c>
+      <c r="I784" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>3</v>
+      </c>
+      <c r="B785">
+        <v>33</v>
+      </c>
+      <c r="C785">
+        <v>54</v>
+      </c>
+      <c r="D785">
+        <v>20.72</v>
+      </c>
+      <c r="E785">
+        <v>23.5</v>
+      </c>
+      <c r="F785">
+        <v>80</v>
+      </c>
+      <c r="I785" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>3</v>
+      </c>
+      <c r="B786">
+        <v>33</v>
+      </c>
+      <c r="C786">
+        <v>55</v>
+      </c>
+      <c r="D786">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E786">
+        <v>9.5</v>
+      </c>
+      <c r="F786">
+        <v>18.5</v>
+      </c>
+      <c r="I786" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>3</v>
+      </c>
+      <c r="B787">
+        <v>33</v>
+      </c>
+      <c r="C787">
+        <v>56</v>
+      </c>
+      <c r="D787">
+        <v>12.74</v>
+      </c>
+      <c r="E787">
+        <v>12</v>
+      </c>
+      <c r="F787">
+        <v>18</v>
+      </c>
+      <c r="I787" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>3</v>
+      </c>
+      <c r="B788">
+        <v>33</v>
+      </c>
+      <c r="C788">
+        <v>57</v>
+      </c>
+      <c r="D788">
+        <v>28.31</v>
+      </c>
+      <c r="E788">
+        <v>28.5</v>
+      </c>
+      <c r="F788">
+        <v>170</v>
+      </c>
+      <c r="I788" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>3</v>
+      </c>
+      <c r="B789">
+        <v>33</v>
+      </c>
+      <c r="C789">
+        <v>58</v>
+      </c>
+      <c r="D789">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E789">
+        <v>16.5</v>
+      </c>
+      <c r="F789">
+        <v>50</v>
+      </c>
+      <c r="I789" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>3</v>
+      </c>
+      <c r="B790">
+        <v>33</v>
+      </c>
+      <c r="C790">
+        <v>59</v>
+      </c>
+      <c r="D790">
+        <v>33.9</v>
+      </c>
+      <c r="E790">
+        <v>33</v>
+      </c>
+      <c r="F790">
+        <v>333</v>
+      </c>
+      <c r="I790" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>3</v>
+      </c>
+      <c r="B791">
+        <v>33</v>
+      </c>
+      <c r="C791">
+        <v>60</v>
+      </c>
+      <c r="D791">
+        <v>22.96</v>
+      </c>
+      <c r="E791">
+        <v>20</v>
+      </c>
+      <c r="F791">
+        <v>100</v>
+      </c>
+      <c r="I791" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>3</v>
+      </c>
+      <c r="B792">
+        <v>33</v>
+      </c>
+      <c r="C792">
+        <v>61</v>
+      </c>
+      <c r="D792">
+        <v>45.2</v>
+      </c>
+      <c r="E792">
+        <v>50</v>
+      </c>
+      <c r="F792">
+        <v>870</v>
+      </c>
+      <c r="I792" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>3</v>
+      </c>
+      <c r="B793">
+        <v>33</v>
+      </c>
+      <c r="C793">
+        <v>62</v>
+      </c>
+      <c r="D793">
+        <v>24.42</v>
+      </c>
+      <c r="E793">
+        <v>19</v>
+      </c>
+      <c r="F793">
+        <v>160</v>
+      </c>
+      <c r="I793" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>3</v>
+      </c>
+      <c r="B794">
+        <v>33</v>
+      </c>
+      <c r="C794">
+        <v>63</v>
+      </c>
+      <c r="D794">
+        <v>18.03</v>
+      </c>
+      <c r="E794">
+        <v>16</v>
+      </c>
+      <c r="F794">
+        <v>70</v>
+      </c>
+      <c r="I794" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>3</v>
+      </c>
+      <c r="B795">
+        <v>33</v>
+      </c>
+      <c r="C795">
+        <v>64</v>
+      </c>
+      <c r="D795">
+        <v>28.21</v>
+      </c>
+      <c r="E795">
+        <v>23.5</v>
+      </c>
+      <c r="F795">
+        <v>170</v>
+      </c>
+      <c r="I795" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>3</v>
+      </c>
+      <c r="B796">
+        <v>33</v>
+      </c>
+      <c r="C796">
+        <v>65</v>
+      </c>
+      <c r="D796">
+        <v>23.48</v>
+      </c>
+      <c r="E796">
+        <v>13</v>
+      </c>
+      <c r="F796">
+        <v>40</v>
+      </c>
+      <c r="I796" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>3</v>
+      </c>
+      <c r="B797">
+        <v>33</v>
+      </c>
+      <c r="C797">
+        <v>66</v>
+      </c>
+      <c r="D797">
+        <v>31.77</v>
+      </c>
+      <c r="E797">
+        <v>30.5</v>
+      </c>
+      <c r="F797">
+        <v>250</v>
+      </c>
+      <c r="I797" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>3</v>
+      </c>
+      <c r="B798">
+        <v>33</v>
+      </c>
+      <c r="C798">
+        <v>67</v>
+      </c>
+      <c r="D798">
+        <v>87.83</v>
+      </c>
+      <c r="E798">
+        <v>189</v>
+      </c>
+      <c r="F798">
+        <v>6770</v>
+      </c>
+      <c r="I798" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>3</v>
+      </c>
+      <c r="B799">
+        <v>33</v>
+      </c>
+      <c r="C799">
+        <v>68</v>
+      </c>
+      <c r="D799">
+        <v>29.18</v>
+      </c>
+      <c r="E799">
+        <v>30.5</v>
+      </c>
+      <c r="F799">
+        <v>200</v>
+      </c>
+      <c r="I799" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>3</v>
+      </c>
+      <c r="B800">
+        <v>33</v>
+      </c>
+      <c r="C800">
+        <v>69</v>
+      </c>
+      <c r="D800">
+        <v>38.119999999999997</v>
+      </c>
+      <c r="E800">
+        <v>31</v>
+      </c>
+      <c r="F800">
+        <v>450</v>
+      </c>
+      <c r="I800" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>3</v>
+      </c>
+      <c r="B801">
+        <v>33</v>
+      </c>
+      <c r="C801">
+        <v>70</v>
+      </c>
+      <c r="D801">
+        <v>44.53</v>
+      </c>
+      <c r="E801">
+        <v>30</v>
+      </c>
+      <c r="F801">
+        <v>440</v>
+      </c>
+      <c r="I801" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>3</v>
+      </c>
+      <c r="B802">
+        <v>33</v>
+      </c>
+      <c r="C802">
+        <v>71</v>
+      </c>
+      <c r="D802">
+        <v>36.49</v>
+      </c>
+      <c r="E802">
+        <v>41</v>
+      </c>
+      <c r="F802">
+        <v>510</v>
+      </c>
+      <c r="I802" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>3</v>
+      </c>
+      <c r="B803">
+        <v>33</v>
+      </c>
+      <c r="C803">
+        <v>72</v>
+      </c>
+      <c r="D803">
+        <v>34.49</v>
+      </c>
+      <c r="E803">
+        <v>41</v>
+      </c>
+      <c r="F803">
+        <v>510</v>
+      </c>
+      <c r="I803" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>3</v>
+      </c>
+      <c r="B804">
+        <v>33</v>
+      </c>
+      <c r="C804">
+        <v>73</v>
+      </c>
+      <c r="D804">
+        <v>47.61</v>
+      </c>
+      <c r="E804">
+        <v>43</v>
+      </c>
+      <c r="F804">
+        <v>900</v>
+      </c>
+      <c r="I804" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>3</v>
+      </c>
+      <c r="B805">
+        <v>33</v>
+      </c>
+      <c r="C805">
+        <v>74</v>
+      </c>
+      <c r="D805">
+        <v>52.5</v>
+      </c>
+      <c r="E805">
+        <v>86</v>
+      </c>
+      <c r="F805">
+        <v>1720</v>
+      </c>
+      <c r="I805" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>3</v>
+      </c>
+      <c r="B806">
+        <v>33</v>
+      </c>
+      <c r="C806">
+        <v>75</v>
+      </c>
+      <c r="D806">
+        <v>46.52</v>
+      </c>
+      <c r="E806">
+        <v>50</v>
+      </c>
+      <c r="F806">
+        <v>810</v>
+      </c>
+      <c r="I806" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>3</v>
+      </c>
+      <c r="B807">
+        <v>33</v>
+      </c>
+      <c r="C807">
+        <v>76</v>
+      </c>
+      <c r="D807">
+        <v>51.7</v>
+      </c>
+      <c r="E807">
+        <v>56</v>
+      </c>
+      <c r="F807">
+        <v>1150</v>
+      </c>
+      <c r="I807" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>3</v>
+      </c>
+      <c r="B808">
+        <v>33</v>
+      </c>
+      <c r="C808">
+        <v>77</v>
+      </c>
+      <c r="D808">
+        <v>72.38</v>
+      </c>
+      <c r="E808">
+        <v>134</v>
+      </c>
+      <c r="F808">
+        <v>4070</v>
+      </c>
+      <c r="I808" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>3</v>
+      </c>
+      <c r="B809">
+        <v>33</v>
+      </c>
+      <c r="C809">
+        <v>78</v>
+      </c>
+      <c r="D809">
+        <v>7.19</v>
+      </c>
+      <c r="E809">
+        <v>5.5</v>
+      </c>
+      <c r="F809">
+        <v>5</v>
+      </c>
+      <c r="I809" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>3</v>
+      </c>
+      <c r="B810">
+        <v>33</v>
+      </c>
+      <c r="C810">
+        <v>79</v>
+      </c>
+      <c r="D810">
+        <v>5.68</v>
+      </c>
+      <c r="E810">
+        <v>6</v>
+      </c>
+      <c r="F810">
+        <v>4.5</v>
+      </c>
+      <c r="I810" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>3</v>
+      </c>
+      <c r="B811">
+        <v>33</v>
+      </c>
+      <c r="C811">
+        <v>80</v>
+      </c>
+      <c r="D811">
+        <v>5.82</v>
+      </c>
+      <c r="E811">
+        <v>9.5</v>
+      </c>
+      <c r="F811">
+        <v>2</v>
+      </c>
+      <c r="I811" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>3</v>
+      </c>
+      <c r="B812">
+        <v>31</v>
+      </c>
+      <c r="C812">
+        <v>1</v>
+      </c>
+      <c r="D812">
+        <v>26.16</v>
+      </c>
+      <c r="E812">
+        <v>36</v>
+      </c>
+      <c r="F812">
+        <v>170</v>
+      </c>
+      <c r="I812" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>3</v>
+      </c>
+      <c r="B813">
+        <v>31</v>
+      </c>
+      <c r="C813">
+        <v>2</v>
+      </c>
+      <c r="D813">
+        <v>2.81</v>
+      </c>
+      <c r="E813">
+        <v>5</v>
+      </c>
+      <c r="F813">
+        <v>7</v>
+      </c>
+      <c r="I813" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>3</v>
+      </c>
+      <c r="B814">
+        <v>31</v>
+      </c>
+      <c r="C814">
+        <v>3</v>
+      </c>
+      <c r="D814">
+        <v>11.29</v>
+      </c>
+      <c r="E814">
+        <v>10.7</v>
+      </c>
+      <c r="F814">
+        <v>18</v>
+      </c>
+      <c r="I814" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>3</v>
+      </c>
+      <c r="B815">
+        <v>31</v>
+      </c>
+      <c r="C815">
+        <v>4</v>
+      </c>
+      <c r="D815">
+        <v>9.69</v>
+      </c>
+      <c r="E815">
+        <v>8.5</v>
+      </c>
+      <c r="F815">
+        <v>8</v>
+      </c>
+      <c r="I815" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>3</v>
+      </c>
+      <c r="B816">
+        <v>31</v>
+      </c>
+      <c r="C816">
+        <v>5</v>
+      </c>
+      <c r="D816">
+        <v>14.1</v>
+      </c>
+      <c r="E816">
+        <v>14.5</v>
+      </c>
+      <c r="F816">
+        <v>22.5</v>
+      </c>
+      <c r="I816" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>3</v>
+      </c>
+      <c r="B817">
+        <v>31</v>
+      </c>
+      <c r="C817">
+        <v>6</v>
+      </c>
+      <c r="D817">
+        <v>39.85</v>
+      </c>
+      <c r="E817">
+        <v>35</v>
+      </c>
+      <c r="F817">
+        <v>430</v>
+      </c>
+      <c r="I817" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>3</v>
+      </c>
+      <c r="B818">
+        <v>31</v>
+      </c>
+      <c r="C818">
+        <v>7</v>
+      </c>
+      <c r="D818">
+        <v>7.13</v>
+      </c>
+      <c r="E818">
+        <v>5</v>
+      </c>
+      <c r="F818">
+        <v>3.5</v>
+      </c>
+      <c r="I818" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>3</v>
+      </c>
+      <c r="B819">
+        <v>31</v>
+      </c>
+      <c r="C819">
+        <v>8</v>
+      </c>
+      <c r="D819">
+        <v>12.85</v>
+      </c>
+      <c r="E819">
+        <v>13.5</v>
+      </c>
+      <c r="F819">
+        <v>17</v>
+      </c>
+      <c r="I819" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>3</v>
+      </c>
+      <c r="B820">
+        <v>31</v>
+      </c>
+      <c r="C820">
+        <v>9</v>
+      </c>
+      <c r="D820">
+        <v>20.61</v>
+      </c>
+      <c r="E820">
+        <v>19</v>
+      </c>
+      <c r="F820">
+        <v>80</v>
+      </c>
+      <c r="I820" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>3</v>
+      </c>
+      <c r="B821">
+        <v>31</v>
+      </c>
+      <c r="C821">
+        <v>10</v>
+      </c>
+      <c r="D821">
+        <v>50.44</v>
+      </c>
+      <c r="E821">
+        <v>36.5</v>
+      </c>
+      <c r="F821">
+        <v>580</v>
+      </c>
+      <c r="I821" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>3</v>
+      </c>
+      <c r="B822">
+        <v>31</v>
+      </c>
+      <c r="C822">
+        <v>11</v>
+      </c>
+      <c r="D822">
+        <v>10.34</v>
+      </c>
+      <c r="E822">
+        <v>11</v>
+      </c>
+      <c r="F822">
+        <v>13</v>
+      </c>
+      <c r="I822" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>3</v>
+      </c>
+      <c r="B823">
+        <v>31</v>
+      </c>
+      <c r="C823">
+        <v>12</v>
+      </c>
+      <c r="D823">
+        <v>3.66</v>
+      </c>
+      <c r="E823">
+        <v>6.5</v>
+      </c>
+      <c r="F823">
+        <v>1</v>
+      </c>
+      <c r="I823" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>3</v>
+      </c>
+      <c r="B824">
+        <v>31</v>
+      </c>
+      <c r="C824">
+        <v>13</v>
+      </c>
+      <c r="D824">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E824">
+        <v>9.5</v>
+      </c>
+      <c r="F824">
+        <v>19</v>
+      </c>
+      <c r="I824" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>3</v>
+      </c>
+      <c r="B825">
+        <v>31</v>
+      </c>
+      <c r="C825">
+        <v>14</v>
+      </c>
+      <c r="D825">
+        <v>41.74</v>
+      </c>
+      <c r="E825">
+        <v>34</v>
+      </c>
+      <c r="F825">
+        <v>340</v>
+      </c>
+      <c r="I825" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>3</v>
+      </c>
+      <c r="B826">
+        <v>31</v>
+      </c>
+      <c r="C826">
+        <v>15</v>
+      </c>
+      <c r="D826">
+        <v>4.33</v>
+      </c>
+      <c r="E826">
+        <v>4</v>
+      </c>
+      <c r="F826">
+        <v>1</v>
+      </c>
+      <c r="I826" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>3</v>
+      </c>
+      <c r="B827">
+        <v>31</v>
+      </c>
+      <c r="C827">
+        <v>16</v>
+      </c>
+      <c r="D827">
+        <v>51.06</v>
+      </c>
+      <c r="E827">
+        <v>67</v>
+      </c>
+      <c r="F827">
+        <v>1300</v>
+      </c>
+      <c r="I827" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>3</v>
+      </c>
+      <c r="B828">
+        <v>31</v>
+      </c>
+      <c r="C828">
+        <v>17</v>
+      </c>
+      <c r="D828">
+        <v>81.25</v>
+      </c>
+      <c r="E828">
+        <v>135</v>
+      </c>
+      <c r="F828">
+        <v>4820</v>
+      </c>
+      <c r="I828" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:J705" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="B1:J731" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F95C4C-CB1E-4FEC-A92C-1C1A1885E43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E2EF6-4B50-4A75-8D6D-FA127E33C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -475,8 +475,8 @@
   <dimension ref="A1:J828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A794" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C825" sqref="C825"/>
+      <pane ySplit="1" topLeftCell="A795" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X811" sqref="X811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12739,6 +12739,13 @@
       <c r="F525">
         <v>1000</v>
       </c>
+      <c r="G525">
+        <v>238</v>
+      </c>
+      <c r="H525">
+        <f>(G525*100/F525)/100</f>
+        <v>0.23800000000000002</v>
+      </c>
       <c r="I525" t="s">
         <v>11</v>
       </c>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E2EF6-4B50-4A75-8D6D-FA127E33C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529AC97-DAB4-4781-8791-C427DC8CF324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -475,8 +475,8 @@
   <dimension ref="A1:J828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A795" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X811" sqref="X811"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12838,6 +12838,13 @@
       <c r="F529">
         <v>2630</v>
       </c>
+      <c r="G529">
+        <v>646</v>
+      </c>
+      <c r="H529">
+        <f>(G529*100/F529)/100</f>
+        <v>0.24562737642585553</v>
+      </c>
       <c r="I529" t="s">
         <v>11</v>
       </c>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2529AC97-DAB4-4781-8791-C427DC8CF324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4467586B-19B8-43CD-A81D-3296DD1B3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -475,8 +475,8 @@
   <dimension ref="A1:J828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J505" sqref="J505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11874,6 +11874,13 @@
       <c r="F488">
         <v>2111</v>
       </c>
+      <c r="G488">
+        <v>413</v>
+      </c>
+      <c r="H488">
+        <f>(G488*100/F488)/100</f>
+        <v>0.19564187588820464</v>
+      </c>
       <c r="I488" t="s">
         <v>11</v>
       </c>
@@ -12252,9 +12259,6 @@
       <c r="I504" t="s">
         <v>11</v>
       </c>
-      <c r="J504" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
@@ -12274,6 +12278,9 @@
       </c>
       <c r="I505" t="s">
         <v>11</v>
+      </c>
+      <c r="J505" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4467586B-19B8-43CD-A81D-3296DD1B3353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05AA48-8360-4AF8-BDEA-6111FDDD2199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$731</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$972</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="17">
   <si>
     <t>Parcela</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>22/8/2025</t>
+  </si>
+  <si>
+    <t>19/9/2025</t>
   </si>
 </sst>
 </file>
@@ -472,11 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J828"/>
+  <dimension ref="A1:J972"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A626" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J505" sqref="J505"/>
+      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19747,8 +19750,3320 @@
         <v>15</v>
       </c>
     </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>1</v>
+      </c>
+      <c r="B829">
+        <v>12</v>
+      </c>
+      <c r="C829">
+        <v>1</v>
+      </c>
+      <c r="D829">
+        <v>5.36</v>
+      </c>
+      <c r="E829">
+        <v>6</v>
+      </c>
+      <c r="F829">
+        <v>2.5</v>
+      </c>
+      <c r="I829" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>1</v>
+      </c>
+      <c r="B830">
+        <v>12</v>
+      </c>
+      <c r="C830">
+        <v>2</v>
+      </c>
+      <c r="D830">
+        <v>5.93</v>
+      </c>
+      <c r="E830">
+        <v>7</v>
+      </c>
+      <c r="F830">
+        <v>6</v>
+      </c>
+      <c r="I830" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>1</v>
+      </c>
+      <c r="B831">
+        <v>12</v>
+      </c>
+      <c r="C831">
+        <v>3</v>
+      </c>
+      <c r="D831">
+        <v>4.97</v>
+      </c>
+      <c r="E831">
+        <v>6.5</v>
+      </c>
+      <c r="F831">
+        <v>1.5</v>
+      </c>
+      <c r="I831" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>1</v>
+      </c>
+      <c r="B832">
+        <v>12</v>
+      </c>
+      <c r="C832">
+        <v>4</v>
+      </c>
+      <c r="D832">
+        <v>6.42</v>
+      </c>
+      <c r="E832">
+        <v>6.5</v>
+      </c>
+      <c r="F832">
+        <v>5</v>
+      </c>
+      <c r="I832" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>1</v>
+      </c>
+      <c r="B833">
+        <v>12</v>
+      </c>
+      <c r="C833">
+        <v>5</v>
+      </c>
+      <c r="D833">
+        <v>11.31</v>
+      </c>
+      <c r="E833">
+        <v>10</v>
+      </c>
+      <c r="F833">
+        <v>12</v>
+      </c>
+      <c r="I833" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>1</v>
+      </c>
+      <c r="B834">
+        <v>12</v>
+      </c>
+      <c r="C834">
+        <v>6</v>
+      </c>
+      <c r="D834">
+        <v>11.53</v>
+      </c>
+      <c r="E834">
+        <v>10.5</v>
+      </c>
+      <c r="F834">
+        <v>20</v>
+      </c>
+      <c r="I834" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>1</v>
+      </c>
+      <c r="B835">
+        <v>12</v>
+      </c>
+      <c r="C835">
+        <v>7</v>
+      </c>
+      <c r="D835">
+        <v>11.42</v>
+      </c>
+      <c r="E835">
+        <v>8.5</v>
+      </c>
+      <c r="F835">
+        <v>15.5</v>
+      </c>
+      <c r="I835" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>1</v>
+      </c>
+      <c r="B836">
+        <v>12</v>
+      </c>
+      <c r="C836">
+        <v>8</v>
+      </c>
+      <c r="D836">
+        <v>13.12</v>
+      </c>
+      <c r="E836">
+        <v>11</v>
+      </c>
+      <c r="F836">
+        <v>24</v>
+      </c>
+      <c r="I836" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>1</v>
+      </c>
+      <c r="B837">
+        <v>12</v>
+      </c>
+      <c r="C837">
+        <v>9</v>
+      </c>
+      <c r="D837">
+        <v>14.42</v>
+      </c>
+      <c r="E837">
+        <v>11.5</v>
+      </c>
+      <c r="F837">
+        <v>25</v>
+      </c>
+      <c r="I837" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>1</v>
+      </c>
+      <c r="B838">
+        <v>12</v>
+      </c>
+      <c r="C838">
+        <v>10</v>
+      </c>
+      <c r="D838">
+        <v>15.3</v>
+      </c>
+      <c r="E838">
+        <v>13</v>
+      </c>
+      <c r="F838">
+        <v>50</v>
+      </c>
+      <c r="I838" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>1</v>
+      </c>
+      <c r="B839">
+        <v>12</v>
+      </c>
+      <c r="C839">
+        <v>11</v>
+      </c>
+      <c r="D839">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E839">
+        <v>10.5</v>
+      </c>
+      <c r="F839">
+        <v>35</v>
+      </c>
+      <c r="I839" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>1</v>
+      </c>
+      <c r="B840">
+        <v>12</v>
+      </c>
+      <c r="C840">
+        <v>12</v>
+      </c>
+      <c r="D840">
+        <v>17.3</v>
+      </c>
+      <c r="E840">
+        <v>17</v>
+      </c>
+      <c r="F840">
+        <v>50</v>
+      </c>
+      <c r="I840" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>1</v>
+      </c>
+      <c r="B841">
+        <v>12</v>
+      </c>
+      <c r="C841">
+        <v>13</v>
+      </c>
+      <c r="D841">
+        <v>17.55</v>
+      </c>
+      <c r="E841">
+        <v>13</v>
+      </c>
+      <c r="F841">
+        <v>50</v>
+      </c>
+      <c r="I841" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>1</v>
+      </c>
+      <c r="B842">
+        <v>12</v>
+      </c>
+      <c r="C842">
+        <v>14</v>
+      </c>
+      <c r="D842">
+        <v>15.99</v>
+      </c>
+      <c r="E842">
+        <v>13.5</v>
+      </c>
+      <c r="F842">
+        <v>45</v>
+      </c>
+      <c r="I842" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>1</v>
+      </c>
+      <c r="B843">
+        <v>12</v>
+      </c>
+      <c r="C843">
+        <v>15</v>
+      </c>
+      <c r="D843">
+        <v>15.12</v>
+      </c>
+      <c r="E843">
+        <v>14.5</v>
+      </c>
+      <c r="F843">
+        <v>60</v>
+      </c>
+      <c r="I843" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>1</v>
+      </c>
+      <c r="B844">
+        <v>12</v>
+      </c>
+      <c r="C844">
+        <v>16</v>
+      </c>
+      <c r="D844">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="E844">
+        <v>17</v>
+      </c>
+      <c r="F844">
+        <v>70</v>
+      </c>
+      <c r="I844" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>1</v>
+      </c>
+      <c r="B845">
+        <v>12</v>
+      </c>
+      <c r="C845">
+        <v>17</v>
+      </c>
+      <c r="D845">
+        <v>35.39</v>
+      </c>
+      <c r="E845">
+        <v>31.5</v>
+      </c>
+      <c r="F845">
+        <v>350</v>
+      </c>
+      <c r="I845" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>1</v>
+      </c>
+      <c r="B846">
+        <v>12</v>
+      </c>
+      <c r="C846">
+        <v>18</v>
+      </c>
+      <c r="D846">
+        <v>9.84</v>
+      </c>
+      <c r="E846">
+        <v>9.4</v>
+      </c>
+      <c r="F846">
+        <v>14</v>
+      </c>
+      <c r="I846" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>1</v>
+      </c>
+      <c r="B847">
+        <v>12</v>
+      </c>
+      <c r="C847">
+        <v>19</v>
+      </c>
+      <c r="D847">
+        <v>25.87</v>
+      </c>
+      <c r="E847">
+        <v>27</v>
+      </c>
+      <c r="F847">
+        <v>180</v>
+      </c>
+      <c r="I847" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>1</v>
+      </c>
+      <c r="B848">
+        <v>12</v>
+      </c>
+      <c r="C848">
+        <v>20</v>
+      </c>
+      <c r="D848">
+        <v>12.2</v>
+      </c>
+      <c r="E848">
+        <v>13.5</v>
+      </c>
+      <c r="F848">
+        <v>40</v>
+      </c>
+      <c r="I848" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>1</v>
+      </c>
+      <c r="B849">
+        <v>12</v>
+      </c>
+      <c r="C849">
+        <v>21</v>
+      </c>
+      <c r="D849">
+        <v>20.43</v>
+      </c>
+      <c r="E849">
+        <v>16.5</v>
+      </c>
+      <c r="F849">
+        <v>80</v>
+      </c>
+      <c r="I849" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>1</v>
+      </c>
+      <c r="B850">
+        <v>12</v>
+      </c>
+      <c r="C850">
+        <v>22</v>
+      </c>
+      <c r="D850">
+        <v>17.66</v>
+      </c>
+      <c r="E850">
+        <v>18</v>
+      </c>
+      <c r="F850">
+        <v>65</v>
+      </c>
+      <c r="I850" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>1</v>
+      </c>
+      <c r="B851">
+        <v>12</v>
+      </c>
+      <c r="C851">
+        <v>23</v>
+      </c>
+      <c r="D851">
+        <v>8.86</v>
+      </c>
+      <c r="E851">
+        <v>8</v>
+      </c>
+      <c r="F851">
+        <v>7.5</v>
+      </c>
+      <c r="I851" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>1</v>
+      </c>
+      <c r="B852">
+        <v>12</v>
+      </c>
+      <c r="C852">
+        <v>24</v>
+      </c>
+      <c r="D852">
+        <v>14.71</v>
+      </c>
+      <c r="E852">
+        <v>15</v>
+      </c>
+      <c r="F852">
+        <v>50</v>
+      </c>
+      <c r="I852" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>1</v>
+      </c>
+      <c r="B853">
+        <v>12</v>
+      </c>
+      <c r="C853">
+        <v>25</v>
+      </c>
+      <c r="D853">
+        <v>28.9</v>
+      </c>
+      <c r="E853">
+        <v>28.5</v>
+      </c>
+      <c r="F853">
+        <v>210</v>
+      </c>
+      <c r="I853" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>1</v>
+      </c>
+      <c r="B854">
+        <v>12</v>
+      </c>
+      <c r="C854">
+        <v>26</v>
+      </c>
+      <c r="D854">
+        <v>15.66</v>
+      </c>
+      <c r="E854">
+        <v>15.5</v>
+      </c>
+      <c r="F854">
+        <v>45</v>
+      </c>
+      <c r="I854" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>1</v>
+      </c>
+      <c r="B855">
+        <v>12</v>
+      </c>
+      <c r="C855">
+        <v>27</v>
+      </c>
+      <c r="D855">
+        <v>27.65</v>
+      </c>
+      <c r="E855">
+        <v>28</v>
+      </c>
+      <c r="F855">
+        <v>205</v>
+      </c>
+      <c r="I855" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>1</v>
+      </c>
+      <c r="B856">
+        <v>12</v>
+      </c>
+      <c r="C856">
+        <v>28</v>
+      </c>
+      <c r="D856">
+        <v>23.46</v>
+      </c>
+      <c r="E856">
+        <v>21</v>
+      </c>
+      <c r="F856">
+        <v>145</v>
+      </c>
+      <c r="I856" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>1</v>
+      </c>
+      <c r="B857">
+        <v>12</v>
+      </c>
+      <c r="C857">
+        <v>29</v>
+      </c>
+      <c r="D857">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E857">
+        <v>17</v>
+      </c>
+      <c r="F857">
+        <v>120</v>
+      </c>
+      <c r="I857" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>1</v>
+      </c>
+      <c r="B858">
+        <v>12</v>
+      </c>
+      <c r="C858">
+        <v>30</v>
+      </c>
+      <c r="D858">
+        <v>30.06</v>
+      </c>
+      <c r="E858">
+        <v>37</v>
+      </c>
+      <c r="F858">
+        <v>270</v>
+      </c>
+      <c r="I858" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>1</v>
+      </c>
+      <c r="B859">
+        <v>12</v>
+      </c>
+      <c r="C859">
+        <v>31</v>
+      </c>
+      <c r="D859">
+        <v>42.43</v>
+      </c>
+      <c r="E859">
+        <v>38.5</v>
+      </c>
+      <c r="F859">
+        <v>520</v>
+      </c>
+      <c r="I859" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>1</v>
+      </c>
+      <c r="B860">
+        <v>12</v>
+      </c>
+      <c r="C860">
+        <v>32</v>
+      </c>
+      <c r="D860">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="E860">
+        <v>36</v>
+      </c>
+      <c r="F860">
+        <v>410</v>
+      </c>
+      <c r="I860" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>1</v>
+      </c>
+      <c r="B861">
+        <v>12</v>
+      </c>
+      <c r="C861">
+        <v>33</v>
+      </c>
+      <c r="D861">
+        <v>13.6</v>
+      </c>
+      <c r="E861">
+        <v>13</v>
+      </c>
+      <c r="F861">
+        <v>27</v>
+      </c>
+      <c r="I861" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>1</v>
+      </c>
+      <c r="B862">
+        <v>12</v>
+      </c>
+      <c r="C862">
+        <v>34</v>
+      </c>
+      <c r="D862">
+        <v>19.73</v>
+      </c>
+      <c r="E862">
+        <v>16.5</v>
+      </c>
+      <c r="F862">
+        <v>70</v>
+      </c>
+      <c r="I862" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>1</v>
+      </c>
+      <c r="B863">
+        <v>12</v>
+      </c>
+      <c r="C863">
+        <v>35</v>
+      </c>
+      <c r="D863">
+        <v>30.42</v>
+      </c>
+      <c r="E863">
+        <v>36</v>
+      </c>
+      <c r="F863">
+        <v>280</v>
+      </c>
+      <c r="I863" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>1</v>
+      </c>
+      <c r="B864">
+        <v>12</v>
+      </c>
+      <c r="C864">
+        <v>36</v>
+      </c>
+      <c r="D864">
+        <v>7.82</v>
+      </c>
+      <c r="E864">
+        <v>7.5</v>
+      </c>
+      <c r="F864">
+        <v>7</v>
+      </c>
+      <c r="I864" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>1</v>
+      </c>
+      <c r="B865">
+        <v>12</v>
+      </c>
+      <c r="C865">
+        <v>37</v>
+      </c>
+      <c r="D865">
+        <v>22.68</v>
+      </c>
+      <c r="E865">
+        <v>24</v>
+      </c>
+      <c r="F865">
+        <v>175</v>
+      </c>
+      <c r="I865" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>1</v>
+      </c>
+      <c r="B866">
+        <v>12</v>
+      </c>
+      <c r="C866">
+        <v>38</v>
+      </c>
+      <c r="D866">
+        <v>29.13</v>
+      </c>
+      <c r="E866">
+        <v>21.5</v>
+      </c>
+      <c r="F866">
+        <v>200</v>
+      </c>
+      <c r="I866" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>1</v>
+      </c>
+      <c r="B867">
+        <v>12</v>
+      </c>
+      <c r="C867">
+        <v>39</v>
+      </c>
+      <c r="D867">
+        <v>37.26</v>
+      </c>
+      <c r="E867">
+        <v>42</v>
+      </c>
+      <c r="F867">
+        <v>490</v>
+      </c>
+      <c r="I867" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>1</v>
+      </c>
+      <c r="B868">
+        <v>12</v>
+      </c>
+      <c r="C868">
+        <v>40</v>
+      </c>
+      <c r="D868">
+        <v>31.66</v>
+      </c>
+      <c r="E868">
+        <v>32</v>
+      </c>
+      <c r="F868">
+        <v>370</v>
+      </c>
+      <c r="I868" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>1</v>
+      </c>
+      <c r="B869">
+        <v>12</v>
+      </c>
+      <c r="C869">
+        <v>41</v>
+      </c>
+      <c r="D869">
+        <v>36.51</v>
+      </c>
+      <c r="E869">
+        <v>38.5</v>
+      </c>
+      <c r="F869">
+        <v>450</v>
+      </c>
+      <c r="I869" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>1</v>
+      </c>
+      <c r="B870">
+        <v>12</v>
+      </c>
+      <c r="C870">
+        <v>42</v>
+      </c>
+      <c r="D870">
+        <v>44.5</v>
+      </c>
+      <c r="E870">
+        <v>41</v>
+      </c>
+      <c r="F870">
+        <v>780</v>
+      </c>
+      <c r="I870" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>1</v>
+      </c>
+      <c r="B871">
+        <v>12</v>
+      </c>
+      <c r="C871">
+        <v>43</v>
+      </c>
+      <c r="D871">
+        <v>37.83</v>
+      </c>
+      <c r="E871">
+        <v>29.5</v>
+      </c>
+      <c r="F871">
+        <v>390</v>
+      </c>
+      <c r="I871" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>1</v>
+      </c>
+      <c r="B872">
+        <v>12</v>
+      </c>
+      <c r="C872">
+        <v>44</v>
+      </c>
+      <c r="D872">
+        <v>41.35</v>
+      </c>
+      <c r="E872">
+        <v>44</v>
+      </c>
+      <c r="F872">
+        <v>530</v>
+      </c>
+      <c r="I872" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>1</v>
+      </c>
+      <c r="B873">
+        <v>12</v>
+      </c>
+      <c r="C873">
+        <v>45</v>
+      </c>
+      <c r="D873">
+        <v>38.47</v>
+      </c>
+      <c r="E873">
+        <v>36</v>
+      </c>
+      <c r="F873">
+        <v>450</v>
+      </c>
+      <c r="I873" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>1</v>
+      </c>
+      <c r="B874">
+        <v>12</v>
+      </c>
+      <c r="C874">
+        <v>46</v>
+      </c>
+      <c r="D874">
+        <v>34.68</v>
+      </c>
+      <c r="E874">
+        <v>39</v>
+      </c>
+      <c r="F874">
+        <v>210</v>
+      </c>
+      <c r="I874" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>1</v>
+      </c>
+      <c r="B875">
+        <v>12</v>
+      </c>
+      <c r="C875">
+        <v>47</v>
+      </c>
+      <c r="D875">
+        <v>43.78</v>
+      </c>
+      <c r="E875">
+        <v>39</v>
+      </c>
+      <c r="F875">
+        <v>640</v>
+      </c>
+      <c r="I875" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>1</v>
+      </c>
+      <c r="B876">
+        <v>12</v>
+      </c>
+      <c r="C876">
+        <v>48</v>
+      </c>
+      <c r="D876">
+        <v>43.1</v>
+      </c>
+      <c r="E876">
+        <v>114</v>
+      </c>
+      <c r="F876">
+        <v>1850</v>
+      </c>
+      <c r="I876" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>1</v>
+      </c>
+      <c r="B877">
+        <v>12</v>
+      </c>
+      <c r="C877">
+        <v>49</v>
+      </c>
+      <c r="D877">
+        <v>47.16</v>
+      </c>
+      <c r="E877">
+        <v>58</v>
+      </c>
+      <c r="F877">
+        <v>1170</v>
+      </c>
+      <c r="I877" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>1</v>
+      </c>
+      <c r="B878">
+        <v>12</v>
+      </c>
+      <c r="C878">
+        <v>50</v>
+      </c>
+      <c r="D878">
+        <v>59.68</v>
+      </c>
+      <c r="E878">
+        <v>140</v>
+      </c>
+      <c r="F878">
+        <v>3053</v>
+      </c>
+      <c r="I878" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>1</v>
+      </c>
+      <c r="B879">
+        <v>12</v>
+      </c>
+      <c r="C879">
+        <v>51</v>
+      </c>
+      <c r="D879">
+        <v>57.3</v>
+      </c>
+      <c r="E879">
+        <v>54</v>
+      </c>
+      <c r="F879">
+        <v>1580</v>
+      </c>
+      <c r="I879" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>1</v>
+      </c>
+      <c r="B880">
+        <v>12</v>
+      </c>
+      <c r="C880">
+        <v>52</v>
+      </c>
+      <c r="D880">
+        <v>57.37</v>
+      </c>
+      <c r="E880">
+        <v>85</v>
+      </c>
+      <c r="F880">
+        <v>1910</v>
+      </c>
+      <c r="I880" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>1</v>
+      </c>
+      <c r="B881">
+        <v>12</v>
+      </c>
+      <c r="C881">
+        <v>53</v>
+      </c>
+      <c r="D881">
+        <v>44.3</v>
+      </c>
+      <c r="E881">
+        <v>42</v>
+      </c>
+      <c r="F881">
+        <v>750</v>
+      </c>
+      <c r="I881" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>1</v>
+      </c>
+      <c r="B882">
+        <v>12</v>
+      </c>
+      <c r="C882">
+        <v>54</v>
+      </c>
+      <c r="D882">
+        <v>70.53</v>
+      </c>
+      <c r="E882">
+        <v>62</v>
+      </c>
+      <c r="F882">
+        <v>1670</v>
+      </c>
+      <c r="I882" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>1</v>
+      </c>
+      <c r="B883">
+        <v>12</v>
+      </c>
+      <c r="C883">
+        <v>55</v>
+      </c>
+      <c r="D883">
+        <v>85</v>
+      </c>
+      <c r="E883">
+        <v>172</v>
+      </c>
+      <c r="F883">
+        <v>4890</v>
+      </c>
+      <c r="I883" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>1</v>
+      </c>
+      <c r="B884">
+        <v>12</v>
+      </c>
+      <c r="C884">
+        <v>56</v>
+      </c>
+      <c r="D884">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E884">
+        <v>41</v>
+      </c>
+      <c r="F884">
+        <v>580</v>
+      </c>
+      <c r="I884" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>1</v>
+      </c>
+      <c r="B885">
+        <v>12</v>
+      </c>
+      <c r="C885">
+        <v>57</v>
+      </c>
+      <c r="D885">
+        <v>60.02</v>
+      </c>
+      <c r="E885">
+        <v>86</v>
+      </c>
+      <c r="F885">
+        <v>2460</v>
+      </c>
+      <c r="I885" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>1</v>
+      </c>
+      <c r="B886">
+        <v>12</v>
+      </c>
+      <c r="C886">
+        <v>58</v>
+      </c>
+      <c r="D886">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="E886">
+        <v>199</v>
+      </c>
+      <c r="F886">
+        <v>5740</v>
+      </c>
+      <c r="I886" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>1</v>
+      </c>
+      <c r="B887">
+        <v>12</v>
+      </c>
+      <c r="C887">
+        <v>59</v>
+      </c>
+      <c r="D887">
+        <v>68.33</v>
+      </c>
+      <c r="E887">
+        <v>178</v>
+      </c>
+      <c r="F887">
+        <v>4350</v>
+      </c>
+      <c r="I887" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>1</v>
+      </c>
+      <c r="B888">
+        <v>12</v>
+      </c>
+      <c r="C888">
+        <v>60</v>
+      </c>
+      <c r="D888">
+        <v>84.63</v>
+      </c>
+      <c r="E888">
+        <v>183</v>
+      </c>
+      <c r="F888">
+        <v>4500</v>
+      </c>
+      <c r="I888" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>1</v>
+      </c>
+      <c r="B889">
+        <v>11</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+      <c r="D889">
+        <v>8.77</v>
+      </c>
+      <c r="E889">
+        <v>10</v>
+      </c>
+      <c r="F889">
+        <v>9.5</v>
+      </c>
+      <c r="I889" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>1</v>
+      </c>
+      <c r="B890">
+        <v>11</v>
+      </c>
+      <c r="C890">
+        <v>2</v>
+      </c>
+      <c r="D890">
+        <v>11.24</v>
+      </c>
+      <c r="E890">
+        <v>12.5</v>
+      </c>
+      <c r="F890">
+        <v>21.5</v>
+      </c>
+      <c r="I890" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>1</v>
+      </c>
+      <c r="B891">
+        <v>11</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891">
+        <v>28.35</v>
+      </c>
+      <c r="E891">
+        <v>35</v>
+      </c>
+      <c r="F891">
+        <v>340</v>
+      </c>
+      <c r="I891" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>1</v>
+      </c>
+      <c r="B892">
+        <v>11</v>
+      </c>
+      <c r="C892">
+        <v>4</v>
+      </c>
+      <c r="D892">
+        <v>30.28</v>
+      </c>
+      <c r="E892">
+        <v>32</v>
+      </c>
+      <c r="F892">
+        <v>310</v>
+      </c>
+      <c r="I892" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1</v>
+      </c>
+      <c r="B893">
+        <v>11</v>
+      </c>
+      <c r="C893">
+        <v>5</v>
+      </c>
+      <c r="D893">
+        <v>11.81</v>
+      </c>
+      <c r="E893">
+        <v>13.5</v>
+      </c>
+      <c r="F893">
+        <v>40</v>
+      </c>
+      <c r="I893" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>1</v>
+      </c>
+      <c r="B894">
+        <v>11</v>
+      </c>
+      <c r="C894">
+        <v>6</v>
+      </c>
+      <c r="D894">
+        <v>11.5</v>
+      </c>
+      <c r="E894">
+        <v>14</v>
+      </c>
+      <c r="F894">
+        <v>50</v>
+      </c>
+      <c r="I894" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>1</v>
+      </c>
+      <c r="B895">
+        <v>11</v>
+      </c>
+      <c r="C895">
+        <v>7</v>
+      </c>
+      <c r="D895">
+        <v>12.55</v>
+      </c>
+      <c r="E895">
+        <v>11</v>
+      </c>
+      <c r="F895">
+        <v>14</v>
+      </c>
+      <c r="I895" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>1</v>
+      </c>
+      <c r="B896">
+        <v>11</v>
+      </c>
+      <c r="C896">
+        <v>8</v>
+      </c>
+      <c r="D896">
+        <v>12.77</v>
+      </c>
+      <c r="E896">
+        <v>13</v>
+      </c>
+      <c r="F896">
+        <v>50</v>
+      </c>
+      <c r="I896" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>1</v>
+      </c>
+      <c r="B897">
+        <v>11</v>
+      </c>
+      <c r="C897">
+        <v>9</v>
+      </c>
+      <c r="D897">
+        <v>8.23</v>
+      </c>
+      <c r="E897">
+        <v>10</v>
+      </c>
+      <c r="F897">
+        <v>8.5</v>
+      </c>
+      <c r="I897" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>1</v>
+      </c>
+      <c r="B898">
+        <v>11</v>
+      </c>
+      <c r="C898">
+        <v>10</v>
+      </c>
+      <c r="D898">
+        <v>20.72</v>
+      </c>
+      <c r="E898">
+        <v>18</v>
+      </c>
+      <c r="F898">
+        <v>100</v>
+      </c>
+      <c r="I898" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>1</v>
+      </c>
+      <c r="B899">
+        <v>11</v>
+      </c>
+      <c r="C899">
+        <v>11</v>
+      </c>
+      <c r="D899">
+        <v>24.63</v>
+      </c>
+      <c r="E899">
+        <v>23</v>
+      </c>
+      <c r="F899">
+        <v>175</v>
+      </c>
+      <c r="I899" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>1</v>
+      </c>
+      <c r="B900">
+        <v>11</v>
+      </c>
+      <c r="C900">
+        <v>12</v>
+      </c>
+      <c r="D900">
+        <v>22.62</v>
+      </c>
+      <c r="E900">
+        <v>28</v>
+      </c>
+      <c r="F900">
+        <v>190</v>
+      </c>
+      <c r="I900" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>1</v>
+      </c>
+      <c r="B901">
+        <v>11</v>
+      </c>
+      <c r="C901">
+        <v>13</v>
+      </c>
+      <c r="D901">
+        <v>13.04</v>
+      </c>
+      <c r="E901">
+        <v>14</v>
+      </c>
+      <c r="F901">
+        <v>29</v>
+      </c>
+      <c r="I901" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>1</v>
+      </c>
+      <c r="B902">
+        <v>11</v>
+      </c>
+      <c r="C902">
+        <v>14</v>
+      </c>
+      <c r="D902">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E902">
+        <v>16.5</v>
+      </c>
+      <c r="F902">
+        <v>95</v>
+      </c>
+      <c r="I902" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>1</v>
+      </c>
+      <c r="B903">
+        <v>11</v>
+      </c>
+      <c r="C903">
+        <v>15</v>
+      </c>
+      <c r="D903">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E903">
+        <v>16</v>
+      </c>
+      <c r="F903">
+        <v>70</v>
+      </c>
+      <c r="I903" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>1</v>
+      </c>
+      <c r="B904">
+        <v>11</v>
+      </c>
+      <c r="C904">
+        <v>16</v>
+      </c>
+      <c r="D904">
+        <v>24.4</v>
+      </c>
+      <c r="E904">
+        <v>21</v>
+      </c>
+      <c r="F904">
+        <v>170</v>
+      </c>
+      <c r="I904" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>1</v>
+      </c>
+      <c r="B905">
+        <v>11</v>
+      </c>
+      <c r="C905">
+        <v>17</v>
+      </c>
+      <c r="D905">
+        <v>5.16</v>
+      </c>
+      <c r="E905">
+        <v>8.5</v>
+      </c>
+      <c r="F905">
+        <v>4</v>
+      </c>
+      <c r="I905" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>1</v>
+      </c>
+      <c r="B906">
+        <v>11</v>
+      </c>
+      <c r="C906">
+        <v>18</v>
+      </c>
+      <c r="D906">
+        <v>46.6</v>
+      </c>
+      <c r="E906">
+        <v>126</v>
+      </c>
+      <c r="F906">
+        <v>3720</v>
+      </c>
+      <c r="I906" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>1</v>
+      </c>
+      <c r="B907">
+        <v>11</v>
+      </c>
+      <c r="C907">
+        <v>19</v>
+      </c>
+      <c r="D907">
+        <v>60.4</v>
+      </c>
+      <c r="E907">
+        <v>51</v>
+      </c>
+      <c r="F907">
+        <v>1380</v>
+      </c>
+      <c r="I907" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>1</v>
+      </c>
+      <c r="B908">
+        <v>11</v>
+      </c>
+      <c r="C908">
+        <v>20</v>
+      </c>
+      <c r="D908">
+        <v>43.04</v>
+      </c>
+      <c r="E908">
+        <v>57</v>
+      </c>
+      <c r="F908">
+        <v>1400</v>
+      </c>
+      <c r="I908" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>1</v>
+      </c>
+      <c r="B909">
+        <v>11</v>
+      </c>
+      <c r="C909">
+        <v>21</v>
+      </c>
+      <c r="D909">
+        <v>43.33</v>
+      </c>
+      <c r="E909">
+        <v>36</v>
+      </c>
+      <c r="F909">
+        <v>730</v>
+      </c>
+      <c r="I909" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>1</v>
+      </c>
+      <c r="B910">
+        <v>11</v>
+      </c>
+      <c r="C910">
+        <v>22</v>
+      </c>
+      <c r="D910">
+        <v>29.65</v>
+      </c>
+      <c r="E910">
+        <v>27</v>
+      </c>
+      <c r="F910">
+        <v>230</v>
+      </c>
+      <c r="I910" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>1</v>
+      </c>
+      <c r="B911">
+        <v>11</v>
+      </c>
+      <c r="C911">
+        <v>23</v>
+      </c>
+      <c r="D911">
+        <v>26.5</v>
+      </c>
+      <c r="E911">
+        <v>38</v>
+      </c>
+      <c r="F911">
+        <v>650</v>
+      </c>
+      <c r="I911" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>1</v>
+      </c>
+      <c r="B912">
+        <v>11</v>
+      </c>
+      <c r="C912">
+        <v>24</v>
+      </c>
+      <c r="D912">
+        <v>41.16</v>
+      </c>
+      <c r="E912">
+        <v>45</v>
+      </c>
+      <c r="F912">
+        <v>980</v>
+      </c>
+      <c r="I912" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>1</v>
+      </c>
+      <c r="B913">
+        <v>11</v>
+      </c>
+      <c r="C913">
+        <v>25</v>
+      </c>
+      <c r="D913">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="E913">
+        <v>35</v>
+      </c>
+      <c r="F913">
+        <v>600</v>
+      </c>
+      <c r="I913" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>1</v>
+      </c>
+      <c r="B914">
+        <v>11</v>
+      </c>
+      <c r="C914">
+        <v>26</v>
+      </c>
+      <c r="D914">
+        <v>35.61</v>
+      </c>
+      <c r="E914">
+        <v>28</v>
+      </c>
+      <c r="F914">
+        <v>350</v>
+      </c>
+      <c r="I914" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>1</v>
+      </c>
+      <c r="B915">
+        <v>11</v>
+      </c>
+      <c r="C915">
+        <v>27</v>
+      </c>
+      <c r="D915">
+        <v>6.96</v>
+      </c>
+      <c r="E915">
+        <v>9</v>
+      </c>
+      <c r="F915">
+        <v>8.5</v>
+      </c>
+      <c r="I915" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>1</v>
+      </c>
+      <c r="B916">
+        <v>11</v>
+      </c>
+      <c r="C916">
+        <v>28</v>
+      </c>
+      <c r="D916">
+        <v>29.09</v>
+      </c>
+      <c r="E916">
+        <v>32</v>
+      </c>
+      <c r="F916">
+        <v>350</v>
+      </c>
+      <c r="I916" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>1</v>
+      </c>
+      <c r="B917">
+        <v>11</v>
+      </c>
+      <c r="C917">
+        <v>29</v>
+      </c>
+      <c r="D917">
+        <v>27.56</v>
+      </c>
+      <c r="E917">
+        <v>23</v>
+      </c>
+      <c r="F917">
+        <v>200</v>
+      </c>
+      <c r="I917" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>1</v>
+      </c>
+      <c r="B918">
+        <v>11</v>
+      </c>
+      <c r="C918">
+        <v>30</v>
+      </c>
+      <c r="D918">
+        <v>21.52</v>
+      </c>
+      <c r="E918">
+        <v>19</v>
+      </c>
+      <c r="F918">
+        <v>90</v>
+      </c>
+      <c r="I918" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>1</v>
+      </c>
+      <c r="B919">
+        <v>11</v>
+      </c>
+      <c r="C919">
+        <v>31</v>
+      </c>
+      <c r="D919">
+        <v>25.7</v>
+      </c>
+      <c r="E919">
+        <v>21</v>
+      </c>
+      <c r="F919">
+        <v>220</v>
+      </c>
+      <c r="I919" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>1</v>
+      </c>
+      <c r="B920">
+        <v>11</v>
+      </c>
+      <c r="C920">
+        <v>32</v>
+      </c>
+      <c r="D920">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E920">
+        <v>24</v>
+      </c>
+      <c r="F920">
+        <v>280</v>
+      </c>
+      <c r="I920" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>1</v>
+      </c>
+      <c r="B921">
+        <v>11</v>
+      </c>
+      <c r="C921">
+        <v>33</v>
+      </c>
+      <c r="D921">
+        <v>21.57</v>
+      </c>
+      <c r="E921">
+        <v>25</v>
+      </c>
+      <c r="F921">
+        <v>300</v>
+      </c>
+      <c r="I921" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>1</v>
+      </c>
+      <c r="B922">
+        <v>11</v>
+      </c>
+      <c r="C922">
+        <v>34</v>
+      </c>
+      <c r="D922">
+        <v>27.13</v>
+      </c>
+      <c r="E922">
+        <v>26</v>
+      </c>
+      <c r="F922">
+        <v>165</v>
+      </c>
+      <c r="I922" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>1</v>
+      </c>
+      <c r="B923">
+        <v>11</v>
+      </c>
+      <c r="C923">
+        <v>35</v>
+      </c>
+      <c r="D923">
+        <v>21.32</v>
+      </c>
+      <c r="E923">
+        <v>23</v>
+      </c>
+      <c r="F923">
+        <v>130</v>
+      </c>
+      <c r="I923" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>1</v>
+      </c>
+      <c r="B924">
+        <v>11</v>
+      </c>
+      <c r="C924">
+        <v>36</v>
+      </c>
+      <c r="D924">
+        <v>27.32</v>
+      </c>
+      <c r="E924">
+        <v>33</v>
+      </c>
+      <c r="F924">
+        <v>350</v>
+      </c>
+      <c r="I924" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>1</v>
+      </c>
+      <c r="B925">
+        <v>11</v>
+      </c>
+      <c r="C925">
+        <v>37</v>
+      </c>
+      <c r="D925">
+        <v>30.54</v>
+      </c>
+      <c r="E925">
+        <v>36</v>
+      </c>
+      <c r="F925">
+        <v>400</v>
+      </c>
+      <c r="I925" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>1</v>
+      </c>
+      <c r="B926">
+        <v>11</v>
+      </c>
+      <c r="C926">
+        <v>38</v>
+      </c>
+      <c r="D926">
+        <v>9.25</v>
+      </c>
+      <c r="E926">
+        <v>10</v>
+      </c>
+      <c r="F926">
+        <v>12</v>
+      </c>
+      <c r="I926" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>1</v>
+      </c>
+      <c r="B927">
+        <v>11</v>
+      </c>
+      <c r="C927">
+        <v>39</v>
+      </c>
+      <c r="D927">
+        <v>24.2</v>
+      </c>
+      <c r="E927">
+        <v>21</v>
+      </c>
+      <c r="F927">
+        <v>150</v>
+      </c>
+      <c r="I927" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>1</v>
+      </c>
+      <c r="B928">
+        <v>11</v>
+      </c>
+      <c r="C928">
+        <v>40</v>
+      </c>
+      <c r="D928">
+        <v>27.52</v>
+      </c>
+      <c r="E928">
+        <v>24</v>
+      </c>
+      <c r="F928">
+        <v>250</v>
+      </c>
+      <c r="I928" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>1</v>
+      </c>
+      <c r="B929">
+        <v>11</v>
+      </c>
+      <c r="C929">
+        <v>41</v>
+      </c>
+      <c r="D929">
+        <v>33.32</v>
+      </c>
+      <c r="E929">
+        <v>28</v>
+      </c>
+      <c r="F929">
+        <v>350</v>
+      </c>
+      <c r="I929" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>1</v>
+      </c>
+      <c r="B930">
+        <v>11</v>
+      </c>
+      <c r="C930">
+        <v>42</v>
+      </c>
+      <c r="D930">
+        <v>49.38</v>
+      </c>
+      <c r="E930">
+        <v>77</v>
+      </c>
+      <c r="F930">
+        <v>1980</v>
+      </c>
+      <c r="I930" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>1</v>
+      </c>
+      <c r="B931">
+        <v>11</v>
+      </c>
+      <c r="C931">
+        <v>43</v>
+      </c>
+      <c r="D931">
+        <v>55.2</v>
+      </c>
+      <c r="E931">
+        <v>85</v>
+      </c>
+      <c r="F931">
+        <v>2450</v>
+      </c>
+      <c r="I931" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>1</v>
+      </c>
+      <c r="B932">
+        <v>11</v>
+      </c>
+      <c r="C932">
+        <v>44</v>
+      </c>
+      <c r="D932">
+        <v>43.55</v>
+      </c>
+      <c r="E932">
+        <v>58</v>
+      </c>
+      <c r="F932">
+        <v>1130</v>
+      </c>
+      <c r="I932" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>1</v>
+      </c>
+      <c r="B933">
+        <v>11</v>
+      </c>
+      <c r="C933">
+        <v>45</v>
+      </c>
+      <c r="D933">
+        <v>53.38</v>
+      </c>
+      <c r="E933">
+        <v>101</v>
+      </c>
+      <c r="F933">
+        <v>2470</v>
+      </c>
+      <c r="I933" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>1</v>
+      </c>
+      <c r="B934">
+        <v>11</v>
+      </c>
+      <c r="C934">
+        <v>46</v>
+      </c>
+      <c r="D934">
+        <v>16.53</v>
+      </c>
+      <c r="E934">
+        <v>16</v>
+      </c>
+      <c r="F934">
+        <v>80</v>
+      </c>
+      <c r="I934" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>1</v>
+      </c>
+      <c r="B935">
+        <v>11</v>
+      </c>
+      <c r="C935">
+        <v>47</v>
+      </c>
+      <c r="D935">
+        <v>17.73</v>
+      </c>
+      <c r="E935">
+        <v>15</v>
+      </c>
+      <c r="F935">
+        <v>40</v>
+      </c>
+      <c r="I935" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>1</v>
+      </c>
+      <c r="B936">
+        <v>11</v>
+      </c>
+      <c r="C936">
+        <v>48</v>
+      </c>
+      <c r="D936">
+        <v>17.72</v>
+      </c>
+      <c r="E936">
+        <v>14</v>
+      </c>
+      <c r="F936">
+        <v>30</v>
+      </c>
+      <c r="I936" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>1</v>
+      </c>
+      <c r="B937">
+        <v>11</v>
+      </c>
+      <c r="C937">
+        <v>49</v>
+      </c>
+      <c r="D937">
+        <v>27.14</v>
+      </c>
+      <c r="E937">
+        <v>24</v>
+      </c>
+      <c r="F937">
+        <v>230</v>
+      </c>
+      <c r="I937" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>1</v>
+      </c>
+      <c r="B938">
+        <v>11</v>
+      </c>
+      <c r="C938">
+        <v>50</v>
+      </c>
+      <c r="D938">
+        <v>13.88</v>
+      </c>
+      <c r="E938">
+        <v>13</v>
+      </c>
+      <c r="F938">
+        <v>35</v>
+      </c>
+      <c r="I938" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>1</v>
+      </c>
+      <c r="B939">
+        <v>11</v>
+      </c>
+      <c r="C939">
+        <v>51</v>
+      </c>
+      <c r="D939">
+        <v>36.19</v>
+      </c>
+      <c r="E939">
+        <v>26</v>
+      </c>
+      <c r="F939">
+        <v>340</v>
+      </c>
+      <c r="I939" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>1</v>
+      </c>
+      <c r="B940">
+        <v>11</v>
+      </c>
+      <c r="C940">
+        <v>52</v>
+      </c>
+      <c r="D940">
+        <v>15.52</v>
+      </c>
+      <c r="E940">
+        <v>15</v>
+      </c>
+      <c r="F940">
+        <v>40</v>
+      </c>
+      <c r="I940" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>1</v>
+      </c>
+      <c r="B941">
+        <v>11</v>
+      </c>
+      <c r="C941">
+        <v>53</v>
+      </c>
+      <c r="D941">
+        <v>10.91</v>
+      </c>
+      <c r="E941">
+        <v>11.5</v>
+      </c>
+      <c r="F941">
+        <v>17</v>
+      </c>
+      <c r="I941" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>1</v>
+      </c>
+      <c r="B942">
+        <v>11</v>
+      </c>
+      <c r="C942">
+        <v>54</v>
+      </c>
+      <c r="D942">
+        <v>17.41</v>
+      </c>
+      <c r="E942">
+        <v>14</v>
+      </c>
+      <c r="F942">
+        <v>30</v>
+      </c>
+      <c r="I942" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>1</v>
+      </c>
+      <c r="B943">
+        <v>11</v>
+      </c>
+      <c r="C943">
+        <v>55</v>
+      </c>
+      <c r="D943">
+        <v>26.36</v>
+      </c>
+      <c r="E943">
+        <v>20</v>
+      </c>
+      <c r="F943">
+        <v>165</v>
+      </c>
+      <c r="I943" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>1</v>
+      </c>
+      <c r="B944">
+        <v>11</v>
+      </c>
+      <c r="C944">
+        <v>56</v>
+      </c>
+      <c r="D944">
+        <v>47</v>
+      </c>
+      <c r="E944">
+        <v>53</v>
+      </c>
+      <c r="F944">
+        <v>960</v>
+      </c>
+      <c r="I944" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>1</v>
+      </c>
+      <c r="B945">
+        <v>11</v>
+      </c>
+      <c r="C945">
+        <v>57</v>
+      </c>
+      <c r="D945">
+        <v>65.28</v>
+      </c>
+      <c r="E945">
+        <v>117</v>
+      </c>
+      <c r="F945">
+        <v>3200</v>
+      </c>
+      <c r="I945" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>1</v>
+      </c>
+      <c r="B946">
+        <v>11</v>
+      </c>
+      <c r="C946">
+        <v>58</v>
+      </c>
+      <c r="D946">
+        <v>51.31</v>
+      </c>
+      <c r="E946">
+        <v>134</v>
+      </c>
+      <c r="F946">
+        <v>3560</v>
+      </c>
+      <c r="I946" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>1</v>
+      </c>
+      <c r="B947">
+        <v>11</v>
+      </c>
+      <c r="C947">
+        <v>59</v>
+      </c>
+      <c r="D947">
+        <v>46.14</v>
+      </c>
+      <c r="E947">
+        <v>59</v>
+      </c>
+      <c r="F947">
+        <v>1450</v>
+      </c>
+      <c r="I947" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>1</v>
+      </c>
+      <c r="B948">
+        <v>11</v>
+      </c>
+      <c r="C948">
+        <v>60</v>
+      </c>
+      <c r="D948">
+        <v>78.08</v>
+      </c>
+      <c r="E948">
+        <v>188</v>
+      </c>
+      <c r="F948">
+        <v>6340</v>
+      </c>
+      <c r="I948" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>1</v>
+      </c>
+      <c r="B949">
+        <v>11</v>
+      </c>
+      <c r="C949">
+        <v>61</v>
+      </c>
+      <c r="D949">
+        <v>83.81</v>
+      </c>
+      <c r="E949">
+        <v>196</v>
+      </c>
+      <c r="F949">
+        <v>6290</v>
+      </c>
+      <c r="I949" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>1</v>
+      </c>
+      <c r="B950">
+        <v>11</v>
+      </c>
+      <c r="C950">
+        <v>62</v>
+      </c>
+      <c r="D950">
+        <v>52.64</v>
+      </c>
+      <c r="E950">
+        <v>40</v>
+      </c>
+      <c r="F950">
+        <v>1170</v>
+      </c>
+      <c r="I950" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>1</v>
+      </c>
+      <c r="B951">
+        <v>11</v>
+      </c>
+      <c r="C951">
+        <v>63</v>
+      </c>
+      <c r="D951">
+        <v>1.64</v>
+      </c>
+      <c r="E951">
+        <v>3.31</v>
+      </c>
+      <c r="F951">
+        <v>0.5</v>
+      </c>
+      <c r="I951" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>1</v>
+      </c>
+      <c r="B952">
+        <v>11</v>
+      </c>
+      <c r="C952">
+        <v>64</v>
+      </c>
+      <c r="D952">
+        <v>82.18</v>
+      </c>
+      <c r="E952">
+        <v>200</v>
+      </c>
+      <c r="F952">
+        <v>7340</v>
+      </c>
+      <c r="I952" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>1</v>
+      </c>
+      <c r="B953">
+        <v>11</v>
+      </c>
+      <c r="C953">
+        <v>65</v>
+      </c>
+      <c r="D953">
+        <v>63.81</v>
+      </c>
+      <c r="E953">
+        <v>103</v>
+      </c>
+      <c r="F953">
+        <v>2780</v>
+      </c>
+      <c r="I953" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>1</v>
+      </c>
+      <c r="B954">
+        <v>11</v>
+      </c>
+      <c r="C954">
+        <v>66</v>
+      </c>
+      <c r="D954">
+        <v>55</v>
+      </c>
+      <c r="E954">
+        <v>44.61</v>
+      </c>
+      <c r="F954">
+        <v>1110</v>
+      </c>
+      <c r="I954" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>1</v>
+      </c>
+      <c r="B955">
+        <v>11</v>
+      </c>
+      <c r="C955">
+        <v>67</v>
+      </c>
+      <c r="D955">
+        <v>68.09</v>
+      </c>
+      <c r="E955">
+        <v>146</v>
+      </c>
+      <c r="F955">
+        <v>3440</v>
+      </c>
+      <c r="I955" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>1</v>
+      </c>
+      <c r="B956">
+        <v>11</v>
+      </c>
+      <c r="C956">
+        <v>68</v>
+      </c>
+      <c r="D956">
+        <v>20.84</v>
+      </c>
+      <c r="E956">
+        <v>18</v>
+      </c>
+      <c r="F956">
+        <v>100</v>
+      </c>
+      <c r="I956" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>1</v>
+      </c>
+      <c r="B957">
+        <v>11</v>
+      </c>
+      <c r="C957">
+        <v>69</v>
+      </c>
+      <c r="D957">
+        <v>55.77</v>
+      </c>
+      <c r="E957">
+        <v>73</v>
+      </c>
+      <c r="F957">
+        <v>1870</v>
+      </c>
+      <c r="I957" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>1</v>
+      </c>
+      <c r="B958">
+        <v>11</v>
+      </c>
+      <c r="C958">
+        <v>70</v>
+      </c>
+      <c r="D958">
+        <v>63.19</v>
+      </c>
+      <c r="E958">
+        <v>93</v>
+      </c>
+      <c r="F958">
+        <v>2560</v>
+      </c>
+      <c r="I958" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>1</v>
+      </c>
+      <c r="B959">
+        <v>11</v>
+      </c>
+      <c r="C959">
+        <v>71</v>
+      </c>
+      <c r="D959">
+        <v>66.64</v>
+      </c>
+      <c r="E959">
+        <v>159</v>
+      </c>
+      <c r="F959">
+        <v>4150</v>
+      </c>
+      <c r="I959" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>1</v>
+      </c>
+      <c r="B960">
+        <v>11</v>
+      </c>
+      <c r="C960">
+        <v>72</v>
+      </c>
+      <c r="D960">
+        <v>54.8</v>
+      </c>
+      <c r="E960">
+        <v>66</v>
+      </c>
+      <c r="F960">
+        <v>1320</v>
+      </c>
+      <c r="I960" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>1</v>
+      </c>
+      <c r="B961">
+        <v>11</v>
+      </c>
+      <c r="C961">
+        <v>73</v>
+      </c>
+      <c r="D961">
+        <v>42.81</v>
+      </c>
+      <c r="E961">
+        <v>123</v>
+      </c>
+      <c r="F961">
+        <v>2950</v>
+      </c>
+      <c r="I961" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>1</v>
+      </c>
+      <c r="B962">
+        <v>11</v>
+      </c>
+      <c r="C962">
+        <v>74</v>
+      </c>
+      <c r="D962">
+        <v>45.59</v>
+      </c>
+      <c r="E962">
+        <v>131</v>
+      </c>
+      <c r="F962">
+        <v>3130</v>
+      </c>
+      <c r="I962" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>1</v>
+      </c>
+      <c r="B963">
+        <v>11</v>
+      </c>
+      <c r="C963">
+        <v>75</v>
+      </c>
+      <c r="D963">
+        <v>46.28</v>
+      </c>
+      <c r="E963">
+        <v>70</v>
+      </c>
+      <c r="F963">
+        <v>1800</v>
+      </c>
+      <c r="I963" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>1</v>
+      </c>
+      <c r="B964">
+        <v>11</v>
+      </c>
+      <c r="C964">
+        <v>76</v>
+      </c>
+      <c r="D964">
+        <v>43.83</v>
+      </c>
+      <c r="E964">
+        <v>84</v>
+      </c>
+      <c r="F964">
+        <v>1310</v>
+      </c>
+      <c r="I964" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>1</v>
+      </c>
+      <c r="B965">
+        <v>11</v>
+      </c>
+      <c r="C965">
+        <v>77</v>
+      </c>
+      <c r="D965">
+        <v>45.71</v>
+      </c>
+      <c r="E965">
+        <v>112</v>
+      </c>
+      <c r="F965">
+        <v>2980</v>
+      </c>
+      <c r="I965" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>1</v>
+      </c>
+      <c r="B966">
+        <v>11</v>
+      </c>
+      <c r="C966">
+        <v>78</v>
+      </c>
+      <c r="D966">
+        <v>54.36</v>
+      </c>
+      <c r="E966">
+        <v>61</v>
+      </c>
+      <c r="F966">
+        <v>1160</v>
+      </c>
+      <c r="I966" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>1</v>
+      </c>
+      <c r="B967">
+        <v>11</v>
+      </c>
+      <c r="C967">
+        <v>79</v>
+      </c>
+      <c r="D967">
+        <v>36.22</v>
+      </c>
+      <c r="E967">
+        <v>36</v>
+      </c>
+      <c r="F967">
+        <v>540</v>
+      </c>
+      <c r="I967" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>1</v>
+      </c>
+      <c r="B968">
+        <v>11</v>
+      </c>
+      <c r="C968">
+        <v>80</v>
+      </c>
+      <c r="D968">
+        <v>45.05</v>
+      </c>
+      <c r="E968">
+        <v>129</v>
+      </c>
+      <c r="F968">
+        <v>3620</v>
+      </c>
+      <c r="I968" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>1</v>
+      </c>
+      <c r="B969">
+        <v>11</v>
+      </c>
+      <c r="C969">
+        <v>81</v>
+      </c>
+      <c r="D969">
+        <v>21.88</v>
+      </c>
+      <c r="E969">
+        <v>24</v>
+      </c>
+      <c r="F969">
+        <v>160</v>
+      </c>
+      <c r="I969" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>1</v>
+      </c>
+      <c r="B970">
+        <v>11</v>
+      </c>
+      <c r="C970">
+        <v>82</v>
+      </c>
+      <c r="D970">
+        <v>32.06</v>
+      </c>
+      <c r="E970">
+        <v>35</v>
+      </c>
+      <c r="F970">
+        <v>560</v>
+      </c>
+      <c r="I970" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>1</v>
+      </c>
+      <c r="B971">
+        <v>11</v>
+      </c>
+      <c r="C971">
+        <v>83</v>
+      </c>
+      <c r="D971">
+        <v>23.22</v>
+      </c>
+      <c r="E971">
+        <v>16</v>
+      </c>
+      <c r="F971">
+        <v>110</v>
+      </c>
+      <c r="I971" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>1</v>
+      </c>
+      <c r="B972">
+        <v>11</v>
+      </c>
+      <c r="C972">
+        <v>84</v>
+      </c>
+      <c r="D972">
+        <v>26.28</v>
+      </c>
+      <c r="E972">
+        <v>23</v>
+      </c>
+      <c r="F972">
+        <v>160</v>
+      </c>
+      <c r="I972" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:J731" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="B1:J972" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4718984-DD2F-4BCF-A140-2346E023BD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5FD17-8212-4778-931C-2162D75732FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1073</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1146</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="19">
   <si>
     <t>Parcela</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>25/9/2025</t>
+  </si>
+  <si>
+    <t>26/9/2025</t>
   </si>
 </sst>
 </file>
@@ -478,11 +481,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J1073"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1038" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1073" sqref="I1073"/>
+      <pane ySplit="1" topLeftCell="A833" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G833" sqref="G833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -542,7 +546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -565,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -588,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -611,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -634,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -657,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -680,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -703,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -726,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -749,7 +753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -772,7 +776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -795,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -818,7 +822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -841,7 +845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -864,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -887,7 +891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -910,7 +914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -933,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -956,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -979,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1948,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2093,7 +2097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2162,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2282,7 +2286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2374,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2397,7 +2401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2466,7 +2470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2512,7 +2516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2581,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2604,7 +2608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3140,7 +3144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3193,7 +3197,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3223,7 +3227,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3412,7 +3416,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3511,7 +3515,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3603,7 +3607,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3764,7 +3768,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3879,7 +3883,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -3994,7 +3998,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4017,7 +4021,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4086,7 +4090,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4162,7 +4166,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4261,7 +4265,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -4422,7 +4426,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -4537,7 +4541,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -4606,7 +4610,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -4767,7 +4771,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -4905,7 +4909,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -4974,7 +4978,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -4997,7 +5001,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -5020,7 +5024,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5089,7 +5093,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -5181,7 +5185,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -5250,7 +5254,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -5434,7 +5438,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -5503,7 +5507,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5549,7 +5553,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -5641,7 +5645,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>3</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>3</v>
       </c>
@@ -5756,7 +5760,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>3</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>3</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>3</v>
       </c>
@@ -5871,7 +5875,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>3</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>3</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3</v>
       </c>
@@ -6055,7 +6059,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>3</v>
       </c>
@@ -6078,7 +6082,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>3</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -6170,7 +6174,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -6262,7 +6266,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6331,7 +6335,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3</v>
       </c>
@@ -6354,7 +6358,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3</v>
       </c>
@@ -6377,7 +6381,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>3</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3</v>
       </c>
@@ -6474,7 +6478,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>3</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>3</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3</v>
       </c>
@@ -6589,7 +6593,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -6658,7 +6662,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>3</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -6727,7 +6731,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>3</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -6796,7 +6800,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3</v>
       </c>
@@ -6819,7 +6823,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>3</v>
       </c>
@@ -6842,7 +6846,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>3</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>3</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -6948,7 +6952,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3</v>
       </c>
@@ -6971,7 +6975,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3</v>
       </c>
@@ -6994,7 +6998,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3</v>
       </c>
@@ -7063,7 +7067,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3</v>
       </c>
@@ -7086,7 +7090,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>3</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3</v>
       </c>
@@ -7316,7 +7320,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -7339,7 +7343,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>3</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>3</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>3</v>
       </c>
@@ -7477,7 +7481,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3</v>
       </c>
@@ -7500,7 +7504,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -7523,7 +7527,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3</v>
       </c>
@@ -7592,7 +7596,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3</v>
       </c>
@@ -7615,7 +7619,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -7638,7 +7642,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3</v>
       </c>
@@ -7661,7 +7665,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3</v>
       </c>
@@ -7684,7 +7688,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3</v>
       </c>
@@ -7707,7 +7711,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -7799,7 +7803,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3</v>
       </c>
@@ -7822,7 +7826,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3</v>
       </c>
@@ -7845,7 +7849,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -7937,7 +7941,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3</v>
       </c>
@@ -8006,7 +8010,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3</v>
       </c>
@@ -8052,7 +8056,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8121,7 +8125,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3</v>
       </c>
@@ -8167,7 +8171,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3</v>
       </c>
@@ -8259,7 +8263,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3</v>
       </c>
@@ -8282,7 +8286,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3</v>
       </c>
@@ -8305,7 +8309,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3</v>
       </c>
@@ -8374,7 +8378,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8443,7 +8447,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3</v>
       </c>
@@ -8627,7 +8631,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>3</v>
       </c>
@@ -8742,7 +8746,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3</v>
       </c>
@@ -8811,7 +8815,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3</v>
       </c>
@@ -8834,7 +8838,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3</v>
       </c>
@@ -8857,7 +8861,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3</v>
       </c>
@@ -8926,7 +8930,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>3</v>
       </c>
@@ -8972,7 +8976,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>3</v>
       </c>
@@ -9018,7 +9022,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>3</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3</v>
       </c>
@@ -9087,7 +9091,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>3</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3</v>
       </c>
@@ -9225,7 +9229,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3</v>
       </c>
@@ -9294,7 +9298,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3</v>
       </c>
@@ -9317,7 +9321,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3</v>
       </c>
@@ -9409,7 +9413,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>3</v>
       </c>
@@ -9455,7 +9459,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3</v>
       </c>
@@ -9501,7 +9505,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3</v>
       </c>
@@ -9524,7 +9528,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>3</v>
       </c>
@@ -9593,7 +9597,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -9616,7 +9620,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3</v>
       </c>
@@ -9639,7 +9643,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>3</v>
       </c>
@@ -9662,7 +9666,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>3</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>3</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>3</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>3</v>
       </c>
@@ -9777,7 +9781,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>3</v>
       </c>
@@ -9803,7 +9807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3</v>
       </c>
@@ -9855,7 +9859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>3</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>3</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>3</v>
       </c>
@@ -9933,7 +9937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>3</v>
       </c>
@@ -9959,7 +9963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>3</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3</v>
       </c>
@@ -10037,7 +10041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3</v>
       </c>
@@ -10063,7 +10067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3</v>
       </c>
@@ -10115,7 +10119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>3</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>3</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>3</v>
       </c>
@@ -10207,7 +10211,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>3</v>
       </c>
@@ -10230,7 +10234,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>3</v>
       </c>
@@ -10253,7 +10257,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>3</v>
       </c>
@@ -10276,7 +10280,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3</v>
       </c>
@@ -10299,7 +10303,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>3</v>
       </c>
@@ -10345,7 +10349,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3</v>
       </c>
@@ -10368,7 +10372,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>3</v>
       </c>
@@ -10391,7 +10395,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3</v>
       </c>
@@ -10414,7 +10418,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>3</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3</v>
       </c>
@@ -10460,7 +10464,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>3</v>
       </c>
@@ -10506,7 +10510,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3</v>
       </c>
@@ -10529,7 +10533,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>3</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>3</v>
       </c>
@@ -10575,7 +10579,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>3</v>
       </c>
@@ -10598,7 +10602,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>3</v>
       </c>
@@ -10621,7 +10625,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>3</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>3</v>
       </c>
@@ -10667,7 +10671,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>3</v>
       </c>
@@ -10713,7 +10717,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>3</v>
       </c>
@@ -10736,7 +10740,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>3</v>
       </c>
@@ -10759,7 +10763,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>3</v>
       </c>
@@ -10782,7 +10786,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>3</v>
       </c>
@@ -10805,7 +10809,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>3</v>
       </c>
@@ -10828,7 +10832,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>3</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>3</v>
       </c>
@@ -10874,7 +10878,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>3</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>3</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>3</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>3</v>
       </c>
@@ -10966,7 +10970,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>3</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>3</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>3</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>3</v>
       </c>
@@ -11081,7 +11085,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>3</v>
       </c>
@@ -11104,7 +11108,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>3</v>
       </c>
@@ -11127,7 +11131,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>3</v>
       </c>
@@ -11150,7 +11154,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>3</v>
       </c>
@@ -11173,7 +11177,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -11196,7 +11200,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>3</v>
       </c>
@@ -11219,7 +11223,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3</v>
       </c>
@@ -11242,7 +11246,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>3</v>
       </c>
@@ -11288,7 +11292,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -11311,7 +11315,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>3</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>3</v>
       </c>
@@ -11357,7 +11361,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>3</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>3</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>3</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>3</v>
       </c>
@@ -11472,7 +11476,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>3</v>
       </c>
@@ -11495,7 +11499,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -11518,7 +11522,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>3</v>
       </c>
@@ -11541,7 +11545,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>3</v>
       </c>
@@ -11564,7 +11568,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>3</v>
       </c>
@@ -11587,7 +11591,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>3</v>
       </c>
@@ -11610,7 +11614,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>3</v>
       </c>
@@ -11633,7 +11637,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>3</v>
       </c>
@@ -11656,7 +11660,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>3</v>
       </c>
@@ -11679,7 +11683,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>3</v>
       </c>
@@ -11702,7 +11706,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>3</v>
       </c>
@@ -11725,7 +11729,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>3</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>3</v>
       </c>
@@ -11771,7 +11775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>3</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>3</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>3</v>
       </c>
@@ -11847,7 +11851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>3</v>
       </c>
@@ -11861,7 +11865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -11891,7 +11895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3</v>
       </c>
@@ -11914,7 +11918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3</v>
       </c>
@@ -11937,7 +11941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>3</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>3</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>3</v>
       </c>
@@ -12006,7 +12010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>3</v>
       </c>
@@ -12029,7 +12033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3</v>
       </c>
@@ -12052,7 +12056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>3</v>
       </c>
@@ -12075,7 +12079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3</v>
       </c>
@@ -12098,7 +12102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3</v>
       </c>
@@ -12121,7 +12125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>3</v>
       </c>
@@ -12174,7 +12178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>3</v>
       </c>
@@ -12197,7 +12201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>3</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>3</v>
       </c>
@@ -12243,7 +12247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>3</v>
       </c>
@@ -12266,7 +12270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>3</v>
       </c>
@@ -12289,7 +12293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>3</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>3</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>3</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>3</v>
       </c>
@@ -12381,7 +12385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3</v>
       </c>
@@ -12404,7 +12408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>3</v>
       </c>
@@ -12427,7 +12431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>3</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>3</v>
       </c>
@@ -12473,7 +12477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>3</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>3</v>
       </c>
@@ -12549,7 +12553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>3</v>
       </c>
@@ -12572,7 +12576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>3</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>3</v>
       </c>
@@ -12621,7 +12625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>3</v>
       </c>
@@ -12641,7 +12645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -12664,7 +12668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>3</v>
       </c>
@@ -12687,7 +12691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>3</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>3</v>
       </c>
@@ -12733,7 +12737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>3</v>
       </c>
@@ -12763,7 +12767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>3</v>
       </c>
@@ -12786,7 +12790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>3</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>3</v>
       </c>
@@ -12832,7 +12836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3</v>
       </c>
@@ -12862,7 +12866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>3</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>3</v>
       </c>
@@ -12908,7 +12912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>3</v>
       </c>
@@ -12931,7 +12935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>3</v>
       </c>
@@ -12954,7 +12958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3</v>
       </c>
@@ -12977,7 +12981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3</v>
       </c>
@@ -13000,7 +13004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>3</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>3</v>
       </c>
@@ -13046,7 +13050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>3</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>3</v>
       </c>
@@ -13092,7 +13096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>3</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>3</v>
       </c>
@@ -13138,7 +13142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>3</v>
       </c>
@@ -13161,7 +13165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>3</v>
       </c>
@@ -13184,7 +13188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>3</v>
       </c>
@@ -13207,7 +13211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>3</v>
       </c>
@@ -13230,7 +13234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>3</v>
       </c>
@@ -13253,7 +13257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>3</v>
       </c>
@@ -13276,7 +13280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>3</v>
       </c>
@@ -13299,7 +13303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>3</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>3</v>
       </c>
@@ -13345,7 +13349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>3</v>
       </c>
@@ -13368,7 +13372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>3</v>
       </c>
@@ -13391,7 +13395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3</v>
       </c>
@@ -13414,7 +13418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>3</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>3</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>3</v>
       </c>
@@ -13483,7 +13487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3</v>
       </c>
@@ -13506,7 +13510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3</v>
       </c>
@@ -13529,7 +13533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>3</v>
       </c>
@@ -13552,7 +13556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>3</v>
       </c>
@@ -13575,7 +13579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>3</v>
       </c>
@@ -13598,7 +13602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3</v>
       </c>
@@ -13621,7 +13625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>3</v>
       </c>
@@ -13644,7 +13648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>3</v>
       </c>
@@ -13667,7 +13671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>3</v>
       </c>
@@ -13690,7 +13694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>3</v>
       </c>
@@ -13713,7 +13717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3</v>
       </c>
@@ -13736,7 +13740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>3</v>
       </c>
@@ -13759,7 +13763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>3</v>
       </c>
@@ -13782,7 +13786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>3</v>
       </c>
@@ -13805,7 +13809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>3</v>
       </c>
@@ -13828,7 +13832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>3</v>
       </c>
@@ -13851,7 +13855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>3</v>
       </c>
@@ -13874,7 +13878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>3</v>
       </c>
@@ -13897,7 +13901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>3</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>3</v>
       </c>
@@ -13943,7 +13947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>3</v>
       </c>
@@ -13966,7 +13970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>3</v>
       </c>
@@ -13989,7 +13993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>3</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>3</v>
       </c>
@@ -14035,7 +14039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>3</v>
       </c>
@@ -14058,7 +14062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>3</v>
       </c>
@@ -14081,7 +14085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>3</v>
       </c>
@@ -14104,7 +14108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>3</v>
       </c>
@@ -14127,7 +14131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3</v>
       </c>
@@ -14150,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>3</v>
       </c>
@@ -14173,7 +14177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -14196,7 +14200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>3</v>
       </c>
@@ -14219,7 +14223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -14242,7 +14246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>3</v>
       </c>
@@ -14265,7 +14269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>3</v>
       </c>
@@ -14288,7 +14292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3</v>
       </c>
@@ -14311,7 +14315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>3</v>
       </c>
@@ -14334,7 +14338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -14357,7 +14361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>3</v>
       </c>
@@ -14380,7 +14384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -14403,7 +14407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -14426,7 +14430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -14449,7 +14453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>3</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>3</v>
       </c>
@@ -14495,7 +14499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>3</v>
       </c>
@@ -14518,7 +14522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -14541,7 +14545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>3</v>
       </c>
@@ -14564,7 +14568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -14587,7 +14591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>3</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>3</v>
       </c>
@@ -14633,7 +14637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>3</v>
       </c>
@@ -14656,7 +14660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>3</v>
       </c>
@@ -14679,7 +14683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>3</v>
       </c>
@@ -14702,7 +14706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>3</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>3</v>
       </c>
@@ -14748,7 +14752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>3</v>
       </c>
@@ -14771,7 +14775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>3</v>
       </c>
@@ -14794,7 +14798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>3</v>
       </c>
@@ -14817,7 +14821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>3</v>
       </c>
@@ -14840,7 +14844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>3</v>
       </c>
@@ -14863,7 +14867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>3</v>
       </c>
@@ -14886,7 +14890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>3</v>
       </c>
@@ -14909,7 +14913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>3</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>3</v>
       </c>
@@ -14955,7 +14959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>3</v>
       </c>
@@ -14978,7 +14982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>3</v>
       </c>
@@ -15001,7 +15005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>3</v>
       </c>
@@ -15024,7 +15028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>3</v>
       </c>
@@ -15047,7 +15051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>3</v>
       </c>
@@ -15070,7 +15074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3</v>
       </c>
@@ -15093,7 +15097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>3</v>
       </c>
@@ -15116,7 +15120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>3</v>
       </c>
@@ -15139,7 +15143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>3</v>
       </c>
@@ -15162,7 +15166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>3</v>
       </c>
@@ -15185,7 +15189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3</v>
       </c>
@@ -15208,7 +15212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>3</v>
       </c>
@@ -15238,7 +15242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>3</v>
       </c>
@@ -15268,7 +15272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3</v>
       </c>
@@ -15291,7 +15295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>3</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>3</v>
       </c>
@@ -15337,7 +15341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>3</v>
       </c>
@@ -15360,7 +15364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>3</v>
       </c>
@@ -15383,7 +15387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>3</v>
       </c>
@@ -15406,7 +15410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>3</v>
       </c>
@@ -15429,7 +15433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>3</v>
       </c>
@@ -15452,7 +15456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>3</v>
       </c>
@@ -15475,7 +15479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>3</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>3</v>
       </c>
@@ -15521,7 +15525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>3</v>
       </c>
@@ -15544,7 +15548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>3</v>
       </c>
@@ -15567,7 +15571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>3</v>
       </c>
@@ -15590,7 +15594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>3</v>
       </c>
@@ -15613,7 +15617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>3</v>
       </c>
@@ -15659,7 +15663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>3</v>
       </c>
@@ -15682,7 +15686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>3</v>
       </c>
@@ -15705,7 +15709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>3</v>
       </c>
@@ -15728,7 +15732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>3</v>
       </c>
@@ -15751,7 +15755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>3</v>
       </c>
@@ -15774,7 +15778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>3</v>
       </c>
@@ -15797,7 +15801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>3</v>
       </c>
@@ -15820,7 +15824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>3</v>
       </c>
@@ -15843,7 +15847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>3</v>
       </c>
@@ -15866,7 +15870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>3</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>3</v>
       </c>
@@ -15912,7 +15916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>3</v>
       </c>
@@ -15935,7 +15939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>3</v>
       </c>
@@ -15958,7 +15962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>3</v>
       </c>
@@ -15981,7 +15985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>3</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>3</v>
       </c>
@@ -16027,7 +16031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>3</v>
       </c>
@@ -16050,7 +16054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>3</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>3</v>
       </c>
@@ -16096,7 +16100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>3</v>
       </c>
@@ -16119,7 +16123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>3</v>
       </c>
@@ -16142,7 +16146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>3</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>3</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>3</v>
       </c>
@@ -16211,7 +16215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>3</v>
       </c>
@@ -16234,7 +16238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>3</v>
       </c>
@@ -16257,7 +16261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>3</v>
       </c>
@@ -16280,7 +16284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>3</v>
       </c>
@@ -16303,7 +16307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>3</v>
       </c>
@@ -16326,7 +16330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>3</v>
       </c>
@@ -16349,7 +16353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>3</v>
       </c>
@@ -16372,7 +16376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>3</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>3</v>
       </c>
@@ -16418,7 +16422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>3</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>3</v>
       </c>
@@ -16464,7 +16468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>3</v>
       </c>
@@ -16487,7 +16491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>3</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>3</v>
       </c>
@@ -16533,7 +16537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>3</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>3</v>
       </c>
@@ -16579,7 +16583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>3</v>
       </c>
@@ -16602,7 +16606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>3</v>
       </c>
@@ -16625,7 +16629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>3</v>
       </c>
@@ -16648,7 +16652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>3</v>
       </c>
@@ -16671,7 +16675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>3</v>
       </c>
@@ -16694,7 +16698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>3</v>
       </c>
@@ -16717,7 +16721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>3</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>3</v>
       </c>
@@ -16763,7 +16767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>3</v>
       </c>
@@ -16786,7 +16790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>3</v>
       </c>
@@ -16809,7 +16813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>3</v>
       </c>
@@ -16832,7 +16836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>3</v>
       </c>
@@ -16855,7 +16859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>3</v>
       </c>
@@ -16878,7 +16882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>3</v>
       </c>
@@ -16901,7 +16905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>3</v>
       </c>
@@ -16924,7 +16928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>3</v>
       </c>
@@ -16947,7 +16951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>3</v>
       </c>
@@ -16970,7 +16974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>3</v>
       </c>
@@ -16993,7 +16997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>3</v>
       </c>
@@ -17016,7 +17020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>3</v>
       </c>
@@ -17039,7 +17043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>3</v>
       </c>
@@ -17062,7 +17066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>3</v>
       </c>
@@ -17085,7 +17089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>3</v>
       </c>
@@ -17108,7 +17112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>3</v>
       </c>
@@ -17131,7 +17135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>3</v>
       </c>
@@ -17154,7 +17158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>3</v>
       </c>
@@ -17177,7 +17181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>3</v>
       </c>
@@ -17200,7 +17204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>3</v>
       </c>
@@ -17223,7 +17227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>3</v>
       </c>
@@ -17246,7 +17250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>3</v>
       </c>
@@ -17269,7 +17273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>3</v>
       </c>
@@ -17292,7 +17296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>3</v>
       </c>
@@ -17315,7 +17319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>3</v>
       </c>
@@ -17338,7 +17342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>3</v>
       </c>
@@ -17361,7 +17365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>3</v>
       </c>
@@ -17384,7 +17388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>3</v>
       </c>
@@ -17407,7 +17411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>3</v>
       </c>
@@ -17430,7 +17434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>3</v>
       </c>
@@ -17453,7 +17457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>3</v>
       </c>
@@ -17476,7 +17480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>3</v>
       </c>
@@ -17499,7 +17503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>3</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>3</v>
       </c>
@@ -17545,7 +17549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>3</v>
       </c>
@@ -17568,7 +17572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>3</v>
       </c>
@@ -17591,7 +17595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>3</v>
       </c>
@@ -17614,7 +17618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>3</v>
       </c>
@@ -17637,7 +17641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>3</v>
       </c>
@@ -17660,7 +17664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>3</v>
       </c>
@@ -17683,7 +17687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>3</v>
       </c>
@@ -17706,7 +17710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>3</v>
       </c>
@@ -17729,7 +17733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>3</v>
       </c>
@@ -17752,7 +17756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>3</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>3</v>
       </c>
@@ -17798,7 +17802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>3</v>
       </c>
@@ -17821,7 +17825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>3</v>
       </c>
@@ -17844,7 +17848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>3</v>
       </c>
@@ -17867,7 +17871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>3</v>
       </c>
@@ -17890,7 +17894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>3</v>
       </c>
@@ -17913,7 +17917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>3</v>
       </c>
@@ -17936,7 +17940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>3</v>
       </c>
@@ -17959,7 +17963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>3</v>
       </c>
@@ -17982,7 +17986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>3</v>
       </c>
@@ -18005,7 +18009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>3</v>
       </c>
@@ -18028,7 +18032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>3</v>
       </c>
@@ -18051,7 +18055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>3</v>
       </c>
@@ -18074,7 +18078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>3</v>
       </c>
@@ -18097,7 +18101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>3</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>3</v>
       </c>
@@ -18143,7 +18147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>3</v>
       </c>
@@ -18166,7 +18170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>3</v>
       </c>
@@ -18189,7 +18193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>3</v>
       </c>
@@ -18212,7 +18216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>3</v>
       </c>
@@ -18235,7 +18239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>3</v>
       </c>
@@ -18258,7 +18262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>3</v>
       </c>
@@ -18281,7 +18285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>3</v>
       </c>
@@ -18304,7 +18308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>3</v>
       </c>
@@ -18327,7 +18331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>3</v>
       </c>
@@ -18350,7 +18354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>3</v>
       </c>
@@ -18373,7 +18377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>3</v>
       </c>
@@ -18396,7 +18400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>3</v>
       </c>
@@ -18419,7 +18423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>3</v>
       </c>
@@ -18442,7 +18446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>3</v>
       </c>
@@ -18465,7 +18469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>3</v>
       </c>
@@ -18488,7 +18492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>3</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>3</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>3</v>
       </c>
@@ -18557,7 +18561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>3</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>3</v>
       </c>
@@ -18603,7 +18607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>3</v>
       </c>
@@ -18626,7 +18630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>3</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>3</v>
       </c>
@@ -18672,7 +18676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>3</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>3</v>
       </c>
@@ -18718,7 +18722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>3</v>
       </c>
@@ -18741,7 +18745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>3</v>
       </c>
@@ -18764,7 +18768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>3</v>
       </c>
@@ -18787,7 +18791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>3</v>
       </c>
@@ -18810,7 +18814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>3</v>
       </c>
@@ -18833,7 +18837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>3</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>3</v>
       </c>
@@ -18879,7 +18883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>3</v>
       </c>
@@ -18902,7 +18906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>3</v>
       </c>
@@ -18925,7 +18929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>3</v>
       </c>
@@ -18948,7 +18952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>3</v>
       </c>
@@ -18971,7 +18975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>3</v>
       </c>
@@ -18994,7 +18998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>3</v>
       </c>
@@ -19017,7 +19021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>3</v>
       </c>
@@ -19040,7 +19044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>3</v>
       </c>
@@ -19063,7 +19067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>3</v>
       </c>
@@ -19086,7 +19090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>3</v>
       </c>
@@ -19109,7 +19113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>3</v>
       </c>
@@ -19132,7 +19136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>3</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>3</v>
       </c>
@@ -19178,7 +19182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>3</v>
       </c>
@@ -19201,7 +19205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>3</v>
       </c>
@@ -19224,7 +19228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>3</v>
       </c>
@@ -19247,7 +19251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>3</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>3</v>
       </c>
@@ -19293,7 +19297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>3</v>
       </c>
@@ -19316,7 +19320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>3</v>
       </c>
@@ -19339,7 +19343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>3</v>
       </c>
@@ -19362,7 +19366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>3</v>
       </c>
@@ -19385,7 +19389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>3</v>
       </c>
@@ -19408,7 +19412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>3</v>
       </c>
@@ -19431,7 +19435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>3</v>
       </c>
@@ -19454,7 +19458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>3</v>
       </c>
@@ -19477,7 +19481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>3</v>
       </c>
@@ -19500,7 +19504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>3</v>
       </c>
@@ -19523,7 +19527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>3</v>
       </c>
@@ -19546,7 +19550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>3</v>
       </c>
@@ -19569,7 +19573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>3</v>
       </c>
@@ -19592,7 +19596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>3</v>
       </c>
@@ -19615,7 +19619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>3</v>
       </c>
@@ -19638,7 +19642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>3</v>
       </c>
@@ -19661,7 +19665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>3</v>
       </c>
@@ -19684,7 +19688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>3</v>
       </c>
@@ -19707,7 +19711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>3</v>
       </c>
@@ -19730,7 +19734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>3</v>
       </c>
@@ -19864,6 +19868,13 @@
       <c r="F833">
         <v>12</v>
       </c>
+      <c r="G833">
+        <v>4.83</v>
+      </c>
+      <c r="H833">
+        <f>(G833*100/F833)/100</f>
+        <v>0.40250000000000002</v>
+      </c>
       <c r="I833" t="s">
         <v>16</v>
       </c>
@@ -19887,6 +19898,13 @@
       <c r="F834">
         <v>20</v>
       </c>
+      <c r="G834">
+        <v>6.05</v>
+      </c>
+      <c r="H834">
+        <f t="shared" ref="H834" si="3">(G834*100/F834)/100</f>
+        <v>0.30249999999999999</v>
+      </c>
       <c r="I834" t="s">
         <v>16</v>
       </c>
@@ -19979,6 +19997,13 @@
       <c r="F838">
         <v>50</v>
       </c>
+      <c r="G838">
+        <v>11.28</v>
+      </c>
+      <c r="H838">
+        <f t="shared" ref="H838" si="4">(G838*100/F838)/100</f>
+        <v>0.22559999999999999</v>
+      </c>
       <c r="I838" t="s">
         <v>16</v>
       </c>
@@ -20186,6 +20211,13 @@
       <c r="F847">
         <v>180</v>
       </c>
+      <c r="G847">
+        <v>49</v>
+      </c>
+      <c r="H847">
+        <f t="shared" ref="H847" si="5">(G847*100/F847)/100</f>
+        <v>0.2722222222222222</v>
+      </c>
       <c r="I847" t="s">
         <v>16</v>
       </c>
@@ -20255,6 +20287,13 @@
       <c r="F850">
         <v>65</v>
       </c>
+      <c r="G850">
+        <v>14.82</v>
+      </c>
+      <c r="H850">
+        <f t="shared" ref="H850" si="6">(G850*100/F850)/100</f>
+        <v>0.22800000000000001</v>
+      </c>
       <c r="I850" t="s">
         <v>16</v>
       </c>
@@ -25388,8 +25427,1693 @@
         <v>17</v>
       </c>
     </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1074">
+        <v>1</v>
+      </c>
+      <c r="B1074">
+        <v>13</v>
+      </c>
+      <c r="C1074">
+        <v>61</v>
+      </c>
+      <c r="D1074">
+        <v>15.8</v>
+      </c>
+      <c r="E1074">
+        <v>12</v>
+      </c>
+      <c r="F1074">
+        <v>18.8</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1075">
+        <v>1</v>
+      </c>
+      <c r="B1075">
+        <v>13</v>
+      </c>
+      <c r="C1075">
+        <v>62</v>
+      </c>
+      <c r="D1075">
+        <v>9.61</v>
+      </c>
+      <c r="E1075">
+        <v>8.5</v>
+      </c>
+      <c r="F1075">
+        <v>11</v>
+      </c>
+      <c r="I1075" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>1</v>
+      </c>
+      <c r="B1076">
+        <v>14</v>
+      </c>
+      <c r="C1076">
+        <v>41</v>
+      </c>
+      <c r="D1076">
+        <v>25.9</v>
+      </c>
+      <c r="E1076">
+        <v>23</v>
+      </c>
+      <c r="F1076">
+        <v>140</v>
+      </c>
+      <c r="I1076" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>1</v>
+      </c>
+      <c r="B1077">
+        <v>14</v>
+      </c>
+      <c r="C1077">
+        <v>42</v>
+      </c>
+      <c r="D1077">
+        <v>53.7</v>
+      </c>
+      <c r="E1077">
+        <v>61</v>
+      </c>
+      <c r="F1077">
+        <v>1320</v>
+      </c>
+      <c r="I1077" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>1</v>
+      </c>
+      <c r="B1078">
+        <v>14</v>
+      </c>
+      <c r="C1078">
+        <v>43</v>
+      </c>
+      <c r="D1078">
+        <v>40.03</v>
+      </c>
+      <c r="E1078">
+        <v>41</v>
+      </c>
+      <c r="F1078">
+        <v>670</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>1</v>
+      </c>
+      <c r="B1079">
+        <v>14</v>
+      </c>
+      <c r="C1079">
+        <v>44</v>
+      </c>
+      <c r="D1079">
+        <v>56.37</v>
+      </c>
+      <c r="E1079">
+        <v>55</v>
+      </c>
+      <c r="F1079">
+        <v>1690</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>1</v>
+      </c>
+      <c r="B1080">
+        <v>14</v>
+      </c>
+      <c r="C1080">
+        <v>45</v>
+      </c>
+      <c r="D1080">
+        <v>24.94</v>
+      </c>
+      <c r="E1080">
+        <v>30</v>
+      </c>
+      <c r="F1080">
+        <v>150</v>
+      </c>
+      <c r="I1080" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>1</v>
+      </c>
+      <c r="B1081">
+        <v>14</v>
+      </c>
+      <c r="C1081">
+        <v>46</v>
+      </c>
+      <c r="D1081">
+        <v>45.9</v>
+      </c>
+      <c r="E1081">
+        <v>40</v>
+      </c>
+      <c r="F1081">
+        <v>880</v>
+      </c>
+      <c r="I1081" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>1</v>
+      </c>
+      <c r="B1082">
+        <v>14</v>
+      </c>
+      <c r="C1082">
+        <v>47</v>
+      </c>
+      <c r="D1082">
+        <v>50.17</v>
+      </c>
+      <c r="E1082">
+        <v>48</v>
+      </c>
+      <c r="F1082">
+        <v>690</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>1</v>
+      </c>
+      <c r="B1083">
+        <v>14</v>
+      </c>
+      <c r="C1083">
+        <v>48</v>
+      </c>
+      <c r="D1083">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="E1083">
+        <v>113</v>
+      </c>
+      <c r="F1083">
+        <v>2650</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1</v>
+      </c>
+      <c r="B1084">
+        <v>14</v>
+      </c>
+      <c r="C1084">
+        <v>49</v>
+      </c>
+      <c r="D1084">
+        <v>60.9</v>
+      </c>
+      <c r="E1084">
+        <v>85</v>
+      </c>
+      <c r="F1084">
+        <v>2260</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>1</v>
+      </c>
+      <c r="B1085">
+        <v>14</v>
+      </c>
+      <c r="C1085">
+        <v>50</v>
+      </c>
+      <c r="D1085">
+        <v>56.87</v>
+      </c>
+      <c r="E1085">
+        <v>112</v>
+      </c>
+      <c r="F1085">
+        <v>2840</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>1</v>
+      </c>
+      <c r="B1086">
+        <v>14</v>
+      </c>
+      <c r="C1086">
+        <v>51</v>
+      </c>
+      <c r="D1086">
+        <v>44.6</v>
+      </c>
+      <c r="E1086">
+        <v>51</v>
+      </c>
+      <c r="F1086">
+        <v>870</v>
+      </c>
+      <c r="I1086" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>1</v>
+      </c>
+      <c r="B1087">
+        <v>14</v>
+      </c>
+      <c r="C1087">
+        <v>52</v>
+      </c>
+      <c r="D1087">
+        <v>58.28</v>
+      </c>
+      <c r="E1087">
+        <v>69</v>
+      </c>
+      <c r="F1087">
+        <v>2110</v>
+      </c>
+      <c r="I1087" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1</v>
+      </c>
+      <c r="B1088">
+        <v>14</v>
+      </c>
+      <c r="C1088">
+        <v>53</v>
+      </c>
+      <c r="D1088">
+        <v>31.98</v>
+      </c>
+      <c r="E1088">
+        <v>28</v>
+      </c>
+      <c r="F1088">
+        <v>210</v>
+      </c>
+      <c r="I1088" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>1</v>
+      </c>
+      <c r="B1089">
+        <v>14</v>
+      </c>
+      <c r="C1089">
+        <v>54</v>
+      </c>
+      <c r="D1089">
+        <v>49.12</v>
+      </c>
+      <c r="E1089">
+        <v>50</v>
+      </c>
+      <c r="F1089">
+        <v>960</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>1</v>
+      </c>
+      <c r="B1090">
+        <v>14</v>
+      </c>
+      <c r="C1090">
+        <v>55</v>
+      </c>
+      <c r="D1090">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E1090">
+        <v>38</v>
+      </c>
+      <c r="F1090">
+        <v>480</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>1</v>
+      </c>
+      <c r="B1091">
+        <v>14</v>
+      </c>
+      <c r="C1091">
+        <v>56</v>
+      </c>
+      <c r="D1091">
+        <v>50.02</v>
+      </c>
+      <c r="E1091">
+        <v>55</v>
+      </c>
+      <c r="F1091">
+        <v>970</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1092">
+        <v>1</v>
+      </c>
+      <c r="B1092">
+        <v>14</v>
+      </c>
+      <c r="C1092">
+        <v>57</v>
+      </c>
+      <c r="D1092">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E1092">
+        <v>40</v>
+      </c>
+      <c r="F1092">
+        <v>710</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1093">
+        <v>1</v>
+      </c>
+      <c r="B1093">
+        <v>14</v>
+      </c>
+      <c r="C1093">
+        <v>58</v>
+      </c>
+      <c r="D1093">
+        <v>39.21</v>
+      </c>
+      <c r="E1093">
+        <v>39</v>
+      </c>
+      <c r="F1093">
+        <v>710</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1094">
+        <v>1</v>
+      </c>
+      <c r="B1094">
+        <v>14</v>
+      </c>
+      <c r="C1094">
+        <v>59</v>
+      </c>
+      <c r="D1094">
+        <v>41.2</v>
+      </c>
+      <c r="E1094">
+        <v>35</v>
+      </c>
+      <c r="F1094">
+        <v>610</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1095">
+        <v>1</v>
+      </c>
+      <c r="B1095">
+        <v>14</v>
+      </c>
+      <c r="C1095">
+        <v>60</v>
+      </c>
+      <c r="D1095">
+        <v>46.56</v>
+      </c>
+      <c r="E1095">
+        <v>54</v>
+      </c>
+      <c r="F1095">
+        <v>1140</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1096">
+        <v>1</v>
+      </c>
+      <c r="B1096">
+        <v>14</v>
+      </c>
+      <c r="C1096">
+        <v>61</v>
+      </c>
+      <c r="D1096">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="E1096">
+        <v>126</v>
+      </c>
+      <c r="F1096">
+        <v>3560</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1097">
+        <v>1</v>
+      </c>
+      <c r="B1097">
+        <v>14</v>
+      </c>
+      <c r="C1097">
+        <v>62</v>
+      </c>
+      <c r="D1097">
+        <v>77.91</v>
+      </c>
+      <c r="E1097">
+        <v>178</v>
+      </c>
+      <c r="F1097">
+        <v>5990</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1098">
+        <v>1</v>
+      </c>
+      <c r="B1098">
+        <v>14</v>
+      </c>
+      <c r="C1098">
+        <v>63</v>
+      </c>
+      <c r="D1098">
+        <v>83.76</v>
+      </c>
+      <c r="E1098">
+        <v>178</v>
+      </c>
+      <c r="F1098">
+        <v>5360</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1099">
+        <v>1</v>
+      </c>
+      <c r="B1099">
+        <v>14</v>
+      </c>
+      <c r="C1099">
+        <v>64</v>
+      </c>
+      <c r="D1099">
+        <v>82.14</v>
+      </c>
+      <c r="E1099">
+        <v>200</v>
+      </c>
+      <c r="F1099">
+        <v>6670</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1100">
+        <v>1</v>
+      </c>
+      <c r="B1100">
+        <v>14</v>
+      </c>
+      <c r="C1100">
+        <v>65</v>
+      </c>
+      <c r="D1100">
+        <v>28.27</v>
+      </c>
+      <c r="E1100">
+        <v>32</v>
+      </c>
+      <c r="F1100">
+        <v>310</v>
+      </c>
+      <c r="I1100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1101">
+        <v>1</v>
+      </c>
+      <c r="B1101">
+        <v>14</v>
+      </c>
+      <c r="C1101">
+        <v>66</v>
+      </c>
+      <c r="D1101">
+        <v>57.65</v>
+      </c>
+      <c r="E1101">
+        <v>38</v>
+      </c>
+      <c r="F1101">
+        <v>730</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1102">
+        <v>1</v>
+      </c>
+      <c r="B1102">
+        <v>14</v>
+      </c>
+      <c r="C1102">
+        <v>67</v>
+      </c>
+      <c r="D1102">
+        <v>61.55</v>
+      </c>
+      <c r="E1102">
+        <v>71</v>
+      </c>
+      <c r="F1102">
+        <v>1540</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1103">
+        <v>1</v>
+      </c>
+      <c r="B1103">
+        <v>14</v>
+      </c>
+      <c r="C1103">
+        <v>68</v>
+      </c>
+      <c r="D1103">
+        <v>51.38</v>
+      </c>
+      <c r="E1103">
+        <v>62</v>
+      </c>
+      <c r="F1103">
+        <v>153</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1104">
+        <v>1</v>
+      </c>
+      <c r="B1104">
+        <v>14</v>
+      </c>
+      <c r="C1104">
+        <v>69</v>
+      </c>
+      <c r="D1104">
+        <v>61.62</v>
+      </c>
+      <c r="E1104">
+        <v>122</v>
+      </c>
+      <c r="F1104">
+        <v>3000</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1105">
+        <v>1</v>
+      </c>
+      <c r="B1105">
+        <v>14</v>
+      </c>
+      <c r="C1105">
+        <v>70</v>
+      </c>
+      <c r="D1105">
+        <v>54.51</v>
+      </c>
+      <c r="E1105">
+        <v>33.5</v>
+      </c>
+      <c r="F1105">
+        <v>670</v>
+      </c>
+      <c r="I1105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1106">
+        <v>1</v>
+      </c>
+      <c r="B1106">
+        <v>14</v>
+      </c>
+      <c r="C1106">
+        <v>71</v>
+      </c>
+      <c r="D1106">
+        <v>78.61</v>
+      </c>
+      <c r="E1106">
+        <v>158</v>
+      </c>
+      <c r="F1106">
+        <v>4300</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1107">
+        <v>1</v>
+      </c>
+      <c r="B1107">
+        <v>14</v>
+      </c>
+      <c r="C1107">
+        <v>72</v>
+      </c>
+      <c r="D1107">
+        <v>13.52</v>
+      </c>
+      <c r="E1107">
+        <v>9.5</v>
+      </c>
+      <c r="F1107">
+        <v>13</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1108">
+        <v>1</v>
+      </c>
+      <c r="B1108">
+        <v>14</v>
+      </c>
+      <c r="C1108">
+        <v>73</v>
+      </c>
+      <c r="D1108">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="E1108">
+        <v>19</v>
+      </c>
+      <c r="F1108">
+        <v>51</v>
+      </c>
+      <c r="I1108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1109">
+        <v>1</v>
+      </c>
+      <c r="B1109">
+        <v>14</v>
+      </c>
+      <c r="C1109">
+        <v>74</v>
+      </c>
+      <c r="D1109">
+        <v>19.75</v>
+      </c>
+      <c r="E1109">
+        <v>17</v>
+      </c>
+      <c r="F1109">
+        <v>90</v>
+      </c>
+      <c r="I1109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1110">
+        <v>1</v>
+      </c>
+      <c r="B1110">
+        <v>14</v>
+      </c>
+      <c r="C1110">
+        <v>75</v>
+      </c>
+      <c r="D1110">
+        <v>18.28</v>
+      </c>
+      <c r="E1110">
+        <v>12.5</v>
+      </c>
+      <c r="F1110">
+        <v>50</v>
+      </c>
+      <c r="I1110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1111">
+        <v>1</v>
+      </c>
+      <c r="B1111">
+        <v>14</v>
+      </c>
+      <c r="C1111">
+        <v>76</v>
+      </c>
+      <c r="D1111">
+        <v>12.6</v>
+      </c>
+      <c r="E1111">
+        <v>10.5</v>
+      </c>
+      <c r="F1111">
+        <v>21</v>
+      </c>
+      <c r="I1111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1112">
+        <v>1</v>
+      </c>
+      <c r="B1112">
+        <v>14</v>
+      </c>
+      <c r="C1112">
+        <v>77</v>
+      </c>
+      <c r="D1112">
+        <v>20.9</v>
+      </c>
+      <c r="E1112">
+        <v>15</v>
+      </c>
+      <c r="F1112">
+        <v>75</v>
+      </c>
+      <c r="I1112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1113">
+        <v>1</v>
+      </c>
+      <c r="B1113">
+        <v>14</v>
+      </c>
+      <c r="C1113">
+        <v>78</v>
+      </c>
+      <c r="D1113">
+        <v>14.21</v>
+      </c>
+      <c r="E1113">
+        <v>14.5</v>
+      </c>
+      <c r="F1113">
+        <v>50</v>
+      </c>
+      <c r="I1113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1114">
+        <v>1</v>
+      </c>
+      <c r="B1114">
+        <v>14</v>
+      </c>
+      <c r="C1114">
+        <v>79</v>
+      </c>
+      <c r="D1114">
+        <v>17.63</v>
+      </c>
+      <c r="E1114">
+        <v>16.5</v>
+      </c>
+      <c r="F1114">
+        <v>45</v>
+      </c>
+      <c r="I1114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1115">
+        <v>1</v>
+      </c>
+      <c r="B1115">
+        <v>14</v>
+      </c>
+      <c r="C1115">
+        <v>80</v>
+      </c>
+      <c r="D1115">
+        <v>10.79</v>
+      </c>
+      <c r="E1115">
+        <v>9</v>
+      </c>
+      <c r="F1115">
+        <v>15</v>
+      </c>
+      <c r="I1115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1116">
+        <v>1</v>
+      </c>
+      <c r="B1116">
+        <v>14</v>
+      </c>
+      <c r="C1116">
+        <v>81</v>
+      </c>
+      <c r="D1116">
+        <v>5.39</v>
+      </c>
+      <c r="E1116">
+        <v>8.5</v>
+      </c>
+      <c r="F1116">
+        <v>6.5</v>
+      </c>
+      <c r="I1116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1117">
+        <v>1</v>
+      </c>
+      <c r="B1117">
+        <v>14</v>
+      </c>
+      <c r="C1117">
+        <v>82</v>
+      </c>
+      <c r="D1117">
+        <v>32.369999999999997</v>
+      </c>
+      <c r="E1117">
+        <v>30.5</v>
+      </c>
+      <c r="F1117">
+        <v>370</v>
+      </c>
+      <c r="I1117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1118">
+        <v>1</v>
+      </c>
+      <c r="B1118">
+        <v>14</v>
+      </c>
+      <c r="C1118">
+        <v>83</v>
+      </c>
+      <c r="D1118">
+        <v>25.87</v>
+      </c>
+      <c r="E1118">
+        <v>22</v>
+      </c>
+      <c r="F1118">
+        <v>160</v>
+      </c>
+      <c r="I1118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>1</v>
+      </c>
+      <c r="B1119">
+        <v>14</v>
+      </c>
+      <c r="C1119">
+        <v>84</v>
+      </c>
+      <c r="D1119">
+        <v>25.9</v>
+      </c>
+      <c r="E1119">
+        <v>24.5</v>
+      </c>
+      <c r="F1119">
+        <v>190</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>1</v>
+      </c>
+      <c r="B1120">
+        <v>14</v>
+      </c>
+      <c r="C1120">
+        <v>85</v>
+      </c>
+      <c r="D1120">
+        <v>17.5</v>
+      </c>
+      <c r="E1120">
+        <v>15</v>
+      </c>
+      <c r="F1120">
+        <v>70</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>1</v>
+      </c>
+      <c r="B1121">
+        <v>14</v>
+      </c>
+      <c r="C1121">
+        <v>86</v>
+      </c>
+      <c r="D1121">
+        <v>56.39</v>
+      </c>
+      <c r="E1121">
+        <v>66</v>
+      </c>
+      <c r="F1121">
+        <v>1670</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>1</v>
+      </c>
+      <c r="B1122">
+        <v>14</v>
+      </c>
+      <c r="C1122">
+        <v>87</v>
+      </c>
+      <c r="D1122">
+        <v>50.68</v>
+      </c>
+      <c r="E1122">
+        <v>53</v>
+      </c>
+      <c r="F1122">
+        <v>1140</v>
+      </c>
+      <c r="I1122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>1</v>
+      </c>
+      <c r="B1123">
+        <v>14</v>
+      </c>
+      <c r="C1123">
+        <v>88</v>
+      </c>
+      <c r="D1123">
+        <v>64.73</v>
+      </c>
+      <c r="E1123">
+        <v>112</v>
+      </c>
+      <c r="F1123">
+        <v>2750</v>
+      </c>
+      <c r="I1123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1124">
+        <v>1</v>
+      </c>
+      <c r="B1124">
+        <v>14</v>
+      </c>
+      <c r="C1124">
+        <v>89</v>
+      </c>
+      <c r="D1124">
+        <v>28.61</v>
+      </c>
+      <c r="E1124">
+        <v>24</v>
+      </c>
+      <c r="F1124">
+        <v>220</v>
+      </c>
+      <c r="I1124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1125">
+        <v>1</v>
+      </c>
+      <c r="B1125">
+        <v>14</v>
+      </c>
+      <c r="C1125">
+        <v>90</v>
+      </c>
+      <c r="D1125">
+        <v>43.36</v>
+      </c>
+      <c r="E1125">
+        <v>42.05</v>
+      </c>
+      <c r="F1125">
+        <v>720</v>
+      </c>
+      <c r="I1125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1126">
+        <v>1</v>
+      </c>
+      <c r="B1126">
+        <v>14</v>
+      </c>
+      <c r="C1126">
+        <v>91</v>
+      </c>
+      <c r="D1126">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="E1126">
+        <v>33.5</v>
+      </c>
+      <c r="F1126">
+        <v>470</v>
+      </c>
+      <c r="I1126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1127">
+        <v>1</v>
+      </c>
+      <c r="B1127">
+        <v>14</v>
+      </c>
+      <c r="C1127">
+        <v>92</v>
+      </c>
+      <c r="D1127">
+        <v>54.06</v>
+      </c>
+      <c r="E1127">
+        <v>78</v>
+      </c>
+      <c r="F1127">
+        <v>1570</v>
+      </c>
+      <c r="I1127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1128">
+        <v>1</v>
+      </c>
+      <c r="B1128">
+        <v>14</v>
+      </c>
+      <c r="C1128">
+        <v>93</v>
+      </c>
+      <c r="D1128">
+        <v>41.9</v>
+      </c>
+      <c r="E1128">
+        <v>61</v>
+      </c>
+      <c r="F1128">
+        <v>990</v>
+      </c>
+      <c r="I1128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1129">
+        <v>1</v>
+      </c>
+      <c r="B1129">
+        <v>14</v>
+      </c>
+      <c r="C1129">
+        <v>94</v>
+      </c>
+      <c r="D1129">
+        <v>21.46</v>
+      </c>
+      <c r="E1129">
+        <v>21</v>
+      </c>
+      <c r="F1129">
+        <v>140</v>
+      </c>
+      <c r="I1129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1130">
+        <v>1</v>
+      </c>
+      <c r="B1130">
+        <v>14</v>
+      </c>
+      <c r="C1130">
+        <v>95</v>
+      </c>
+      <c r="D1130">
+        <v>42.6</v>
+      </c>
+      <c r="E1130">
+        <v>33</v>
+      </c>
+      <c r="F1130">
+        <v>340</v>
+      </c>
+      <c r="I1130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1131">
+        <v>1</v>
+      </c>
+      <c r="B1131">
+        <v>14</v>
+      </c>
+      <c r="C1131">
+        <v>96</v>
+      </c>
+      <c r="D1131">
+        <v>29.53</v>
+      </c>
+      <c r="E1131">
+        <v>24</v>
+      </c>
+      <c r="F1131">
+        <v>160</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1132">
+        <v>1</v>
+      </c>
+      <c r="B1132">
+        <v>14</v>
+      </c>
+      <c r="C1132">
+        <v>97</v>
+      </c>
+      <c r="D1132">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="E1132">
+        <v>33.5</v>
+      </c>
+      <c r="F1132">
+        <v>360</v>
+      </c>
+      <c r="I1132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1133">
+        <v>1</v>
+      </c>
+      <c r="B1133">
+        <v>14</v>
+      </c>
+      <c r="C1133">
+        <v>98</v>
+      </c>
+      <c r="D1133">
+        <v>45.85</v>
+      </c>
+      <c r="E1133">
+        <v>44</v>
+      </c>
+      <c r="F1133">
+        <v>750</v>
+      </c>
+      <c r="I1133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1134">
+        <v>1</v>
+      </c>
+      <c r="B1134">
+        <v>14</v>
+      </c>
+      <c r="C1134">
+        <v>99</v>
+      </c>
+      <c r="D1134">
+        <v>45.09</v>
+      </c>
+      <c r="E1134">
+        <v>32</v>
+      </c>
+      <c r="F1134">
+        <v>630</v>
+      </c>
+      <c r="I1134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1135">
+        <v>1</v>
+      </c>
+      <c r="B1135">
+        <v>14</v>
+      </c>
+      <c r="C1135">
+        <v>100</v>
+      </c>
+      <c r="D1135">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="E1135">
+        <v>40.5</v>
+      </c>
+      <c r="F1135">
+        <v>500</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1136">
+        <v>1</v>
+      </c>
+      <c r="B1136">
+        <v>14</v>
+      </c>
+      <c r="C1136">
+        <v>101</v>
+      </c>
+      <c r="D1136">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E1136">
+        <v>33.5</v>
+      </c>
+      <c r="F1136">
+        <v>440</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1137">
+        <v>1</v>
+      </c>
+      <c r="B1137">
+        <v>14</v>
+      </c>
+      <c r="C1137">
+        <v>102</v>
+      </c>
+      <c r="D1137">
+        <v>55.87</v>
+      </c>
+      <c r="E1137">
+        <v>56</v>
+      </c>
+      <c r="F1137">
+        <v>1540</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1138">
+        <v>1</v>
+      </c>
+      <c r="B1138">
+        <v>14</v>
+      </c>
+      <c r="C1138">
+        <v>103</v>
+      </c>
+      <c r="D1138">
+        <v>67.2</v>
+      </c>
+      <c r="E1138">
+        <v>78</v>
+      </c>
+      <c r="F1138">
+        <v>1850</v>
+      </c>
+      <c r="I1138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1139">
+        <v>1</v>
+      </c>
+      <c r="B1139">
+        <v>14</v>
+      </c>
+      <c r="C1139">
+        <v>104</v>
+      </c>
+      <c r="D1139">
+        <v>39.99</v>
+      </c>
+      <c r="E1139">
+        <v>52</v>
+      </c>
+      <c r="F1139">
+        <v>730</v>
+      </c>
+      <c r="I1139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>1</v>
+      </c>
+      <c r="B1140">
+        <v>14</v>
+      </c>
+      <c r="C1140">
+        <v>105</v>
+      </c>
+      <c r="D1140">
+        <v>58.07</v>
+      </c>
+      <c r="E1140">
+        <v>93</v>
+      </c>
+      <c r="F1140">
+        <v>2000</v>
+      </c>
+      <c r="I1140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>1</v>
+      </c>
+      <c r="B1141">
+        <v>14</v>
+      </c>
+      <c r="C1141">
+        <v>106</v>
+      </c>
+      <c r="D1141">
+        <v>63.02</v>
+      </c>
+      <c r="E1141">
+        <v>76.5</v>
+      </c>
+      <c r="F1141">
+        <v>2220</v>
+      </c>
+      <c r="I1141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>1</v>
+      </c>
+      <c r="B1142">
+        <v>14</v>
+      </c>
+      <c r="C1142">
+        <v>107</v>
+      </c>
+      <c r="D1142">
+        <v>71.2</v>
+      </c>
+      <c r="E1142">
+        <v>71</v>
+      </c>
+      <c r="F1142">
+        <v>1880</v>
+      </c>
+      <c r="I1142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>1</v>
+      </c>
+      <c r="B1143">
+        <v>14</v>
+      </c>
+      <c r="C1143">
+        <v>108</v>
+      </c>
+      <c r="D1143">
+        <v>44.57</v>
+      </c>
+      <c r="E1143">
+        <v>37.5</v>
+      </c>
+      <c r="F1143">
+        <v>520</v>
+      </c>
+      <c r="I1143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>1</v>
+      </c>
+      <c r="B1144">
+        <v>14</v>
+      </c>
+      <c r="C1144">
+        <v>109</v>
+      </c>
+      <c r="D1144">
+        <v>82.51</v>
+      </c>
+      <c r="E1144">
+        <v>160</v>
+      </c>
+      <c r="F1144">
+        <v>6430</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>1</v>
+      </c>
+      <c r="B1145">
+        <v>14</v>
+      </c>
+      <c r="C1145">
+        <v>110</v>
+      </c>
+      <c r="D1145">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="E1145">
+        <v>34</v>
+      </c>
+      <c r="F1145">
+        <v>420</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>1</v>
+      </c>
+      <c r="B1146">
+        <v>14</v>
+      </c>
+      <c r="C1146">
+        <v>111</v>
+      </c>
+      <c r="D1146">
+        <v>13.51</v>
+      </c>
+      <c r="E1146">
+        <v>13</v>
+      </c>
+      <c r="F1146">
+        <v>40</v>
+      </c>
+      <c r="I1146" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1073" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="A1:J1146" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB5FD17-8212-4778-931C-2162D75732FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F62612-A197-41C8-A971-EFC690B9C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -481,12 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A833" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G833" sqref="G833"/>
+      <pane ySplit="1" topLeftCell="A826" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G846" sqref="G846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -546,7 +545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -592,7 +591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -615,7 +614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -638,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -661,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -684,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -730,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -753,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -776,7 +775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -799,7 +798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -822,7 +821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -845,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -868,7 +867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -891,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -914,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -937,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -960,7 +959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -983,7 +982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1098,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1190,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1319,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1480,7 +1479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1526,7 +1525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1770,7 +1769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2166,7 +2165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2983,7 +2982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -3167,7 +3166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -3227,7 +3226,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -4311,7 +4310,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3</v>
       </c>
@@ -4403,7 +4402,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -4587,7 +4586,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -4679,7 +4678,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -4748,7 +4747,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -5024,7 +5023,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -5185,7 +5184,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -5231,7 +5230,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -5415,7 +5414,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -5461,7 +5460,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -5553,7 +5552,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -5668,7 +5667,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>3</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>3</v>
       </c>
@@ -5737,7 +5736,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>3</v>
       </c>
@@ -5760,7 +5759,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>3</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>3</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>3</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>3</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>3</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>3</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>3</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>3</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>3</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>3</v>
       </c>
@@ -6036,7 +6035,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>3</v>
       </c>
@@ -6059,7 +6058,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>3</v>
       </c>
@@ -6082,7 +6081,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>3</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -6128,7 +6127,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>3</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>3</v>
       </c>
@@ -6197,7 +6196,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3</v>
       </c>
@@ -6381,7 +6380,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>3</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3</v>
       </c>
@@ -6455,7 +6454,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3</v>
       </c>
@@ -6478,7 +6477,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>3</v>
       </c>
@@ -6501,7 +6500,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>3</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3</v>
       </c>
@@ -6639,7 +6638,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>3</v>
       </c>
@@ -6708,7 +6707,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>3</v>
       </c>
@@ -6777,7 +6776,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>3</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>3</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>3</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>3</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>3</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>3</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>3</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>3</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>3</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>3</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>3</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>3</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>3</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>3</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>3</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>3</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>45755</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>3</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>3</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>3</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>3</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>3</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>3</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>3</v>
       </c>
@@ -8263,7 +8262,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>3</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>3</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>3</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>3</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>3</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>3</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>3</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>3</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>3</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>3</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>3</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>3</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>3</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>3</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>3</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>3</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>3</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>3</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>3</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>3</v>
       </c>
@@ -8976,7 +8975,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>3</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>3</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>3</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>3</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>3</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>3</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>3</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>3</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>3</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>3</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>3</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>3</v>
       </c>
@@ -9459,7 +9458,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>3</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>3</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>3</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>3</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>3</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>3</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>3</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>3</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>3</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>3</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>3</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>3</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>3</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>3</v>
       </c>
@@ -9937,7 +9936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>3</v>
       </c>
@@ -9963,7 +9962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>3</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>3</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>3</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>3</v>
       </c>
@@ -10067,7 +10066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>3</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>3</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>3</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>3</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>3</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>3</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>3</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>3</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>3</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>3</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>3</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>3</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>3</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>3</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>3</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>3</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>3</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>3</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>3</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>3</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>3</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>3</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>3</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>3</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>3</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>3</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>3</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>3</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>3</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>3</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>3</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>3</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>3</v>
       </c>
@@ -10947,7 +10946,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>3</v>
       </c>
@@ -10970,7 +10969,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>3</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>3</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>3</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>3</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>3</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>3</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>3</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>3</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>3</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>3</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>3</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>3</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>3</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>3</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>3</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>3</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>3</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>3</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>3</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>3</v>
       </c>
@@ -11430,7 +11429,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>3</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>3</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>3</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>3</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>3</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>3</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>3</v>
       </c>
@@ -11591,7 +11590,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>3</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>3</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>3</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>3</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>3</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>3</v>
       </c>
@@ -11729,7 +11728,7 @@
         <v>45846</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>3</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>3</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>3</v>
       </c>
@@ -11798,7 +11797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>3</v>
       </c>
@@ -11828,7 +11827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>3</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>3</v>
       </c>
@@ -11865,7 +11864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>3</v>
       </c>
@@ -11918,7 +11917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>3</v>
       </c>
@@ -11941,7 +11940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>3</v>
       </c>
@@ -11964,7 +11963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>3</v>
       </c>
@@ -11987,7 +11986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>3</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>3</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3</v>
       </c>
@@ -12056,7 +12055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>3</v>
       </c>
@@ -12079,7 +12078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>3</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>3</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>3</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>3</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>3</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>3</v>
       </c>
@@ -12224,7 +12223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>3</v>
       </c>
@@ -12247,7 +12246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>3</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>3</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>3</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>3</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>3</v>
       </c>
@@ -12362,7 +12361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>3</v>
       </c>
@@ -12385,7 +12384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>3</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>3</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>3</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>3</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>3</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>3</v>
       </c>
@@ -12523,7 +12522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>3</v>
       </c>
@@ -12553,7 +12552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>3</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>3</v>
       </c>
@@ -12599,7 +12598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>3</v>
       </c>
@@ -12625,7 +12624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>3</v>
       </c>
@@ -12645,7 +12644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>3</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>3</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>3</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>3</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>3</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>3</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>3</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>3</v>
       </c>
@@ -12836,7 +12835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>3</v>
       </c>
@@ -12889,7 +12888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>3</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>3</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>3</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3</v>
       </c>
@@ -12981,7 +12980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>3</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>3</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>3</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>3</v>
       </c>
@@ -13073,7 +13072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>3</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>3</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>3</v>
       </c>
@@ -13142,7 +13141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>3</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>3</v>
       </c>
@@ -13188,7 +13187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>3</v>
       </c>
@@ -13211,7 +13210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>3</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>3</v>
       </c>
@@ -13257,7 +13256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>3</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>3</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>3</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>3</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>3</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>3</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>3</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>3</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>3</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>3</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>3</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>3</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>3</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>3</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>3</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>3</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>3</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>3</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>3</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>3</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>3</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>3</v>
       </c>
@@ -13786,7 +13785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>3</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>3</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>3</v>
       </c>
@@ -13855,7 +13854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>3</v>
       </c>
@@ -13878,7 +13877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>3</v>
       </c>
@@ -13901,7 +13900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>3</v>
       </c>
@@ -13924,7 +13923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>3</v>
       </c>
@@ -13947,7 +13946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>3</v>
       </c>
@@ -13970,7 +13969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>3</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>3</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>3</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>3</v>
       </c>
@@ -14062,7 +14061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>3</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>3</v>
       </c>
@@ -14108,7 +14107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>3</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>3</v>
       </c>
@@ -14154,7 +14153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>3</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>3</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>3</v>
       </c>
@@ -14223,7 +14222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>3</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>3</v>
       </c>
@@ -14269,7 +14268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>3</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>3</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>3</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>3</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>3</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>3</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>3</v>
       </c>
@@ -14453,7 +14452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>3</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>3</v>
       </c>
@@ -14499,7 +14498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>3</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3</v>
       </c>
@@ -14545,7 +14544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>3</v>
       </c>
@@ -14568,7 +14567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>3</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>3</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>3</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>3</v>
       </c>
@@ -14660,7 +14659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>3</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>3</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>3</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>3</v>
       </c>
@@ -14752,7 +14751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>3</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>3</v>
       </c>
@@ -14798,7 +14797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>3</v>
       </c>
@@ -14821,7 +14820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>3</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>3</v>
       </c>
@@ -14867,7 +14866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>3</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>3</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>3</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>3</v>
       </c>
@@ -14959,7 +14958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>3</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>3</v>
       </c>
@@ -15005,7 +15004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>3</v>
       </c>
@@ -15028,7 +15027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>3</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>3</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>3</v>
       </c>
@@ -15097,7 +15096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="627" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>3</v>
       </c>
@@ -15120,7 +15119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>3</v>
       </c>
@@ -15143,7 +15142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>3</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>3</v>
       </c>
@@ -15189,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>3</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>3</v>
       </c>
@@ -15242,7 +15241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="633" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>3</v>
       </c>
@@ -15272,7 +15271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>3</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="635" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>3</v>
       </c>
@@ -15318,7 +15317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>3</v>
       </c>
@@ -15341,7 +15340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="637" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>3</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="638" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>3</v>
       </c>
@@ -15387,7 +15386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="639" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>3</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>3</v>
       </c>
@@ -15433,7 +15432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>3</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>3</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>3</v>
       </c>
@@ -15502,7 +15501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>3</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>3</v>
       </c>
@@ -15548,7 +15547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>3</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>3</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>3</v>
       </c>
@@ -15617,7 +15616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>3</v>
       </c>
@@ -15640,7 +15639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>3</v>
       </c>
@@ -15663,7 +15662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>3</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>3</v>
       </c>
@@ -15709,7 +15708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>3</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>3</v>
       </c>
@@ -15755,7 +15754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>3</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>3</v>
       </c>
@@ -15801,7 +15800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>3</v>
       </c>
@@ -15824,7 +15823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>3</v>
       </c>
@@ -15847,7 +15846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>3</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>3</v>
       </c>
@@ -15893,7 +15892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>3</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>3</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>3</v>
       </c>
@@ -15962,7 +15961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>3</v>
       </c>
@@ -15985,7 +15984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>3</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>3</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>3</v>
       </c>
@@ -16054,7 +16053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>3</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>3</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>3</v>
       </c>
@@ -16123,7 +16122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>3</v>
       </c>
@@ -16146,7 +16145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>3</v>
       </c>
@@ -16169,7 +16168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>3</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>3</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>3</v>
       </c>
@@ -16238,7 +16237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>3</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>3</v>
       </c>
@@ -16284,7 +16283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>3</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>3</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>3</v>
       </c>
@@ -16353,7 +16352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>3</v>
       </c>
@@ -16376,7 +16375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>3</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>3</v>
       </c>
@@ -16422,7 +16421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>3</v>
       </c>
@@ -16445,7 +16444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>3</v>
       </c>
@@ -16468,7 +16467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>3</v>
       </c>
@@ -16491,7 +16490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>3</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>3</v>
       </c>
@@ -16537,7 +16536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>3</v>
       </c>
@@ -16560,7 +16559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>3</v>
       </c>
@@ -16583,7 +16582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>3</v>
       </c>
@@ -16606,7 +16605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>3</v>
       </c>
@@ -16629,7 +16628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>3</v>
       </c>
@@ -16652,7 +16651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>3</v>
       </c>
@@ -16675,7 +16674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>3</v>
       </c>
@@ -16698,7 +16697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>3</v>
       </c>
@@ -16721,7 +16720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>3</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>3</v>
       </c>
@@ -16767,7 +16766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>3</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>3</v>
       </c>
@@ -16813,7 +16812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>3</v>
       </c>
@@ -16836,7 +16835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>3</v>
       </c>
@@ -16859,7 +16858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>3</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>3</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>3</v>
       </c>
@@ -16928,7 +16927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>3</v>
       </c>
@@ -16951,7 +16950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>3</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>3</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>3</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>3</v>
       </c>
@@ -17043,7 +17042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>3</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>3</v>
       </c>
@@ -17089,7 +17088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>3</v>
       </c>
@@ -17112,7 +17111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>3</v>
       </c>
@@ -17135,7 +17134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>3</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>3</v>
       </c>
@@ -17181,7 +17180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>3</v>
       </c>
@@ -17204,7 +17203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>3</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>3</v>
       </c>
@@ -17250,7 +17249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>3</v>
       </c>
@@ -17273,7 +17272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>3</v>
       </c>
@@ -17296,7 +17295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>3</v>
       </c>
@@ -17319,7 +17318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>3</v>
       </c>
@@ -17342,7 +17341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>3</v>
       </c>
@@ -17365,7 +17364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>3</v>
       </c>
@@ -17388,7 +17387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>3</v>
       </c>
@@ -17411,7 +17410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>3</v>
       </c>
@@ -17434,7 +17433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>3</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>3</v>
       </c>
@@ -17480,7 +17479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>3</v>
       </c>
@@ -17503,7 +17502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>3</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>3</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>3</v>
       </c>
@@ -17572,7 +17571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>3</v>
       </c>
@@ -17595,7 +17594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>3</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>3</v>
       </c>
@@ -17641,7 +17640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>3</v>
       </c>
@@ -17664,7 +17663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>3</v>
       </c>
@@ -17687,7 +17686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>3</v>
       </c>
@@ -17710,7 +17709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>3</v>
       </c>
@@ -17733,7 +17732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>3</v>
       </c>
@@ -17756,7 +17755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>3</v>
       </c>
@@ -17779,7 +17778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>3</v>
       </c>
@@ -17802,7 +17801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>3</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>3</v>
       </c>
@@ -17848,7 +17847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>3</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>3</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>3</v>
       </c>
@@ -17917,7 +17916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>3</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>3</v>
       </c>
@@ -17963,7 +17962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>3</v>
       </c>
@@ -17986,7 +17985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>3</v>
       </c>
@@ -18009,7 +18008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>3</v>
       </c>
@@ -18032,7 +18031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>3</v>
       </c>
@@ -18055,7 +18054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>3</v>
       </c>
@@ -18078,7 +18077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>3</v>
       </c>
@@ -18101,7 +18100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>3</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>3</v>
       </c>
@@ -18147,7 +18146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>3</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>3</v>
       </c>
@@ -18193,7 +18192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>3</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>3</v>
       </c>
@@ -18239,7 +18238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>3</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>3</v>
       </c>
@@ -18285,7 +18284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>3</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>3</v>
       </c>
@@ -18331,7 +18330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>3</v>
       </c>
@@ -18354,7 +18353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>3</v>
       </c>
@@ -18377,7 +18376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>3</v>
       </c>
@@ -18400,7 +18399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>3</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>3</v>
       </c>
@@ -18446,7 +18445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>3</v>
       </c>
@@ -18469,7 +18468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>3</v>
       </c>
@@ -18492,7 +18491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>3</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>3</v>
       </c>
@@ -18538,7 +18537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>3</v>
       </c>
@@ -18561,7 +18560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>3</v>
       </c>
@@ -18584,7 +18583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>3</v>
       </c>
@@ -18607,7 +18606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>3</v>
       </c>
@@ -18630,7 +18629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>3</v>
       </c>
@@ -18653,7 +18652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>3</v>
       </c>
@@ -18676,7 +18675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>3</v>
       </c>
@@ -18699,7 +18698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>3</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>3</v>
       </c>
@@ -18745,7 +18744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>3</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>3</v>
       </c>
@@ -18791,7 +18790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>3</v>
       </c>
@@ -18814,7 +18813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>3</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>3</v>
       </c>
@@ -18860,7 +18859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>3</v>
       </c>
@@ -18883,7 +18882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>3</v>
       </c>
@@ -18906,7 +18905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>3</v>
       </c>
@@ -18929,7 +18928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>3</v>
       </c>
@@ -18952,7 +18951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>3</v>
       </c>
@@ -18975,7 +18974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>3</v>
       </c>
@@ -18998,7 +18997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>3</v>
       </c>
@@ -19021,7 +19020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>3</v>
       </c>
@@ -19044,7 +19043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>3</v>
       </c>
@@ -19067,7 +19066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>3</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>3</v>
       </c>
@@ -19113,7 +19112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>3</v>
       </c>
@@ -19136,7 +19135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>3</v>
       </c>
@@ -19159,7 +19158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>3</v>
       </c>
@@ -19182,7 +19181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>3</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>3</v>
       </c>
@@ -19228,7 +19227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>3</v>
       </c>
@@ -19251,7 +19250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>3</v>
       </c>
@@ -19274,7 +19273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>3</v>
       </c>
@@ -19297,7 +19296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>3</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>3</v>
       </c>
@@ -19343,7 +19342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>3</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>3</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>3</v>
       </c>
@@ -19412,7 +19411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>3</v>
       </c>
@@ -19435,7 +19434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>3</v>
       </c>
@@ -19458,7 +19457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>3</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>3</v>
       </c>
@@ -19504,7 +19503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>3</v>
       </c>
@@ -19527,7 +19526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>3</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>3</v>
       </c>
@@ -19573,7 +19572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>3</v>
       </c>
@@ -19596,7 +19595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>3</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>3</v>
       </c>
@@ -19642,7 +19641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>3</v>
       </c>
@@ -19665,7 +19664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>3</v>
       </c>
@@ -19688,7 +19687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>3</v>
       </c>
@@ -19711,7 +19710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>3</v>
       </c>
@@ -19734,7 +19733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>3</v>
       </c>
@@ -20165,6 +20164,13 @@
       <c r="F845">
         <v>350</v>
       </c>
+      <c r="G845">
+        <v>87</v>
+      </c>
+      <c r="H845">
+        <f t="shared" ref="H845:H847" si="5">(G845*100/F845)/100</f>
+        <v>0.24857142857142858</v>
+      </c>
       <c r="I845" t="s">
         <v>16</v>
       </c>
@@ -20215,7 +20221,7 @@
         <v>49</v>
       </c>
       <c r="H847">
-        <f t="shared" ref="H847" si="5">(G847*100/F847)/100</f>
+        <f t="shared" si="5"/>
         <v>0.2722222222222222</v>
       </c>
       <c r="I847" t="s">
@@ -27107,13 +27113,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1146" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J1146" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F62612-A197-41C8-A971-EFC690B9C848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E613800-23A7-4333-85DC-19DFFC035591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -481,14 +481,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J1146"/>
+  <dimension ref="A1:J1530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A826" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G846" sqref="G846"/>
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -27110,6 +27113,8820 @@
       </c>
       <c r="I1146" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>1</v>
+      </c>
+      <c r="B1147">
+        <v>16</v>
+      </c>
+      <c r="C1147">
+        <v>1</v>
+      </c>
+      <c r="D1147">
+        <v>18.41</v>
+      </c>
+      <c r="E1147">
+        <v>14.5</v>
+      </c>
+      <c r="F1147">
+        <v>60</v>
+      </c>
+      <c r="I1147" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>1</v>
+      </c>
+      <c r="B1148">
+        <v>16</v>
+      </c>
+      <c r="C1148">
+        <v>2</v>
+      </c>
+      <c r="D1148">
+        <v>7.6</v>
+      </c>
+      <c r="E1148">
+        <v>6.5</v>
+      </c>
+      <c r="F1148">
+        <v>5.5</v>
+      </c>
+      <c r="I1148" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>1</v>
+      </c>
+      <c r="B1149">
+        <v>16</v>
+      </c>
+      <c r="C1149">
+        <v>3</v>
+      </c>
+      <c r="D1149">
+        <v>26.98</v>
+      </c>
+      <c r="E1149">
+        <v>24</v>
+      </c>
+      <c r="F1149">
+        <v>170</v>
+      </c>
+      <c r="I1149" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>1</v>
+      </c>
+      <c r="B1150">
+        <v>16</v>
+      </c>
+      <c r="C1150">
+        <v>4</v>
+      </c>
+      <c r="D1150">
+        <v>32.28</v>
+      </c>
+      <c r="E1150">
+        <v>21</v>
+      </c>
+      <c r="F1150">
+        <v>250</v>
+      </c>
+      <c r="I1150" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>1</v>
+      </c>
+      <c r="B1151">
+        <v>16</v>
+      </c>
+      <c r="C1151">
+        <v>5</v>
+      </c>
+      <c r="D1151">
+        <v>27.95</v>
+      </c>
+      <c r="E1151">
+        <v>20</v>
+      </c>
+      <c r="F1151">
+        <v>150</v>
+      </c>
+      <c r="I1151" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>1</v>
+      </c>
+      <c r="B1152">
+        <v>16</v>
+      </c>
+      <c r="C1152">
+        <v>6</v>
+      </c>
+      <c r="D1152">
+        <v>21</v>
+      </c>
+      <c r="E1152">
+        <v>16.5</v>
+      </c>
+      <c r="F1152">
+        <v>90</v>
+      </c>
+      <c r="I1152" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>1</v>
+      </c>
+      <c r="B1153">
+        <v>16</v>
+      </c>
+      <c r="C1153">
+        <v>7</v>
+      </c>
+      <c r="D1153">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E1153">
+        <v>16</v>
+      </c>
+      <c r="F1153">
+        <v>75</v>
+      </c>
+      <c r="I1153" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>1</v>
+      </c>
+      <c r="B1154">
+        <v>16</v>
+      </c>
+      <c r="C1154">
+        <v>8</v>
+      </c>
+      <c r="D1154">
+        <v>7.49</v>
+      </c>
+      <c r="E1154">
+        <v>8.5</v>
+      </c>
+      <c r="F1154">
+        <v>8</v>
+      </c>
+      <c r="I1154" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>1</v>
+      </c>
+      <c r="B1155">
+        <v>16</v>
+      </c>
+      <c r="C1155">
+        <v>9</v>
+      </c>
+      <c r="D1155">
+        <v>10.52</v>
+      </c>
+      <c r="E1155">
+        <v>13</v>
+      </c>
+      <c r="F1155">
+        <v>27</v>
+      </c>
+      <c r="I1155" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1156">
+        <v>1</v>
+      </c>
+      <c r="B1156">
+        <v>16</v>
+      </c>
+      <c r="C1156">
+        <v>10</v>
+      </c>
+      <c r="D1156">
+        <v>20.79</v>
+      </c>
+      <c r="E1156">
+        <v>14.5</v>
+      </c>
+      <c r="F1156">
+        <v>80</v>
+      </c>
+      <c r="I1156" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>1</v>
+      </c>
+      <c r="B1157">
+        <v>16</v>
+      </c>
+      <c r="C1157">
+        <v>11</v>
+      </c>
+      <c r="D1157">
+        <v>10.68</v>
+      </c>
+      <c r="E1157">
+        <v>7.5</v>
+      </c>
+      <c r="F1157">
+        <v>13</v>
+      </c>
+      <c r="I1157" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1158">
+        <v>1</v>
+      </c>
+      <c r="B1158">
+        <v>16</v>
+      </c>
+      <c r="C1158">
+        <v>12</v>
+      </c>
+      <c r="D1158">
+        <v>13.59</v>
+      </c>
+      <c r="E1158">
+        <v>12.5</v>
+      </c>
+      <c r="F1158">
+        <v>27</v>
+      </c>
+      <c r="I1158" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1159">
+        <v>1</v>
+      </c>
+      <c r="B1159">
+        <v>16</v>
+      </c>
+      <c r="C1159">
+        <v>13</v>
+      </c>
+      <c r="D1159">
+        <v>17.8</v>
+      </c>
+      <c r="E1159">
+        <v>12.5</v>
+      </c>
+      <c r="F1159">
+        <v>24</v>
+      </c>
+      <c r="I1159" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1160">
+        <v>1</v>
+      </c>
+      <c r="B1160">
+        <v>16</v>
+      </c>
+      <c r="C1160">
+        <v>14</v>
+      </c>
+      <c r="D1160">
+        <v>7.7</v>
+      </c>
+      <c r="E1160">
+        <v>8.5</v>
+      </c>
+      <c r="F1160">
+        <v>6</v>
+      </c>
+      <c r="I1160" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1161">
+        <v>1</v>
+      </c>
+      <c r="B1161">
+        <v>16</v>
+      </c>
+      <c r="C1161">
+        <v>15</v>
+      </c>
+      <c r="D1161">
+        <v>10.5</v>
+      </c>
+      <c r="E1161">
+        <v>8.5</v>
+      </c>
+      <c r="F1161">
+        <v>9</v>
+      </c>
+      <c r="I1161" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1162">
+        <v>1</v>
+      </c>
+      <c r="B1162">
+        <v>16</v>
+      </c>
+      <c r="C1162">
+        <v>16</v>
+      </c>
+      <c r="D1162">
+        <v>12.11</v>
+      </c>
+      <c r="E1162">
+        <v>9</v>
+      </c>
+      <c r="F1162">
+        <v>17</v>
+      </c>
+      <c r="I1162" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1163">
+        <v>1</v>
+      </c>
+      <c r="B1163">
+        <v>16</v>
+      </c>
+      <c r="C1163">
+        <v>17</v>
+      </c>
+      <c r="D1163">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E1163">
+        <v>4.5</v>
+      </c>
+      <c r="F1163">
+        <v>7.75</v>
+      </c>
+      <c r="I1163" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1164">
+        <v>1</v>
+      </c>
+      <c r="B1164">
+        <v>16</v>
+      </c>
+      <c r="C1164">
+        <v>18</v>
+      </c>
+      <c r="D1164">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E1164">
+        <v>14</v>
+      </c>
+      <c r="F1164">
+        <v>18.5</v>
+      </c>
+      <c r="I1164" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1165">
+        <v>1</v>
+      </c>
+      <c r="B1165">
+        <v>16</v>
+      </c>
+      <c r="C1165">
+        <v>19</v>
+      </c>
+      <c r="D1165">
+        <v>28.38</v>
+      </c>
+      <c r="E1165">
+        <v>24.5</v>
+      </c>
+      <c r="F1165">
+        <v>270</v>
+      </c>
+      <c r="I1165" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1166">
+        <v>1</v>
+      </c>
+      <c r="B1166">
+        <v>16</v>
+      </c>
+      <c r="C1166">
+        <v>20</v>
+      </c>
+      <c r="D1166">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="E1166">
+        <v>27.5</v>
+      </c>
+      <c r="F1166">
+        <v>270</v>
+      </c>
+      <c r="I1166" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1167">
+        <v>1</v>
+      </c>
+      <c r="B1167">
+        <v>16</v>
+      </c>
+      <c r="C1167">
+        <v>21</v>
+      </c>
+      <c r="D1167">
+        <v>32.64</v>
+      </c>
+      <c r="E1167">
+        <v>27</v>
+      </c>
+      <c r="F1167">
+        <v>280</v>
+      </c>
+      <c r="I1167" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1168">
+        <v>1</v>
+      </c>
+      <c r="B1168">
+        <v>16</v>
+      </c>
+      <c r="C1168">
+        <v>22</v>
+      </c>
+      <c r="D1168">
+        <v>33.69</v>
+      </c>
+      <c r="E1168">
+        <v>16.5</v>
+      </c>
+      <c r="F1168">
+        <v>80</v>
+      </c>
+      <c r="I1168" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1169">
+        <v>1</v>
+      </c>
+      <c r="B1169">
+        <v>16</v>
+      </c>
+      <c r="C1169">
+        <v>23</v>
+      </c>
+      <c r="D1169">
+        <v>22.16</v>
+      </c>
+      <c r="E1169">
+        <v>27.5</v>
+      </c>
+      <c r="F1169">
+        <v>140</v>
+      </c>
+      <c r="I1169" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1170">
+        <v>1</v>
+      </c>
+      <c r="B1170">
+        <v>16</v>
+      </c>
+      <c r="C1170">
+        <v>24</v>
+      </c>
+      <c r="D1170">
+        <v>12.9</v>
+      </c>
+      <c r="E1170">
+        <v>11.5</v>
+      </c>
+      <c r="F1170">
+        <v>17</v>
+      </c>
+      <c r="I1170" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1171">
+        <v>1</v>
+      </c>
+      <c r="B1171">
+        <v>16</v>
+      </c>
+      <c r="C1171">
+        <v>25</v>
+      </c>
+      <c r="D1171">
+        <v>7.28</v>
+      </c>
+      <c r="E1171">
+        <v>8</v>
+      </c>
+      <c r="F1171">
+        <v>6</v>
+      </c>
+      <c r="I1171" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1172">
+        <v>1</v>
+      </c>
+      <c r="B1172">
+        <v>16</v>
+      </c>
+      <c r="C1172">
+        <v>26</v>
+      </c>
+      <c r="D1172">
+        <v>12.8</v>
+      </c>
+      <c r="E1172">
+        <v>14</v>
+      </c>
+      <c r="F1172">
+        <v>27</v>
+      </c>
+      <c r="I1172" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1173">
+        <v>1</v>
+      </c>
+      <c r="B1173">
+        <v>16</v>
+      </c>
+      <c r="C1173">
+        <v>27</v>
+      </c>
+      <c r="D1173">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="E1173">
+        <v>18</v>
+      </c>
+      <c r="F1173">
+        <v>70</v>
+      </c>
+      <c r="I1173" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1174">
+        <v>1</v>
+      </c>
+      <c r="B1174">
+        <v>16</v>
+      </c>
+      <c r="C1174">
+        <v>28</v>
+      </c>
+      <c r="D1174">
+        <v>11.6</v>
+      </c>
+      <c r="E1174">
+        <v>7.5</v>
+      </c>
+      <c r="F1174">
+        <v>6</v>
+      </c>
+      <c r="I1174" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1175">
+        <v>1</v>
+      </c>
+      <c r="B1175">
+        <v>16</v>
+      </c>
+      <c r="C1175">
+        <v>29</v>
+      </c>
+      <c r="D1175">
+        <v>12.6</v>
+      </c>
+      <c r="E1175">
+        <v>11</v>
+      </c>
+      <c r="F1175">
+        <v>23.75</v>
+      </c>
+      <c r="I1175" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1176">
+        <v>1</v>
+      </c>
+      <c r="B1176">
+        <v>16</v>
+      </c>
+      <c r="C1176">
+        <v>30</v>
+      </c>
+      <c r="D1176">
+        <v>14.7</v>
+      </c>
+      <c r="E1176">
+        <v>10</v>
+      </c>
+      <c r="F1176">
+        <v>14</v>
+      </c>
+      <c r="I1176" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1177">
+        <v>1</v>
+      </c>
+      <c r="B1177">
+        <v>16</v>
+      </c>
+      <c r="C1177">
+        <v>31</v>
+      </c>
+      <c r="D1177">
+        <v>22.41</v>
+      </c>
+      <c r="E1177">
+        <v>18</v>
+      </c>
+      <c r="F1177">
+        <v>90</v>
+      </c>
+      <c r="I1177" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1178">
+        <v>1</v>
+      </c>
+      <c r="B1178">
+        <v>16</v>
+      </c>
+      <c r="C1178">
+        <v>32</v>
+      </c>
+      <c r="D1178">
+        <v>16.02</v>
+      </c>
+      <c r="E1178">
+        <v>17</v>
+      </c>
+      <c r="F1178">
+        <v>60</v>
+      </c>
+      <c r="I1178" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1179">
+        <v>1</v>
+      </c>
+      <c r="B1179">
+        <v>16</v>
+      </c>
+      <c r="C1179">
+        <v>33</v>
+      </c>
+      <c r="D1179">
+        <v>19.71</v>
+      </c>
+      <c r="E1179">
+        <v>14.5</v>
+      </c>
+      <c r="F1179">
+        <v>60</v>
+      </c>
+      <c r="I1179" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1180">
+        <v>1</v>
+      </c>
+      <c r="B1180">
+        <v>16</v>
+      </c>
+      <c r="C1180">
+        <v>34</v>
+      </c>
+      <c r="D1180">
+        <v>6</v>
+      </c>
+      <c r="E1180">
+        <v>10.5</v>
+      </c>
+      <c r="F1180">
+        <v>6</v>
+      </c>
+      <c r="I1180" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1181">
+        <v>1</v>
+      </c>
+      <c r="B1181">
+        <v>16</v>
+      </c>
+      <c r="C1181">
+        <v>35</v>
+      </c>
+      <c r="D1181">
+        <v>9.4</v>
+      </c>
+      <c r="E1181">
+        <v>11</v>
+      </c>
+      <c r="F1181">
+        <v>9</v>
+      </c>
+      <c r="I1181" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1182">
+        <v>1</v>
+      </c>
+      <c r="B1182">
+        <v>16</v>
+      </c>
+      <c r="C1182">
+        <v>36</v>
+      </c>
+      <c r="D1182">
+        <v>9.65</v>
+      </c>
+      <c r="E1182">
+        <v>10.5</v>
+      </c>
+      <c r="F1182">
+        <v>14</v>
+      </c>
+      <c r="I1182" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1183">
+        <v>1</v>
+      </c>
+      <c r="B1183">
+        <v>16</v>
+      </c>
+      <c r="C1183">
+        <v>37</v>
+      </c>
+      <c r="D1183">
+        <v>8.67</v>
+      </c>
+      <c r="E1183">
+        <v>8.5</v>
+      </c>
+      <c r="F1183">
+        <v>8</v>
+      </c>
+      <c r="I1183" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1184">
+        <v>1</v>
+      </c>
+      <c r="B1184">
+        <v>16</v>
+      </c>
+      <c r="C1184">
+        <v>38</v>
+      </c>
+      <c r="D1184">
+        <v>57.35</v>
+      </c>
+      <c r="E1184">
+        <v>60</v>
+      </c>
+      <c r="F1184">
+        <v>1250</v>
+      </c>
+      <c r="I1184" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1185">
+        <v>1</v>
+      </c>
+      <c r="B1185">
+        <v>16</v>
+      </c>
+      <c r="C1185">
+        <v>39</v>
+      </c>
+      <c r="D1185">
+        <v>47.23</v>
+      </c>
+      <c r="E1185">
+        <v>54</v>
+      </c>
+      <c r="F1185">
+        <v>940</v>
+      </c>
+      <c r="I1185" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1186">
+        <v>1</v>
+      </c>
+      <c r="B1186">
+        <v>16</v>
+      </c>
+      <c r="C1186">
+        <v>40</v>
+      </c>
+      <c r="D1186">
+        <v>31.04</v>
+      </c>
+      <c r="E1186">
+        <v>27</v>
+      </c>
+      <c r="F1186">
+        <v>260</v>
+      </c>
+      <c r="I1186" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1187">
+        <v>1</v>
+      </c>
+      <c r="B1187">
+        <v>16</v>
+      </c>
+      <c r="C1187">
+        <v>41</v>
+      </c>
+      <c r="D1187">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="E1187">
+        <v>27.5</v>
+      </c>
+      <c r="F1187">
+        <v>290</v>
+      </c>
+      <c r="I1187" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1188">
+        <v>1</v>
+      </c>
+      <c r="B1188">
+        <v>16</v>
+      </c>
+      <c r="C1188">
+        <v>42</v>
+      </c>
+      <c r="D1188">
+        <v>44.09</v>
+      </c>
+      <c r="E1188">
+        <v>43.2</v>
+      </c>
+      <c r="F1188">
+        <v>750</v>
+      </c>
+      <c r="I1188" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1189">
+        <v>1</v>
+      </c>
+      <c r="B1189">
+        <v>16</v>
+      </c>
+      <c r="C1189">
+        <v>43</v>
+      </c>
+      <c r="D1189">
+        <v>36.24</v>
+      </c>
+      <c r="E1189">
+        <v>31.2</v>
+      </c>
+      <c r="F1189">
+        <v>460</v>
+      </c>
+      <c r="I1189" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1190">
+        <v>1</v>
+      </c>
+      <c r="B1190">
+        <v>16</v>
+      </c>
+      <c r="C1190">
+        <v>44</v>
+      </c>
+      <c r="D1190">
+        <v>49.46</v>
+      </c>
+      <c r="E1190">
+        <v>36</v>
+      </c>
+      <c r="F1190">
+        <v>560</v>
+      </c>
+      <c r="I1190" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1191">
+        <v>1</v>
+      </c>
+      <c r="B1191">
+        <v>16</v>
+      </c>
+      <c r="C1191">
+        <v>45</v>
+      </c>
+      <c r="D1191">
+        <v>51.12</v>
+      </c>
+      <c r="E1191">
+        <v>56</v>
+      </c>
+      <c r="F1191">
+        <v>1080</v>
+      </c>
+      <c r="I1191" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1192">
+        <v>1</v>
+      </c>
+      <c r="B1192">
+        <v>16</v>
+      </c>
+      <c r="C1192">
+        <v>46</v>
+      </c>
+      <c r="D1192">
+        <v>46.33</v>
+      </c>
+      <c r="E1192">
+        <v>44.5</v>
+      </c>
+      <c r="F1192">
+        <v>810</v>
+      </c>
+      <c r="I1192" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1193">
+        <v>1</v>
+      </c>
+      <c r="B1193">
+        <v>16</v>
+      </c>
+      <c r="C1193">
+        <v>47</v>
+      </c>
+      <c r="D1193">
+        <v>34.08</v>
+      </c>
+      <c r="E1193">
+        <v>31</v>
+      </c>
+      <c r="F1193">
+        <v>290</v>
+      </c>
+      <c r="I1193" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1194">
+        <v>1</v>
+      </c>
+      <c r="B1194">
+        <v>16</v>
+      </c>
+      <c r="C1194">
+        <v>48</v>
+      </c>
+      <c r="D1194">
+        <v>42.98</v>
+      </c>
+      <c r="E1194">
+        <v>42.5</v>
+      </c>
+      <c r="F1194">
+        <v>790</v>
+      </c>
+      <c r="I1194" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1195">
+        <v>1</v>
+      </c>
+      <c r="B1195">
+        <v>16</v>
+      </c>
+      <c r="C1195">
+        <v>49</v>
+      </c>
+      <c r="D1195">
+        <v>39.4</v>
+      </c>
+      <c r="E1195">
+        <v>46</v>
+      </c>
+      <c r="F1195">
+        <v>680</v>
+      </c>
+      <c r="I1195" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1196">
+        <v>1</v>
+      </c>
+      <c r="B1196">
+        <v>16</v>
+      </c>
+      <c r="C1196">
+        <v>50</v>
+      </c>
+      <c r="D1196">
+        <v>11.29</v>
+      </c>
+      <c r="E1196">
+        <v>10.5</v>
+      </c>
+      <c r="F1196">
+        <v>16</v>
+      </c>
+      <c r="I1196" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1197">
+        <v>1</v>
+      </c>
+      <c r="B1197">
+        <v>16</v>
+      </c>
+      <c r="C1197">
+        <v>51</v>
+      </c>
+      <c r="D1197">
+        <v>25.26</v>
+      </c>
+      <c r="E1197">
+        <v>12.5</v>
+      </c>
+      <c r="F1197">
+        <v>90</v>
+      </c>
+      <c r="I1197" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1198">
+        <v>1</v>
+      </c>
+      <c r="B1198">
+        <v>16</v>
+      </c>
+      <c r="C1198">
+        <v>52</v>
+      </c>
+      <c r="D1198">
+        <v>11.91</v>
+      </c>
+      <c r="E1198">
+        <v>9</v>
+      </c>
+      <c r="F1198">
+        <v>13</v>
+      </c>
+      <c r="I1198" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1199">
+        <v>1</v>
+      </c>
+      <c r="B1199">
+        <v>16</v>
+      </c>
+      <c r="C1199">
+        <v>53</v>
+      </c>
+      <c r="D1199">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1199">
+        <v>11</v>
+      </c>
+      <c r="F1199">
+        <v>45</v>
+      </c>
+      <c r="I1199" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1200">
+        <v>1</v>
+      </c>
+      <c r="B1200">
+        <v>16</v>
+      </c>
+      <c r="C1200">
+        <v>54</v>
+      </c>
+      <c r="D1200">
+        <v>28</v>
+      </c>
+      <c r="E1200">
+        <v>26.5</v>
+      </c>
+      <c r="F1200">
+        <v>230</v>
+      </c>
+      <c r="I1200" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1201">
+        <v>1</v>
+      </c>
+      <c r="B1201">
+        <v>16</v>
+      </c>
+      <c r="C1201">
+        <v>55</v>
+      </c>
+      <c r="D1201">
+        <v>20.23</v>
+      </c>
+      <c r="E1201">
+        <v>16.5</v>
+      </c>
+      <c r="F1201">
+        <v>80</v>
+      </c>
+      <c r="I1201" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1202">
+        <v>1</v>
+      </c>
+      <c r="B1202">
+        <v>16</v>
+      </c>
+      <c r="C1202">
+        <v>56</v>
+      </c>
+      <c r="D1202">
+        <v>11.09</v>
+      </c>
+      <c r="E1202">
+        <v>11.5</v>
+      </c>
+      <c r="F1202">
+        <v>40</v>
+      </c>
+      <c r="I1202" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1203">
+        <v>1</v>
+      </c>
+      <c r="B1203">
+        <v>16</v>
+      </c>
+      <c r="C1203">
+        <v>57</v>
+      </c>
+      <c r="D1203">
+        <v>22.13</v>
+      </c>
+      <c r="E1203">
+        <v>24.5</v>
+      </c>
+      <c r="F1203">
+        <v>130</v>
+      </c>
+      <c r="I1203" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1204">
+        <v>1</v>
+      </c>
+      <c r="B1204">
+        <v>16</v>
+      </c>
+      <c r="C1204">
+        <v>58</v>
+      </c>
+      <c r="D1204">
+        <v>3.58</v>
+      </c>
+      <c r="E1204">
+        <v>4.5</v>
+      </c>
+      <c r="F1204">
+        <v>1</v>
+      </c>
+      <c r="I1204" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1205">
+        <v>1</v>
+      </c>
+      <c r="B1205">
+        <v>16</v>
+      </c>
+      <c r="C1205">
+        <v>59</v>
+      </c>
+      <c r="D1205">
+        <v>6.7</v>
+      </c>
+      <c r="E1205">
+        <v>9.5</v>
+      </c>
+      <c r="F1205">
+        <v>7</v>
+      </c>
+      <c r="I1205" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1206">
+        <v>1</v>
+      </c>
+      <c r="B1206">
+        <v>16</v>
+      </c>
+      <c r="C1206">
+        <v>60</v>
+      </c>
+      <c r="D1206">
+        <v>11.8</v>
+      </c>
+      <c r="E1206">
+        <v>10</v>
+      </c>
+      <c r="F1206">
+        <v>40</v>
+      </c>
+      <c r="I1206" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1207">
+        <v>1</v>
+      </c>
+      <c r="B1207">
+        <v>16</v>
+      </c>
+      <c r="C1207">
+        <v>61</v>
+      </c>
+      <c r="D1207">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E1207">
+        <v>11</v>
+      </c>
+      <c r="F1207">
+        <v>17</v>
+      </c>
+      <c r="I1207" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1208">
+        <v>1</v>
+      </c>
+      <c r="B1208">
+        <v>16</v>
+      </c>
+      <c r="C1208">
+        <v>62</v>
+      </c>
+      <c r="D1208">
+        <v>11.9</v>
+      </c>
+      <c r="E1208">
+        <v>10.5</v>
+      </c>
+      <c r="F1208">
+        <v>16</v>
+      </c>
+      <c r="I1208" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1209">
+        <v>1</v>
+      </c>
+      <c r="B1209">
+        <v>16</v>
+      </c>
+      <c r="C1209">
+        <v>63</v>
+      </c>
+      <c r="D1209">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="E1209">
+        <v>13.5</v>
+      </c>
+      <c r="F1209">
+        <v>70</v>
+      </c>
+      <c r="I1209" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1210">
+        <v>1</v>
+      </c>
+      <c r="B1210">
+        <v>16</v>
+      </c>
+      <c r="C1210">
+        <v>64</v>
+      </c>
+      <c r="D1210">
+        <v>22.33</v>
+      </c>
+      <c r="E1210">
+        <v>14.5</v>
+      </c>
+      <c r="F1210">
+        <v>65</v>
+      </c>
+      <c r="I1210" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1211">
+        <v>1</v>
+      </c>
+      <c r="B1211">
+        <v>16</v>
+      </c>
+      <c r="C1211">
+        <v>65</v>
+      </c>
+      <c r="D1211">
+        <v>24.47</v>
+      </c>
+      <c r="E1211">
+        <v>19.3</v>
+      </c>
+      <c r="F1211">
+        <v>110</v>
+      </c>
+      <c r="I1211" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1212">
+        <v>1</v>
+      </c>
+      <c r="B1212">
+        <v>16</v>
+      </c>
+      <c r="C1212">
+        <v>66</v>
+      </c>
+      <c r="D1212">
+        <v>24.33</v>
+      </c>
+      <c r="E1212">
+        <v>19</v>
+      </c>
+      <c r="F1212">
+        <v>80</v>
+      </c>
+      <c r="I1212" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1213">
+        <v>1</v>
+      </c>
+      <c r="B1213">
+        <v>16</v>
+      </c>
+      <c r="C1213">
+        <v>67</v>
+      </c>
+      <c r="D1213">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1213">
+        <v>15.3</v>
+      </c>
+      <c r="F1213">
+        <v>70</v>
+      </c>
+      <c r="I1213" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1214">
+        <v>1</v>
+      </c>
+      <c r="B1214">
+        <v>16</v>
+      </c>
+      <c r="C1214">
+        <v>68</v>
+      </c>
+      <c r="D1214">
+        <v>10.98</v>
+      </c>
+      <c r="E1214">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F1214">
+        <v>17</v>
+      </c>
+      <c r="I1214" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1215">
+        <v>1</v>
+      </c>
+      <c r="B1215">
+        <v>16</v>
+      </c>
+      <c r="C1215">
+        <v>69</v>
+      </c>
+      <c r="D1215">
+        <v>34.61</v>
+      </c>
+      <c r="E1215">
+        <v>35.5</v>
+      </c>
+      <c r="F1215">
+        <v>390</v>
+      </c>
+      <c r="I1215" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1216">
+        <v>1</v>
+      </c>
+      <c r="B1216">
+        <v>16</v>
+      </c>
+      <c r="C1216">
+        <v>70</v>
+      </c>
+      <c r="D1216">
+        <v>21.96</v>
+      </c>
+      <c r="E1216">
+        <v>21</v>
+      </c>
+      <c r="F1216">
+        <v>70</v>
+      </c>
+      <c r="I1216" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1217">
+        <v>1</v>
+      </c>
+      <c r="B1217">
+        <v>16</v>
+      </c>
+      <c r="C1217">
+        <v>71</v>
+      </c>
+      <c r="D1217">
+        <v>15.89</v>
+      </c>
+      <c r="E1217">
+        <v>13.5</v>
+      </c>
+      <c r="F1217">
+        <v>70</v>
+      </c>
+      <c r="I1217" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1218">
+        <v>1</v>
+      </c>
+      <c r="B1218">
+        <v>16</v>
+      </c>
+      <c r="C1218">
+        <v>72</v>
+      </c>
+      <c r="D1218">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E1218">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F1218">
+        <v>11</v>
+      </c>
+      <c r="I1218" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1219">
+        <v>1</v>
+      </c>
+      <c r="B1219">
+        <v>16</v>
+      </c>
+      <c r="C1219">
+        <v>73</v>
+      </c>
+      <c r="D1219">
+        <v>19.66</v>
+      </c>
+      <c r="E1219">
+        <v>11.9</v>
+      </c>
+      <c r="F1219">
+        <v>40</v>
+      </c>
+      <c r="I1219" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1220">
+        <v>1</v>
+      </c>
+      <c r="B1220">
+        <v>16</v>
+      </c>
+      <c r="C1220">
+        <v>74</v>
+      </c>
+      <c r="D1220">
+        <v>38.53</v>
+      </c>
+      <c r="E1220">
+        <v>38.1</v>
+      </c>
+      <c r="F1220">
+        <v>490</v>
+      </c>
+      <c r="I1220" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1221">
+        <v>1</v>
+      </c>
+      <c r="B1221">
+        <v>16</v>
+      </c>
+      <c r="C1221">
+        <v>75</v>
+      </c>
+      <c r="D1221">
+        <v>33.1</v>
+      </c>
+      <c r="E1221">
+        <v>27.9</v>
+      </c>
+      <c r="F1221">
+        <v>260</v>
+      </c>
+      <c r="I1221" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1222">
+        <v>1</v>
+      </c>
+      <c r="B1222">
+        <v>16</v>
+      </c>
+      <c r="C1222">
+        <v>76</v>
+      </c>
+      <c r="D1222">
+        <v>37.89</v>
+      </c>
+      <c r="E1222">
+        <v>30</v>
+      </c>
+      <c r="F1222">
+        <v>480</v>
+      </c>
+      <c r="I1222" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1223">
+        <v>1</v>
+      </c>
+      <c r="B1223">
+        <v>16</v>
+      </c>
+      <c r="C1223">
+        <v>77</v>
+      </c>
+      <c r="D1223">
+        <v>4.12</v>
+      </c>
+      <c r="E1223">
+        <v>4.3</v>
+      </c>
+      <c r="F1223">
+        <v>1</v>
+      </c>
+      <c r="I1223" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1224">
+        <v>1</v>
+      </c>
+      <c r="B1224">
+        <v>16</v>
+      </c>
+      <c r="C1224">
+        <v>78</v>
+      </c>
+      <c r="D1224">
+        <v>28.47</v>
+      </c>
+      <c r="E1224">
+        <v>24</v>
+      </c>
+      <c r="F1224">
+        <v>140</v>
+      </c>
+      <c r="I1224" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1225">
+        <v>1</v>
+      </c>
+      <c r="B1225">
+        <v>16</v>
+      </c>
+      <c r="C1225">
+        <v>79</v>
+      </c>
+      <c r="D1225">
+        <v>47.48</v>
+      </c>
+      <c r="E1225">
+        <v>55</v>
+      </c>
+      <c r="F1225">
+        <v>1020</v>
+      </c>
+      <c r="I1225" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1226">
+        <v>1</v>
+      </c>
+      <c r="B1226">
+        <v>16</v>
+      </c>
+      <c r="C1226">
+        <v>80</v>
+      </c>
+      <c r="D1226">
+        <v>15.53</v>
+      </c>
+      <c r="E1226">
+        <v>17</v>
+      </c>
+      <c r="F1226">
+        <v>45</v>
+      </c>
+      <c r="I1226" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1227">
+        <v>1</v>
+      </c>
+      <c r="B1227">
+        <v>16</v>
+      </c>
+      <c r="C1227">
+        <v>81</v>
+      </c>
+      <c r="D1227">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="E1227">
+        <v>17</v>
+      </c>
+      <c r="F1227">
+        <v>60</v>
+      </c>
+      <c r="I1227" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1228">
+        <v>1</v>
+      </c>
+      <c r="B1228">
+        <v>16</v>
+      </c>
+      <c r="C1228">
+        <v>82</v>
+      </c>
+      <c r="D1228">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E1228">
+        <v>19.5</v>
+      </c>
+      <c r="F1228">
+        <v>80</v>
+      </c>
+      <c r="I1228" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1229">
+        <v>1</v>
+      </c>
+      <c r="B1229">
+        <v>16</v>
+      </c>
+      <c r="C1229">
+        <v>83</v>
+      </c>
+      <c r="D1229">
+        <v>38.75</v>
+      </c>
+      <c r="E1229">
+        <v>38.5</v>
+      </c>
+      <c r="F1229">
+        <v>530</v>
+      </c>
+      <c r="I1229" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1230">
+        <v>1</v>
+      </c>
+      <c r="B1230">
+        <v>16</v>
+      </c>
+      <c r="C1230">
+        <v>84</v>
+      </c>
+      <c r="D1230">
+        <v>22.6</v>
+      </c>
+      <c r="E1230">
+        <v>22</v>
+      </c>
+      <c r="F1230">
+        <v>140</v>
+      </c>
+      <c r="I1230" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1231">
+        <v>1</v>
+      </c>
+      <c r="B1231">
+        <v>16</v>
+      </c>
+      <c r="C1231">
+        <v>85</v>
+      </c>
+      <c r="D1231">
+        <v>38.4</v>
+      </c>
+      <c r="E1231">
+        <v>37.5</v>
+      </c>
+      <c r="F1231">
+        <v>520</v>
+      </c>
+      <c r="I1231" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1232">
+        <v>1</v>
+      </c>
+      <c r="B1232">
+        <v>16</v>
+      </c>
+      <c r="C1232">
+        <v>86</v>
+      </c>
+      <c r="D1232">
+        <v>24.5</v>
+      </c>
+      <c r="E1232">
+        <v>16.5</v>
+      </c>
+      <c r="F1232">
+        <v>60</v>
+      </c>
+      <c r="I1232" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1233">
+        <v>1</v>
+      </c>
+      <c r="B1233">
+        <v>16</v>
+      </c>
+      <c r="C1233">
+        <v>87</v>
+      </c>
+      <c r="D1233">
+        <v>21.8</v>
+      </c>
+      <c r="E1233">
+        <v>21.5</v>
+      </c>
+      <c r="F1233">
+        <v>140</v>
+      </c>
+      <c r="I1233" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1234">
+        <v>1</v>
+      </c>
+      <c r="B1234">
+        <v>16</v>
+      </c>
+      <c r="C1234">
+        <v>88</v>
+      </c>
+      <c r="I1234" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1235">
+        <v>1</v>
+      </c>
+      <c r="B1235">
+        <v>16</v>
+      </c>
+      <c r="C1235">
+        <v>89</v>
+      </c>
+      <c r="D1235">
+        <v>66.02</v>
+      </c>
+      <c r="E1235">
+        <v>56.6</v>
+      </c>
+      <c r="F1235">
+        <v>1740</v>
+      </c>
+      <c r="I1235" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1236">
+        <v>1</v>
+      </c>
+      <c r="B1236">
+        <v>16</v>
+      </c>
+      <c r="C1236">
+        <v>90</v>
+      </c>
+      <c r="D1236">
+        <v>13.5</v>
+      </c>
+      <c r="E1236">
+        <v>11.5</v>
+      </c>
+      <c r="F1236">
+        <v>30</v>
+      </c>
+      <c r="I1236" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1237">
+        <v>1</v>
+      </c>
+      <c r="B1237">
+        <v>16</v>
+      </c>
+      <c r="C1237">
+        <v>91</v>
+      </c>
+      <c r="D1237">
+        <v>19.88</v>
+      </c>
+      <c r="E1237">
+        <v>19.5</v>
+      </c>
+      <c r="F1237">
+        <v>80</v>
+      </c>
+      <c r="I1237" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1238">
+        <v>1</v>
+      </c>
+      <c r="B1238">
+        <v>16</v>
+      </c>
+      <c r="C1238">
+        <v>92</v>
+      </c>
+      <c r="D1238">
+        <v>32.76</v>
+      </c>
+      <c r="E1238">
+        <v>33.5</v>
+      </c>
+      <c r="F1238">
+        <v>360</v>
+      </c>
+      <c r="I1238" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1239">
+        <v>1</v>
+      </c>
+      <c r="B1239">
+        <v>16</v>
+      </c>
+      <c r="C1239">
+        <v>93</v>
+      </c>
+      <c r="D1239">
+        <v>25.7</v>
+      </c>
+      <c r="E1239">
+        <v>18.5</v>
+      </c>
+      <c r="F1239">
+        <v>140</v>
+      </c>
+      <c r="I1239" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1240">
+        <v>1</v>
+      </c>
+      <c r="B1240">
+        <v>16</v>
+      </c>
+      <c r="C1240">
+        <v>94</v>
+      </c>
+      <c r="D1240">
+        <v>13.23</v>
+      </c>
+      <c r="E1240">
+        <v>13</v>
+      </c>
+      <c r="F1240">
+        <v>25</v>
+      </c>
+      <c r="I1240" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1241">
+        <v>1</v>
+      </c>
+      <c r="B1241">
+        <v>16</v>
+      </c>
+      <c r="C1241">
+        <v>95</v>
+      </c>
+      <c r="D1241">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1241">
+        <v>16.5</v>
+      </c>
+      <c r="F1241">
+        <v>75</v>
+      </c>
+      <c r="I1241" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1242">
+        <v>1</v>
+      </c>
+      <c r="B1242">
+        <v>16</v>
+      </c>
+      <c r="C1242">
+        <v>96</v>
+      </c>
+      <c r="D1242">
+        <v>14.11</v>
+      </c>
+      <c r="E1242">
+        <v>13.5</v>
+      </c>
+      <c r="F1242">
+        <v>40</v>
+      </c>
+      <c r="I1242" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1243">
+        <v>1</v>
+      </c>
+      <c r="B1243">
+        <v>16</v>
+      </c>
+      <c r="C1243">
+        <v>97</v>
+      </c>
+      <c r="D1243">
+        <v>18.39</v>
+      </c>
+      <c r="E1243">
+        <v>12</v>
+      </c>
+      <c r="F1243">
+        <v>25</v>
+      </c>
+      <c r="I1243" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1244">
+        <v>1</v>
+      </c>
+      <c r="B1244">
+        <v>16</v>
+      </c>
+      <c r="C1244">
+        <v>98</v>
+      </c>
+      <c r="D1244">
+        <v>12.6</v>
+      </c>
+      <c r="E1244">
+        <v>12.5</v>
+      </c>
+      <c r="F1244">
+        <v>40</v>
+      </c>
+      <c r="I1244" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1245">
+        <v>1</v>
+      </c>
+      <c r="B1245">
+        <v>16</v>
+      </c>
+      <c r="C1245">
+        <v>99</v>
+      </c>
+      <c r="D1245">
+        <v>11.76</v>
+      </c>
+      <c r="E1245">
+        <v>12</v>
+      </c>
+      <c r="F1245">
+        <v>25</v>
+      </c>
+      <c r="I1245" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1246">
+        <v>1</v>
+      </c>
+      <c r="B1246">
+        <v>16</v>
+      </c>
+      <c r="C1246">
+        <v>100</v>
+      </c>
+      <c r="D1246">
+        <v>2.97</v>
+      </c>
+      <c r="E1246">
+        <v>3.3</v>
+      </c>
+      <c r="F1246">
+        <v>0.7</v>
+      </c>
+      <c r="I1246" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1247">
+        <v>1</v>
+      </c>
+      <c r="B1247">
+        <v>16</v>
+      </c>
+      <c r="C1247">
+        <v>101</v>
+      </c>
+      <c r="D1247">
+        <v>20.5</v>
+      </c>
+      <c r="E1247">
+        <v>17</v>
+      </c>
+      <c r="F1247">
+        <v>75</v>
+      </c>
+      <c r="I1247" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1248">
+        <v>1</v>
+      </c>
+      <c r="B1248">
+        <v>16</v>
+      </c>
+      <c r="C1248">
+        <v>102</v>
+      </c>
+      <c r="D1248">
+        <v>15.8</v>
+      </c>
+      <c r="E1248">
+        <v>14</v>
+      </c>
+      <c r="F1248">
+        <v>50</v>
+      </c>
+      <c r="I1248" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1249">
+        <v>1</v>
+      </c>
+      <c r="B1249">
+        <v>16</v>
+      </c>
+      <c r="C1249">
+        <v>103</v>
+      </c>
+      <c r="D1249">
+        <v>41.5</v>
+      </c>
+      <c r="E1249">
+        <v>26.5</v>
+      </c>
+      <c r="F1249">
+        <v>310</v>
+      </c>
+      <c r="I1249" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1250">
+        <v>1</v>
+      </c>
+      <c r="B1250">
+        <v>16</v>
+      </c>
+      <c r="C1250">
+        <v>104</v>
+      </c>
+      <c r="D1250">
+        <v>8.9</v>
+      </c>
+      <c r="E1250">
+        <v>9.5</v>
+      </c>
+      <c r="F1250">
+        <v>10</v>
+      </c>
+      <c r="I1250" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1251">
+        <v>1</v>
+      </c>
+      <c r="B1251">
+        <v>16</v>
+      </c>
+      <c r="C1251">
+        <v>105</v>
+      </c>
+      <c r="D1251">
+        <v>13.29</v>
+      </c>
+      <c r="E1251">
+        <v>9.5</v>
+      </c>
+      <c r="F1251">
+        <v>24</v>
+      </c>
+      <c r="I1251" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1252">
+        <v>1</v>
+      </c>
+      <c r="B1252">
+        <v>16</v>
+      </c>
+      <c r="C1252">
+        <v>106</v>
+      </c>
+      <c r="D1252">
+        <v>11.5</v>
+      </c>
+      <c r="E1252">
+        <v>10.5</v>
+      </c>
+      <c r="F1252">
+        <v>16</v>
+      </c>
+      <c r="I1252" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1253">
+        <v>1</v>
+      </c>
+      <c r="B1253">
+        <v>16</v>
+      </c>
+      <c r="C1253">
+        <v>107</v>
+      </c>
+      <c r="D1253">
+        <v>43.16</v>
+      </c>
+      <c r="E1253">
+        <v>35.5</v>
+      </c>
+      <c r="F1253">
+        <v>530</v>
+      </c>
+      <c r="I1253" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1254">
+        <v>1</v>
+      </c>
+      <c r="B1254">
+        <v>16</v>
+      </c>
+      <c r="C1254">
+        <v>108</v>
+      </c>
+      <c r="D1254">
+        <v>40.43</v>
+      </c>
+      <c r="E1254">
+        <v>38</v>
+      </c>
+      <c r="F1254">
+        <v>650</v>
+      </c>
+      <c r="I1254" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1255">
+        <v>1</v>
+      </c>
+      <c r="B1255">
+        <v>16</v>
+      </c>
+      <c r="C1255">
+        <v>109</v>
+      </c>
+      <c r="D1255">
+        <v>36.83</v>
+      </c>
+      <c r="E1255">
+        <v>33</v>
+      </c>
+      <c r="F1255">
+        <v>300</v>
+      </c>
+      <c r="I1255" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1256">
+        <v>1</v>
+      </c>
+      <c r="B1256">
+        <v>16</v>
+      </c>
+      <c r="C1256">
+        <v>110</v>
+      </c>
+      <c r="D1256">
+        <v>11.81</v>
+      </c>
+      <c r="E1256">
+        <v>12.5</v>
+      </c>
+      <c r="F1256">
+        <v>21</v>
+      </c>
+      <c r="I1256" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1257">
+        <v>1</v>
+      </c>
+      <c r="B1257">
+        <v>16</v>
+      </c>
+      <c r="C1257">
+        <v>111</v>
+      </c>
+      <c r="D1257">
+        <v>24.01</v>
+      </c>
+      <c r="E1257">
+        <v>21.5</v>
+      </c>
+      <c r="F1257">
+        <v>120</v>
+      </c>
+      <c r="I1257" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1258">
+        <v>1</v>
+      </c>
+      <c r="B1258">
+        <v>16</v>
+      </c>
+      <c r="C1258">
+        <v>112</v>
+      </c>
+      <c r="D1258">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="E1258">
+        <v>35.5</v>
+      </c>
+      <c r="F1258">
+        <v>480</v>
+      </c>
+      <c r="I1258" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1259">
+        <v>1</v>
+      </c>
+      <c r="B1259">
+        <v>16</v>
+      </c>
+      <c r="C1259">
+        <v>113</v>
+      </c>
+      <c r="D1259">
+        <v>42.4</v>
+      </c>
+      <c r="E1259">
+        <v>36</v>
+      </c>
+      <c r="F1259">
+        <v>460</v>
+      </c>
+      <c r="I1259" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1260">
+        <v>1</v>
+      </c>
+      <c r="B1260">
+        <v>16</v>
+      </c>
+      <c r="C1260">
+        <v>114</v>
+      </c>
+      <c r="D1260">
+        <v>42.62</v>
+      </c>
+      <c r="E1260">
+        <v>42.5</v>
+      </c>
+      <c r="F1260">
+        <v>760</v>
+      </c>
+      <c r="I1260" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1261">
+        <v>1</v>
+      </c>
+      <c r="B1261">
+        <v>16</v>
+      </c>
+      <c r="C1261">
+        <v>115</v>
+      </c>
+      <c r="D1261">
+        <v>17.55</v>
+      </c>
+      <c r="E1261">
+        <v>12.5</v>
+      </c>
+      <c r="F1261">
+        <v>50</v>
+      </c>
+      <c r="I1261" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1262">
+        <v>1</v>
+      </c>
+      <c r="B1262">
+        <v>16</v>
+      </c>
+      <c r="C1262">
+        <v>116</v>
+      </c>
+      <c r="D1262">
+        <v>14.16</v>
+      </c>
+      <c r="E1262">
+        <v>10</v>
+      </c>
+      <c r="F1262">
+        <v>30</v>
+      </c>
+      <c r="I1262" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1263">
+        <v>1</v>
+      </c>
+      <c r="B1263">
+        <v>16</v>
+      </c>
+      <c r="C1263">
+        <v>117</v>
+      </c>
+      <c r="D1263">
+        <v>43.7</v>
+      </c>
+      <c r="E1263">
+        <v>39</v>
+      </c>
+      <c r="F1263">
+        <v>800</v>
+      </c>
+      <c r="I1263" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1264">
+        <v>1</v>
+      </c>
+      <c r="B1264">
+        <v>16</v>
+      </c>
+      <c r="C1264">
+        <v>118</v>
+      </c>
+      <c r="D1264">
+        <v>61.35</v>
+      </c>
+      <c r="E1264">
+        <v>135</v>
+      </c>
+      <c r="F1264">
+        <v>2960</v>
+      </c>
+      <c r="I1264" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1265">
+        <v>1</v>
+      </c>
+      <c r="B1265">
+        <v>16</v>
+      </c>
+      <c r="C1265">
+        <v>119</v>
+      </c>
+      <c r="D1265">
+        <v>6.72</v>
+      </c>
+      <c r="E1265">
+        <v>6.2</v>
+      </c>
+      <c r="F1265">
+        <v>1</v>
+      </c>
+      <c r="I1265" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1266">
+        <v>1</v>
+      </c>
+      <c r="B1266">
+        <v>16</v>
+      </c>
+      <c r="C1266">
+        <v>120</v>
+      </c>
+      <c r="D1266">
+        <v>7.3</v>
+      </c>
+      <c r="E1266">
+        <v>8</v>
+      </c>
+      <c r="F1266">
+        <v>6</v>
+      </c>
+      <c r="I1266" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1267">
+        <v>1</v>
+      </c>
+      <c r="B1267">
+        <v>16</v>
+      </c>
+      <c r="C1267">
+        <v>121</v>
+      </c>
+      <c r="D1267">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E1267">
+        <v>7.2</v>
+      </c>
+      <c r="F1267">
+        <v>7.5</v>
+      </c>
+      <c r="I1267" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1268">
+        <v>1</v>
+      </c>
+      <c r="B1268">
+        <v>16</v>
+      </c>
+      <c r="C1268">
+        <v>122</v>
+      </c>
+      <c r="D1268">
+        <v>11.6</v>
+      </c>
+      <c r="E1268">
+        <v>13</v>
+      </c>
+      <c r="F1268">
+        <v>22</v>
+      </c>
+      <c r="I1268" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1269">
+        <v>1</v>
+      </c>
+      <c r="B1269">
+        <v>16</v>
+      </c>
+      <c r="C1269">
+        <v>123</v>
+      </c>
+      <c r="D1269">
+        <v>42.26</v>
+      </c>
+      <c r="E1269">
+        <v>43</v>
+      </c>
+      <c r="F1269">
+        <v>710</v>
+      </c>
+      <c r="I1269" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1270">
+        <v>1</v>
+      </c>
+      <c r="B1270">
+        <v>16</v>
+      </c>
+      <c r="C1270">
+        <v>124</v>
+      </c>
+      <c r="D1270">
+        <v>25.13</v>
+      </c>
+      <c r="E1270">
+        <v>19.5</v>
+      </c>
+      <c r="F1270">
+        <v>130</v>
+      </c>
+      <c r="I1270" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1271">
+        <v>1</v>
+      </c>
+      <c r="B1271">
+        <v>16</v>
+      </c>
+      <c r="C1271">
+        <v>125</v>
+      </c>
+      <c r="D1271">
+        <v>28.5</v>
+      </c>
+      <c r="E1271">
+        <v>28</v>
+      </c>
+      <c r="F1271">
+        <v>230</v>
+      </c>
+      <c r="I1271" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1272">
+        <v>1</v>
+      </c>
+      <c r="B1272">
+        <v>16</v>
+      </c>
+      <c r="C1272">
+        <v>126</v>
+      </c>
+      <c r="D1272">
+        <v>13.32</v>
+      </c>
+      <c r="E1272">
+        <v>18</v>
+      </c>
+      <c r="F1272">
+        <v>70</v>
+      </c>
+      <c r="I1272" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1273">
+        <v>1</v>
+      </c>
+      <c r="B1273">
+        <v>16</v>
+      </c>
+      <c r="C1273">
+        <v>127</v>
+      </c>
+      <c r="D1273">
+        <v>27.95</v>
+      </c>
+      <c r="E1273">
+        <v>19.5</v>
+      </c>
+      <c r="F1273">
+        <v>130</v>
+      </c>
+      <c r="I1273" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1274">
+        <v>1</v>
+      </c>
+      <c r="B1274">
+        <v>16</v>
+      </c>
+      <c r="C1274">
+        <v>128</v>
+      </c>
+      <c r="D1274">
+        <v>23.1</v>
+      </c>
+      <c r="E1274">
+        <v>19.5</v>
+      </c>
+      <c r="F1274">
+        <v>100</v>
+      </c>
+      <c r="I1274" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1275">
+        <v>1</v>
+      </c>
+      <c r="B1275">
+        <v>16</v>
+      </c>
+      <c r="C1275">
+        <v>129</v>
+      </c>
+      <c r="D1275">
+        <v>7.98</v>
+      </c>
+      <c r="E1275">
+        <v>6</v>
+      </c>
+      <c r="F1275">
+        <v>3.5</v>
+      </c>
+      <c r="I1275" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1276">
+        <v>1</v>
+      </c>
+      <c r="B1276">
+        <v>16</v>
+      </c>
+      <c r="C1276">
+        <v>130</v>
+      </c>
+      <c r="D1276">
+        <v>16.46</v>
+      </c>
+      <c r="E1276">
+        <v>16</v>
+      </c>
+      <c r="F1276">
+        <v>51</v>
+      </c>
+      <c r="I1276" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1277">
+        <v>1</v>
+      </c>
+      <c r="B1277">
+        <v>16</v>
+      </c>
+      <c r="C1277">
+        <v>131</v>
+      </c>
+      <c r="D1277">
+        <v>22.86</v>
+      </c>
+      <c r="E1277">
+        <v>22</v>
+      </c>
+      <c r="F1277">
+        <v>110</v>
+      </c>
+      <c r="I1277" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1278">
+        <v>1</v>
+      </c>
+      <c r="B1278">
+        <v>16</v>
+      </c>
+      <c r="C1278">
+        <v>132</v>
+      </c>
+      <c r="D1278">
+        <v>7.41</v>
+      </c>
+      <c r="E1278">
+        <v>9.5</v>
+      </c>
+      <c r="F1278">
+        <v>5.5</v>
+      </c>
+      <c r="I1278" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1279">
+        <v>1</v>
+      </c>
+      <c r="B1279">
+        <v>16</v>
+      </c>
+      <c r="C1279">
+        <v>133</v>
+      </c>
+      <c r="D1279">
+        <v>13.66</v>
+      </c>
+      <c r="E1279">
+        <v>13</v>
+      </c>
+      <c r="F1279">
+        <v>20</v>
+      </c>
+      <c r="I1279" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1280">
+        <v>1</v>
+      </c>
+      <c r="B1280">
+        <v>16</v>
+      </c>
+      <c r="C1280">
+        <v>134</v>
+      </c>
+      <c r="D1280">
+        <v>17.13</v>
+      </c>
+      <c r="E1280">
+        <v>13.5</v>
+      </c>
+      <c r="F1280">
+        <v>50</v>
+      </c>
+      <c r="I1280" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1281">
+        <v>1</v>
+      </c>
+      <c r="B1281">
+        <v>16</v>
+      </c>
+      <c r="C1281">
+        <v>135</v>
+      </c>
+      <c r="D1281">
+        <v>4.91</v>
+      </c>
+      <c r="E1281">
+        <v>6</v>
+      </c>
+      <c r="F1281">
+        <v>2.5</v>
+      </c>
+      <c r="I1281" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1282">
+        <v>1</v>
+      </c>
+      <c r="B1282">
+        <v>16</v>
+      </c>
+      <c r="C1282">
+        <v>136</v>
+      </c>
+      <c r="D1282">
+        <v>13.57</v>
+      </c>
+      <c r="E1282">
+        <v>11</v>
+      </c>
+      <c r="F1282">
+        <v>17</v>
+      </c>
+      <c r="I1282" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1283">
+        <v>1</v>
+      </c>
+      <c r="B1283">
+        <v>16</v>
+      </c>
+      <c r="C1283">
+        <v>137</v>
+      </c>
+      <c r="D1283">
+        <v>16.5</v>
+      </c>
+      <c r="E1283">
+        <v>15</v>
+      </c>
+      <c r="F1283">
+        <v>40</v>
+      </c>
+      <c r="I1283" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1284">
+        <v>1</v>
+      </c>
+      <c r="B1284">
+        <v>16</v>
+      </c>
+      <c r="C1284">
+        <v>138</v>
+      </c>
+      <c r="D1284">
+        <v>14.45</v>
+      </c>
+      <c r="E1284">
+        <v>15</v>
+      </c>
+      <c r="F1284">
+        <v>40</v>
+      </c>
+      <c r="I1284" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1285">
+        <v>1</v>
+      </c>
+      <c r="B1285">
+        <v>16</v>
+      </c>
+      <c r="C1285">
+        <v>139</v>
+      </c>
+      <c r="D1285">
+        <v>14.78</v>
+      </c>
+      <c r="E1285">
+        <v>12.5</v>
+      </c>
+      <c r="F1285">
+        <v>50</v>
+      </c>
+      <c r="I1285" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1286">
+        <v>1</v>
+      </c>
+      <c r="B1286">
+        <v>16</v>
+      </c>
+      <c r="C1286">
+        <v>140</v>
+      </c>
+      <c r="D1286">
+        <v>11.98</v>
+      </c>
+      <c r="E1286">
+        <v>12.5</v>
+      </c>
+      <c r="F1286">
+        <v>30</v>
+      </c>
+      <c r="I1286" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1287">
+        <v>1</v>
+      </c>
+      <c r="B1287">
+        <v>16</v>
+      </c>
+      <c r="C1287">
+        <v>141</v>
+      </c>
+      <c r="D1287">
+        <v>14.44</v>
+      </c>
+      <c r="E1287">
+        <v>12</v>
+      </c>
+      <c r="F1287">
+        <v>40</v>
+      </c>
+      <c r="I1287" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1288">
+        <v>1</v>
+      </c>
+      <c r="B1288">
+        <v>16</v>
+      </c>
+      <c r="C1288">
+        <v>142</v>
+      </c>
+      <c r="D1288">
+        <v>28.89</v>
+      </c>
+      <c r="E1288">
+        <v>29</v>
+      </c>
+      <c r="F1288">
+        <v>270</v>
+      </c>
+      <c r="I1288" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1289">
+        <v>1</v>
+      </c>
+      <c r="B1289">
+        <v>16</v>
+      </c>
+      <c r="C1289">
+        <v>143</v>
+      </c>
+      <c r="D1289">
+        <v>12.68</v>
+      </c>
+      <c r="E1289">
+        <v>13</v>
+      </c>
+      <c r="F1289">
+        <v>30</v>
+      </c>
+      <c r="I1289" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1290">
+        <v>1</v>
+      </c>
+      <c r="B1290">
+        <v>16</v>
+      </c>
+      <c r="C1290">
+        <v>144</v>
+      </c>
+      <c r="D1290">
+        <v>12.22</v>
+      </c>
+      <c r="E1290">
+        <v>12.5</v>
+      </c>
+      <c r="F1290">
+        <v>21.5</v>
+      </c>
+      <c r="I1290" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1291">
+        <v>1</v>
+      </c>
+      <c r="B1291">
+        <v>16</v>
+      </c>
+      <c r="C1291">
+        <v>145</v>
+      </c>
+      <c r="D1291">
+        <v>28.5</v>
+      </c>
+      <c r="E1291">
+        <v>22.5</v>
+      </c>
+      <c r="F1291">
+        <v>170</v>
+      </c>
+      <c r="I1291" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1292">
+        <v>1</v>
+      </c>
+      <c r="B1292">
+        <v>16</v>
+      </c>
+      <c r="C1292">
+        <v>146</v>
+      </c>
+      <c r="D1292">
+        <v>30.17</v>
+      </c>
+      <c r="E1292">
+        <v>31</v>
+      </c>
+      <c r="F1292">
+        <v>370</v>
+      </c>
+      <c r="I1292" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1293">
+        <v>1</v>
+      </c>
+      <c r="B1293">
+        <v>16</v>
+      </c>
+      <c r="C1293">
+        <v>147</v>
+      </c>
+      <c r="D1293">
+        <v>12.37</v>
+      </c>
+      <c r="E1293">
+        <v>13</v>
+      </c>
+      <c r="F1293">
+        <v>40</v>
+      </c>
+      <c r="I1293" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1294">
+        <v>1</v>
+      </c>
+      <c r="B1294">
+        <v>16</v>
+      </c>
+      <c r="C1294">
+        <v>148</v>
+      </c>
+      <c r="D1294">
+        <v>21.22</v>
+      </c>
+      <c r="E1294">
+        <v>19</v>
+      </c>
+      <c r="F1294">
+        <v>100</v>
+      </c>
+      <c r="I1294" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1295">
+        <v>1</v>
+      </c>
+      <c r="B1295">
+        <v>16</v>
+      </c>
+      <c r="C1295">
+        <v>149</v>
+      </c>
+      <c r="D1295">
+        <v>22.5</v>
+      </c>
+      <c r="E1295">
+        <v>26.43</v>
+      </c>
+      <c r="F1295">
+        <v>200</v>
+      </c>
+      <c r="I1295" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1296">
+        <v>1</v>
+      </c>
+      <c r="B1296">
+        <v>16</v>
+      </c>
+      <c r="C1296">
+        <v>150</v>
+      </c>
+      <c r="D1296">
+        <v>15.51</v>
+      </c>
+      <c r="E1296">
+        <v>16</v>
+      </c>
+      <c r="F1296">
+        <v>60</v>
+      </c>
+      <c r="I1296" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1297">
+        <v>1</v>
+      </c>
+      <c r="B1297">
+        <v>16</v>
+      </c>
+      <c r="C1297">
+        <v>151</v>
+      </c>
+      <c r="D1297">
+        <v>12.86</v>
+      </c>
+      <c r="E1297">
+        <v>12</v>
+      </c>
+      <c r="F1297">
+        <v>40</v>
+      </c>
+      <c r="I1297" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1298">
+        <v>1</v>
+      </c>
+      <c r="B1298">
+        <v>16</v>
+      </c>
+      <c r="C1298">
+        <v>152</v>
+      </c>
+      <c r="D1298">
+        <v>18.03</v>
+      </c>
+      <c r="E1298">
+        <v>14</v>
+      </c>
+      <c r="F1298">
+        <v>60</v>
+      </c>
+      <c r="I1298" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1299">
+        <v>1</v>
+      </c>
+      <c r="B1299">
+        <v>16</v>
+      </c>
+      <c r="C1299">
+        <v>153</v>
+      </c>
+      <c r="D1299">
+        <v>25.57</v>
+      </c>
+      <c r="E1299">
+        <v>19.5</v>
+      </c>
+      <c r="F1299">
+        <v>150</v>
+      </c>
+      <c r="I1299" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1300">
+        <v>1</v>
+      </c>
+      <c r="B1300">
+        <v>16</v>
+      </c>
+      <c r="C1300">
+        <v>154</v>
+      </c>
+      <c r="D1300">
+        <v>37.14</v>
+      </c>
+      <c r="E1300">
+        <v>20.5</v>
+      </c>
+      <c r="F1300">
+        <v>260</v>
+      </c>
+      <c r="I1300" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1301">
+        <v>1</v>
+      </c>
+      <c r="B1301">
+        <v>16</v>
+      </c>
+      <c r="C1301">
+        <v>155</v>
+      </c>
+      <c r="D1301">
+        <v>26.51</v>
+      </c>
+      <c r="E1301">
+        <v>24</v>
+      </c>
+      <c r="F1301">
+        <v>240</v>
+      </c>
+      <c r="I1301" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1302">
+        <v>1</v>
+      </c>
+      <c r="B1302">
+        <v>16</v>
+      </c>
+      <c r="C1302">
+        <v>156</v>
+      </c>
+      <c r="D1302">
+        <v>22.53</v>
+      </c>
+      <c r="E1302">
+        <v>2</v>
+      </c>
+      <c r="F1302">
+        <v>100</v>
+      </c>
+      <c r="I1302" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1303">
+        <v>1</v>
+      </c>
+      <c r="B1303">
+        <v>16</v>
+      </c>
+      <c r="C1303">
+        <v>157</v>
+      </c>
+      <c r="D1303">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="E1303">
+        <v>25</v>
+      </c>
+      <c r="F1303">
+        <v>240</v>
+      </c>
+      <c r="I1303" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1304">
+        <v>1</v>
+      </c>
+      <c r="B1304">
+        <v>16</v>
+      </c>
+      <c r="C1304">
+        <v>158</v>
+      </c>
+      <c r="D1304">
+        <v>9.17</v>
+      </c>
+      <c r="E1304">
+        <v>8.5</v>
+      </c>
+      <c r="F1304">
+        <v>10</v>
+      </c>
+      <c r="I1304" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1305">
+        <v>1</v>
+      </c>
+      <c r="B1305">
+        <v>16</v>
+      </c>
+      <c r="C1305">
+        <v>159</v>
+      </c>
+      <c r="D1305">
+        <v>28.51</v>
+      </c>
+      <c r="E1305">
+        <v>19.5</v>
+      </c>
+      <c r="F1305">
+        <v>230</v>
+      </c>
+      <c r="I1305" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1306">
+        <v>1</v>
+      </c>
+      <c r="B1306">
+        <v>16</v>
+      </c>
+      <c r="C1306">
+        <v>160</v>
+      </c>
+      <c r="I1306" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1307">
+        <v>1</v>
+      </c>
+      <c r="B1307">
+        <v>16</v>
+      </c>
+      <c r="C1307">
+        <v>161</v>
+      </c>
+      <c r="D1307">
+        <v>3.51</v>
+      </c>
+      <c r="E1307">
+        <v>3.5</v>
+      </c>
+      <c r="F1307">
+        <v>1</v>
+      </c>
+      <c r="I1307" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1308">
+        <v>1</v>
+      </c>
+      <c r="B1308">
+        <v>16</v>
+      </c>
+      <c r="C1308">
+        <v>162</v>
+      </c>
+      <c r="D1308">
+        <v>3.44</v>
+      </c>
+      <c r="E1308">
+        <v>4</v>
+      </c>
+      <c r="F1308">
+        <v>1</v>
+      </c>
+      <c r="I1308" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1309">
+        <v>1</v>
+      </c>
+      <c r="B1309">
+        <v>16</v>
+      </c>
+      <c r="C1309">
+        <v>163</v>
+      </c>
+      <c r="D1309">
+        <v>18.7</v>
+      </c>
+      <c r="E1309">
+        <v>19</v>
+      </c>
+      <c r="F1309">
+        <v>70</v>
+      </c>
+      <c r="I1309" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1310">
+        <v>1</v>
+      </c>
+      <c r="B1310">
+        <v>16</v>
+      </c>
+      <c r="C1310">
+        <v>164</v>
+      </c>
+      <c r="D1310">
+        <v>13.2</v>
+      </c>
+      <c r="E1310">
+        <v>12</v>
+      </c>
+      <c r="F1310">
+        <v>16</v>
+      </c>
+      <c r="I1310" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1311">
+        <v>1</v>
+      </c>
+      <c r="B1311">
+        <v>16</v>
+      </c>
+      <c r="C1311">
+        <v>165</v>
+      </c>
+      <c r="D1311">
+        <v>21.37</v>
+      </c>
+      <c r="E1311">
+        <v>14.5</v>
+      </c>
+      <c r="F1311">
+        <v>70</v>
+      </c>
+      <c r="I1311" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1312">
+        <v>1</v>
+      </c>
+      <c r="B1312">
+        <v>16</v>
+      </c>
+      <c r="C1312">
+        <v>166</v>
+      </c>
+      <c r="D1312">
+        <v>28.67</v>
+      </c>
+      <c r="E1312">
+        <v>23</v>
+      </c>
+      <c r="F1312">
+        <v>170</v>
+      </c>
+      <c r="I1312" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1313">
+        <v>1</v>
+      </c>
+      <c r="B1313">
+        <v>16</v>
+      </c>
+      <c r="C1313">
+        <v>167</v>
+      </c>
+      <c r="D1313">
+        <v>23.42</v>
+      </c>
+      <c r="E1313">
+        <v>24</v>
+      </c>
+      <c r="F1313">
+        <v>180</v>
+      </c>
+      <c r="I1313" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1314">
+        <v>1</v>
+      </c>
+      <c r="B1314">
+        <v>16</v>
+      </c>
+      <c r="C1314">
+        <v>168</v>
+      </c>
+      <c r="D1314">
+        <v>30.18</v>
+      </c>
+      <c r="E1314">
+        <v>30.5</v>
+      </c>
+      <c r="F1314">
+        <v>280</v>
+      </c>
+      <c r="I1314" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1315">
+        <v>1</v>
+      </c>
+      <c r="B1315">
+        <v>16</v>
+      </c>
+      <c r="C1315">
+        <v>169</v>
+      </c>
+      <c r="D1315">
+        <v>39.69</v>
+      </c>
+      <c r="E1315">
+        <v>35.5</v>
+      </c>
+      <c r="F1315">
+        <v>500</v>
+      </c>
+      <c r="I1315" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1316">
+        <v>1</v>
+      </c>
+      <c r="B1316">
+        <v>16</v>
+      </c>
+      <c r="C1316">
+        <v>170</v>
+      </c>
+      <c r="D1316">
+        <v>34.71</v>
+      </c>
+      <c r="E1316">
+        <v>27.5</v>
+      </c>
+      <c r="F1316">
+        <v>350</v>
+      </c>
+      <c r="I1316" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1317">
+        <v>1</v>
+      </c>
+      <c r="B1317">
+        <v>16</v>
+      </c>
+      <c r="C1317">
+        <v>171</v>
+      </c>
+      <c r="D1317">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="E1317">
+        <v>16</v>
+      </c>
+      <c r="F1317">
+        <v>60</v>
+      </c>
+      <c r="I1317" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1318">
+        <v>1</v>
+      </c>
+      <c r="B1318">
+        <v>16</v>
+      </c>
+      <c r="C1318">
+        <v>172</v>
+      </c>
+      <c r="D1318">
+        <v>23.46</v>
+      </c>
+      <c r="E1318">
+        <v>26</v>
+      </c>
+      <c r="F1318">
+        <v>230</v>
+      </c>
+      <c r="I1318" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1319">
+        <v>1</v>
+      </c>
+      <c r="B1319">
+        <v>16</v>
+      </c>
+      <c r="C1319">
+        <v>173</v>
+      </c>
+      <c r="D1319">
+        <v>8.36</v>
+      </c>
+      <c r="E1319">
+        <v>8.5</v>
+      </c>
+      <c r="F1319">
+        <v>8.5</v>
+      </c>
+      <c r="I1319" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1320">
+        <v>1</v>
+      </c>
+      <c r="B1320">
+        <v>16</v>
+      </c>
+      <c r="C1320">
+        <v>174</v>
+      </c>
+      <c r="D1320">
+        <v>6.5</v>
+      </c>
+      <c r="E1320">
+        <v>8.5</v>
+      </c>
+      <c r="F1320">
+        <v>5</v>
+      </c>
+      <c r="I1320" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1321">
+        <v>1</v>
+      </c>
+      <c r="B1321">
+        <v>16</v>
+      </c>
+      <c r="C1321">
+        <v>175</v>
+      </c>
+      <c r="D1321">
+        <v>24.7</v>
+      </c>
+      <c r="E1321">
+        <v>23</v>
+      </c>
+      <c r="F1321">
+        <v>150</v>
+      </c>
+      <c r="I1321" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1322">
+        <v>1</v>
+      </c>
+      <c r="B1322">
+        <v>16</v>
+      </c>
+      <c r="C1322">
+        <v>176</v>
+      </c>
+      <c r="D1322">
+        <v>46</v>
+      </c>
+      <c r="E1322">
+        <v>45.5</v>
+      </c>
+      <c r="F1322">
+        <v>890</v>
+      </c>
+      <c r="I1322" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1323">
+        <v>1</v>
+      </c>
+      <c r="B1323">
+        <v>16</v>
+      </c>
+      <c r="C1323">
+        <v>177</v>
+      </c>
+      <c r="D1323">
+        <v>32.93</v>
+      </c>
+      <c r="E1323">
+        <v>29.5</v>
+      </c>
+      <c r="F1323">
+        <v>300</v>
+      </c>
+      <c r="I1323" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1324">
+        <v>1</v>
+      </c>
+      <c r="B1324">
+        <v>16</v>
+      </c>
+      <c r="C1324">
+        <v>178</v>
+      </c>
+      <c r="D1324">
+        <v>13.04</v>
+      </c>
+      <c r="E1324">
+        <v>11.5</v>
+      </c>
+      <c r="F1324">
+        <v>22</v>
+      </c>
+      <c r="I1324" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1325">
+        <v>1</v>
+      </c>
+      <c r="B1325">
+        <v>16</v>
+      </c>
+      <c r="C1325">
+        <v>179</v>
+      </c>
+      <c r="D1325">
+        <v>25.81</v>
+      </c>
+      <c r="E1325">
+        <v>18</v>
+      </c>
+      <c r="F1325">
+        <v>90</v>
+      </c>
+      <c r="I1325" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1326">
+        <v>1</v>
+      </c>
+      <c r="B1326">
+        <v>16</v>
+      </c>
+      <c r="C1326">
+        <v>180</v>
+      </c>
+      <c r="D1326">
+        <v>19.41</v>
+      </c>
+      <c r="E1326">
+        <v>17.5</v>
+      </c>
+      <c r="F1326">
+        <v>120</v>
+      </c>
+      <c r="I1326" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1327">
+        <v>1</v>
+      </c>
+      <c r="B1327">
+        <v>16</v>
+      </c>
+      <c r="C1327">
+        <v>181</v>
+      </c>
+      <c r="D1327">
+        <v>26.76</v>
+      </c>
+      <c r="E1327">
+        <v>18</v>
+      </c>
+      <c r="F1327">
+        <v>130</v>
+      </c>
+      <c r="I1327" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1328">
+        <v>1</v>
+      </c>
+      <c r="B1328">
+        <v>16</v>
+      </c>
+      <c r="C1328">
+        <v>182</v>
+      </c>
+      <c r="D1328">
+        <v>33.44</v>
+      </c>
+      <c r="E1328">
+        <v>28</v>
+      </c>
+      <c r="F1328">
+        <v>360</v>
+      </c>
+      <c r="I1328" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1329">
+        <v>1</v>
+      </c>
+      <c r="B1329">
+        <v>16</v>
+      </c>
+      <c r="C1329">
+        <v>183</v>
+      </c>
+      <c r="D1329">
+        <v>28.05</v>
+      </c>
+      <c r="E1329">
+        <v>18</v>
+      </c>
+      <c r="F1329">
+        <v>150</v>
+      </c>
+      <c r="I1329" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1330">
+        <v>1</v>
+      </c>
+      <c r="B1330">
+        <v>16</v>
+      </c>
+      <c r="C1330">
+        <v>184</v>
+      </c>
+      <c r="D1330">
+        <v>20.72</v>
+      </c>
+      <c r="E1330">
+        <v>18</v>
+      </c>
+      <c r="F1330">
+        <v>70</v>
+      </c>
+      <c r="I1330" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1331">
+        <v>1</v>
+      </c>
+      <c r="B1331">
+        <v>16</v>
+      </c>
+      <c r="C1331">
+        <v>185</v>
+      </c>
+      <c r="D1331">
+        <v>27.89</v>
+      </c>
+      <c r="E1331">
+        <v>229</v>
+      </c>
+      <c r="F1331">
+        <v>190</v>
+      </c>
+      <c r="I1331" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1332">
+        <v>1</v>
+      </c>
+      <c r="B1332">
+        <v>16</v>
+      </c>
+      <c r="C1332">
+        <v>186</v>
+      </c>
+      <c r="D1332">
+        <v>10.34</v>
+      </c>
+      <c r="E1332">
+        <v>13</v>
+      </c>
+      <c r="F1332">
+        <v>17.5</v>
+      </c>
+      <c r="I1332" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1333">
+        <v>1</v>
+      </c>
+      <c r="B1333">
+        <v>16</v>
+      </c>
+      <c r="C1333">
+        <v>187</v>
+      </c>
+      <c r="D1333">
+        <v>15.2</v>
+      </c>
+      <c r="E1333">
+        <v>20.5</v>
+      </c>
+      <c r="F1333">
+        <v>60</v>
+      </c>
+      <c r="I1333" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1334">
+        <v>1</v>
+      </c>
+      <c r="B1334">
+        <v>16</v>
+      </c>
+      <c r="C1334">
+        <v>188</v>
+      </c>
+      <c r="D1334">
+        <v>17.57</v>
+      </c>
+      <c r="E1334">
+        <v>13</v>
+      </c>
+      <c r="F1334">
+        <v>40</v>
+      </c>
+      <c r="I1334" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1335">
+        <v>1</v>
+      </c>
+      <c r="B1335">
+        <v>16</v>
+      </c>
+      <c r="C1335">
+        <v>189</v>
+      </c>
+      <c r="D1335">
+        <v>30.88</v>
+      </c>
+      <c r="E1335">
+        <v>25</v>
+      </c>
+      <c r="F1335">
+        <v>300</v>
+      </c>
+      <c r="I1335" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1336">
+        <v>1</v>
+      </c>
+      <c r="B1336">
+        <v>16</v>
+      </c>
+      <c r="C1336">
+        <v>190</v>
+      </c>
+      <c r="D1336">
+        <v>31.04</v>
+      </c>
+      <c r="E1336">
+        <v>31</v>
+      </c>
+      <c r="F1336">
+        <v>320</v>
+      </c>
+      <c r="I1336" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1337">
+        <v>1</v>
+      </c>
+      <c r="B1337">
+        <v>16</v>
+      </c>
+      <c r="C1337">
+        <v>191</v>
+      </c>
+      <c r="D1337">
+        <v>24.65</v>
+      </c>
+      <c r="E1337">
+        <v>23.5</v>
+      </c>
+      <c r="F1337">
+        <v>170</v>
+      </c>
+      <c r="I1337" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1338">
+        <v>1</v>
+      </c>
+      <c r="B1338">
+        <v>16</v>
+      </c>
+      <c r="C1338">
+        <v>192</v>
+      </c>
+      <c r="D1338">
+        <v>20.96</v>
+      </c>
+      <c r="E1338">
+        <v>19</v>
+      </c>
+      <c r="F1338">
+        <v>110</v>
+      </c>
+      <c r="I1338" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1339">
+        <v>1</v>
+      </c>
+      <c r="B1339">
+        <v>16</v>
+      </c>
+      <c r="C1339">
+        <v>193</v>
+      </c>
+      <c r="D1339">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="E1339">
+        <v>14.5</v>
+      </c>
+      <c r="F1339">
+        <v>60</v>
+      </c>
+      <c r="I1339" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1340">
+        <v>1</v>
+      </c>
+      <c r="B1340">
+        <v>16</v>
+      </c>
+      <c r="C1340">
+        <v>194</v>
+      </c>
+      <c r="D1340">
+        <v>11.99</v>
+      </c>
+      <c r="E1340">
+        <v>9</v>
+      </c>
+      <c r="F1340">
+        <v>12.5</v>
+      </c>
+      <c r="I1340" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1341">
+        <v>1</v>
+      </c>
+      <c r="B1341">
+        <v>16</v>
+      </c>
+      <c r="C1341">
+        <v>195</v>
+      </c>
+      <c r="D1341">
+        <v>10.99</v>
+      </c>
+      <c r="E1341">
+        <v>11.5</v>
+      </c>
+      <c r="F1341">
+        <v>13</v>
+      </c>
+      <c r="I1341" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1342">
+        <v>1</v>
+      </c>
+      <c r="B1342">
+        <v>16</v>
+      </c>
+      <c r="C1342">
+        <v>196</v>
+      </c>
+      <c r="D1342">
+        <v>51.5</v>
+      </c>
+      <c r="E1342">
+        <v>49</v>
+      </c>
+      <c r="F1342">
+        <v>1050</v>
+      </c>
+      <c r="I1342" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1343">
+        <v>1</v>
+      </c>
+      <c r="B1343">
+        <v>16</v>
+      </c>
+      <c r="C1343">
+        <v>197</v>
+      </c>
+      <c r="D1343">
+        <v>44.18</v>
+      </c>
+      <c r="E1343">
+        <v>34</v>
+      </c>
+      <c r="F1343">
+        <v>650</v>
+      </c>
+      <c r="I1343" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1344">
+        <v>1</v>
+      </c>
+      <c r="B1344">
+        <v>16</v>
+      </c>
+      <c r="C1344">
+        <v>198</v>
+      </c>
+      <c r="D1344">
+        <v>53.75</v>
+      </c>
+      <c r="E1344">
+        <v>56.5</v>
+      </c>
+      <c r="F1344">
+        <v>1830</v>
+      </c>
+      <c r="I1344" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1345">
+        <v>1</v>
+      </c>
+      <c r="B1345">
+        <v>16</v>
+      </c>
+      <c r="C1345">
+        <v>199</v>
+      </c>
+      <c r="D1345">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="E1345">
+        <v>37.5</v>
+      </c>
+      <c r="F1345">
+        <v>620</v>
+      </c>
+      <c r="I1345" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1346">
+        <v>1</v>
+      </c>
+      <c r="B1346">
+        <v>16</v>
+      </c>
+      <c r="C1346">
+        <v>200</v>
+      </c>
+      <c r="D1346">
+        <v>40.5</v>
+      </c>
+      <c r="E1346">
+        <v>32</v>
+      </c>
+      <c r="F1346">
+        <v>850</v>
+      </c>
+      <c r="I1346" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1347">
+        <v>1</v>
+      </c>
+      <c r="B1347">
+        <v>16</v>
+      </c>
+      <c r="C1347">
+        <v>201</v>
+      </c>
+      <c r="D1347">
+        <v>15.47</v>
+      </c>
+      <c r="E1347">
+        <v>17</v>
+      </c>
+      <c r="F1347">
+        <v>70</v>
+      </c>
+      <c r="I1347" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1348">
+        <v>1</v>
+      </c>
+      <c r="B1348">
+        <v>16</v>
+      </c>
+      <c r="C1348">
+        <v>202</v>
+      </c>
+      <c r="D1348">
+        <v>29.45</v>
+      </c>
+      <c r="E1348">
+        <v>36.5</v>
+      </c>
+      <c r="F1348">
+        <v>450</v>
+      </c>
+      <c r="I1348" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1349">
+        <v>1</v>
+      </c>
+      <c r="B1349">
+        <v>16</v>
+      </c>
+      <c r="C1349">
+        <v>203</v>
+      </c>
+      <c r="D1349">
+        <v>47.2</v>
+      </c>
+      <c r="E1349">
+        <v>47</v>
+      </c>
+      <c r="F1349">
+        <v>910</v>
+      </c>
+      <c r="I1349" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1350">
+        <v>1</v>
+      </c>
+      <c r="B1350">
+        <v>16</v>
+      </c>
+      <c r="C1350">
+        <v>204</v>
+      </c>
+      <c r="D1350">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E1350">
+        <v>48</v>
+      </c>
+      <c r="F1350">
+        <v>760</v>
+      </c>
+      <c r="I1350" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1351">
+        <v>1</v>
+      </c>
+      <c r="B1351">
+        <v>16</v>
+      </c>
+      <c r="C1351">
+        <v>205</v>
+      </c>
+      <c r="D1351">
+        <v>25.79</v>
+      </c>
+      <c r="E1351">
+        <v>25.5</v>
+      </c>
+      <c r="F1351">
+        <v>120</v>
+      </c>
+      <c r="I1351" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1352">
+        <v>1</v>
+      </c>
+      <c r="B1352">
+        <v>16</v>
+      </c>
+      <c r="C1352">
+        <v>206</v>
+      </c>
+      <c r="D1352">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="E1352">
+        <v>34</v>
+      </c>
+      <c r="F1352">
+        <v>380</v>
+      </c>
+      <c r="I1352" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1353">
+        <v>1</v>
+      </c>
+      <c r="B1353">
+        <v>16</v>
+      </c>
+      <c r="C1353">
+        <v>207</v>
+      </c>
+      <c r="D1353">
+        <v>11.43</v>
+      </c>
+      <c r="E1353">
+        <v>14.5</v>
+      </c>
+      <c r="F1353">
+        <v>28</v>
+      </c>
+      <c r="I1353" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1354">
+        <v>1</v>
+      </c>
+      <c r="B1354">
+        <v>16</v>
+      </c>
+      <c r="C1354">
+        <v>208</v>
+      </c>
+      <c r="D1354">
+        <v>43.21</v>
+      </c>
+      <c r="E1354">
+        <v>40</v>
+      </c>
+      <c r="F1354">
+        <v>500</v>
+      </c>
+      <c r="I1354" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1355">
+        <v>1</v>
+      </c>
+      <c r="B1355">
+        <v>16</v>
+      </c>
+      <c r="C1355">
+        <v>209</v>
+      </c>
+      <c r="D1355">
+        <v>46.17</v>
+      </c>
+      <c r="E1355">
+        <v>46</v>
+      </c>
+      <c r="F1355">
+        <v>960</v>
+      </c>
+      <c r="I1355" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1356">
+        <v>1</v>
+      </c>
+      <c r="B1356">
+        <v>16</v>
+      </c>
+      <c r="C1356">
+        <v>210</v>
+      </c>
+      <c r="D1356">
+        <v>12.19</v>
+      </c>
+      <c r="E1356">
+        <v>16</v>
+      </c>
+      <c r="F1356">
+        <v>40</v>
+      </c>
+      <c r="I1356" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1357">
+        <v>1</v>
+      </c>
+      <c r="B1357">
+        <v>16</v>
+      </c>
+      <c r="C1357">
+        <v>211</v>
+      </c>
+      <c r="D1357">
+        <v>11.51</v>
+      </c>
+      <c r="E1357">
+        <v>9.5</v>
+      </c>
+      <c r="F1357">
+        <v>17</v>
+      </c>
+      <c r="I1357" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1358">
+        <v>1</v>
+      </c>
+      <c r="B1358">
+        <v>16</v>
+      </c>
+      <c r="C1358">
+        <v>212</v>
+      </c>
+      <c r="D1358">
+        <v>20.52</v>
+      </c>
+      <c r="E1358">
+        <v>25</v>
+      </c>
+      <c r="F1358">
+        <v>120</v>
+      </c>
+      <c r="I1358" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1359">
+        <v>1</v>
+      </c>
+      <c r="B1359">
+        <v>16</v>
+      </c>
+      <c r="C1359">
+        <v>213</v>
+      </c>
+      <c r="D1359">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="E1359">
+        <v>36.5</v>
+      </c>
+      <c r="F1359">
+        <v>640</v>
+      </c>
+      <c r="I1359" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1360">
+        <v>1</v>
+      </c>
+      <c r="B1360">
+        <v>16</v>
+      </c>
+      <c r="C1360">
+        <v>214</v>
+      </c>
+      <c r="D1360">
+        <v>40.71</v>
+      </c>
+      <c r="E1360">
+        <v>43</v>
+      </c>
+      <c r="F1360">
+        <v>750</v>
+      </c>
+      <c r="I1360" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1361">
+        <v>1</v>
+      </c>
+      <c r="B1361">
+        <v>16</v>
+      </c>
+      <c r="C1361">
+        <v>215</v>
+      </c>
+      <c r="D1361">
+        <v>14</v>
+      </c>
+      <c r="E1361">
+        <v>12</v>
+      </c>
+      <c r="F1361">
+        <v>27</v>
+      </c>
+      <c r="I1361" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1362">
+        <v>1</v>
+      </c>
+      <c r="B1362">
+        <v>16</v>
+      </c>
+      <c r="C1362">
+        <v>216</v>
+      </c>
+      <c r="D1362">
+        <v>39.17</v>
+      </c>
+      <c r="E1362">
+        <v>76</v>
+      </c>
+      <c r="F1362">
+        <v>2210</v>
+      </c>
+      <c r="I1362" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1363">
+        <v>1</v>
+      </c>
+      <c r="B1363">
+        <v>16</v>
+      </c>
+      <c r="C1363">
+        <v>217</v>
+      </c>
+      <c r="D1363">
+        <v>6.36</v>
+      </c>
+      <c r="E1363">
+        <v>6.5</v>
+      </c>
+      <c r="F1363">
+        <v>5.5</v>
+      </c>
+      <c r="I1363" s="2">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1364">
+        <v>1</v>
+      </c>
+      <c r="B1364">
+        <v>15</v>
+      </c>
+      <c r="C1364">
+        <v>1</v>
+      </c>
+      <c r="D1364">
+        <v>30.22</v>
+      </c>
+      <c r="E1364">
+        <v>20.5</v>
+      </c>
+      <c r="F1364">
+        <v>140</v>
+      </c>
+      <c r="I1364" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1365">
+        <v>1</v>
+      </c>
+      <c r="B1365">
+        <v>15</v>
+      </c>
+      <c r="C1365">
+        <v>2</v>
+      </c>
+      <c r="D1365">
+        <v>16.75</v>
+      </c>
+      <c r="E1365">
+        <v>12.5</v>
+      </c>
+      <c r="F1365">
+        <v>60</v>
+      </c>
+      <c r="I1365" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1366">
+        <v>1</v>
+      </c>
+      <c r="B1366">
+        <v>15</v>
+      </c>
+      <c r="C1366">
+        <v>3</v>
+      </c>
+      <c r="D1366">
+        <v>12.35</v>
+      </c>
+      <c r="E1366">
+        <v>8</v>
+      </c>
+      <c r="F1366">
+        <v>9</v>
+      </c>
+      <c r="I1366" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1367">
+        <v>1</v>
+      </c>
+      <c r="B1367">
+        <v>15</v>
+      </c>
+      <c r="C1367">
+        <v>4</v>
+      </c>
+      <c r="D1367">
+        <v>15.03</v>
+      </c>
+      <c r="E1367">
+        <v>12</v>
+      </c>
+      <c r="F1367">
+        <v>40</v>
+      </c>
+      <c r="I1367" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1368">
+        <v>1</v>
+      </c>
+      <c r="B1368">
+        <v>15</v>
+      </c>
+      <c r="C1368">
+        <v>5</v>
+      </c>
+      <c r="D1368">
+        <v>28.97</v>
+      </c>
+      <c r="E1368">
+        <v>27</v>
+      </c>
+      <c r="F1368">
+        <v>260</v>
+      </c>
+      <c r="I1368" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1369">
+        <v>1</v>
+      </c>
+      <c r="B1369">
+        <v>15</v>
+      </c>
+      <c r="C1369">
+        <v>6</v>
+      </c>
+      <c r="D1369">
+        <v>25.42</v>
+      </c>
+      <c r="E1369">
+        <v>19</v>
+      </c>
+      <c r="F1369">
+        <v>140</v>
+      </c>
+      <c r="I1369" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1370">
+        <v>1</v>
+      </c>
+      <c r="B1370">
+        <v>15</v>
+      </c>
+      <c r="C1370">
+        <v>7</v>
+      </c>
+      <c r="D1370">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="E1370">
+        <v>17.5</v>
+      </c>
+      <c r="F1370">
+        <v>60</v>
+      </c>
+      <c r="I1370" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1371">
+        <v>1</v>
+      </c>
+      <c r="B1371">
+        <v>15</v>
+      </c>
+      <c r="C1371">
+        <v>8</v>
+      </c>
+      <c r="D1371">
+        <v>15.4</v>
+      </c>
+      <c r="E1371">
+        <v>10.5</v>
+      </c>
+      <c r="F1371">
+        <v>40</v>
+      </c>
+      <c r="I1371" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1372">
+        <v>1</v>
+      </c>
+      <c r="B1372">
+        <v>15</v>
+      </c>
+      <c r="C1372">
+        <v>9</v>
+      </c>
+      <c r="D1372">
+        <v>18.3</v>
+      </c>
+      <c r="E1372">
+        <v>16.5</v>
+      </c>
+      <c r="F1372">
+        <v>90</v>
+      </c>
+      <c r="I1372" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1373">
+        <v>1</v>
+      </c>
+      <c r="B1373">
+        <v>15</v>
+      </c>
+      <c r="C1373">
+        <v>10</v>
+      </c>
+      <c r="D1373">
+        <v>25.65</v>
+      </c>
+      <c r="E1373">
+        <v>24.5</v>
+      </c>
+      <c r="F1373">
+        <v>140</v>
+      </c>
+      <c r="I1373" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1374">
+        <v>1</v>
+      </c>
+      <c r="B1374">
+        <v>15</v>
+      </c>
+      <c r="C1374">
+        <v>11</v>
+      </c>
+      <c r="D1374">
+        <v>33.53</v>
+      </c>
+      <c r="E1374">
+        <v>31</v>
+      </c>
+      <c r="F1374">
+        <v>350</v>
+      </c>
+      <c r="I1374" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1375">
+        <v>1</v>
+      </c>
+      <c r="B1375">
+        <v>15</v>
+      </c>
+      <c r="C1375">
+        <v>12</v>
+      </c>
+      <c r="D1375">
+        <v>32.53</v>
+      </c>
+      <c r="E1375">
+        <v>30.5</v>
+      </c>
+      <c r="F1375">
+        <v>260</v>
+      </c>
+      <c r="I1375" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1376">
+        <v>1</v>
+      </c>
+      <c r="B1376">
+        <v>15</v>
+      </c>
+      <c r="C1376">
+        <v>13</v>
+      </c>
+      <c r="D1376">
+        <v>17.18</v>
+      </c>
+      <c r="E1376">
+        <v>17</v>
+      </c>
+      <c r="F1376">
+        <v>80</v>
+      </c>
+      <c r="I1376" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1377">
+        <v>1</v>
+      </c>
+      <c r="B1377">
+        <v>15</v>
+      </c>
+      <c r="C1377">
+        <v>14</v>
+      </c>
+      <c r="D1377">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E1377">
+        <v>12.5</v>
+      </c>
+      <c r="F1377">
+        <v>50</v>
+      </c>
+      <c r="I1377" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1378">
+        <v>1</v>
+      </c>
+      <c r="B1378">
+        <v>15</v>
+      </c>
+      <c r="C1378">
+        <v>15</v>
+      </c>
+      <c r="D1378">
+        <v>16.7</v>
+      </c>
+      <c r="E1378">
+        <v>13.5</v>
+      </c>
+      <c r="F1378">
+        <v>50</v>
+      </c>
+      <c r="I1378" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1379">
+        <v>1</v>
+      </c>
+      <c r="B1379">
+        <v>15</v>
+      </c>
+      <c r="C1379">
+        <v>16</v>
+      </c>
+      <c r="D1379">
+        <v>15.3</v>
+      </c>
+      <c r="E1379">
+        <v>14</v>
+      </c>
+      <c r="F1379">
+        <v>60</v>
+      </c>
+      <c r="I1379" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1380">
+        <v>1</v>
+      </c>
+      <c r="B1380">
+        <v>15</v>
+      </c>
+      <c r="C1380">
+        <v>17</v>
+      </c>
+      <c r="D1380">
+        <v>15.6</v>
+      </c>
+      <c r="E1380">
+        <v>15</v>
+      </c>
+      <c r="F1380">
+        <v>60</v>
+      </c>
+      <c r="I1380" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1381">
+        <v>1</v>
+      </c>
+      <c r="B1381">
+        <v>15</v>
+      </c>
+      <c r="C1381">
+        <v>18</v>
+      </c>
+      <c r="D1381">
+        <v>13.85</v>
+      </c>
+      <c r="E1381">
+        <v>15</v>
+      </c>
+      <c r="F1381">
+        <v>50</v>
+      </c>
+      <c r="I1381" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1382">
+        <v>1</v>
+      </c>
+      <c r="B1382">
+        <v>15</v>
+      </c>
+      <c r="C1382">
+        <v>19</v>
+      </c>
+      <c r="D1382">
+        <v>20.2</v>
+      </c>
+      <c r="E1382">
+        <v>15.5</v>
+      </c>
+      <c r="F1382">
+        <v>70</v>
+      </c>
+      <c r="I1382" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1383">
+        <v>1</v>
+      </c>
+      <c r="B1383">
+        <v>15</v>
+      </c>
+      <c r="C1383">
+        <v>20</v>
+      </c>
+      <c r="D1383">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="E1383">
+        <v>35.5</v>
+      </c>
+      <c r="F1383">
+        <v>360</v>
+      </c>
+      <c r="I1383" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1384">
+        <v>1</v>
+      </c>
+      <c r="B1384">
+        <v>15</v>
+      </c>
+      <c r="C1384">
+        <v>21</v>
+      </c>
+      <c r="D1384">
+        <v>25.8</v>
+      </c>
+      <c r="E1384">
+        <v>21.5</v>
+      </c>
+      <c r="F1384">
+        <v>90</v>
+      </c>
+      <c r="I1384" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1385">
+        <v>1</v>
+      </c>
+      <c r="B1385">
+        <v>15</v>
+      </c>
+      <c r="C1385">
+        <v>22</v>
+      </c>
+      <c r="D1385">
+        <v>24.24</v>
+      </c>
+      <c r="E1385">
+        <v>9.5</v>
+      </c>
+      <c r="F1385">
+        <v>30</v>
+      </c>
+      <c r="I1385" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1386">
+        <v>1</v>
+      </c>
+      <c r="B1386">
+        <v>15</v>
+      </c>
+      <c r="C1386">
+        <v>23</v>
+      </c>
+      <c r="D1386">
+        <v>23.11</v>
+      </c>
+      <c r="E1386">
+        <v>20</v>
+      </c>
+      <c r="F1386">
+        <v>140</v>
+      </c>
+      <c r="I1386" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1387">
+        <v>1</v>
+      </c>
+      <c r="B1387">
+        <v>15</v>
+      </c>
+      <c r="C1387">
+        <v>24</v>
+      </c>
+      <c r="D1387">
+        <v>15.99</v>
+      </c>
+      <c r="E1387">
+        <v>12</v>
+      </c>
+      <c r="F1387">
+        <v>45</v>
+      </c>
+      <c r="I1387" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1388">
+        <v>1</v>
+      </c>
+      <c r="B1388">
+        <v>15</v>
+      </c>
+      <c r="C1388">
+        <v>25</v>
+      </c>
+      <c r="D1388">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1388">
+        <v>16</v>
+      </c>
+      <c r="F1388">
+        <v>80</v>
+      </c>
+      <c r="I1388" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1389">
+        <v>1</v>
+      </c>
+      <c r="B1389">
+        <v>15</v>
+      </c>
+      <c r="C1389">
+        <v>26</v>
+      </c>
+      <c r="D1389">
+        <v>18.8</v>
+      </c>
+      <c r="E1389">
+        <v>18</v>
+      </c>
+      <c r="F1389">
+        <v>70</v>
+      </c>
+      <c r="I1389" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1390">
+        <v>1</v>
+      </c>
+      <c r="B1390">
+        <v>15</v>
+      </c>
+      <c r="C1390">
+        <v>27</v>
+      </c>
+      <c r="D1390">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E1390">
+        <v>16</v>
+      </c>
+      <c r="F1390">
+        <v>60</v>
+      </c>
+      <c r="I1390" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1391">
+        <v>1</v>
+      </c>
+      <c r="B1391">
+        <v>15</v>
+      </c>
+      <c r="C1391">
+        <v>28</v>
+      </c>
+      <c r="D1391">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E1391">
+        <v>14</v>
+      </c>
+      <c r="F1391">
+        <v>30</v>
+      </c>
+      <c r="I1391" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1392">
+        <v>1</v>
+      </c>
+      <c r="B1392">
+        <v>15</v>
+      </c>
+      <c r="C1392">
+        <v>29</v>
+      </c>
+      <c r="D1392">
+        <v>18.8</v>
+      </c>
+      <c r="E1392">
+        <v>13</v>
+      </c>
+      <c r="F1392">
+        <v>60</v>
+      </c>
+      <c r="I1392" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1393">
+        <v>1</v>
+      </c>
+      <c r="B1393">
+        <v>15</v>
+      </c>
+      <c r="C1393">
+        <v>30</v>
+      </c>
+      <c r="D1393">
+        <v>14.5</v>
+      </c>
+      <c r="E1393">
+        <v>10</v>
+      </c>
+      <c r="F1393">
+        <v>30</v>
+      </c>
+      <c r="I1393" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1394">
+        <v>1</v>
+      </c>
+      <c r="B1394">
+        <v>15</v>
+      </c>
+      <c r="C1394">
+        <v>31</v>
+      </c>
+      <c r="D1394">
+        <v>21.45</v>
+      </c>
+      <c r="E1394">
+        <v>18.5</v>
+      </c>
+      <c r="F1394">
+        <v>80</v>
+      </c>
+      <c r="I1394" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1395">
+        <v>1</v>
+      </c>
+      <c r="B1395">
+        <v>15</v>
+      </c>
+      <c r="C1395">
+        <v>32</v>
+      </c>
+      <c r="D1395">
+        <v>36.9</v>
+      </c>
+      <c r="E1395">
+        <v>29</v>
+      </c>
+      <c r="F1395">
+        <v>390</v>
+      </c>
+      <c r="I1395" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1396">
+        <v>1</v>
+      </c>
+      <c r="B1396">
+        <v>15</v>
+      </c>
+      <c r="C1396">
+        <v>33</v>
+      </c>
+      <c r="D1396">
+        <v>35.9</v>
+      </c>
+      <c r="E1396">
+        <v>28</v>
+      </c>
+      <c r="F1396">
+        <v>380</v>
+      </c>
+      <c r="I1396" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1397">
+        <v>1</v>
+      </c>
+      <c r="B1397">
+        <v>15</v>
+      </c>
+      <c r="C1397">
+        <v>34</v>
+      </c>
+      <c r="D1397">
+        <v>48.33</v>
+      </c>
+      <c r="E1397">
+        <v>46.5</v>
+      </c>
+      <c r="F1397">
+        <v>870</v>
+      </c>
+      <c r="I1397" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1398">
+        <v>1</v>
+      </c>
+      <c r="B1398">
+        <v>15</v>
+      </c>
+      <c r="C1398">
+        <v>35</v>
+      </c>
+      <c r="D1398">
+        <v>28.8</v>
+      </c>
+      <c r="E1398">
+        <v>26</v>
+      </c>
+      <c r="F1398">
+        <v>160</v>
+      </c>
+      <c r="I1398" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1399">
+        <v>1</v>
+      </c>
+      <c r="B1399">
+        <v>15</v>
+      </c>
+      <c r="C1399">
+        <v>36</v>
+      </c>
+      <c r="D1399">
+        <v>14.3</v>
+      </c>
+      <c r="E1399">
+        <v>11</v>
+      </c>
+      <c r="F1399">
+        <v>40</v>
+      </c>
+      <c r="I1399" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1400">
+        <v>1</v>
+      </c>
+      <c r="B1400">
+        <v>15</v>
+      </c>
+      <c r="C1400">
+        <v>37</v>
+      </c>
+      <c r="D1400">
+        <v>13.7</v>
+      </c>
+      <c r="E1400">
+        <v>10.8</v>
+      </c>
+      <c r="F1400">
+        <v>35</v>
+      </c>
+      <c r="I1400" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1401">
+        <v>1</v>
+      </c>
+      <c r="B1401">
+        <v>15</v>
+      </c>
+      <c r="C1401">
+        <v>38</v>
+      </c>
+      <c r="D1401">
+        <v>20.2</v>
+      </c>
+      <c r="E1401">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F1401">
+        <v>100</v>
+      </c>
+      <c r="I1401" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1402">
+        <v>1</v>
+      </c>
+      <c r="B1402">
+        <v>15</v>
+      </c>
+      <c r="C1402">
+        <v>39</v>
+      </c>
+      <c r="D1402">
+        <v>7.3</v>
+      </c>
+      <c r="E1402">
+        <v>5.2</v>
+      </c>
+      <c r="F1402">
+        <v>3</v>
+      </c>
+      <c r="I1402" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1403">
+        <v>1</v>
+      </c>
+      <c r="B1403">
+        <v>15</v>
+      </c>
+      <c r="C1403">
+        <v>40</v>
+      </c>
+      <c r="D1403">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1403">
+        <v>7.9</v>
+      </c>
+      <c r="F1403">
+        <v>9</v>
+      </c>
+      <c r="I1403" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1404">
+        <v>1</v>
+      </c>
+      <c r="B1404">
+        <v>15</v>
+      </c>
+      <c r="C1404">
+        <v>41</v>
+      </c>
+      <c r="D1404">
+        <v>13.9</v>
+      </c>
+      <c r="E1404">
+        <v>16</v>
+      </c>
+      <c r="F1404">
+        <v>50</v>
+      </c>
+      <c r="I1404" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1405">
+        <v>1</v>
+      </c>
+      <c r="B1405">
+        <v>15</v>
+      </c>
+      <c r="C1405">
+        <v>42</v>
+      </c>
+      <c r="D1405">
+        <v>14.4</v>
+      </c>
+      <c r="E1405">
+        <v>11.5</v>
+      </c>
+      <c r="F1405">
+        <v>20</v>
+      </c>
+      <c r="I1405" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1406">
+        <v>1</v>
+      </c>
+      <c r="B1406">
+        <v>15</v>
+      </c>
+      <c r="C1406">
+        <v>43</v>
+      </c>
+      <c r="D1406">
+        <v>22.75</v>
+      </c>
+      <c r="E1406">
+        <v>18</v>
+      </c>
+      <c r="F1406">
+        <v>90</v>
+      </c>
+      <c r="I1406" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1407">
+        <v>1</v>
+      </c>
+      <c r="B1407">
+        <v>15</v>
+      </c>
+      <c r="C1407">
+        <v>44</v>
+      </c>
+      <c r="D1407">
+        <v>29.2</v>
+      </c>
+      <c r="E1407">
+        <v>29.5</v>
+      </c>
+      <c r="F1407">
+        <v>60</v>
+      </c>
+      <c r="I1407" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1408">
+        <v>1</v>
+      </c>
+      <c r="B1408">
+        <v>15</v>
+      </c>
+      <c r="C1408">
+        <v>45</v>
+      </c>
+      <c r="D1408">
+        <v>18.64</v>
+      </c>
+      <c r="E1408">
+        <v>15</v>
+      </c>
+      <c r="F1408">
+        <v>60</v>
+      </c>
+      <c r="I1408" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1409">
+        <v>1</v>
+      </c>
+      <c r="B1409">
+        <v>15</v>
+      </c>
+      <c r="C1409">
+        <v>46</v>
+      </c>
+      <c r="D1409">
+        <v>12.5</v>
+      </c>
+      <c r="E1409">
+        <v>10</v>
+      </c>
+      <c r="F1409">
+        <v>30</v>
+      </c>
+      <c r="I1409" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1410">
+        <v>1</v>
+      </c>
+      <c r="B1410">
+        <v>15</v>
+      </c>
+      <c r="C1410">
+        <v>47</v>
+      </c>
+      <c r="D1410">
+        <v>30.39</v>
+      </c>
+      <c r="E1410">
+        <v>24</v>
+      </c>
+      <c r="F1410">
+        <v>230</v>
+      </c>
+      <c r="I1410" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1411">
+        <v>1</v>
+      </c>
+      <c r="B1411">
+        <v>15</v>
+      </c>
+      <c r="C1411">
+        <v>48</v>
+      </c>
+      <c r="D1411">
+        <v>7.72</v>
+      </c>
+      <c r="E1411">
+        <v>8.5</v>
+      </c>
+      <c r="F1411">
+        <v>13</v>
+      </c>
+      <c r="I1411" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1412">
+        <v>1</v>
+      </c>
+      <c r="B1412">
+        <v>15</v>
+      </c>
+      <c r="C1412">
+        <v>49</v>
+      </c>
+      <c r="D1412">
+        <v>48.61</v>
+      </c>
+      <c r="E1412">
+        <v>45</v>
+      </c>
+      <c r="F1412">
+        <v>1020</v>
+      </c>
+      <c r="I1412" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1413">
+        <v>1</v>
+      </c>
+      <c r="B1413">
+        <v>15</v>
+      </c>
+      <c r="C1413">
+        <v>50</v>
+      </c>
+      <c r="D1413">
+        <v>28.12</v>
+      </c>
+      <c r="E1413">
+        <v>22.5</v>
+      </c>
+      <c r="F1413">
+        <v>180</v>
+      </c>
+      <c r="I1413" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1414">
+        <v>1</v>
+      </c>
+      <c r="B1414">
+        <v>15</v>
+      </c>
+      <c r="C1414">
+        <v>51</v>
+      </c>
+      <c r="D1414">
+        <v>15.23</v>
+      </c>
+      <c r="E1414">
+        <v>15.5</v>
+      </c>
+      <c r="F1414">
+        <v>40</v>
+      </c>
+      <c r="I1414" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1415">
+        <v>1</v>
+      </c>
+      <c r="B1415">
+        <v>15</v>
+      </c>
+      <c r="C1415">
+        <v>52</v>
+      </c>
+      <c r="D1415">
+        <v>21.28</v>
+      </c>
+      <c r="E1415">
+        <v>20</v>
+      </c>
+      <c r="F1415">
+        <v>100</v>
+      </c>
+      <c r="I1415" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1416">
+        <v>1</v>
+      </c>
+      <c r="B1416">
+        <v>15</v>
+      </c>
+      <c r="C1416">
+        <v>53</v>
+      </c>
+      <c r="D1416">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E1416">
+        <v>11.26</v>
+      </c>
+      <c r="F1416">
+        <v>14</v>
+      </c>
+      <c r="I1416" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1417">
+        <v>1</v>
+      </c>
+      <c r="B1417">
+        <v>15</v>
+      </c>
+      <c r="C1417">
+        <v>54</v>
+      </c>
+      <c r="D1417">
+        <v>12.28</v>
+      </c>
+      <c r="E1417">
+        <v>11.2</v>
+      </c>
+      <c r="F1417">
+        <v>14</v>
+      </c>
+      <c r="I1417" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1418">
+        <v>1</v>
+      </c>
+      <c r="B1418">
+        <v>15</v>
+      </c>
+      <c r="C1418">
+        <v>55</v>
+      </c>
+      <c r="D1418">
+        <v>11.45</v>
+      </c>
+      <c r="E1418">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F1418">
+        <v>20</v>
+      </c>
+      <c r="I1418" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1419">
+        <v>1</v>
+      </c>
+      <c r="B1419">
+        <v>15</v>
+      </c>
+      <c r="C1419">
+        <v>56</v>
+      </c>
+      <c r="D1419">
+        <v>31.02</v>
+      </c>
+      <c r="E1419">
+        <v>25.5</v>
+      </c>
+      <c r="F1419">
+        <v>260</v>
+      </c>
+      <c r="I1419" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1420">
+        <v>1</v>
+      </c>
+      <c r="B1420">
+        <v>15</v>
+      </c>
+      <c r="C1420">
+        <v>57</v>
+      </c>
+      <c r="D1420">
+        <v>53.4</v>
+      </c>
+      <c r="E1420">
+        <v>56</v>
+      </c>
+      <c r="F1420">
+        <v>1360</v>
+      </c>
+      <c r="I1420" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1421">
+        <v>1</v>
+      </c>
+      <c r="B1421">
+        <v>15</v>
+      </c>
+      <c r="C1421">
+        <v>58</v>
+      </c>
+      <c r="D1421">
+        <v>45</v>
+      </c>
+      <c r="E1421">
+        <v>50</v>
+      </c>
+      <c r="F1421">
+        <v>960</v>
+      </c>
+      <c r="I1421" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1422">
+        <v>1</v>
+      </c>
+      <c r="B1422">
+        <v>15</v>
+      </c>
+      <c r="C1422">
+        <v>59</v>
+      </c>
+      <c r="D1422">
+        <v>55.2</v>
+      </c>
+      <c r="E1422">
+        <v>59</v>
+      </c>
+      <c r="F1422">
+        <v>1570</v>
+      </c>
+      <c r="I1422" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1423">
+        <v>1</v>
+      </c>
+      <c r="B1423">
+        <v>15</v>
+      </c>
+      <c r="C1423">
+        <v>60</v>
+      </c>
+      <c r="D1423">
+        <v>43.7</v>
+      </c>
+      <c r="E1423">
+        <v>44</v>
+      </c>
+      <c r="F1423">
+        <v>780</v>
+      </c>
+      <c r="I1423" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1424">
+        <v>1</v>
+      </c>
+      <c r="B1424">
+        <v>15</v>
+      </c>
+      <c r="C1424">
+        <v>61</v>
+      </c>
+      <c r="D1424">
+        <v>45.3</v>
+      </c>
+      <c r="E1424">
+        <v>38.5</v>
+      </c>
+      <c r="F1424">
+        <v>600</v>
+      </c>
+      <c r="I1424" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1425">
+        <v>1</v>
+      </c>
+      <c r="B1425">
+        <v>15</v>
+      </c>
+      <c r="C1425">
+        <v>62</v>
+      </c>
+      <c r="D1425">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E1425">
+        <v>28</v>
+      </c>
+      <c r="F1425">
+        <v>360</v>
+      </c>
+      <c r="I1425" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1426">
+        <v>1</v>
+      </c>
+      <c r="B1426">
+        <v>15</v>
+      </c>
+      <c r="C1426">
+        <v>63</v>
+      </c>
+      <c r="D1426">
+        <v>57.7</v>
+      </c>
+      <c r="E1426">
+        <v>82.5</v>
+      </c>
+      <c r="F1426">
+        <v>1910</v>
+      </c>
+      <c r="I1426" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1427">
+        <v>1</v>
+      </c>
+      <c r="B1427">
+        <v>15</v>
+      </c>
+      <c r="C1427">
+        <v>64</v>
+      </c>
+      <c r="D1427">
+        <v>45.82</v>
+      </c>
+      <c r="E1427">
+        <v>37.9</v>
+      </c>
+      <c r="F1427">
+        <v>610</v>
+      </c>
+      <c r="I1427" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1428">
+        <v>1</v>
+      </c>
+      <c r="B1428">
+        <v>15</v>
+      </c>
+      <c r="C1428">
+        <v>65</v>
+      </c>
+      <c r="D1428">
+        <v>23.82</v>
+      </c>
+      <c r="E1428">
+        <v>24</v>
+      </c>
+      <c r="F1428">
+        <v>180</v>
+      </c>
+      <c r="I1428" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1429">
+        <v>1</v>
+      </c>
+      <c r="B1429">
+        <v>15</v>
+      </c>
+      <c r="C1429">
+        <v>66</v>
+      </c>
+      <c r="D1429">
+        <v>47.86</v>
+      </c>
+      <c r="E1429">
+        <v>58</v>
+      </c>
+      <c r="F1429">
+        <v>1370</v>
+      </c>
+      <c r="I1429" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1430">
+        <v>1</v>
+      </c>
+      <c r="B1430">
+        <v>15</v>
+      </c>
+      <c r="C1430">
+        <v>67</v>
+      </c>
+      <c r="D1430">
+        <v>55.29</v>
+      </c>
+      <c r="E1430">
+        <v>77.5</v>
+      </c>
+      <c r="F1430">
+        <v>1660</v>
+      </c>
+      <c r="I1430" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1431">
+        <v>1</v>
+      </c>
+      <c r="B1431">
+        <v>15</v>
+      </c>
+      <c r="C1431">
+        <v>68</v>
+      </c>
+      <c r="D1431">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="E1431">
+        <v>78</v>
+      </c>
+      <c r="F1431">
+        <v>3150</v>
+      </c>
+      <c r="I1431" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1432">
+        <v>1</v>
+      </c>
+      <c r="B1432">
+        <v>15</v>
+      </c>
+      <c r="C1432">
+        <v>69</v>
+      </c>
+      <c r="D1432">
+        <v>51.73</v>
+      </c>
+      <c r="E1432">
+        <v>59.5</v>
+      </c>
+      <c r="F1432">
+        <v>1460</v>
+      </c>
+      <c r="I1432" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1433">
+        <v>1</v>
+      </c>
+      <c r="B1433">
+        <v>15</v>
+      </c>
+      <c r="C1433">
+        <v>70</v>
+      </c>
+      <c r="D1433">
+        <v>49.62</v>
+      </c>
+      <c r="E1433">
+        <v>47.5</v>
+      </c>
+      <c r="F1433">
+        <v>950</v>
+      </c>
+      <c r="I1433" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1434">
+        <v>1</v>
+      </c>
+      <c r="B1434">
+        <v>15</v>
+      </c>
+      <c r="C1434">
+        <v>71</v>
+      </c>
+      <c r="D1434">
+        <v>62.4</v>
+      </c>
+      <c r="E1434">
+        <v>83</v>
+      </c>
+      <c r="F1434">
+        <v>2190</v>
+      </c>
+      <c r="I1434" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1435">
+        <v>1</v>
+      </c>
+      <c r="B1435">
+        <v>15</v>
+      </c>
+      <c r="C1435">
+        <v>72</v>
+      </c>
+      <c r="D1435">
+        <v>4.3</v>
+      </c>
+      <c r="E1435">
+        <v>4.5</v>
+      </c>
+      <c r="F1435">
+        <v>1.4</v>
+      </c>
+      <c r="I1435" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1436">
+        <v>1</v>
+      </c>
+      <c r="B1436">
+        <v>15</v>
+      </c>
+      <c r="C1436">
+        <v>73</v>
+      </c>
+      <c r="D1436">
+        <v>7.4</v>
+      </c>
+      <c r="E1436">
+        <v>6.5</v>
+      </c>
+      <c r="F1436">
+        <v>4</v>
+      </c>
+      <c r="I1436" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1437">
+        <v>1</v>
+      </c>
+      <c r="B1437">
+        <v>15</v>
+      </c>
+      <c r="C1437">
+        <v>74</v>
+      </c>
+      <c r="D1437">
+        <v>11.81</v>
+      </c>
+      <c r="E1437">
+        <v>11</v>
+      </c>
+      <c r="F1437">
+        <v>14</v>
+      </c>
+      <c r="I1437" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1438">
+        <v>1</v>
+      </c>
+      <c r="B1438">
+        <v>15</v>
+      </c>
+      <c r="C1438">
+        <v>75</v>
+      </c>
+      <c r="D1438">
+        <v>9.61</v>
+      </c>
+      <c r="E1438">
+        <v>8.5</v>
+      </c>
+      <c r="F1438">
+        <v>9</v>
+      </c>
+      <c r="I1438" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1439">
+        <v>1</v>
+      </c>
+      <c r="B1439">
+        <v>15</v>
+      </c>
+      <c r="C1439">
+        <v>76</v>
+      </c>
+      <c r="D1439">
+        <v>9.14</v>
+      </c>
+      <c r="E1439">
+        <v>9</v>
+      </c>
+      <c r="F1439">
+        <v>8</v>
+      </c>
+      <c r="I1439" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1440">
+        <v>1</v>
+      </c>
+      <c r="B1440">
+        <v>15</v>
+      </c>
+      <c r="C1440">
+        <v>77</v>
+      </c>
+      <c r="D1440">
+        <v>13.4</v>
+      </c>
+      <c r="E1440">
+        <v>13.5</v>
+      </c>
+      <c r="F1440">
+        <v>22</v>
+      </c>
+      <c r="I1440" s="2">
+        <v>45726</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1441">
+        <v>1</v>
+      </c>
+      <c r="B1441">
+        <v>17</v>
+      </c>
+      <c r="C1441">
+        <v>1</v>
+      </c>
+      <c r="D1441">
+        <v>17.72</v>
+      </c>
+      <c r="E1441">
+        <v>12</v>
+      </c>
+      <c r="F1441">
+        <v>45</v>
+      </c>
+      <c r="I1441" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1442">
+        <v>1</v>
+      </c>
+      <c r="B1442">
+        <v>17</v>
+      </c>
+      <c r="C1442">
+        <v>2</v>
+      </c>
+      <c r="D1442">
+        <v>21.64</v>
+      </c>
+      <c r="E1442">
+        <v>21.2</v>
+      </c>
+      <c r="F1442">
+        <v>160</v>
+      </c>
+      <c r="I1442" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1443">
+        <v>1</v>
+      </c>
+      <c r="B1443">
+        <v>17</v>
+      </c>
+      <c r="C1443">
+        <v>3</v>
+      </c>
+      <c r="D1443">
+        <v>10.9</v>
+      </c>
+      <c r="E1443">
+        <v>7.9</v>
+      </c>
+      <c r="F1443">
+        <v>12</v>
+      </c>
+      <c r="I1443" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1444">
+        <v>1</v>
+      </c>
+      <c r="B1444">
+        <v>17</v>
+      </c>
+      <c r="C1444">
+        <v>4</v>
+      </c>
+      <c r="D1444">
+        <v>23.2</v>
+      </c>
+      <c r="E1444">
+        <v>19.5</v>
+      </c>
+      <c r="F1444">
+        <v>120</v>
+      </c>
+      <c r="I1444" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1445">
+        <v>1</v>
+      </c>
+      <c r="B1445">
+        <v>17</v>
+      </c>
+      <c r="C1445">
+        <v>5</v>
+      </c>
+      <c r="D1445">
+        <v>27.8</v>
+      </c>
+      <c r="E1445">
+        <v>25.2</v>
+      </c>
+      <c r="F1445">
+        <v>200</v>
+      </c>
+      <c r="I1445" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1446">
+        <v>1</v>
+      </c>
+      <c r="B1446">
+        <v>17</v>
+      </c>
+      <c r="C1446">
+        <v>6</v>
+      </c>
+      <c r="D1446">
+        <v>26.16</v>
+      </c>
+      <c r="E1446">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F1446">
+        <v>160</v>
+      </c>
+      <c r="I1446" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1447">
+        <v>1</v>
+      </c>
+      <c r="B1447">
+        <v>17</v>
+      </c>
+      <c r="C1447">
+        <v>7</v>
+      </c>
+      <c r="D1447">
+        <v>18.3</v>
+      </c>
+      <c r="E1447">
+        <v>14.5</v>
+      </c>
+      <c r="F1447">
+        <v>70</v>
+      </c>
+      <c r="I1447" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1448">
+        <v>1</v>
+      </c>
+      <c r="B1448">
+        <v>17</v>
+      </c>
+      <c r="C1448">
+        <v>8</v>
+      </c>
+      <c r="D1448">
+        <v>38.5</v>
+      </c>
+      <c r="E1448">
+        <v>32</v>
+      </c>
+      <c r="F1448">
+        <v>320</v>
+      </c>
+      <c r="I1448" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1449">
+        <v>1</v>
+      </c>
+      <c r="B1449">
+        <v>17</v>
+      </c>
+      <c r="C1449">
+        <v>9</v>
+      </c>
+      <c r="D1449">
+        <v>44.03</v>
+      </c>
+      <c r="E1449">
+        <v>39</v>
+      </c>
+      <c r="F1449">
+        <v>730</v>
+      </c>
+      <c r="I1449" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1450">
+        <v>1</v>
+      </c>
+      <c r="B1450">
+        <v>17</v>
+      </c>
+      <c r="C1450">
+        <v>10</v>
+      </c>
+      <c r="D1450">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E1450">
+        <v>23.5</v>
+      </c>
+      <c r="F1450">
+        <v>190</v>
+      </c>
+      <c r="I1450" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1451">
+        <v>1</v>
+      </c>
+      <c r="B1451">
+        <v>17</v>
+      </c>
+      <c r="C1451">
+        <v>11</v>
+      </c>
+      <c r="D1451">
+        <v>17.09</v>
+      </c>
+      <c r="E1451">
+        <v>15</v>
+      </c>
+      <c r="F1451">
+        <v>80</v>
+      </c>
+      <c r="I1451" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1452">
+        <v>1</v>
+      </c>
+      <c r="B1452">
+        <v>17</v>
+      </c>
+      <c r="C1452">
+        <v>12</v>
+      </c>
+      <c r="D1452">
+        <v>23.1</v>
+      </c>
+      <c r="E1452">
+        <v>21.5</v>
+      </c>
+      <c r="F1452">
+        <v>150</v>
+      </c>
+      <c r="I1452" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1453">
+        <v>1</v>
+      </c>
+      <c r="B1453">
+        <v>17</v>
+      </c>
+      <c r="C1453">
+        <v>13</v>
+      </c>
+      <c r="D1453">
+        <v>25.6</v>
+      </c>
+      <c r="E1453">
+        <v>24.2</v>
+      </c>
+      <c r="F1453">
+        <v>200</v>
+      </c>
+      <c r="I1453" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1454">
+        <v>1</v>
+      </c>
+      <c r="B1454">
+        <v>17</v>
+      </c>
+      <c r="C1454">
+        <v>14</v>
+      </c>
+      <c r="D1454">
+        <v>23.1</v>
+      </c>
+      <c r="E1454">
+        <v>16.5</v>
+      </c>
+      <c r="F1454">
+        <v>40</v>
+      </c>
+      <c r="I1454" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1455">
+        <v>1</v>
+      </c>
+      <c r="B1455">
+        <v>17</v>
+      </c>
+      <c r="C1455">
+        <v>15</v>
+      </c>
+      <c r="D1455">
+        <v>13.9</v>
+      </c>
+      <c r="E1455">
+        <v>10.5</v>
+      </c>
+      <c r="F1455">
+        <v>22</v>
+      </c>
+      <c r="I1455" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1456">
+        <v>1</v>
+      </c>
+      <c r="B1456">
+        <v>17</v>
+      </c>
+      <c r="C1456">
+        <v>16</v>
+      </c>
+      <c r="D1456">
+        <v>18.2</v>
+      </c>
+      <c r="E1456">
+        <v>15.5</v>
+      </c>
+      <c r="F1456">
+        <v>70</v>
+      </c>
+      <c r="I1456" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1457">
+        <v>1</v>
+      </c>
+      <c r="B1457">
+        <v>17</v>
+      </c>
+      <c r="C1457">
+        <v>17</v>
+      </c>
+      <c r="D1457">
+        <v>26.48</v>
+      </c>
+      <c r="E1457">
+        <v>19.5</v>
+      </c>
+      <c r="F1457">
+        <v>160</v>
+      </c>
+      <c r="I1457" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1458">
+        <v>1</v>
+      </c>
+      <c r="B1458">
+        <v>17</v>
+      </c>
+      <c r="C1458">
+        <v>18</v>
+      </c>
+      <c r="D1458">
+        <v>36.24</v>
+      </c>
+      <c r="E1458">
+        <v>29</v>
+      </c>
+      <c r="F1458">
+        <v>476</v>
+      </c>
+      <c r="I1458" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1459">
+        <v>1</v>
+      </c>
+      <c r="B1459">
+        <v>17</v>
+      </c>
+      <c r="C1459">
+        <v>19</v>
+      </c>
+      <c r="D1459">
+        <v>27.09</v>
+      </c>
+      <c r="E1459">
+        <v>25</v>
+      </c>
+      <c r="F1459">
+        <v>230</v>
+      </c>
+      <c r="I1459" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1460">
+        <v>1</v>
+      </c>
+      <c r="B1460">
+        <v>17</v>
+      </c>
+      <c r="C1460">
+        <v>20</v>
+      </c>
+      <c r="D1460">
+        <v>21.79</v>
+      </c>
+      <c r="E1460">
+        <v>19</v>
+      </c>
+      <c r="F1460">
+        <v>130</v>
+      </c>
+      <c r="I1460" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1461">
+        <v>1</v>
+      </c>
+      <c r="B1461">
+        <v>17</v>
+      </c>
+      <c r="C1461">
+        <v>21</v>
+      </c>
+      <c r="D1461">
+        <v>22.9</v>
+      </c>
+      <c r="E1461">
+        <v>18.5</v>
+      </c>
+      <c r="F1461">
+        <v>110</v>
+      </c>
+      <c r="I1461" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1462">
+        <v>1</v>
+      </c>
+      <c r="B1462">
+        <v>17</v>
+      </c>
+      <c r="C1462">
+        <v>22</v>
+      </c>
+      <c r="D1462">
+        <v>13.3</v>
+      </c>
+      <c r="E1462">
+        <v>13.5</v>
+      </c>
+      <c r="F1462">
+        <v>26</v>
+      </c>
+      <c r="I1462" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1463">
+        <v>1</v>
+      </c>
+      <c r="B1463">
+        <v>17</v>
+      </c>
+      <c r="C1463">
+        <v>23</v>
+      </c>
+      <c r="D1463">
+        <v>21.9</v>
+      </c>
+      <c r="E1463">
+        <v>18.5</v>
+      </c>
+      <c r="F1463">
+        <v>90</v>
+      </c>
+      <c r="I1463" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1464">
+        <v>1</v>
+      </c>
+      <c r="B1464">
+        <v>17</v>
+      </c>
+      <c r="C1464">
+        <v>24</v>
+      </c>
+      <c r="D1464">
+        <v>13.15</v>
+      </c>
+      <c r="E1464">
+        <v>11</v>
+      </c>
+      <c r="F1464">
+        <v>45</v>
+      </c>
+      <c r="I1464" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1465">
+        <v>1</v>
+      </c>
+      <c r="B1465">
+        <v>17</v>
+      </c>
+      <c r="C1465">
+        <v>25</v>
+      </c>
+      <c r="D1465">
+        <v>48.6</v>
+      </c>
+      <c r="E1465">
+        <v>32</v>
+      </c>
+      <c r="F1465">
+        <v>280</v>
+      </c>
+      <c r="I1465" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1466">
+        <v>1</v>
+      </c>
+      <c r="B1466">
+        <v>17</v>
+      </c>
+      <c r="C1466">
+        <v>26</v>
+      </c>
+      <c r="D1466">
+        <v>11.9</v>
+      </c>
+      <c r="E1466">
+        <v>10</v>
+      </c>
+      <c r="F1466">
+        <v>8</v>
+      </c>
+      <c r="I1466" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1467">
+        <v>1</v>
+      </c>
+      <c r="B1467">
+        <v>17</v>
+      </c>
+      <c r="C1467">
+        <v>27</v>
+      </c>
+      <c r="D1467">
+        <v>38.81</v>
+      </c>
+      <c r="E1467">
+        <v>46</v>
+      </c>
+      <c r="F1467">
+        <v>830</v>
+      </c>
+      <c r="I1467" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1468">
+        <v>1</v>
+      </c>
+      <c r="B1468">
+        <v>17</v>
+      </c>
+      <c r="C1468">
+        <v>28</v>
+      </c>
+      <c r="D1468">
+        <v>37.28</v>
+      </c>
+      <c r="E1468">
+        <v>26.5</v>
+      </c>
+      <c r="F1468">
+        <v>440</v>
+      </c>
+      <c r="I1468" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1469">
+        <v>1</v>
+      </c>
+      <c r="B1469">
+        <v>17</v>
+      </c>
+      <c r="C1469">
+        <v>29</v>
+      </c>
+      <c r="D1469">
+        <v>42.4</v>
+      </c>
+      <c r="E1469">
+        <v>40</v>
+      </c>
+      <c r="F1469">
+        <v>670</v>
+      </c>
+      <c r="I1469" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1470">
+        <v>1</v>
+      </c>
+      <c r="B1470">
+        <v>17</v>
+      </c>
+      <c r="C1470">
+        <v>30</v>
+      </c>
+      <c r="D1470">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E1470">
+        <v>7.5</v>
+      </c>
+      <c r="F1470">
+        <v>7</v>
+      </c>
+      <c r="I1470" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1471">
+        <v>1</v>
+      </c>
+      <c r="B1471">
+        <v>17</v>
+      </c>
+      <c r="C1471">
+        <v>31</v>
+      </c>
+      <c r="D1471">
+        <v>25.5</v>
+      </c>
+      <c r="E1471">
+        <v>30.5</v>
+      </c>
+      <c r="F1471">
+        <v>260</v>
+      </c>
+      <c r="I1471" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1472">
+        <v>1</v>
+      </c>
+      <c r="B1472">
+        <v>17</v>
+      </c>
+      <c r="C1472">
+        <v>32</v>
+      </c>
+      <c r="D1472">
+        <v>17.5</v>
+      </c>
+      <c r="E1472">
+        <v>12</v>
+      </c>
+      <c r="F1472">
+        <v>50</v>
+      </c>
+      <c r="I1472" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1473">
+        <v>1</v>
+      </c>
+      <c r="B1473">
+        <v>17</v>
+      </c>
+      <c r="C1473">
+        <v>33</v>
+      </c>
+      <c r="D1473">
+        <v>10.9</v>
+      </c>
+      <c r="E1473">
+        <v>9.5</v>
+      </c>
+      <c r="F1473">
+        <v>30</v>
+      </c>
+      <c r="I1473" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1474">
+        <v>1</v>
+      </c>
+      <c r="B1474">
+        <v>17</v>
+      </c>
+      <c r="C1474">
+        <v>34</v>
+      </c>
+      <c r="D1474">
+        <v>27.24</v>
+      </c>
+      <c r="E1474">
+        <v>24</v>
+      </c>
+      <c r="F1474">
+        <v>200</v>
+      </c>
+      <c r="I1474" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1475">
+        <v>1</v>
+      </c>
+      <c r="B1475">
+        <v>17</v>
+      </c>
+      <c r="C1475">
+        <v>35</v>
+      </c>
+      <c r="D1475">
+        <v>11.7</v>
+      </c>
+      <c r="E1475">
+        <v>9</v>
+      </c>
+      <c r="F1475">
+        <v>13</v>
+      </c>
+      <c r="I1475" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1476">
+        <v>1</v>
+      </c>
+      <c r="B1476">
+        <v>17</v>
+      </c>
+      <c r="C1476">
+        <v>36</v>
+      </c>
+      <c r="D1476">
+        <v>12.26</v>
+      </c>
+      <c r="E1476">
+        <v>9.5</v>
+      </c>
+      <c r="F1476">
+        <v>12</v>
+      </c>
+      <c r="I1476" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1477">
+        <v>1</v>
+      </c>
+      <c r="B1477">
+        <v>17</v>
+      </c>
+      <c r="C1477">
+        <v>37</v>
+      </c>
+      <c r="D1477">
+        <v>11.5</v>
+      </c>
+      <c r="E1477">
+        <v>13</v>
+      </c>
+      <c r="F1477">
+        <v>27</v>
+      </c>
+      <c r="I1477" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1478">
+        <v>1</v>
+      </c>
+      <c r="B1478">
+        <v>17</v>
+      </c>
+      <c r="C1478">
+        <v>38</v>
+      </c>
+      <c r="D1478">
+        <v>21.4</v>
+      </c>
+      <c r="E1478">
+        <v>18.5</v>
+      </c>
+      <c r="F1478">
+        <v>90</v>
+      </c>
+      <c r="I1478" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1479">
+        <v>1</v>
+      </c>
+      <c r="B1479">
+        <v>17</v>
+      </c>
+      <c r="C1479">
+        <v>39</v>
+      </c>
+      <c r="D1479">
+        <v>23.9</v>
+      </c>
+      <c r="E1479">
+        <v>19</v>
+      </c>
+      <c r="F1479">
+        <v>130</v>
+      </c>
+      <c r="I1479" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1480">
+        <v>1</v>
+      </c>
+      <c r="B1480">
+        <v>17</v>
+      </c>
+      <c r="C1480">
+        <v>40</v>
+      </c>
+      <c r="D1480">
+        <v>26.4</v>
+      </c>
+      <c r="E1480">
+        <v>22.5</v>
+      </c>
+      <c r="F1480">
+        <v>150</v>
+      </c>
+      <c r="I1480" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1481">
+        <v>1</v>
+      </c>
+      <c r="B1481">
+        <v>17</v>
+      </c>
+      <c r="C1481">
+        <v>41</v>
+      </c>
+      <c r="D1481">
+        <v>49.12</v>
+      </c>
+      <c r="E1481">
+        <v>51</v>
+      </c>
+      <c r="F1481">
+        <v>1120</v>
+      </c>
+      <c r="I1481" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1482">
+        <v>1</v>
+      </c>
+      <c r="B1482">
+        <v>17</v>
+      </c>
+      <c r="C1482">
+        <v>42</v>
+      </c>
+      <c r="D1482">
+        <v>48.4</v>
+      </c>
+      <c r="E1482">
+        <v>59.5</v>
+      </c>
+      <c r="F1482">
+        <v>1220</v>
+      </c>
+      <c r="I1482" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1483">
+        <v>1</v>
+      </c>
+      <c r="B1483">
+        <v>17</v>
+      </c>
+      <c r="C1483">
+        <v>43</v>
+      </c>
+      <c r="D1483">
+        <v>38.159999999999997</v>
+      </c>
+      <c r="E1483">
+        <v>35.5</v>
+      </c>
+      <c r="F1483">
+        <v>660</v>
+      </c>
+      <c r="I1483" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1484">
+        <v>1</v>
+      </c>
+      <c r="B1484">
+        <v>17</v>
+      </c>
+      <c r="C1484">
+        <v>44</v>
+      </c>
+      <c r="D1484">
+        <v>45.03</v>
+      </c>
+      <c r="E1484">
+        <v>63</v>
+      </c>
+      <c r="F1484">
+        <v>1300</v>
+      </c>
+      <c r="I1484" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1485">
+        <v>1</v>
+      </c>
+      <c r="B1485">
+        <v>17</v>
+      </c>
+      <c r="C1485">
+        <v>45</v>
+      </c>
+      <c r="D1485">
+        <v>5.37</v>
+      </c>
+      <c r="E1485">
+        <v>6.3</v>
+      </c>
+      <c r="F1485">
+        <v>2</v>
+      </c>
+      <c r="I1485" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1486">
+        <v>1</v>
+      </c>
+      <c r="B1486">
+        <v>17</v>
+      </c>
+      <c r="C1486">
+        <v>46</v>
+      </c>
+      <c r="D1486">
+        <v>15.4</v>
+      </c>
+      <c r="E1486">
+        <v>12.5</v>
+      </c>
+      <c r="F1486">
+        <v>25</v>
+      </c>
+      <c r="I1486" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1487">
+        <v>1</v>
+      </c>
+      <c r="B1487">
+        <v>17</v>
+      </c>
+      <c r="C1487">
+        <v>47</v>
+      </c>
+      <c r="D1487">
+        <v>26.3</v>
+      </c>
+      <c r="E1487">
+        <v>22</v>
+      </c>
+      <c r="F1487">
+        <v>160</v>
+      </c>
+      <c r="I1487" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1488">
+        <v>1</v>
+      </c>
+      <c r="B1488">
+        <v>17</v>
+      </c>
+      <c r="C1488">
+        <v>48</v>
+      </c>
+      <c r="D1488">
+        <v>29.3</v>
+      </c>
+      <c r="E1488">
+        <v>21</v>
+      </c>
+      <c r="F1488">
+        <v>170</v>
+      </c>
+      <c r="I1488" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1489">
+        <v>1</v>
+      </c>
+      <c r="B1489">
+        <v>17</v>
+      </c>
+      <c r="C1489">
+        <v>49</v>
+      </c>
+      <c r="D1489">
+        <v>50.1</v>
+      </c>
+      <c r="E1489">
+        <v>68</v>
+      </c>
+      <c r="F1489">
+        <v>1650</v>
+      </c>
+      <c r="I1489" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1490">
+        <v>1</v>
+      </c>
+      <c r="B1490">
+        <v>17</v>
+      </c>
+      <c r="C1490">
+        <v>50</v>
+      </c>
+      <c r="D1490">
+        <v>59.4</v>
+      </c>
+      <c r="E1490">
+        <v>96</v>
+      </c>
+      <c r="F1490">
+        <v>2490</v>
+      </c>
+      <c r="I1490" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1491">
+        <v>1</v>
+      </c>
+      <c r="B1491">
+        <v>17</v>
+      </c>
+      <c r="C1491">
+        <v>51</v>
+      </c>
+      <c r="D1491">
+        <v>39.9</v>
+      </c>
+      <c r="E1491">
+        <v>35</v>
+      </c>
+      <c r="F1491">
+        <v>650</v>
+      </c>
+      <c r="I1491" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1492">
+        <v>1</v>
+      </c>
+      <c r="B1492">
+        <v>17</v>
+      </c>
+      <c r="C1492">
+        <v>52</v>
+      </c>
+      <c r="D1492">
+        <v>22.9</v>
+      </c>
+      <c r="E1492">
+        <v>20</v>
+      </c>
+      <c r="F1492">
+        <v>170</v>
+      </c>
+      <c r="I1492" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1493">
+        <v>1</v>
+      </c>
+      <c r="B1493">
+        <v>17</v>
+      </c>
+      <c r="C1493">
+        <v>53</v>
+      </c>
+      <c r="D1493">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="E1493">
+        <v>121</v>
+      </c>
+      <c r="F1493">
+        <v>3220</v>
+      </c>
+      <c r="I1493" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1494">
+        <v>1</v>
+      </c>
+      <c r="B1494">
+        <v>17</v>
+      </c>
+      <c r="C1494">
+        <v>54</v>
+      </c>
+      <c r="D1494">
+        <v>48.47</v>
+      </c>
+      <c r="E1494">
+        <v>48</v>
+      </c>
+      <c r="F1494">
+        <v>1020</v>
+      </c>
+      <c r="I1494" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1495">
+        <v>1</v>
+      </c>
+      <c r="B1495">
+        <v>17</v>
+      </c>
+      <c r="C1495">
+        <v>55</v>
+      </c>
+      <c r="D1495">
+        <v>21.4</v>
+      </c>
+      <c r="E1495">
+        <v>16</v>
+      </c>
+      <c r="F1495">
+        <v>60</v>
+      </c>
+      <c r="I1495" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1496">
+        <v>1</v>
+      </c>
+      <c r="B1496">
+        <v>17</v>
+      </c>
+      <c r="C1496">
+        <v>56</v>
+      </c>
+      <c r="D1496">
+        <v>23.07</v>
+      </c>
+      <c r="E1496">
+        <v>22.5</v>
+      </c>
+      <c r="F1496">
+        <v>130</v>
+      </c>
+      <c r="I1496" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1497">
+        <v>1</v>
+      </c>
+      <c r="B1497">
+        <v>17</v>
+      </c>
+      <c r="C1497">
+        <v>57</v>
+      </c>
+      <c r="D1497">
+        <v>43.9</v>
+      </c>
+      <c r="E1497">
+        <v>43</v>
+      </c>
+      <c r="F1497">
+        <v>790</v>
+      </c>
+      <c r="I1497" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1498">
+        <v>1</v>
+      </c>
+      <c r="B1498">
+        <v>17</v>
+      </c>
+      <c r="C1498">
+        <v>58</v>
+      </c>
+      <c r="D1498">
+        <v>42</v>
+      </c>
+      <c r="E1498">
+        <v>40</v>
+      </c>
+      <c r="F1498">
+        <v>580</v>
+      </c>
+      <c r="I1498" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1499">
+        <v>1</v>
+      </c>
+      <c r="B1499">
+        <v>17</v>
+      </c>
+      <c r="C1499">
+        <v>59</v>
+      </c>
+      <c r="D1499">
+        <v>43.5</v>
+      </c>
+      <c r="E1499">
+        <v>40.5</v>
+      </c>
+      <c r="F1499">
+        <v>660</v>
+      </c>
+      <c r="I1499" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1500">
+        <v>1</v>
+      </c>
+      <c r="B1500">
+        <v>17</v>
+      </c>
+      <c r="C1500">
+        <v>60</v>
+      </c>
+      <c r="D1500">
+        <v>109</v>
+      </c>
+      <c r="E1500">
+        <v>182</v>
+      </c>
+      <c r="F1500">
+        <v>8220</v>
+      </c>
+      <c r="I1500" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1501">
+        <v>1</v>
+      </c>
+      <c r="B1501">
+        <v>17</v>
+      </c>
+      <c r="C1501">
+        <v>61</v>
+      </c>
+      <c r="D1501">
+        <v>55.2</v>
+      </c>
+      <c r="E1501">
+        <v>54.5</v>
+      </c>
+      <c r="F1501">
+        <v>1040</v>
+      </c>
+      <c r="I1501" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1502">
+        <v>1</v>
+      </c>
+      <c r="B1502">
+        <v>17</v>
+      </c>
+      <c r="C1502">
+        <v>62</v>
+      </c>
+      <c r="D1502">
+        <v>43.6</v>
+      </c>
+      <c r="E1502">
+        <v>37.5</v>
+      </c>
+      <c r="F1502">
+        <v>660</v>
+      </c>
+      <c r="I1502" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1503">
+        <v>1</v>
+      </c>
+      <c r="B1503">
+        <v>17</v>
+      </c>
+      <c r="C1503">
+        <v>63</v>
+      </c>
+      <c r="D1503">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E1503">
+        <v>48</v>
+      </c>
+      <c r="F1503">
+        <v>940</v>
+      </c>
+      <c r="I1503" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1504">
+        <v>1</v>
+      </c>
+      <c r="B1504">
+        <v>17</v>
+      </c>
+      <c r="C1504">
+        <v>64</v>
+      </c>
+      <c r="D1504">
+        <v>68.510000000000005</v>
+      </c>
+      <c r="E1504">
+        <v>106</v>
+      </c>
+      <c r="F1504">
+        <v>2340</v>
+      </c>
+      <c r="I1504" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1505">
+        <v>1</v>
+      </c>
+      <c r="B1505">
+        <v>17</v>
+      </c>
+      <c r="C1505">
+        <v>65</v>
+      </c>
+      <c r="D1505">
+        <v>76.53</v>
+      </c>
+      <c r="E1505">
+        <v>145</v>
+      </c>
+      <c r="F1505">
+        <v>4580</v>
+      </c>
+      <c r="I1505" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1506">
+        <v>1</v>
+      </c>
+      <c r="B1506">
+        <v>17</v>
+      </c>
+      <c r="C1506">
+        <v>66</v>
+      </c>
+      <c r="D1506">
+        <v>11.6</v>
+      </c>
+      <c r="E1506">
+        <v>10.5</v>
+      </c>
+      <c r="F1506">
+        <v>21</v>
+      </c>
+      <c r="I1506" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1507">
+        <v>1</v>
+      </c>
+      <c r="B1507">
+        <v>17</v>
+      </c>
+      <c r="C1507">
+        <v>67</v>
+      </c>
+      <c r="D1507">
+        <v>13.02</v>
+      </c>
+      <c r="E1507">
+        <v>10.5</v>
+      </c>
+      <c r="F1507">
+        <v>40</v>
+      </c>
+      <c r="I1507" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1508">
+        <v>1</v>
+      </c>
+      <c r="B1508">
+        <v>17</v>
+      </c>
+      <c r="C1508">
+        <v>68</v>
+      </c>
+      <c r="D1508">
+        <v>56.7</v>
+      </c>
+      <c r="E1508">
+        <v>57</v>
+      </c>
+      <c r="F1508">
+        <v>1480</v>
+      </c>
+      <c r="I1508" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1509">
+        <v>1</v>
+      </c>
+      <c r="B1509">
+        <v>17</v>
+      </c>
+      <c r="C1509">
+        <v>69</v>
+      </c>
+      <c r="D1509">
+        <v>46</v>
+      </c>
+      <c r="E1509">
+        <v>48</v>
+      </c>
+      <c r="F1509">
+        <v>790</v>
+      </c>
+      <c r="I1509" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1510">
+        <v>1</v>
+      </c>
+      <c r="B1510">
+        <v>17</v>
+      </c>
+      <c r="C1510">
+        <v>70</v>
+      </c>
+      <c r="D1510">
+        <v>48.56</v>
+      </c>
+      <c r="E1510">
+        <v>52</v>
+      </c>
+      <c r="F1510">
+        <v>920</v>
+      </c>
+      <c r="I1510" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1511">
+        <v>1</v>
+      </c>
+      <c r="B1511">
+        <v>17</v>
+      </c>
+      <c r="C1511">
+        <v>71</v>
+      </c>
+      <c r="D1511">
+        <v>53.9</v>
+      </c>
+      <c r="E1511">
+        <v>48</v>
+      </c>
+      <c r="F1511">
+        <v>1110</v>
+      </c>
+      <c r="I1511" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1512">
+        <v>1</v>
+      </c>
+      <c r="B1512">
+        <v>17</v>
+      </c>
+      <c r="C1512">
+        <v>72</v>
+      </c>
+      <c r="D1512">
+        <v>61.45</v>
+      </c>
+      <c r="E1512">
+        <v>75</v>
+      </c>
+      <c r="F1512">
+        <v>2110</v>
+      </c>
+      <c r="I1512" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1513">
+        <v>1</v>
+      </c>
+      <c r="B1513">
+        <v>17</v>
+      </c>
+      <c r="C1513">
+        <v>73</v>
+      </c>
+      <c r="D1513">
+        <v>54.71</v>
+      </c>
+      <c r="E1513">
+        <v>66</v>
+      </c>
+      <c r="F1513">
+        <v>1620</v>
+      </c>
+      <c r="I1513" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1514">
+        <v>1</v>
+      </c>
+      <c r="B1514">
+        <v>17</v>
+      </c>
+      <c r="C1514">
+        <v>74</v>
+      </c>
+      <c r="D1514">
+        <v>54.7</v>
+      </c>
+      <c r="E1514">
+        <v>52</v>
+      </c>
+      <c r="F1514">
+        <v>1400</v>
+      </c>
+      <c r="I1514" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1515">
+        <v>1</v>
+      </c>
+      <c r="B1515">
+        <v>17</v>
+      </c>
+      <c r="C1515">
+        <v>75</v>
+      </c>
+      <c r="D1515">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E1515">
+        <v>35.5</v>
+      </c>
+      <c r="F1515">
+        <v>510</v>
+      </c>
+      <c r="I1515" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1516">
+        <v>1</v>
+      </c>
+      <c r="B1516">
+        <v>17</v>
+      </c>
+      <c r="C1516">
+        <v>76</v>
+      </c>
+      <c r="D1516">
+        <v>22.31</v>
+      </c>
+      <c r="E1516">
+        <v>22.5</v>
+      </c>
+      <c r="F1516">
+        <v>140</v>
+      </c>
+      <c r="I1516" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1517">
+        <v>1</v>
+      </c>
+      <c r="B1517">
+        <v>17</v>
+      </c>
+      <c r="C1517">
+        <v>77</v>
+      </c>
+      <c r="D1517">
+        <v>5.3</v>
+      </c>
+      <c r="E1517">
+        <v>6.7</v>
+      </c>
+      <c r="F1517">
+        <v>2.5</v>
+      </c>
+      <c r="I1517" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1518">
+        <v>1</v>
+      </c>
+      <c r="B1518">
+        <v>17</v>
+      </c>
+      <c r="C1518">
+        <v>78</v>
+      </c>
+      <c r="D1518">
+        <v>27.6</v>
+      </c>
+      <c r="E1518">
+        <v>25</v>
+      </c>
+      <c r="F1518">
+        <v>250</v>
+      </c>
+      <c r="I1518" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1519">
+        <v>1</v>
+      </c>
+      <c r="B1519">
+        <v>17</v>
+      </c>
+      <c r="C1519">
+        <v>79</v>
+      </c>
+      <c r="D1519">
+        <v>27.5</v>
+      </c>
+      <c r="E1519">
+        <v>28</v>
+      </c>
+      <c r="F1519">
+        <v>290</v>
+      </c>
+      <c r="I1519" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1520">
+        <v>1</v>
+      </c>
+      <c r="B1520">
+        <v>17</v>
+      </c>
+      <c r="C1520">
+        <v>80</v>
+      </c>
+      <c r="D1520">
+        <v>12.14</v>
+      </c>
+      <c r="E1520">
+        <v>12</v>
+      </c>
+      <c r="F1520">
+        <v>16</v>
+      </c>
+      <c r="I1520" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1521">
+        <v>1</v>
+      </c>
+      <c r="B1521">
+        <v>17</v>
+      </c>
+      <c r="C1521">
+        <v>81</v>
+      </c>
+      <c r="D1521">
+        <v>14.2</v>
+      </c>
+      <c r="E1521">
+        <v>14.5</v>
+      </c>
+      <c r="F1521">
+        <v>40</v>
+      </c>
+      <c r="I1521" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1522">
+        <v>1</v>
+      </c>
+      <c r="B1522">
+        <v>17</v>
+      </c>
+      <c r="C1522">
+        <v>82</v>
+      </c>
+      <c r="D1522">
+        <v>8.6</v>
+      </c>
+      <c r="E1522">
+        <v>9.5</v>
+      </c>
+      <c r="F1522">
+        <v>8</v>
+      </c>
+      <c r="I1522" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1523">
+        <v>1</v>
+      </c>
+      <c r="B1523">
+        <v>17</v>
+      </c>
+      <c r="C1523">
+        <v>83</v>
+      </c>
+      <c r="D1523">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E1523">
+        <v>3.3</v>
+      </c>
+      <c r="F1523">
+        <v>0.4</v>
+      </c>
+      <c r="I1523" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1524">
+        <v>1</v>
+      </c>
+      <c r="B1524">
+        <v>17</v>
+      </c>
+      <c r="C1524">
+        <v>84</v>
+      </c>
+      <c r="D1524">
+        <v>3.7</v>
+      </c>
+      <c r="E1524">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F1524">
+        <v>2</v>
+      </c>
+      <c r="I1524" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1525">
+        <v>1</v>
+      </c>
+      <c r="B1525">
+        <v>17</v>
+      </c>
+      <c r="C1525">
+        <v>85</v>
+      </c>
+      <c r="D1525">
+        <v>3.1</v>
+      </c>
+      <c r="E1525">
+        <v>3.6</v>
+      </c>
+      <c r="F1525">
+        <v>0.4</v>
+      </c>
+      <c r="I1525" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1526">
+        <v>1</v>
+      </c>
+      <c r="B1526">
+        <v>17</v>
+      </c>
+      <c r="C1526">
+        <v>86</v>
+      </c>
+      <c r="D1526">
+        <v>3.5</v>
+      </c>
+      <c r="E1526">
+        <v>4.3</v>
+      </c>
+      <c r="F1526">
+        <v>0.7</v>
+      </c>
+      <c r="I1526" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1527">
+        <v>1</v>
+      </c>
+      <c r="B1527">
+        <v>17</v>
+      </c>
+      <c r="C1527">
+        <v>87</v>
+      </c>
+      <c r="D1527">
+        <v>3.3</v>
+      </c>
+      <c r="E1527">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F1527">
+        <v>0.5</v>
+      </c>
+      <c r="I1527" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1528">
+        <v>1</v>
+      </c>
+      <c r="B1528">
+        <v>17</v>
+      </c>
+      <c r="C1528">
+        <v>88</v>
+      </c>
+      <c r="D1528">
+        <v>31.7</v>
+      </c>
+      <c r="E1528">
+        <v>21.5</v>
+      </c>
+      <c r="F1528">
+        <v>150</v>
+      </c>
+      <c r="I1528" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1529">
+        <v>1</v>
+      </c>
+      <c r="B1529">
+        <v>17</v>
+      </c>
+      <c r="C1529">
+        <v>89</v>
+      </c>
+      <c r="D1529">
+        <v>10.97</v>
+      </c>
+      <c r="E1529">
+        <v>13.2</v>
+      </c>
+      <c r="F1529">
+        <v>12</v>
+      </c>
+      <c r="I1529" s="2">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1530">
+        <v>1</v>
+      </c>
+      <c r="B1530">
+        <v>17</v>
+      </c>
+      <c r="C1530">
+        <v>90</v>
+      </c>
+      <c r="D1530">
+        <v>12.85</v>
+      </c>
+      <c r="E1530">
+        <v>10</v>
+      </c>
+      <c r="F1530">
+        <v>13</v>
+      </c>
+      <c r="I1530" s="2">
+        <v>45818</v>
       </c>
     </row>
   </sheetData>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Martins\Desktop\Pastas\R_analises\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385C1606-A467-4221-B3FB-E711A6CD77F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BBE818-14B4-4EC1-8833-D0A4C5021AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -484,8 +484,8 @@
   <dimension ref="A1:J1530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1300" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1308" sqref="G1308"/>
+      <pane ySplit="1" topLeftCell="A850" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1163" sqref="G1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27160,6 +27160,10 @@
       <c r="G1148">
         <v>1.41</v>
       </c>
+      <c r="H1148">
+        <f t="shared" ref="H1148" si="7">(G1148*100/F1148)/100</f>
+        <v>0.25636363636363635</v>
+      </c>
       <c r="I1148" s="2">
         <v>45698</v>
       </c>
@@ -27347,6 +27351,10 @@
       <c r="G1156">
         <v>19</v>
       </c>
+      <c r="H1156">
+        <f t="shared" ref="H1156" si="8">(G1156*100/F1156)/100</f>
+        <v>0.23749999999999999</v>
+      </c>
       <c r="I1156" s="2">
         <v>45698</v>
       </c>
@@ -27511,6 +27519,10 @@
       <c r="G1163">
         <v>0.56999999999999995</v>
       </c>
+      <c r="H1163">
+        <f t="shared" ref="H1163" si="9">(G1163*100/F1163)/100</f>
+        <v>7.3548387096774179E-2</v>
+      </c>
       <c r="I1163" s="2">
         <v>45698</v>
       </c>
@@ -27997,6 +28009,10 @@
       <c r="G1184">
         <v>320</v>
       </c>
+      <c r="H1184">
+        <f t="shared" ref="H1184:H1185" si="10">(G1184*100/F1184)/100</f>
+        <v>0.25600000000000001</v>
+      </c>
       <c r="I1184" s="2">
         <v>45698</v>
       </c>
@@ -28023,6 +28039,10 @@
       <c r="G1185">
         <v>242</v>
       </c>
+      <c r="H1185">
+        <f t="shared" si="10"/>
+        <v>0.25744680851063828</v>
+      </c>
       <c r="I1185" s="2">
         <v>45698</v>
       </c>
@@ -28095,6 +28115,10 @@
       <c r="G1188">
         <v>199</v>
       </c>
+      <c r="H1188">
+        <f t="shared" ref="H1188:H1189" si="11">(G1188*100/F1188)/100</f>
+        <v>0.26533333333333337</v>
+      </c>
       <c r="I1188" s="2">
         <v>45698</v>
       </c>
@@ -28121,6 +28145,10 @@
       <c r="G1189">
         <v>124</v>
       </c>
+      <c r="H1189">
+        <f t="shared" si="11"/>
+        <v>0.26956521739130435</v>
+      </c>
       <c r="I1189" s="2">
         <v>45698</v>
       </c>
@@ -28170,6 +28198,10 @@
       <c r="G1191">
         <v>208</v>
       </c>
+      <c r="H1191">
+        <f t="shared" ref="H1191" si="12">(G1191*100/F1191)/100</f>
+        <v>0.19259259259259259</v>
+      </c>
       <c r="I1191" s="2">
         <v>45698</v>
       </c>
@@ -28472,6 +28504,10 @@
       <c r="G1204">
         <v>0.22</v>
       </c>
+      <c r="H1204">
+        <f t="shared" ref="H1204" si="13">(G1204*100/F1204)/100</f>
+        <v>0.22</v>
+      </c>
       <c r="I1204" s="2">
         <v>45698</v>
       </c>
@@ -28912,6 +28948,10 @@
       <c r="G1223">
         <v>0.23</v>
       </c>
+      <c r="H1223">
+        <f t="shared" ref="H1223" si="14">(G1223*100/F1223)/100</f>
+        <v>0.23</v>
+      </c>
       <c r="I1223" s="2">
         <v>45698</v>
       </c>
@@ -29435,6 +29475,10 @@
       <c r="G1246">
         <v>0.2</v>
       </c>
+      <c r="H1246">
+        <f t="shared" ref="H1246" si="15">(G1246*100/F1246)/100</f>
+        <v>0.28571428571428575</v>
+      </c>
       <c r="I1246" s="2">
         <v>45698</v>
       </c>
@@ -30830,6 +30874,10 @@
         <v>1</v>
       </c>
       <c r="G1307">
+        <v>0.2</v>
+      </c>
+      <c r="H1307">
+        <f t="shared" ref="H1307" si="16">(G1307*100/F1307)/100</f>
         <v>0.2</v>
       </c>
       <c r="I1307" s="2">

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A4648-5A02-4FF6-89BA-3C993C5BB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023F480-C899-4FD8-9870-E0838526670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1858</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="21">
   <si>
     <t>Parcela</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>26/9/2025</t>
+  </si>
+  <si>
+    <t>24..5</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
   </si>
 </sst>
 </file>
@@ -481,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J1530"/>
+  <dimension ref="A1:J1858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A785" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A785" sqref="A785"/>
+      <pane ySplit="1" topLeftCell="A1838" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1860" sqref="B1860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36034,8 +36040,7552 @@
         <v>45818</v>
       </c>
     </row>
+    <row r="1531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1531">
+        <v>1</v>
+      </c>
+      <c r="B1531">
+        <v>18</v>
+      </c>
+      <c r="C1531">
+        <v>1</v>
+      </c>
+      <c r="D1531">
+        <v>32.79</v>
+      </c>
+      <c r="E1531">
+        <v>32</v>
+      </c>
+      <c r="F1531">
+        <v>430</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1532">
+        <v>1</v>
+      </c>
+      <c r="B1532">
+        <v>18</v>
+      </c>
+      <c r="C1532">
+        <v>2</v>
+      </c>
+      <c r="D1532">
+        <v>23.02</v>
+      </c>
+      <c r="E1532">
+        <v>19</v>
+      </c>
+      <c r="F1532">
+        <v>110</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1533">
+        <v>1</v>
+      </c>
+      <c r="B1533">
+        <v>18</v>
+      </c>
+      <c r="C1533">
+        <v>3</v>
+      </c>
+      <c r="D1533">
+        <v>13.05</v>
+      </c>
+      <c r="E1533">
+        <v>13.35</v>
+      </c>
+      <c r="F1533">
+        <v>60</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1534">
+        <v>1</v>
+      </c>
+      <c r="B1534">
+        <v>18</v>
+      </c>
+      <c r="C1534">
+        <v>4</v>
+      </c>
+      <c r="D1534">
+        <v>14.48</v>
+      </c>
+      <c r="E1534">
+        <v>13.5</v>
+      </c>
+      <c r="F1534">
+        <v>45</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1535">
+        <v>1</v>
+      </c>
+      <c r="B1535">
+        <v>18</v>
+      </c>
+      <c r="C1535">
+        <v>5</v>
+      </c>
+      <c r="D1535">
+        <v>16.82</v>
+      </c>
+      <c r="E1535">
+        <v>18.5</v>
+      </c>
+      <c r="F1535">
+        <v>70</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1536">
+        <v>1</v>
+      </c>
+      <c r="B1536">
+        <v>18</v>
+      </c>
+      <c r="C1536">
+        <v>6</v>
+      </c>
+      <c r="D1536">
+        <v>44.33</v>
+      </c>
+      <c r="E1536">
+        <v>45.5</v>
+      </c>
+      <c r="F1536">
+        <v>760</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1537">
+        <v>1</v>
+      </c>
+      <c r="B1537">
+        <v>18</v>
+      </c>
+      <c r="C1537">
+        <v>7</v>
+      </c>
+      <c r="D1537">
+        <v>11.5</v>
+      </c>
+      <c r="E1537">
+        <v>13.6</v>
+      </c>
+      <c r="F1537">
+        <v>45</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1538">
+        <v>1</v>
+      </c>
+      <c r="B1538">
+        <v>18</v>
+      </c>
+      <c r="C1538">
+        <v>8</v>
+      </c>
+      <c r="D1538">
+        <v>7.9</v>
+      </c>
+      <c r="E1538">
+        <v>9</v>
+      </c>
+      <c r="F1538">
+        <v>9</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1539">
+        <v>1</v>
+      </c>
+      <c r="B1539">
+        <v>18</v>
+      </c>
+      <c r="C1539">
+        <v>9</v>
+      </c>
+      <c r="D1539">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E1539">
+        <v>4</v>
+      </c>
+      <c r="F1539">
+        <v>1</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1540">
+        <v>1</v>
+      </c>
+      <c r="B1540">
+        <v>18</v>
+      </c>
+      <c r="C1540">
+        <v>10</v>
+      </c>
+      <c r="D1540">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1540">
+        <v>5.5</v>
+      </c>
+      <c r="F1540">
+        <v>2</v>
+      </c>
+      <c r="I1540" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1541">
+        <v>1</v>
+      </c>
+      <c r="B1541">
+        <v>18</v>
+      </c>
+      <c r="C1541">
+        <v>11</v>
+      </c>
+      <c r="D1541">
+        <v>2.1</v>
+      </c>
+      <c r="E1541">
+        <v>4</v>
+      </c>
+      <c r="F1541">
+        <v>0.5</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1542">
+        <v>1</v>
+      </c>
+      <c r="B1542">
+        <v>18</v>
+      </c>
+      <c r="C1542">
+        <v>12</v>
+      </c>
+      <c r="D1542">
+        <v>5.2</v>
+      </c>
+      <c r="E1542">
+        <v>4.5</v>
+      </c>
+      <c r="F1542">
+        <v>2</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1543">
+        <v>1</v>
+      </c>
+      <c r="B1543">
+        <v>18</v>
+      </c>
+      <c r="C1543">
+        <v>13</v>
+      </c>
+      <c r="D1543">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E1543">
+        <v>4</v>
+      </c>
+      <c r="F1543">
+        <v>0.5</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1544">
+        <v>1</v>
+      </c>
+      <c r="B1544">
+        <v>18</v>
+      </c>
+      <c r="C1544">
+        <v>14</v>
+      </c>
+      <c r="D1544">
+        <v>75.430000000000007</v>
+      </c>
+      <c r="E1544">
+        <v>133</v>
+      </c>
+      <c r="F1544">
+        <v>3910</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1545">
+        <v>1</v>
+      </c>
+      <c r="B1545">
+        <v>18</v>
+      </c>
+      <c r="C1545">
+        <v>15</v>
+      </c>
+      <c r="D1545">
+        <v>63.5</v>
+      </c>
+      <c r="E1545">
+        <v>79</v>
+      </c>
+      <c r="F1545">
+        <v>2310</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1546">
+        <v>1</v>
+      </c>
+      <c r="B1546">
+        <v>18</v>
+      </c>
+      <c r="C1546">
+        <v>16</v>
+      </c>
+      <c r="D1546">
+        <v>11.5</v>
+      </c>
+      <c r="E1546">
+        <v>11.1</v>
+      </c>
+      <c r="F1546">
+        <v>30</v>
+      </c>
+      <c r="I1546" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1547">
+        <v>1</v>
+      </c>
+      <c r="B1547">
+        <v>18</v>
+      </c>
+      <c r="C1547">
+        <v>17</v>
+      </c>
+      <c r="D1547">
+        <v>21.6</v>
+      </c>
+      <c r="E1547">
+        <v>18</v>
+      </c>
+      <c r="F1547">
+        <v>95</v>
+      </c>
+      <c r="I1547" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1548">
+        <v>1</v>
+      </c>
+      <c r="B1548">
+        <v>18</v>
+      </c>
+      <c r="C1548">
+        <v>18</v>
+      </c>
+      <c r="D1548">
+        <v>82.03</v>
+      </c>
+      <c r="E1548">
+        <v>166</v>
+      </c>
+      <c r="F1548">
+        <v>5640</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1549">
+        <v>1</v>
+      </c>
+      <c r="B1549">
+        <v>18</v>
+      </c>
+      <c r="C1549">
+        <v>19</v>
+      </c>
+      <c r="D1549">
+        <v>29.4</v>
+      </c>
+      <c r="E1549">
+        <v>23</v>
+      </c>
+      <c r="F1549">
+        <v>170</v>
+      </c>
+      <c r="I1549" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1550">
+        <v>1</v>
+      </c>
+      <c r="B1550">
+        <v>18</v>
+      </c>
+      <c r="C1550">
+        <v>20</v>
+      </c>
+      <c r="D1550">
+        <v>11.4</v>
+      </c>
+      <c r="E1550">
+        <v>12</v>
+      </c>
+      <c r="F1550">
+        <v>35</v>
+      </c>
+      <c r="I1550" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1551">
+        <v>1</v>
+      </c>
+      <c r="B1551">
+        <v>18</v>
+      </c>
+      <c r="C1551">
+        <v>21</v>
+      </c>
+      <c r="D1551">
+        <v>15.9</v>
+      </c>
+      <c r="E1551">
+        <v>17</v>
+      </c>
+      <c r="F1551">
+        <v>60</v>
+      </c>
+      <c r="I1551" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1552">
+        <v>1</v>
+      </c>
+      <c r="B1552">
+        <v>18</v>
+      </c>
+      <c r="C1552">
+        <v>22</v>
+      </c>
+      <c r="D1552">
+        <v>7.2</v>
+      </c>
+      <c r="E1552">
+        <v>9</v>
+      </c>
+      <c r="F1552">
+        <v>5</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1553">
+        <v>1</v>
+      </c>
+      <c r="B1553">
+        <v>18</v>
+      </c>
+      <c r="C1553">
+        <v>23</v>
+      </c>
+      <c r="D1553">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E1553">
+        <v>7.5</v>
+      </c>
+      <c r="F1553">
+        <v>5</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1554">
+        <v>1</v>
+      </c>
+      <c r="B1554">
+        <v>18</v>
+      </c>
+      <c r="C1554">
+        <v>24</v>
+      </c>
+      <c r="D1554">
+        <v>8.1</v>
+      </c>
+      <c r="E1554">
+        <v>8</v>
+      </c>
+      <c r="F1554">
+        <v>7</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1555">
+        <v>1</v>
+      </c>
+      <c r="B1555">
+        <v>18</v>
+      </c>
+      <c r="C1555">
+        <v>25</v>
+      </c>
+      <c r="D1555">
+        <v>13</v>
+      </c>
+      <c r="E1555">
+        <v>13</v>
+      </c>
+      <c r="F1555">
+        <v>40</v>
+      </c>
+      <c r="I1555" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1556">
+        <v>1</v>
+      </c>
+      <c r="B1556">
+        <v>18</v>
+      </c>
+      <c r="C1556">
+        <v>26</v>
+      </c>
+      <c r="D1556">
+        <v>11.6</v>
+      </c>
+      <c r="E1556">
+        <v>11.5</v>
+      </c>
+      <c r="F1556">
+        <v>30</v>
+      </c>
+      <c r="I1556" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1557">
+        <v>1</v>
+      </c>
+      <c r="B1557">
+        <v>18</v>
+      </c>
+      <c r="C1557">
+        <v>27</v>
+      </c>
+      <c r="D1557">
+        <v>24.3</v>
+      </c>
+      <c r="E1557">
+        <v>21.5</v>
+      </c>
+      <c r="F1557">
+        <v>150</v>
+      </c>
+      <c r="I1557" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1558">
+        <v>1</v>
+      </c>
+      <c r="B1558">
+        <v>18</v>
+      </c>
+      <c r="C1558">
+        <v>28</v>
+      </c>
+      <c r="D1558">
+        <v>25.4</v>
+      </c>
+      <c r="E1558">
+        <v>23</v>
+      </c>
+      <c r="F1558">
+        <v>190</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1559">
+        <v>1</v>
+      </c>
+      <c r="B1559">
+        <v>18</v>
+      </c>
+      <c r="C1559">
+        <v>29</v>
+      </c>
+      <c r="D1559">
+        <v>27.3</v>
+      </c>
+      <c r="E1559">
+        <v>29.3</v>
+      </c>
+      <c r="F1559">
+        <v>240</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1560">
+        <v>1</v>
+      </c>
+      <c r="B1560">
+        <v>18</v>
+      </c>
+      <c r="C1560">
+        <v>30</v>
+      </c>
+      <c r="D1560">
+        <v>20.2</v>
+      </c>
+      <c r="E1560">
+        <v>20</v>
+      </c>
+      <c r="F1560">
+        <v>110</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1561">
+        <v>1</v>
+      </c>
+      <c r="B1561">
+        <v>18</v>
+      </c>
+      <c r="C1561">
+        <v>31</v>
+      </c>
+      <c r="D1561">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E1561">
+        <v>26</v>
+      </c>
+      <c r="F1561">
+        <v>200</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1562">
+        <v>1</v>
+      </c>
+      <c r="B1562">
+        <v>18</v>
+      </c>
+      <c r="C1562">
+        <v>32</v>
+      </c>
+      <c r="D1562">
+        <v>20.8</v>
+      </c>
+      <c r="E1562">
+        <v>19.5</v>
+      </c>
+      <c r="F1562">
+        <v>90</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1563">
+        <v>1</v>
+      </c>
+      <c r="B1563">
+        <v>18</v>
+      </c>
+      <c r="C1563">
+        <v>33</v>
+      </c>
+      <c r="D1563">
+        <v>26.1</v>
+      </c>
+      <c r="E1563">
+        <v>27</v>
+      </c>
+      <c r="F1563">
+        <v>170</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1564">
+        <v>1</v>
+      </c>
+      <c r="B1564">
+        <v>18</v>
+      </c>
+      <c r="C1564">
+        <v>34</v>
+      </c>
+      <c r="D1564">
+        <v>18.7</v>
+      </c>
+      <c r="E1564">
+        <v>15</v>
+      </c>
+      <c r="F1564">
+        <v>50</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>1</v>
+      </c>
+      <c r="B1565">
+        <v>18</v>
+      </c>
+      <c r="C1565">
+        <v>35</v>
+      </c>
+      <c r="D1565">
+        <v>39.5</v>
+      </c>
+      <c r="E1565">
+        <v>33</v>
+      </c>
+      <c r="F1565">
+        <v>340</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>1</v>
+      </c>
+      <c r="B1566">
+        <v>18</v>
+      </c>
+      <c r="C1566">
+        <v>36</v>
+      </c>
+      <c r="D1566">
+        <v>14</v>
+      </c>
+      <c r="E1566">
+        <v>13.9</v>
+      </c>
+      <c r="F1566">
+        <v>40</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>1</v>
+      </c>
+      <c r="B1567">
+        <v>18</v>
+      </c>
+      <c r="C1567">
+        <v>37</v>
+      </c>
+      <c r="D1567">
+        <v>14.5</v>
+      </c>
+      <c r="E1567">
+        <v>14.2</v>
+      </c>
+      <c r="F1567">
+        <v>50</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>1</v>
+      </c>
+      <c r="B1568">
+        <v>18</v>
+      </c>
+      <c r="C1568">
+        <v>38</v>
+      </c>
+      <c r="D1568">
+        <v>23</v>
+      </c>
+      <c r="E1568">
+        <v>19.5</v>
+      </c>
+      <c r="F1568">
+        <v>140</v>
+      </c>
+      <c r="I1568" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>1</v>
+      </c>
+      <c r="B1569">
+        <v>18</v>
+      </c>
+      <c r="C1569">
+        <v>39</v>
+      </c>
+      <c r="D1569">
+        <v>17.5</v>
+      </c>
+      <c r="E1569">
+        <v>16.5</v>
+      </c>
+      <c r="F1569">
+        <v>70</v>
+      </c>
+      <c r="I1569" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>1</v>
+      </c>
+      <c r="B1570">
+        <v>18</v>
+      </c>
+      <c r="C1570">
+        <v>40</v>
+      </c>
+      <c r="D1570">
+        <v>19.3</v>
+      </c>
+      <c r="E1570">
+        <v>19</v>
+      </c>
+      <c r="F1570">
+        <v>80</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>1</v>
+      </c>
+      <c r="B1571">
+        <v>18</v>
+      </c>
+      <c r="C1571">
+        <v>41</v>
+      </c>
+      <c r="D1571">
+        <v>30.9</v>
+      </c>
+      <c r="E1571">
+        <v>26</v>
+      </c>
+      <c r="F1571">
+        <v>240</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>1</v>
+      </c>
+      <c r="B1572">
+        <v>18</v>
+      </c>
+      <c r="C1572">
+        <v>42</v>
+      </c>
+      <c r="D1572">
+        <v>16.5</v>
+      </c>
+      <c r="E1572">
+        <v>12</v>
+      </c>
+      <c r="F1572">
+        <v>40</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>1</v>
+      </c>
+      <c r="B1573">
+        <v>18</v>
+      </c>
+      <c r="C1573">
+        <v>43</v>
+      </c>
+      <c r="D1573">
+        <v>31</v>
+      </c>
+      <c r="E1573">
+        <v>31.5</v>
+      </c>
+      <c r="F1573">
+        <v>320</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>1</v>
+      </c>
+      <c r="B1574">
+        <v>18</v>
+      </c>
+      <c r="C1574">
+        <v>44</v>
+      </c>
+      <c r="D1574">
+        <v>15.2</v>
+      </c>
+      <c r="E1574">
+        <v>9</v>
+      </c>
+      <c r="F1574">
+        <v>17</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>1</v>
+      </c>
+      <c r="B1575">
+        <v>18</v>
+      </c>
+      <c r="C1575">
+        <v>45</v>
+      </c>
+      <c r="D1575">
+        <v>13.6</v>
+      </c>
+      <c r="E1575">
+        <v>14</v>
+      </c>
+      <c r="F1575">
+        <v>40</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>1</v>
+      </c>
+      <c r="B1576">
+        <v>18</v>
+      </c>
+      <c r="C1576">
+        <v>46</v>
+      </c>
+      <c r="D1576">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E1576">
+        <v>24.5</v>
+      </c>
+      <c r="F1576">
+        <v>180</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>1</v>
+      </c>
+      <c r="B1577">
+        <v>18</v>
+      </c>
+      <c r="C1577">
+        <v>47</v>
+      </c>
+      <c r="D1577">
+        <v>14.4</v>
+      </c>
+      <c r="E1577">
+        <v>16</v>
+      </c>
+      <c r="F1577">
+        <v>50</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>1</v>
+      </c>
+      <c r="B1578">
+        <v>18</v>
+      </c>
+      <c r="C1578">
+        <v>48</v>
+      </c>
+      <c r="D1578">
+        <v>12.8</v>
+      </c>
+      <c r="E1578">
+        <v>9.5</v>
+      </c>
+      <c r="F1578">
+        <v>16</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>1</v>
+      </c>
+      <c r="B1579">
+        <v>18</v>
+      </c>
+      <c r="C1579">
+        <v>49</v>
+      </c>
+      <c r="D1579">
+        <v>11.4</v>
+      </c>
+      <c r="E1579">
+        <v>11.5</v>
+      </c>
+      <c r="F1579">
+        <v>30</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>1</v>
+      </c>
+      <c r="B1580">
+        <v>18</v>
+      </c>
+      <c r="C1580">
+        <v>50</v>
+      </c>
+      <c r="D1580">
+        <v>11.3</v>
+      </c>
+      <c r="E1580">
+        <v>11.5</v>
+      </c>
+      <c r="F1580">
+        <v>18</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>1</v>
+      </c>
+      <c r="B1581">
+        <v>18</v>
+      </c>
+      <c r="C1581">
+        <v>51</v>
+      </c>
+      <c r="D1581">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1581">
+        <v>14</v>
+      </c>
+      <c r="F1581">
+        <v>40</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>1</v>
+      </c>
+      <c r="B1582">
+        <v>18</v>
+      </c>
+      <c r="C1582">
+        <v>52</v>
+      </c>
+      <c r="D1582">
+        <v>13.5</v>
+      </c>
+      <c r="E1582">
+        <v>13</v>
+      </c>
+      <c r="F1582">
+        <v>24</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>1</v>
+      </c>
+      <c r="B1583">
+        <v>18</v>
+      </c>
+      <c r="C1583">
+        <v>53</v>
+      </c>
+      <c r="D1583">
+        <v>20.8</v>
+      </c>
+      <c r="E1583">
+        <v>18.5</v>
+      </c>
+      <c r="F1583">
+        <v>80</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>1</v>
+      </c>
+      <c r="B1584">
+        <v>18</v>
+      </c>
+      <c r="C1584">
+        <v>54</v>
+      </c>
+      <c r="D1584">
+        <v>30</v>
+      </c>
+      <c r="E1584">
+        <v>24</v>
+      </c>
+      <c r="F1584">
+        <v>200</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>1</v>
+      </c>
+      <c r="B1585">
+        <v>18</v>
+      </c>
+      <c r="C1585">
+        <v>55</v>
+      </c>
+      <c r="D1585">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E1585">
+        <v>28</v>
+      </c>
+      <c r="F1585">
+        <v>280</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>1</v>
+      </c>
+      <c r="B1586">
+        <v>18</v>
+      </c>
+      <c r="C1586">
+        <v>56</v>
+      </c>
+      <c r="D1586">
+        <v>26.8</v>
+      </c>
+      <c r="E1586">
+        <v>21</v>
+      </c>
+      <c r="F1586">
+        <v>260</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>1</v>
+      </c>
+      <c r="B1587">
+        <v>18</v>
+      </c>
+      <c r="C1587">
+        <v>57</v>
+      </c>
+      <c r="D1587">
+        <v>34.9</v>
+      </c>
+      <c r="E1587">
+        <v>39</v>
+      </c>
+      <c r="F1587">
+        <v>310</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>1</v>
+      </c>
+      <c r="B1588">
+        <v>18</v>
+      </c>
+      <c r="C1588">
+        <v>58</v>
+      </c>
+      <c r="D1588">
+        <v>18.7</v>
+      </c>
+      <c r="E1588">
+        <v>15</v>
+      </c>
+      <c r="F1588">
+        <v>40</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>1</v>
+      </c>
+      <c r="B1589">
+        <v>18</v>
+      </c>
+      <c r="C1589">
+        <v>59</v>
+      </c>
+      <c r="D1589">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1589">
+        <v>15.5</v>
+      </c>
+      <c r="F1589">
+        <v>30</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>1</v>
+      </c>
+      <c r="B1590">
+        <v>18</v>
+      </c>
+      <c r="C1590">
+        <v>60</v>
+      </c>
+      <c r="D1590">
+        <v>29.5</v>
+      </c>
+      <c r="E1590">
+        <v>24</v>
+      </c>
+      <c r="F1590">
+        <v>110</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>1</v>
+      </c>
+      <c r="B1591">
+        <v>18</v>
+      </c>
+      <c r="C1591">
+        <v>61</v>
+      </c>
+      <c r="D1591">
+        <v>21.5</v>
+      </c>
+      <c r="E1591">
+        <v>20.5</v>
+      </c>
+      <c r="F1591">
+        <v>100</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>1</v>
+      </c>
+      <c r="B1592">
+        <v>18</v>
+      </c>
+      <c r="C1592">
+        <v>62</v>
+      </c>
+      <c r="D1592">
+        <v>19.5</v>
+      </c>
+      <c r="E1592">
+        <v>19.5</v>
+      </c>
+      <c r="F1592">
+        <v>70</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>1</v>
+      </c>
+      <c r="B1593">
+        <v>18</v>
+      </c>
+      <c r="C1593">
+        <v>63</v>
+      </c>
+      <c r="D1593">
+        <v>14</v>
+      </c>
+      <c r="E1593">
+        <v>13</v>
+      </c>
+      <c r="F1593">
+        <v>30</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>1</v>
+      </c>
+      <c r="B1594">
+        <v>18</v>
+      </c>
+      <c r="C1594">
+        <v>64</v>
+      </c>
+      <c r="D1594">
+        <v>18</v>
+      </c>
+      <c r="E1594">
+        <v>19</v>
+      </c>
+      <c r="F1594">
+        <v>60</v>
+      </c>
+      <c r="I1594" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1595">
+        <v>1</v>
+      </c>
+      <c r="B1595">
+        <v>18</v>
+      </c>
+      <c r="C1595">
+        <v>65</v>
+      </c>
+      <c r="D1595">
+        <v>15.9</v>
+      </c>
+      <c r="E1595">
+        <v>22.5</v>
+      </c>
+      <c r="F1595">
+        <v>150</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1596">
+        <v>1</v>
+      </c>
+      <c r="B1596">
+        <v>18</v>
+      </c>
+      <c r="C1596">
+        <v>66</v>
+      </c>
+      <c r="D1596">
+        <v>22.3</v>
+      </c>
+      <c r="E1596">
+        <v>15</v>
+      </c>
+      <c r="F1596">
+        <v>40</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1597">
+        <v>1</v>
+      </c>
+      <c r="B1597">
+        <v>18</v>
+      </c>
+      <c r="C1597">
+        <v>67</v>
+      </c>
+      <c r="D1597">
+        <v>50.9</v>
+      </c>
+      <c r="E1597">
+        <v>67</v>
+      </c>
+      <c r="F1597">
+        <v>1370</v>
+      </c>
+      <c r="I1597" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1598">
+        <v>1</v>
+      </c>
+      <c r="B1598">
+        <v>18</v>
+      </c>
+      <c r="C1598">
+        <v>68</v>
+      </c>
+      <c r="D1598">
+        <v>40.9</v>
+      </c>
+      <c r="E1598">
+        <v>39.6</v>
+      </c>
+      <c r="F1598">
+        <v>400</v>
+      </c>
+      <c r="I1598" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1599">
+        <v>1</v>
+      </c>
+      <c r="B1599">
+        <v>18</v>
+      </c>
+      <c r="C1599">
+        <v>69</v>
+      </c>
+      <c r="D1599">
+        <v>41.7</v>
+      </c>
+      <c r="E1599">
+        <v>50.5</v>
+      </c>
+      <c r="F1599">
+        <v>740</v>
+      </c>
+      <c r="I1599" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1600">
+        <v>1</v>
+      </c>
+      <c r="B1600">
+        <v>18</v>
+      </c>
+      <c r="C1600">
+        <v>70</v>
+      </c>
+      <c r="D1600">
+        <v>18.8</v>
+      </c>
+      <c r="E1600">
+        <v>16.5</v>
+      </c>
+      <c r="F1600">
+        <v>50</v>
+      </c>
+      <c r="I1600" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1601">
+        <v>1</v>
+      </c>
+      <c r="B1601">
+        <v>18</v>
+      </c>
+      <c r="C1601">
+        <v>71</v>
+      </c>
+      <c r="D1601">
+        <v>10.6</v>
+      </c>
+      <c r="E1601">
+        <v>11</v>
+      </c>
+      <c r="F1601">
+        <v>16.5</v>
+      </c>
+      <c r="I1601" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1602">
+        <v>1</v>
+      </c>
+      <c r="B1602">
+        <v>18</v>
+      </c>
+      <c r="C1602">
+        <v>72</v>
+      </c>
+      <c r="D1602">
+        <v>13.6</v>
+      </c>
+      <c r="E1602">
+        <v>11.5</v>
+      </c>
+      <c r="F1602">
+        <v>20</v>
+      </c>
+      <c r="I1602" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1603">
+        <v>1</v>
+      </c>
+      <c r="B1603">
+        <v>18</v>
+      </c>
+      <c r="C1603">
+        <v>73</v>
+      </c>
+      <c r="D1603">
+        <v>16.5</v>
+      </c>
+      <c r="E1603">
+        <v>18</v>
+      </c>
+      <c r="F1603">
+        <v>50</v>
+      </c>
+      <c r="I1603" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1604">
+        <v>1</v>
+      </c>
+      <c r="B1604">
+        <v>18</v>
+      </c>
+      <c r="C1604">
+        <v>74</v>
+      </c>
+      <c r="D1604">
+        <v>9.6</v>
+      </c>
+      <c r="E1604">
+        <v>13.5</v>
+      </c>
+      <c r="F1604">
+        <v>25.5</v>
+      </c>
+      <c r="I1604" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1605">
+        <v>1</v>
+      </c>
+      <c r="B1605">
+        <v>18</v>
+      </c>
+      <c r="C1605">
+        <v>75</v>
+      </c>
+      <c r="D1605">
+        <v>23.1</v>
+      </c>
+      <c r="E1605">
+        <v>16</v>
+      </c>
+      <c r="F1605">
+        <v>70</v>
+      </c>
+      <c r="I1605" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1606">
+        <v>1</v>
+      </c>
+      <c r="B1606">
+        <v>18</v>
+      </c>
+      <c r="C1606">
+        <v>76</v>
+      </c>
+      <c r="D1606">
+        <v>19.5</v>
+      </c>
+      <c r="E1606">
+        <v>22</v>
+      </c>
+      <c r="F1606">
+        <v>80</v>
+      </c>
+      <c r="I1606" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1607">
+        <v>1</v>
+      </c>
+      <c r="B1607">
+        <v>18</v>
+      </c>
+      <c r="C1607">
+        <v>77</v>
+      </c>
+      <c r="D1607">
+        <v>12.9</v>
+      </c>
+      <c r="E1607">
+        <v>12</v>
+      </c>
+      <c r="F1607">
+        <v>30</v>
+      </c>
+      <c r="I1607" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1608">
+        <v>1</v>
+      </c>
+      <c r="B1608">
+        <v>18</v>
+      </c>
+      <c r="C1608">
+        <v>78</v>
+      </c>
+      <c r="D1608">
+        <v>12.8</v>
+      </c>
+      <c r="E1608">
+        <v>13</v>
+      </c>
+      <c r="F1608">
+        <v>20</v>
+      </c>
+      <c r="I1608" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1609">
+        <v>1</v>
+      </c>
+      <c r="B1609">
+        <v>18</v>
+      </c>
+      <c r="C1609">
+        <v>79</v>
+      </c>
+      <c r="D1609">
+        <v>45.9</v>
+      </c>
+      <c r="E1609">
+        <v>43</v>
+      </c>
+      <c r="F1609">
+        <v>570</v>
+      </c>
+      <c r="I1609" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1610">
+        <v>1</v>
+      </c>
+      <c r="B1610">
+        <v>18</v>
+      </c>
+      <c r="C1610">
+        <v>80</v>
+      </c>
+      <c r="D1610">
+        <v>29.5</v>
+      </c>
+      <c r="E1610">
+        <v>28</v>
+      </c>
+      <c r="F1610">
+        <v>190</v>
+      </c>
+      <c r="I1610" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1611">
+        <v>1</v>
+      </c>
+      <c r="B1611">
+        <v>18</v>
+      </c>
+      <c r="C1611">
+        <v>81</v>
+      </c>
+      <c r="D1611">
+        <v>27.1</v>
+      </c>
+      <c r="E1611">
+        <v>21.5</v>
+      </c>
+      <c r="F1611">
+        <v>120</v>
+      </c>
+      <c r="I1611" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1612">
+        <v>1</v>
+      </c>
+      <c r="B1612">
+        <v>18</v>
+      </c>
+      <c r="C1612">
+        <v>82</v>
+      </c>
+      <c r="D1612">
+        <v>30</v>
+      </c>
+      <c r="E1612">
+        <v>25</v>
+      </c>
+      <c r="F1612">
+        <v>150</v>
+      </c>
+      <c r="I1612" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1613">
+        <v>1</v>
+      </c>
+      <c r="B1613">
+        <v>18</v>
+      </c>
+      <c r="C1613">
+        <v>83</v>
+      </c>
+      <c r="D1613">
+        <v>23.6</v>
+      </c>
+      <c r="E1613">
+        <v>14</v>
+      </c>
+      <c r="F1613">
+        <v>60</v>
+      </c>
+      <c r="I1613" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1614">
+        <v>1</v>
+      </c>
+      <c r="B1614">
+        <v>18</v>
+      </c>
+      <c r="C1614">
+        <v>84</v>
+      </c>
+      <c r="D1614">
+        <v>14.9</v>
+      </c>
+      <c r="E1614">
+        <v>13</v>
+      </c>
+      <c r="F1614">
+        <v>30</v>
+      </c>
+      <c r="I1614" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1615">
+        <v>1</v>
+      </c>
+      <c r="B1615">
+        <v>18</v>
+      </c>
+      <c r="C1615">
+        <v>85</v>
+      </c>
+      <c r="D1615">
+        <v>13.9</v>
+      </c>
+      <c r="E1615">
+        <v>13</v>
+      </c>
+      <c r="F1615">
+        <v>23</v>
+      </c>
+      <c r="I1615" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1616">
+        <v>1</v>
+      </c>
+      <c r="B1616">
+        <v>18</v>
+      </c>
+      <c r="C1616">
+        <v>86</v>
+      </c>
+      <c r="D1616">
+        <v>13.2</v>
+      </c>
+      <c r="E1616">
+        <v>12</v>
+      </c>
+      <c r="F1616">
+        <v>23</v>
+      </c>
+      <c r="I1616" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1617">
+        <v>1</v>
+      </c>
+      <c r="B1617">
+        <v>18</v>
+      </c>
+      <c r="C1617">
+        <v>87</v>
+      </c>
+      <c r="D1617">
+        <v>6.9</v>
+      </c>
+      <c r="E1617">
+        <v>9</v>
+      </c>
+      <c r="F1617">
+        <v>7</v>
+      </c>
+      <c r="I1617" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1618">
+        <v>1</v>
+      </c>
+      <c r="B1618">
+        <v>18</v>
+      </c>
+      <c r="C1618">
+        <v>88</v>
+      </c>
+      <c r="D1618">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1618">
+        <v>17.5</v>
+      </c>
+      <c r="F1618">
+        <v>70</v>
+      </c>
+      <c r="I1618" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1619">
+        <v>1</v>
+      </c>
+      <c r="B1619">
+        <v>18</v>
+      </c>
+      <c r="C1619">
+        <v>89</v>
+      </c>
+      <c r="D1619">
+        <v>15.9</v>
+      </c>
+      <c r="E1619">
+        <v>15.5</v>
+      </c>
+      <c r="F1619">
+        <v>50</v>
+      </c>
+      <c r="I1619" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1620">
+        <v>1</v>
+      </c>
+      <c r="B1620">
+        <v>18</v>
+      </c>
+      <c r="C1620">
+        <v>90</v>
+      </c>
+      <c r="D1620">
+        <v>35.5</v>
+      </c>
+      <c r="E1620">
+        <v>31</v>
+      </c>
+      <c r="F1620">
+        <v>250</v>
+      </c>
+      <c r="I1620" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1621">
+        <v>1</v>
+      </c>
+      <c r="B1621">
+        <v>18</v>
+      </c>
+      <c r="C1621">
+        <v>91</v>
+      </c>
+      <c r="D1621">
+        <v>24.5</v>
+      </c>
+      <c r="E1621">
+        <v>22</v>
+      </c>
+      <c r="F1621">
+        <v>100</v>
+      </c>
+      <c r="I1621" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1622">
+        <v>1</v>
+      </c>
+      <c r="B1622">
+        <v>18</v>
+      </c>
+      <c r="C1622">
+        <v>92</v>
+      </c>
+      <c r="D1622">
+        <v>14.5</v>
+      </c>
+      <c r="E1622">
+        <v>15</v>
+      </c>
+      <c r="F1622">
+        <v>30</v>
+      </c>
+      <c r="I1622" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1623">
+        <v>1</v>
+      </c>
+      <c r="B1623">
+        <v>18</v>
+      </c>
+      <c r="C1623">
+        <v>93</v>
+      </c>
+      <c r="D1623">
+        <v>17</v>
+      </c>
+      <c r="E1623">
+        <v>14.5</v>
+      </c>
+      <c r="F1623">
+        <v>50</v>
+      </c>
+      <c r="I1623" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1624">
+        <v>1</v>
+      </c>
+      <c r="B1624">
+        <v>18</v>
+      </c>
+      <c r="C1624">
+        <v>94</v>
+      </c>
+      <c r="D1624">
+        <v>19.7</v>
+      </c>
+      <c r="E1624">
+        <v>17</v>
+      </c>
+      <c r="F1624">
+        <v>40</v>
+      </c>
+      <c r="I1624" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1625">
+        <v>1</v>
+      </c>
+      <c r="B1625">
+        <v>18</v>
+      </c>
+      <c r="C1625">
+        <v>95</v>
+      </c>
+      <c r="D1625">
+        <v>21.4</v>
+      </c>
+      <c r="E1625">
+        <v>18.5</v>
+      </c>
+      <c r="F1625">
+        <v>70</v>
+      </c>
+      <c r="I1625" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1626">
+        <v>1</v>
+      </c>
+      <c r="B1626">
+        <v>18</v>
+      </c>
+      <c r="C1626">
+        <v>96</v>
+      </c>
+      <c r="D1626">
+        <v>16</v>
+      </c>
+      <c r="E1626">
+        <v>13</v>
+      </c>
+      <c r="F1626">
+        <v>30</v>
+      </c>
+      <c r="I1626" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1627">
+        <v>1</v>
+      </c>
+      <c r="B1627">
+        <v>18</v>
+      </c>
+      <c r="C1627">
+        <v>97</v>
+      </c>
+      <c r="D1627">
+        <v>12</v>
+      </c>
+      <c r="E1627">
+        <v>12.5</v>
+      </c>
+      <c r="F1627">
+        <v>16.5</v>
+      </c>
+      <c r="I1627" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1628">
+        <v>1</v>
+      </c>
+      <c r="B1628">
+        <v>18</v>
+      </c>
+      <c r="C1628">
+        <v>98</v>
+      </c>
+      <c r="D1628">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1628">
+        <v>8</v>
+      </c>
+      <c r="F1628">
+        <v>11.5</v>
+      </c>
+      <c r="I1628" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1629">
+        <v>1</v>
+      </c>
+      <c r="B1629">
+        <v>18</v>
+      </c>
+      <c r="C1629">
+        <v>99</v>
+      </c>
+      <c r="D1629">
+        <v>14.4</v>
+      </c>
+      <c r="E1629">
+        <v>11</v>
+      </c>
+      <c r="F1629">
+        <v>22</v>
+      </c>
+      <c r="I1629" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1630">
+        <v>1</v>
+      </c>
+      <c r="B1630">
+        <v>18</v>
+      </c>
+      <c r="C1630">
+        <v>100</v>
+      </c>
+      <c r="D1630">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E1630">
+        <v>39</v>
+      </c>
+      <c r="F1630">
+        <v>430</v>
+      </c>
+      <c r="I1630" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1631">
+        <v>1</v>
+      </c>
+      <c r="B1631">
+        <v>18</v>
+      </c>
+      <c r="C1631">
+        <v>101</v>
+      </c>
+      <c r="D1631">
+        <v>46</v>
+      </c>
+      <c r="E1631">
+        <v>36</v>
+      </c>
+      <c r="F1631">
+        <v>620</v>
+      </c>
+      <c r="I1631" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1632">
+        <v>1</v>
+      </c>
+      <c r="B1632">
+        <v>18</v>
+      </c>
+      <c r="C1632">
+        <v>102</v>
+      </c>
+      <c r="D1632">
+        <v>7.7</v>
+      </c>
+      <c r="E1632">
+        <v>8</v>
+      </c>
+      <c r="F1632">
+        <v>4</v>
+      </c>
+      <c r="I1632" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1633">
+        <v>1</v>
+      </c>
+      <c r="B1633">
+        <v>18</v>
+      </c>
+      <c r="C1633">
+        <v>103</v>
+      </c>
+      <c r="D1633">
+        <v>11.8</v>
+      </c>
+      <c r="E1633">
+        <v>11</v>
+      </c>
+      <c r="F1633">
+        <v>21.5</v>
+      </c>
+      <c r="I1633" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1634">
+        <v>1</v>
+      </c>
+      <c r="B1634">
+        <v>18</v>
+      </c>
+      <c r="C1634">
+        <v>104</v>
+      </c>
+      <c r="D1634">
+        <v>20.7</v>
+      </c>
+      <c r="E1634">
+        <v>16</v>
+      </c>
+      <c r="F1634">
+        <v>80</v>
+      </c>
+      <c r="I1634" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1635">
+        <v>1</v>
+      </c>
+      <c r="B1635">
+        <v>18</v>
+      </c>
+      <c r="C1635">
+        <v>105</v>
+      </c>
+      <c r="D1635">
+        <v>15.3</v>
+      </c>
+      <c r="E1635">
+        <v>15</v>
+      </c>
+      <c r="F1635">
+        <v>30</v>
+      </c>
+      <c r="I1635" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1636">
+        <v>1</v>
+      </c>
+      <c r="B1636">
+        <v>18</v>
+      </c>
+      <c r="C1636">
+        <v>106</v>
+      </c>
+      <c r="D1636">
+        <v>6.9</v>
+      </c>
+      <c r="E1636">
+        <v>7.5</v>
+      </c>
+      <c r="F1636">
+        <v>5</v>
+      </c>
+      <c r="I1636" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1637">
+        <v>1</v>
+      </c>
+      <c r="B1637">
+        <v>18</v>
+      </c>
+      <c r="C1637">
+        <v>107</v>
+      </c>
+      <c r="D1637">
+        <v>56.3</v>
+      </c>
+      <c r="E1637">
+        <v>75.5</v>
+      </c>
+      <c r="F1637">
+        <v>2430</v>
+      </c>
+      <c r="I1637" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1638">
+        <v>1</v>
+      </c>
+      <c r="B1638">
+        <v>18</v>
+      </c>
+      <c r="C1638">
+        <v>108</v>
+      </c>
+      <c r="D1638">
+        <v>25.5</v>
+      </c>
+      <c r="E1638">
+        <v>29</v>
+      </c>
+      <c r="F1638">
+        <v>270</v>
+      </c>
+      <c r="I1638" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1639">
+        <v>1</v>
+      </c>
+      <c r="B1639">
+        <v>18</v>
+      </c>
+      <c r="C1639">
+        <v>109</v>
+      </c>
+      <c r="D1639">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1639">
+        <v>15</v>
+      </c>
+      <c r="F1639">
+        <v>40</v>
+      </c>
+      <c r="I1639" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1640">
+        <v>1</v>
+      </c>
+      <c r="B1640">
+        <v>18</v>
+      </c>
+      <c r="C1640">
+        <v>110</v>
+      </c>
+      <c r="D1640">
+        <v>35.4</v>
+      </c>
+      <c r="E1640">
+        <v>27</v>
+      </c>
+      <c r="F1640">
+        <v>320</v>
+      </c>
+      <c r="I1640" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1641">
+        <v>1</v>
+      </c>
+      <c r="B1641">
+        <v>18</v>
+      </c>
+      <c r="C1641">
+        <v>111</v>
+      </c>
+      <c r="D1641">
+        <v>39.5</v>
+      </c>
+      <c r="E1641">
+        <v>37</v>
+      </c>
+      <c r="F1641">
+        <v>360</v>
+      </c>
+      <c r="I1641" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1642">
+        <v>1</v>
+      </c>
+      <c r="B1642">
+        <v>18</v>
+      </c>
+      <c r="C1642">
+        <v>112</v>
+      </c>
+      <c r="D1642">
+        <v>12.4</v>
+      </c>
+      <c r="E1642">
+        <v>13</v>
+      </c>
+      <c r="F1642">
+        <v>30</v>
+      </c>
+      <c r="I1642" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1643">
+        <v>1</v>
+      </c>
+      <c r="B1643">
+        <v>18</v>
+      </c>
+      <c r="C1643">
+        <v>113</v>
+      </c>
+      <c r="D1643">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1643">
+        <v>11.5</v>
+      </c>
+      <c r="F1643">
+        <v>13</v>
+      </c>
+      <c r="I1643" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1644">
+        <v>1</v>
+      </c>
+      <c r="B1644">
+        <v>18</v>
+      </c>
+      <c r="C1644">
+        <v>114</v>
+      </c>
+      <c r="D1644">
+        <v>28.9</v>
+      </c>
+      <c r="E1644">
+        <v>28.5</v>
+      </c>
+      <c r="F1644">
+        <v>500</v>
+      </c>
+      <c r="I1644" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1645">
+        <v>1</v>
+      </c>
+      <c r="B1645">
+        <v>18</v>
+      </c>
+      <c r="C1645">
+        <v>115</v>
+      </c>
+      <c r="D1645">
+        <v>9.5</v>
+      </c>
+      <c r="E1645">
+        <v>10</v>
+      </c>
+      <c r="F1645">
+        <v>15.5</v>
+      </c>
+      <c r="I1645" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1646">
+        <v>1</v>
+      </c>
+      <c r="B1646">
+        <v>18</v>
+      </c>
+      <c r="C1646">
+        <v>116</v>
+      </c>
+      <c r="D1646">
+        <v>11.1</v>
+      </c>
+      <c r="E1646">
+        <v>10</v>
+      </c>
+      <c r="F1646">
+        <v>14.5</v>
+      </c>
+      <c r="I1646" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1647">
+        <v>1</v>
+      </c>
+      <c r="B1647">
+        <v>18</v>
+      </c>
+      <c r="C1647">
+        <v>117</v>
+      </c>
+      <c r="D1647">
+        <v>48.5</v>
+      </c>
+      <c r="E1647">
+        <v>14.6</v>
+      </c>
+      <c r="F1647">
+        <v>790</v>
+      </c>
+      <c r="I1647" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1648">
+        <v>1</v>
+      </c>
+      <c r="B1648">
+        <v>18</v>
+      </c>
+      <c r="C1648">
+        <v>118</v>
+      </c>
+      <c r="D1648">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E1648">
+        <v>12</v>
+      </c>
+      <c r="F1648">
+        <v>19.5</v>
+      </c>
+      <c r="I1648" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1649">
+        <v>1</v>
+      </c>
+      <c r="B1649">
+        <v>18</v>
+      </c>
+      <c r="C1649">
+        <v>119</v>
+      </c>
+      <c r="D1649">
+        <v>8.9</v>
+      </c>
+      <c r="E1649">
+        <v>9</v>
+      </c>
+      <c r="F1649">
+        <v>6</v>
+      </c>
+      <c r="I1649" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1650">
+        <v>1</v>
+      </c>
+      <c r="B1650">
+        <v>18</v>
+      </c>
+      <c r="C1650">
+        <v>120</v>
+      </c>
+      <c r="D1650">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E1650">
+        <v>16.5</v>
+      </c>
+      <c r="F1650">
+        <v>70</v>
+      </c>
+      <c r="I1650" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1651">
+        <v>1</v>
+      </c>
+      <c r="B1651">
+        <v>18</v>
+      </c>
+      <c r="C1651">
+        <v>121</v>
+      </c>
+      <c r="D1651">
+        <v>10.4</v>
+      </c>
+      <c r="E1651">
+        <v>8.5</v>
+      </c>
+      <c r="F1651">
+        <v>10.5</v>
+      </c>
+      <c r="I1651" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1652">
+        <v>1</v>
+      </c>
+      <c r="B1652">
+        <v>18</v>
+      </c>
+      <c r="C1652">
+        <v>122</v>
+      </c>
+      <c r="D1652">
+        <v>11.8</v>
+      </c>
+      <c r="E1652">
+        <v>12.5</v>
+      </c>
+      <c r="F1652">
+        <v>25.5</v>
+      </c>
+      <c r="I1652" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1653">
+        <v>1</v>
+      </c>
+      <c r="B1653">
+        <v>18</v>
+      </c>
+      <c r="C1653">
+        <v>123</v>
+      </c>
+      <c r="D1653">
+        <v>14.6</v>
+      </c>
+      <c r="E1653">
+        <v>15.5</v>
+      </c>
+      <c r="F1653">
+        <v>40</v>
+      </c>
+      <c r="I1653" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1654">
+        <v>1</v>
+      </c>
+      <c r="B1654">
+        <v>18</v>
+      </c>
+      <c r="C1654">
+        <v>124</v>
+      </c>
+      <c r="D1654">
+        <v>9.1</v>
+      </c>
+      <c r="E1654">
+        <v>11</v>
+      </c>
+      <c r="F1654">
+        <v>16.5</v>
+      </c>
+      <c r="I1654" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1655">
+        <v>1</v>
+      </c>
+      <c r="B1655">
+        <v>18</v>
+      </c>
+      <c r="C1655">
+        <v>125</v>
+      </c>
+      <c r="D1655">
+        <v>27.8</v>
+      </c>
+      <c r="E1655">
+        <v>25</v>
+      </c>
+      <c r="F1655">
+        <v>200</v>
+      </c>
+      <c r="I1655" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1656">
+        <v>1</v>
+      </c>
+      <c r="B1656">
+        <v>18</v>
+      </c>
+      <c r="C1656">
+        <v>126</v>
+      </c>
+      <c r="D1656">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1656">
+        <v>14.5</v>
+      </c>
+      <c r="F1656">
+        <v>310</v>
+      </c>
+      <c r="I1656" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1657">
+        <v>1</v>
+      </c>
+      <c r="B1657">
+        <v>18</v>
+      </c>
+      <c r="C1657">
+        <v>127</v>
+      </c>
+      <c r="D1657">
+        <v>12.6</v>
+      </c>
+      <c r="E1657">
+        <v>10.5</v>
+      </c>
+      <c r="F1657">
+        <v>20</v>
+      </c>
+      <c r="I1657" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1658">
+        <v>1</v>
+      </c>
+      <c r="B1658">
+        <v>18</v>
+      </c>
+      <c r="C1658">
+        <v>128</v>
+      </c>
+      <c r="D1658">
+        <v>15.7</v>
+      </c>
+      <c r="E1658">
+        <v>13.5</v>
+      </c>
+      <c r="F1658">
+        <v>40</v>
+      </c>
+      <c r="I1658" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1659">
+        <v>1</v>
+      </c>
+      <c r="B1659">
+        <v>18</v>
+      </c>
+      <c r="C1659">
+        <v>129</v>
+      </c>
+      <c r="D1659">
+        <v>15.6</v>
+      </c>
+      <c r="E1659">
+        <v>12.5</v>
+      </c>
+      <c r="F1659">
+        <v>23.5</v>
+      </c>
+      <c r="I1659" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1660">
+        <v>1</v>
+      </c>
+      <c r="B1660">
+        <v>18</v>
+      </c>
+      <c r="C1660">
+        <v>130</v>
+      </c>
+      <c r="D1660">
+        <v>11.8</v>
+      </c>
+      <c r="E1660">
+        <v>10.5</v>
+      </c>
+      <c r="F1660">
+        <v>13.5</v>
+      </c>
+      <c r="I1660" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1661">
+        <v>1</v>
+      </c>
+      <c r="B1661">
+        <v>18</v>
+      </c>
+      <c r="C1661">
+        <v>131</v>
+      </c>
+      <c r="D1661">
+        <v>22.4</v>
+      </c>
+      <c r="E1661">
+        <v>20</v>
+      </c>
+      <c r="F1661">
+        <v>110</v>
+      </c>
+      <c r="I1661" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1662">
+        <v>1</v>
+      </c>
+      <c r="B1662">
+        <v>18</v>
+      </c>
+      <c r="C1662">
+        <v>132</v>
+      </c>
+      <c r="D1662">
+        <v>15.5</v>
+      </c>
+      <c r="E1662">
+        <v>13</v>
+      </c>
+      <c r="F1662">
+        <v>40</v>
+      </c>
+      <c r="I1662" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1663">
+        <v>1</v>
+      </c>
+      <c r="B1663">
+        <v>18</v>
+      </c>
+      <c r="C1663">
+        <v>133</v>
+      </c>
+      <c r="D1663">
+        <v>12.3</v>
+      </c>
+      <c r="E1663">
+        <v>13.5</v>
+      </c>
+      <c r="F1663">
+        <v>26.5</v>
+      </c>
+      <c r="I1663" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1664">
+        <v>1</v>
+      </c>
+      <c r="B1664">
+        <v>18</v>
+      </c>
+      <c r="C1664">
+        <v>134</v>
+      </c>
+      <c r="D1664">
+        <v>8.6</v>
+      </c>
+      <c r="E1664">
+        <v>9.5</v>
+      </c>
+      <c r="F1664">
+        <v>9.5</v>
+      </c>
+      <c r="I1664" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1665">
+        <v>1</v>
+      </c>
+      <c r="B1665">
+        <v>18</v>
+      </c>
+      <c r="C1665">
+        <v>135</v>
+      </c>
+      <c r="D1665">
+        <v>24.7</v>
+      </c>
+      <c r="E1665">
+        <v>17.5</v>
+      </c>
+      <c r="F1665">
+        <v>110</v>
+      </c>
+      <c r="I1665" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1666">
+        <v>1</v>
+      </c>
+      <c r="B1666">
+        <v>18</v>
+      </c>
+      <c r="C1666">
+        <v>136</v>
+      </c>
+      <c r="D1666">
+        <v>20.7</v>
+      </c>
+      <c r="E1666">
+        <v>16.5</v>
+      </c>
+      <c r="F1666">
+        <v>80</v>
+      </c>
+      <c r="I1666" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1667">
+        <v>1</v>
+      </c>
+      <c r="B1667">
+        <v>18</v>
+      </c>
+      <c r="C1667">
+        <v>137</v>
+      </c>
+      <c r="D1667">
+        <v>28</v>
+      </c>
+      <c r="E1667">
+        <v>15</v>
+      </c>
+      <c r="F1667">
+        <v>60</v>
+      </c>
+      <c r="I1667" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1668">
+        <v>1</v>
+      </c>
+      <c r="B1668">
+        <v>18</v>
+      </c>
+      <c r="C1668">
+        <v>138</v>
+      </c>
+      <c r="D1668">
+        <v>20.2</v>
+      </c>
+      <c r="E1668">
+        <v>15</v>
+      </c>
+      <c r="F1668">
+        <v>80</v>
+      </c>
+      <c r="I1668" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1669">
+        <v>1</v>
+      </c>
+      <c r="B1669">
+        <v>18</v>
+      </c>
+      <c r="C1669">
+        <v>139</v>
+      </c>
+      <c r="D1669">
+        <v>30.5</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1669">
+        <v>220</v>
+      </c>
+      <c r="I1669" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1670">
+        <v>1</v>
+      </c>
+      <c r="B1670">
+        <v>18</v>
+      </c>
+      <c r="C1670">
+        <v>140</v>
+      </c>
+      <c r="D1670">
+        <v>8.6</v>
+      </c>
+      <c r="E1670">
+        <v>10.5</v>
+      </c>
+      <c r="F1670">
+        <v>10.5</v>
+      </c>
+      <c r="I1670" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1671">
+        <v>1</v>
+      </c>
+      <c r="B1671">
+        <v>18</v>
+      </c>
+      <c r="C1671">
+        <v>141</v>
+      </c>
+      <c r="D1671">
+        <v>9.4</v>
+      </c>
+      <c r="E1671">
+        <v>10.5</v>
+      </c>
+      <c r="F1671">
+        <v>14.5</v>
+      </c>
+      <c r="I1671" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1672">
+        <v>1</v>
+      </c>
+      <c r="B1672">
+        <v>18</v>
+      </c>
+      <c r="C1672">
+        <v>142</v>
+      </c>
+      <c r="D1672">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E1672">
+        <v>8</v>
+      </c>
+      <c r="F1672">
+        <v>9</v>
+      </c>
+      <c r="I1672" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1673">
+        <v>1</v>
+      </c>
+      <c r="B1673">
+        <v>18</v>
+      </c>
+      <c r="C1673">
+        <v>143</v>
+      </c>
+      <c r="D1673">
+        <v>14.8</v>
+      </c>
+      <c r="E1673">
+        <v>10.5</v>
+      </c>
+      <c r="F1673">
+        <v>5</v>
+      </c>
+      <c r="I1673" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1674">
+        <v>1</v>
+      </c>
+      <c r="B1674">
+        <v>18</v>
+      </c>
+      <c r="C1674">
+        <v>144</v>
+      </c>
+      <c r="D1674">
+        <v>15.3</v>
+      </c>
+      <c r="E1674">
+        <v>13</v>
+      </c>
+      <c r="F1674">
+        <v>40</v>
+      </c>
+      <c r="I1674" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1675">
+        <v>1</v>
+      </c>
+      <c r="B1675">
+        <v>18</v>
+      </c>
+      <c r="C1675">
+        <v>145</v>
+      </c>
+      <c r="D1675">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1675">
+        <v>8</v>
+      </c>
+      <c r="F1675">
+        <v>5</v>
+      </c>
+      <c r="I1675" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1676">
+        <v>1</v>
+      </c>
+      <c r="B1676">
+        <v>18</v>
+      </c>
+      <c r="C1676">
+        <v>146</v>
+      </c>
+      <c r="D1676">
+        <v>6.3</v>
+      </c>
+      <c r="E1676">
+        <v>7</v>
+      </c>
+      <c r="F1676">
+        <v>4.5</v>
+      </c>
+      <c r="I1676" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1677">
+        <v>1</v>
+      </c>
+      <c r="B1677">
+        <v>18</v>
+      </c>
+      <c r="C1677">
+        <v>147</v>
+      </c>
+      <c r="D1677">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E1677">
+        <v>7.5</v>
+      </c>
+      <c r="F1677">
+        <v>7</v>
+      </c>
+      <c r="I1677" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1678">
+        <v>1</v>
+      </c>
+      <c r="B1678">
+        <v>18</v>
+      </c>
+      <c r="C1678">
+        <v>148</v>
+      </c>
+      <c r="D1678">
+        <v>6.2</v>
+      </c>
+      <c r="E1678">
+        <v>7.5</v>
+      </c>
+      <c r="F1678">
+        <v>7</v>
+      </c>
+      <c r="I1678" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1679">
+        <v>1</v>
+      </c>
+      <c r="B1679">
+        <v>18</v>
+      </c>
+      <c r="C1679">
+        <v>149</v>
+      </c>
+      <c r="D1679">
+        <v>6.8</v>
+      </c>
+      <c r="E1679">
+        <v>8.5</v>
+      </c>
+      <c r="F1679">
+        <v>5</v>
+      </c>
+      <c r="I1679" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1680">
+        <v>1</v>
+      </c>
+      <c r="B1680">
+        <v>18</v>
+      </c>
+      <c r="C1680">
+        <v>150</v>
+      </c>
+      <c r="D1680">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E1680">
+        <v>17.5</v>
+      </c>
+      <c r="F1680">
+        <v>50</v>
+      </c>
+      <c r="I1680" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1681">
+        <v>1</v>
+      </c>
+      <c r="B1681">
+        <v>18</v>
+      </c>
+      <c r="C1681">
+        <v>151</v>
+      </c>
+      <c r="D1681">
+        <v>14.5</v>
+      </c>
+      <c r="E1681">
+        <v>11.5</v>
+      </c>
+      <c r="F1681">
+        <v>25</v>
+      </c>
+      <c r="I1681" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1682">
+        <v>1</v>
+      </c>
+      <c r="B1682">
+        <v>18</v>
+      </c>
+      <c r="C1682">
+        <v>152</v>
+      </c>
+      <c r="D1682">
+        <v>7.8</v>
+      </c>
+      <c r="E1682">
+        <v>6.5</v>
+      </c>
+      <c r="F1682">
+        <v>5.5</v>
+      </c>
+      <c r="I1682" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1683">
+        <v>1</v>
+      </c>
+      <c r="B1683">
+        <v>18</v>
+      </c>
+      <c r="C1683">
+        <v>153</v>
+      </c>
+      <c r="D1683">
+        <v>9</v>
+      </c>
+      <c r="E1683">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1683">
+        <v>9</v>
+      </c>
+      <c r="I1683" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1684">
+        <v>1</v>
+      </c>
+      <c r="B1684">
+        <v>18</v>
+      </c>
+      <c r="C1684">
+        <v>154</v>
+      </c>
+      <c r="D1684">
+        <v>2</v>
+      </c>
+      <c r="E1684">
+        <v>3</v>
+      </c>
+      <c r="F1684">
+        <v>0.5</v>
+      </c>
+      <c r="I1684" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1685">
+        <v>1</v>
+      </c>
+      <c r="B1685">
+        <v>18</v>
+      </c>
+      <c r="C1685">
+        <v>155</v>
+      </c>
+      <c r="D1685">
+        <v>3</v>
+      </c>
+      <c r="E1685">
+        <v>3.4</v>
+      </c>
+      <c r="F1685">
+        <v>0.7</v>
+      </c>
+      <c r="I1685" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1686">
+        <v>1</v>
+      </c>
+      <c r="B1686">
+        <v>18</v>
+      </c>
+      <c r="C1686">
+        <v>156</v>
+      </c>
+      <c r="D1686">
+        <v>3.5</v>
+      </c>
+      <c r="E1686">
+        <v>2.4</v>
+      </c>
+      <c r="F1686">
+        <v>0.5</v>
+      </c>
+      <c r="I1686" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1687">
+        <v>1</v>
+      </c>
+      <c r="B1687">
+        <v>20</v>
+      </c>
+      <c r="C1687">
+        <v>1</v>
+      </c>
+      <c r="D1687">
+        <v>15.2</v>
+      </c>
+      <c r="E1687">
+        <v>16</v>
+      </c>
+      <c r="F1687">
+        <v>27</v>
+      </c>
+      <c r="I1687" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1688">
+        <v>1</v>
+      </c>
+      <c r="B1688">
+        <v>20</v>
+      </c>
+      <c r="C1688">
+        <v>2</v>
+      </c>
+      <c r="D1688">
+        <v>12.5</v>
+      </c>
+      <c r="E1688">
+        <v>13</v>
+      </c>
+      <c r="F1688">
+        <v>26</v>
+      </c>
+      <c r="I1688" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1689">
+        <v>1</v>
+      </c>
+      <c r="B1689">
+        <v>20</v>
+      </c>
+      <c r="C1689">
+        <v>3</v>
+      </c>
+      <c r="D1689">
+        <v>10.1</v>
+      </c>
+      <c r="E1689">
+        <v>11</v>
+      </c>
+      <c r="F1689">
+        <v>14</v>
+      </c>
+      <c r="I1689" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1690">
+        <v>1</v>
+      </c>
+      <c r="B1690">
+        <v>20</v>
+      </c>
+      <c r="C1690">
+        <v>4</v>
+      </c>
+      <c r="D1690">
+        <v>11</v>
+      </c>
+      <c r="E1690">
+        <v>8</v>
+      </c>
+      <c r="F1690">
+        <v>8.5</v>
+      </c>
+      <c r="I1690" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1691">
+        <v>1</v>
+      </c>
+      <c r="B1691">
+        <v>20</v>
+      </c>
+      <c r="C1691">
+        <v>5</v>
+      </c>
+      <c r="D1691">
+        <v>17.7</v>
+      </c>
+      <c r="E1691">
+        <v>14</v>
+      </c>
+      <c r="F1691">
+        <v>30</v>
+      </c>
+      <c r="I1691" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1692">
+        <v>1</v>
+      </c>
+      <c r="B1692">
+        <v>20</v>
+      </c>
+      <c r="C1692">
+        <v>6</v>
+      </c>
+      <c r="D1692">
+        <v>12.4</v>
+      </c>
+      <c r="E1692">
+        <v>13.5</v>
+      </c>
+      <c r="F1692">
+        <v>30</v>
+      </c>
+      <c r="I1692" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1693">
+        <v>1</v>
+      </c>
+      <c r="B1693">
+        <v>20</v>
+      </c>
+      <c r="C1693">
+        <v>7</v>
+      </c>
+      <c r="D1693">
+        <v>15.6</v>
+      </c>
+      <c r="E1693">
+        <v>15</v>
+      </c>
+      <c r="F1693">
+        <v>29</v>
+      </c>
+      <c r="I1693" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1694">
+        <v>1</v>
+      </c>
+      <c r="B1694">
+        <v>20</v>
+      </c>
+      <c r="C1694">
+        <v>8</v>
+      </c>
+      <c r="D1694">
+        <v>12.8</v>
+      </c>
+      <c r="E1694">
+        <v>14.5</v>
+      </c>
+      <c r="F1694">
+        <v>30</v>
+      </c>
+      <c r="I1694" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1695">
+        <v>1</v>
+      </c>
+      <c r="B1695">
+        <v>20</v>
+      </c>
+      <c r="C1695">
+        <v>9</v>
+      </c>
+      <c r="D1695">
+        <v>10.8</v>
+      </c>
+      <c r="E1695">
+        <v>9</v>
+      </c>
+      <c r="F1695">
+        <v>19</v>
+      </c>
+      <c r="I1695" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1696">
+        <v>1</v>
+      </c>
+      <c r="B1696">
+        <v>20</v>
+      </c>
+      <c r="C1696">
+        <v>10</v>
+      </c>
+      <c r="D1696">
+        <v>9.4</v>
+      </c>
+      <c r="E1696">
+        <v>12</v>
+      </c>
+      <c r="F1696">
+        <v>9</v>
+      </c>
+      <c r="I1696" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1697">
+        <v>1</v>
+      </c>
+      <c r="B1697">
+        <v>20</v>
+      </c>
+      <c r="C1697">
+        <v>11</v>
+      </c>
+      <c r="D1697">
+        <v>6.9</v>
+      </c>
+      <c r="E1697">
+        <v>8</v>
+      </c>
+      <c r="F1697">
+        <v>5.5</v>
+      </c>
+      <c r="I1697" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1698">
+        <v>1</v>
+      </c>
+      <c r="B1698">
+        <v>20</v>
+      </c>
+      <c r="C1698">
+        <v>12</v>
+      </c>
+      <c r="D1698">
+        <v>5.5</v>
+      </c>
+      <c r="E1698">
+        <v>6.5</v>
+      </c>
+      <c r="F1698">
+        <v>2.5</v>
+      </c>
+      <c r="I1698" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1699">
+        <v>1</v>
+      </c>
+      <c r="B1699">
+        <v>20</v>
+      </c>
+      <c r="C1699">
+        <v>13</v>
+      </c>
+      <c r="D1699">
+        <v>5.8</v>
+      </c>
+      <c r="E1699">
+        <v>7.5</v>
+      </c>
+      <c r="F1699">
+        <v>5</v>
+      </c>
+      <c r="I1699" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1700">
+        <v>1</v>
+      </c>
+      <c r="B1700">
+        <v>20</v>
+      </c>
+      <c r="C1700">
+        <v>14</v>
+      </c>
+      <c r="D1700">
+        <v>5.5</v>
+      </c>
+      <c r="E1700">
+        <v>4</v>
+      </c>
+      <c r="F1700">
+        <v>1.5</v>
+      </c>
+      <c r="I1700" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1701">
+        <v>1</v>
+      </c>
+      <c r="B1701">
+        <v>20</v>
+      </c>
+      <c r="C1701">
+        <v>15</v>
+      </c>
+      <c r="D1701">
+        <v>14.6</v>
+      </c>
+      <c r="E1701">
+        <v>10.5</v>
+      </c>
+      <c r="F1701">
+        <v>25</v>
+      </c>
+      <c r="I1701" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1702">
+        <v>1</v>
+      </c>
+      <c r="B1702">
+        <v>20</v>
+      </c>
+      <c r="C1702">
+        <v>16</v>
+      </c>
+      <c r="D1702">
+        <v>7.2</v>
+      </c>
+      <c r="E1702">
+        <v>6</v>
+      </c>
+      <c r="F1702">
+        <v>6</v>
+      </c>
+      <c r="I1702" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1703">
+        <v>1</v>
+      </c>
+      <c r="B1703">
+        <v>20</v>
+      </c>
+      <c r="C1703">
+        <v>17</v>
+      </c>
+      <c r="D1703">
+        <v>7.9</v>
+      </c>
+      <c r="E1703">
+        <v>10.5</v>
+      </c>
+      <c r="F1703">
+        <v>5</v>
+      </c>
+      <c r="I1703" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1704">
+        <v>1</v>
+      </c>
+      <c r="B1704">
+        <v>20</v>
+      </c>
+      <c r="C1704">
+        <v>18</v>
+      </c>
+      <c r="D1704">
+        <v>6.1</v>
+      </c>
+      <c r="E1704">
+        <v>9.5</v>
+      </c>
+      <c r="F1704">
+        <v>10.5</v>
+      </c>
+      <c r="I1704" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1705">
+        <v>1</v>
+      </c>
+      <c r="B1705">
+        <v>20</v>
+      </c>
+      <c r="C1705">
+        <v>19</v>
+      </c>
+      <c r="D1705">
+        <v>3.5</v>
+      </c>
+      <c r="E1705">
+        <v>4</v>
+      </c>
+      <c r="F1705">
+        <v>1.5</v>
+      </c>
+      <c r="I1705" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1706">
+        <v>1</v>
+      </c>
+      <c r="B1706">
+        <v>20</v>
+      </c>
+      <c r="C1706">
+        <v>20</v>
+      </c>
+      <c r="D1706">
+        <v>2.1</v>
+      </c>
+      <c r="E1706">
+        <v>6.5</v>
+      </c>
+      <c r="F1706">
+        <v>2</v>
+      </c>
+      <c r="I1706" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1707">
+        <v>1</v>
+      </c>
+      <c r="B1707">
+        <v>20</v>
+      </c>
+      <c r="C1707">
+        <v>21</v>
+      </c>
+      <c r="D1707">
+        <v>2</v>
+      </c>
+      <c r="E1707">
+        <v>3</v>
+      </c>
+      <c r="F1707">
+        <v>0.5</v>
+      </c>
+      <c r="I1707" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1708">
+        <v>1</v>
+      </c>
+      <c r="B1708">
+        <v>20</v>
+      </c>
+      <c r="C1708">
+        <v>22</v>
+      </c>
+      <c r="D1708">
+        <v>3.7</v>
+      </c>
+      <c r="E1708">
+        <v>3.5</v>
+      </c>
+      <c r="F1708">
+        <v>1.5</v>
+      </c>
+      <c r="I1708" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1709">
+        <v>1</v>
+      </c>
+      <c r="B1709">
+        <v>20</v>
+      </c>
+      <c r="C1709">
+        <v>23</v>
+      </c>
+      <c r="D1709">
+        <v>14.9</v>
+      </c>
+      <c r="E1709">
+        <v>14.5</v>
+      </c>
+      <c r="F1709">
+        <v>30</v>
+      </c>
+      <c r="I1709" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1710">
+        <v>1</v>
+      </c>
+      <c r="B1710">
+        <v>20</v>
+      </c>
+      <c r="C1710">
+        <v>24</v>
+      </c>
+      <c r="D1710">
+        <v>12.7</v>
+      </c>
+      <c r="E1710">
+        <v>12</v>
+      </c>
+      <c r="F1710">
+        <v>22</v>
+      </c>
+      <c r="I1710" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1711">
+        <v>1</v>
+      </c>
+      <c r="B1711">
+        <v>20</v>
+      </c>
+      <c r="C1711">
+        <v>25</v>
+      </c>
+      <c r="D1711">
+        <v>14.3</v>
+      </c>
+      <c r="E1711">
+        <v>15.5</v>
+      </c>
+      <c r="F1711">
+        <v>75</v>
+      </c>
+      <c r="I1711" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1712">
+        <v>1</v>
+      </c>
+      <c r="B1712">
+        <v>20</v>
+      </c>
+      <c r="C1712">
+        <v>26</v>
+      </c>
+      <c r="D1712">
+        <v>14.6</v>
+      </c>
+      <c r="E1712">
+        <v>14.5</v>
+      </c>
+      <c r="F1712">
+        <v>50</v>
+      </c>
+      <c r="I1712" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1713">
+        <v>1</v>
+      </c>
+      <c r="B1713">
+        <v>20</v>
+      </c>
+      <c r="C1713">
+        <v>27</v>
+      </c>
+      <c r="D1713">
+        <v>8.9</v>
+      </c>
+      <c r="E1713">
+        <v>9.6</v>
+      </c>
+      <c r="F1713">
+        <v>9</v>
+      </c>
+      <c r="I1713" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1714">
+        <v>1</v>
+      </c>
+      <c r="B1714">
+        <v>20</v>
+      </c>
+      <c r="C1714">
+        <v>28</v>
+      </c>
+      <c r="D1714">
+        <v>25.5</v>
+      </c>
+      <c r="E1714">
+        <v>19</v>
+      </c>
+      <c r="F1714">
+        <v>120</v>
+      </c>
+      <c r="I1714" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1715">
+        <v>1</v>
+      </c>
+      <c r="B1715">
+        <v>20</v>
+      </c>
+      <c r="C1715">
+        <v>29</v>
+      </c>
+      <c r="D1715">
+        <v>10.9</v>
+      </c>
+      <c r="E1715">
+        <v>11</v>
+      </c>
+      <c r="F1715">
+        <v>17</v>
+      </c>
+      <c r="I1715" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1716">
+        <v>1</v>
+      </c>
+      <c r="B1716">
+        <v>20</v>
+      </c>
+      <c r="C1716">
+        <v>30</v>
+      </c>
+      <c r="D1716">
+        <v>10.3</v>
+      </c>
+      <c r="E1716">
+        <v>10.5</v>
+      </c>
+      <c r="F1716">
+        <v>12.5</v>
+      </c>
+      <c r="I1716" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1717">
+        <v>1</v>
+      </c>
+      <c r="B1717">
+        <v>20</v>
+      </c>
+      <c r="C1717">
+        <v>31</v>
+      </c>
+      <c r="D1717">
+        <v>6.3</v>
+      </c>
+      <c r="E1717">
+        <v>12</v>
+      </c>
+      <c r="F1717">
+        <v>10.5</v>
+      </c>
+      <c r="I1717" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1718">
+        <v>1</v>
+      </c>
+      <c r="B1718">
+        <v>20</v>
+      </c>
+      <c r="C1718">
+        <v>32</v>
+      </c>
+      <c r="D1718">
+        <v>14.7</v>
+      </c>
+      <c r="E1718">
+        <v>14</v>
+      </c>
+      <c r="F1718">
+        <v>40</v>
+      </c>
+      <c r="I1718" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1719">
+        <v>1</v>
+      </c>
+      <c r="B1719">
+        <v>20</v>
+      </c>
+      <c r="C1719">
+        <v>33</v>
+      </c>
+      <c r="D1719">
+        <v>11.8</v>
+      </c>
+      <c r="E1719">
+        <v>14.5</v>
+      </c>
+      <c r="F1719">
+        <v>30</v>
+      </c>
+      <c r="I1719" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1720">
+        <v>1</v>
+      </c>
+      <c r="B1720">
+        <v>20</v>
+      </c>
+      <c r="C1720">
+        <v>34</v>
+      </c>
+      <c r="D1720">
+        <v>6.6</v>
+      </c>
+      <c r="E1720">
+        <v>4.5</v>
+      </c>
+      <c r="F1720">
+        <v>2.5</v>
+      </c>
+      <c r="I1720" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1721">
+        <v>1</v>
+      </c>
+      <c r="B1721">
+        <v>20</v>
+      </c>
+      <c r="C1721">
+        <v>35</v>
+      </c>
+      <c r="D1721">
+        <v>6.8</v>
+      </c>
+      <c r="E1721">
+        <v>5</v>
+      </c>
+      <c r="F1721">
+        <v>4</v>
+      </c>
+      <c r="I1721" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1722">
+        <v>1</v>
+      </c>
+      <c r="B1722">
+        <v>20</v>
+      </c>
+      <c r="C1722">
+        <v>36</v>
+      </c>
+      <c r="D1722">
+        <v>12.5</v>
+      </c>
+      <c r="E1722">
+        <v>10.5</v>
+      </c>
+      <c r="F1722">
+        <v>24.5</v>
+      </c>
+      <c r="I1722" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1723">
+        <v>1</v>
+      </c>
+      <c r="B1723">
+        <v>20</v>
+      </c>
+      <c r="C1723">
+        <v>37</v>
+      </c>
+      <c r="D1723">
+        <v>7</v>
+      </c>
+      <c r="E1723">
+        <v>10.5</v>
+      </c>
+      <c r="F1723">
+        <v>7.5</v>
+      </c>
+      <c r="I1723" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1724">
+        <v>1</v>
+      </c>
+      <c r="B1724">
+        <v>20</v>
+      </c>
+      <c r="C1724">
+        <v>38</v>
+      </c>
+      <c r="D1724">
+        <v>17.7</v>
+      </c>
+      <c r="E1724">
+        <v>15</v>
+      </c>
+      <c r="F1724">
+        <v>29</v>
+      </c>
+      <c r="I1724" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1725">
+        <v>1</v>
+      </c>
+      <c r="B1725">
+        <v>20</v>
+      </c>
+      <c r="C1725">
+        <v>39</v>
+      </c>
+      <c r="D1725">
+        <v>12.7</v>
+      </c>
+      <c r="E1725">
+        <v>12.5</v>
+      </c>
+      <c r="F1725">
+        <v>21</v>
+      </c>
+      <c r="I1725" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1726">
+        <v>1</v>
+      </c>
+      <c r="B1726">
+        <v>20</v>
+      </c>
+      <c r="C1726">
+        <v>40</v>
+      </c>
+      <c r="D1726">
+        <v>14.3</v>
+      </c>
+      <c r="E1726">
+        <v>11</v>
+      </c>
+      <c r="F1726">
+        <v>24</v>
+      </c>
+      <c r="I1726" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1727">
+        <v>1</v>
+      </c>
+      <c r="B1727">
+        <v>20</v>
+      </c>
+      <c r="C1727">
+        <v>41</v>
+      </c>
+      <c r="D1727">
+        <v>12</v>
+      </c>
+      <c r="E1727">
+        <v>10</v>
+      </c>
+      <c r="F1727">
+        <v>23</v>
+      </c>
+      <c r="I1727" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1728">
+        <v>1</v>
+      </c>
+      <c r="B1728">
+        <v>20</v>
+      </c>
+      <c r="C1728">
+        <v>42</v>
+      </c>
+      <c r="D1728">
+        <v>10.8</v>
+      </c>
+      <c r="E1728">
+        <v>10.5</v>
+      </c>
+      <c r="F1728">
+        <v>16.5</v>
+      </c>
+      <c r="I1728" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1729">
+        <v>1</v>
+      </c>
+      <c r="B1729">
+        <v>20</v>
+      </c>
+      <c r="C1729">
+        <v>43</v>
+      </c>
+      <c r="D1729">
+        <v>10.3</v>
+      </c>
+      <c r="E1729">
+        <v>6.5</v>
+      </c>
+      <c r="F1729">
+        <v>5.5</v>
+      </c>
+      <c r="I1729" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1730">
+        <v>1</v>
+      </c>
+      <c r="B1730">
+        <v>20</v>
+      </c>
+      <c r="C1730">
+        <v>44</v>
+      </c>
+      <c r="D1730">
+        <v>7.2</v>
+      </c>
+      <c r="E1730">
+        <v>6.5</v>
+      </c>
+      <c r="F1730">
+        <v>6.5</v>
+      </c>
+      <c r="I1730" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1731">
+        <v>1</v>
+      </c>
+      <c r="B1731">
+        <v>20</v>
+      </c>
+      <c r="C1731">
+        <v>45</v>
+      </c>
+      <c r="D1731">
+        <v>6.5</v>
+      </c>
+      <c r="E1731">
+        <v>7.5</v>
+      </c>
+      <c r="F1731">
+        <v>3.5</v>
+      </c>
+      <c r="I1731" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1732">
+        <v>1</v>
+      </c>
+      <c r="B1732">
+        <v>20</v>
+      </c>
+      <c r="C1732">
+        <v>46</v>
+      </c>
+      <c r="D1732">
+        <v>7.3</v>
+      </c>
+      <c r="E1732">
+        <v>4.5</v>
+      </c>
+      <c r="F1732">
+        <v>1.5</v>
+      </c>
+      <c r="I1732" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1733">
+        <v>1</v>
+      </c>
+      <c r="B1733">
+        <v>20</v>
+      </c>
+      <c r="C1733">
+        <v>47</v>
+      </c>
+      <c r="D1733">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1733">
+        <v>4.5</v>
+      </c>
+      <c r="F1733">
+        <v>1.5</v>
+      </c>
+      <c r="I1733" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1734">
+        <v>1</v>
+      </c>
+      <c r="B1734">
+        <v>20</v>
+      </c>
+      <c r="C1734">
+        <v>48</v>
+      </c>
+      <c r="D1734">
+        <v>8.4</v>
+      </c>
+      <c r="E1734">
+        <v>7.5</v>
+      </c>
+      <c r="F1734">
+        <v>7</v>
+      </c>
+      <c r="I1734" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1735">
+        <v>1</v>
+      </c>
+      <c r="B1735">
+        <v>20</v>
+      </c>
+      <c r="C1735">
+        <v>49</v>
+      </c>
+      <c r="D1735">
+        <v>7.6</v>
+      </c>
+      <c r="E1735">
+        <v>9</v>
+      </c>
+      <c r="F1735">
+        <v>5</v>
+      </c>
+      <c r="I1735" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1736">
+        <v>1</v>
+      </c>
+      <c r="B1736">
+        <v>20</v>
+      </c>
+      <c r="C1736">
+        <v>50</v>
+      </c>
+      <c r="D1736">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1736">
+        <v>5.5</v>
+      </c>
+      <c r="F1736">
+        <v>4</v>
+      </c>
+      <c r="I1736" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1737">
+        <v>1</v>
+      </c>
+      <c r="B1737">
+        <v>20</v>
+      </c>
+      <c r="C1737">
+        <v>51</v>
+      </c>
+      <c r="D1737">
+        <v>4.7</v>
+      </c>
+      <c r="E1737">
+        <v>5.5</v>
+      </c>
+      <c r="F1737">
+        <v>1.5</v>
+      </c>
+      <c r="I1737" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1738">
+        <v>1</v>
+      </c>
+      <c r="B1738">
+        <v>20</v>
+      </c>
+      <c r="C1738">
+        <v>52</v>
+      </c>
+      <c r="D1738">
+        <v>22.7</v>
+      </c>
+      <c r="E1738">
+        <v>19.5</v>
+      </c>
+      <c r="F1738">
+        <v>110</v>
+      </c>
+      <c r="I1738" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1739">
+        <v>1</v>
+      </c>
+      <c r="B1739">
+        <v>20</v>
+      </c>
+      <c r="C1739">
+        <v>53</v>
+      </c>
+      <c r="D1739">
+        <v>15.6</v>
+      </c>
+      <c r="E1739">
+        <v>14</v>
+      </c>
+      <c r="F1739">
+        <v>40</v>
+      </c>
+      <c r="I1739" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1740">
+        <v>1</v>
+      </c>
+      <c r="B1740">
+        <v>20</v>
+      </c>
+      <c r="C1740">
+        <v>54</v>
+      </c>
+      <c r="D1740">
+        <v>7.8</v>
+      </c>
+      <c r="E1740">
+        <v>9.5</v>
+      </c>
+      <c r="F1740">
+        <v>4.5</v>
+      </c>
+      <c r="I1740" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1741">
+        <v>1</v>
+      </c>
+      <c r="B1741">
+        <v>20</v>
+      </c>
+      <c r="C1741">
+        <v>55</v>
+      </c>
+      <c r="D1741">
+        <v>6.5</v>
+      </c>
+      <c r="E1741">
+        <v>7.6</v>
+      </c>
+      <c r="F1741">
+        <v>2.5</v>
+      </c>
+      <c r="I1741" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1742">
+        <v>1</v>
+      </c>
+      <c r="B1742">
+        <v>20</v>
+      </c>
+      <c r="C1742">
+        <v>56</v>
+      </c>
+      <c r="D1742">
+        <v>23.4</v>
+      </c>
+      <c r="E1742">
+        <v>19.5</v>
+      </c>
+      <c r="F1742">
+        <v>90</v>
+      </c>
+      <c r="I1742" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1743">
+        <v>1</v>
+      </c>
+      <c r="B1743">
+        <v>20</v>
+      </c>
+      <c r="C1743">
+        <v>57</v>
+      </c>
+      <c r="D1743">
+        <v>11.2</v>
+      </c>
+      <c r="E1743">
+        <v>9</v>
+      </c>
+      <c r="F1743">
+        <v>11.5</v>
+      </c>
+      <c r="I1743" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1744">
+        <v>1</v>
+      </c>
+      <c r="B1744">
+        <v>20</v>
+      </c>
+      <c r="C1744">
+        <v>58</v>
+      </c>
+      <c r="D1744">
+        <v>10.7</v>
+      </c>
+      <c r="E1744">
+        <v>11</v>
+      </c>
+      <c r="F1744">
+        <v>14.5</v>
+      </c>
+      <c r="I1744" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1745">
+        <v>1</v>
+      </c>
+      <c r="B1745">
+        <v>20</v>
+      </c>
+      <c r="C1745">
+        <v>59</v>
+      </c>
+      <c r="D1745">
+        <v>10.3</v>
+      </c>
+      <c r="E1745">
+        <v>8</v>
+      </c>
+      <c r="F1745">
+        <v>11.5</v>
+      </c>
+      <c r="I1745" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1746">
+        <v>1</v>
+      </c>
+      <c r="B1746">
+        <v>20</v>
+      </c>
+      <c r="C1746">
+        <v>60</v>
+      </c>
+      <c r="D1746">
+        <v>27.9</v>
+      </c>
+      <c r="E1746">
+        <v>27</v>
+      </c>
+      <c r="F1746">
+        <v>210</v>
+      </c>
+      <c r="I1746" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1747">
+        <v>1</v>
+      </c>
+      <c r="B1747">
+        <v>20</v>
+      </c>
+      <c r="C1747">
+        <v>61</v>
+      </c>
+      <c r="D1747">
+        <v>23.1</v>
+      </c>
+      <c r="E1747">
+        <v>21.5</v>
+      </c>
+      <c r="F1747">
+        <v>130</v>
+      </c>
+      <c r="I1747" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1748">
+        <v>1</v>
+      </c>
+      <c r="B1748">
+        <v>20</v>
+      </c>
+      <c r="C1748">
+        <v>62</v>
+      </c>
+      <c r="D1748">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1748">
+        <v>15</v>
+      </c>
+      <c r="F1748">
+        <v>40</v>
+      </c>
+      <c r="I1748" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1749">
+        <v>1</v>
+      </c>
+      <c r="B1749">
+        <v>20</v>
+      </c>
+      <c r="C1749">
+        <v>63</v>
+      </c>
+      <c r="D1749">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1749">
+        <v>17</v>
+      </c>
+      <c r="F1749">
+        <v>50</v>
+      </c>
+      <c r="I1749" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1750">
+        <v>1</v>
+      </c>
+      <c r="B1750">
+        <v>20</v>
+      </c>
+      <c r="C1750">
+        <v>64</v>
+      </c>
+      <c r="D1750">
+        <v>12</v>
+      </c>
+      <c r="E1750">
+        <v>12</v>
+      </c>
+      <c r="F1750">
+        <v>15.5</v>
+      </c>
+      <c r="I1750" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1751">
+        <v>1</v>
+      </c>
+      <c r="B1751">
+        <v>20</v>
+      </c>
+      <c r="C1751">
+        <v>65</v>
+      </c>
+      <c r="D1751">
+        <v>11.9</v>
+      </c>
+      <c r="E1751">
+        <v>10</v>
+      </c>
+      <c r="F1751">
+        <v>20</v>
+      </c>
+      <c r="I1751" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1752">
+        <v>1</v>
+      </c>
+      <c r="B1752">
+        <v>20</v>
+      </c>
+      <c r="C1752">
+        <v>66</v>
+      </c>
+      <c r="D1752">
+        <v>6</v>
+      </c>
+      <c r="E1752">
+        <v>6.5</v>
+      </c>
+      <c r="F1752">
+        <v>4.5</v>
+      </c>
+      <c r="I1752" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1753">
+        <v>1</v>
+      </c>
+      <c r="B1753">
+        <v>20</v>
+      </c>
+      <c r="C1753">
+        <v>67</v>
+      </c>
+      <c r="D1753">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E1753">
+        <v>5</v>
+      </c>
+      <c r="F1753">
+        <v>2</v>
+      </c>
+      <c r="I1753" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1754">
+        <v>1</v>
+      </c>
+      <c r="B1754">
+        <v>20</v>
+      </c>
+      <c r="C1754">
+        <v>68</v>
+      </c>
+      <c r="D1754">
+        <v>6.2</v>
+      </c>
+      <c r="E1754">
+        <v>7</v>
+      </c>
+      <c r="F1754">
+        <v>3</v>
+      </c>
+      <c r="I1754" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1755">
+        <v>1</v>
+      </c>
+      <c r="B1755">
+        <v>20</v>
+      </c>
+      <c r="C1755">
+        <v>69</v>
+      </c>
+      <c r="D1755">
+        <v>4</v>
+      </c>
+      <c r="E1755">
+        <v>5</v>
+      </c>
+      <c r="F1755">
+        <v>1.5</v>
+      </c>
+      <c r="I1755" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1756">
+        <v>1</v>
+      </c>
+      <c r="B1756">
+        <v>20</v>
+      </c>
+      <c r="C1756">
+        <v>70</v>
+      </c>
+      <c r="D1756">
+        <v>14.4</v>
+      </c>
+      <c r="E1756">
+        <v>18</v>
+      </c>
+      <c r="F1756">
+        <v>40</v>
+      </c>
+      <c r="I1756" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1757">
+        <v>1</v>
+      </c>
+      <c r="B1757">
+        <v>20</v>
+      </c>
+      <c r="C1757">
+        <v>71</v>
+      </c>
+      <c r="D1757">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="E1757">
+        <v>23</v>
+      </c>
+      <c r="F1757">
+        <v>310</v>
+      </c>
+      <c r="I1757" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1758">
+        <v>1</v>
+      </c>
+      <c r="B1758">
+        <v>20</v>
+      </c>
+      <c r="C1758">
+        <v>72</v>
+      </c>
+      <c r="D1758">
+        <v>31.5</v>
+      </c>
+      <c r="E1758">
+        <v>31</v>
+      </c>
+      <c r="F1758">
+        <v>200</v>
+      </c>
+      <c r="I1758" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1759">
+        <v>1</v>
+      </c>
+      <c r="B1759">
+        <v>20</v>
+      </c>
+      <c r="C1759">
+        <v>73</v>
+      </c>
+      <c r="D1759">
+        <v>27.3</v>
+      </c>
+      <c r="E1759">
+        <v>23</v>
+      </c>
+      <c r="F1759">
+        <v>200</v>
+      </c>
+      <c r="I1759" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1760">
+        <v>1</v>
+      </c>
+      <c r="B1760">
+        <v>20</v>
+      </c>
+      <c r="C1760">
+        <v>74</v>
+      </c>
+      <c r="D1760">
+        <v>25.2</v>
+      </c>
+      <c r="E1760">
+        <v>20.5</v>
+      </c>
+      <c r="F1760">
+        <v>160</v>
+      </c>
+      <c r="I1760" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1761">
+        <v>1</v>
+      </c>
+      <c r="B1761">
+        <v>20</v>
+      </c>
+      <c r="C1761">
+        <v>75</v>
+      </c>
+      <c r="D1761">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E1761">
+        <v>8</v>
+      </c>
+      <c r="F1761">
+        <v>8</v>
+      </c>
+      <c r="I1761" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1762">
+        <v>1</v>
+      </c>
+      <c r="B1762">
+        <v>20</v>
+      </c>
+      <c r="C1762">
+        <v>76</v>
+      </c>
+      <c r="D1762">
+        <v>6.1</v>
+      </c>
+      <c r="E1762">
+        <v>5</v>
+      </c>
+      <c r="F1762">
+        <v>4.5</v>
+      </c>
+      <c r="I1762" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1763">
+        <v>1</v>
+      </c>
+      <c r="B1763">
+        <v>20</v>
+      </c>
+      <c r="C1763">
+        <v>77</v>
+      </c>
+      <c r="D1763">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E1763">
+        <v>30</v>
+      </c>
+      <c r="F1763">
+        <v>300</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1764">
+        <v>1</v>
+      </c>
+      <c r="B1764">
+        <v>20</v>
+      </c>
+      <c r="C1764">
+        <v>78</v>
+      </c>
+      <c r="D1764">
+        <v>21.7</v>
+      </c>
+      <c r="E1764">
+        <v>20</v>
+      </c>
+      <c r="F1764">
+        <v>100</v>
+      </c>
+      <c r="I1764" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1765">
+        <v>1</v>
+      </c>
+      <c r="B1765">
+        <v>20</v>
+      </c>
+      <c r="C1765">
+        <v>79</v>
+      </c>
+      <c r="D1765">
+        <v>32.9</v>
+      </c>
+      <c r="E1765">
+        <v>26</v>
+      </c>
+      <c r="F1765">
+        <v>240</v>
+      </c>
+      <c r="I1765" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1766">
+        <v>1</v>
+      </c>
+      <c r="B1766">
+        <v>20</v>
+      </c>
+      <c r="C1766">
+        <v>80</v>
+      </c>
+      <c r="D1766">
+        <v>18.2</v>
+      </c>
+      <c r="E1766">
+        <v>17.5</v>
+      </c>
+      <c r="F1766">
+        <v>70</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1767">
+        <v>1</v>
+      </c>
+      <c r="B1767">
+        <v>20</v>
+      </c>
+      <c r="C1767">
+        <v>81</v>
+      </c>
+      <c r="D1767">
+        <v>11.7</v>
+      </c>
+      <c r="E1767">
+        <v>12</v>
+      </c>
+      <c r="F1767">
+        <v>19</v>
+      </c>
+      <c r="I1767" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1768">
+        <v>1</v>
+      </c>
+      <c r="B1768">
+        <v>20</v>
+      </c>
+      <c r="C1768">
+        <v>82</v>
+      </c>
+      <c r="D1768">
+        <v>6.3</v>
+      </c>
+      <c r="E1768">
+        <v>6</v>
+      </c>
+      <c r="F1768">
+        <v>5</v>
+      </c>
+      <c r="I1768" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1769">
+        <v>1</v>
+      </c>
+      <c r="B1769">
+        <v>20</v>
+      </c>
+      <c r="C1769">
+        <v>83</v>
+      </c>
+      <c r="D1769">
+        <v>60.7</v>
+      </c>
+      <c r="E1769">
+        <v>82</v>
+      </c>
+      <c r="F1769">
+        <v>2700</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1770">
+        <v>1</v>
+      </c>
+      <c r="B1770">
+        <v>20</v>
+      </c>
+      <c r="C1770">
+        <v>84</v>
+      </c>
+      <c r="D1770">
+        <v>54.1</v>
+      </c>
+      <c r="E1770">
+        <v>48</v>
+      </c>
+      <c r="F1770">
+        <v>1390</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1771">
+        <v>1</v>
+      </c>
+      <c r="B1771">
+        <v>20</v>
+      </c>
+      <c r="C1771">
+        <v>85</v>
+      </c>
+      <c r="D1771">
+        <v>7.4</v>
+      </c>
+      <c r="E1771">
+        <v>7.5</v>
+      </c>
+      <c r="F1771">
+        <v>3</v>
+      </c>
+      <c r="I1771" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1772">
+        <v>1</v>
+      </c>
+      <c r="B1772">
+        <v>19</v>
+      </c>
+      <c r="C1772">
+        <v>1</v>
+      </c>
+      <c r="D1772">
+        <v>15.1</v>
+      </c>
+      <c r="E1772">
+        <v>12</v>
+      </c>
+      <c r="F1772">
+        <v>40</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1773">
+        <v>1</v>
+      </c>
+      <c r="B1773">
+        <v>19</v>
+      </c>
+      <c r="C1773">
+        <v>2</v>
+      </c>
+      <c r="D1773">
+        <v>13.4</v>
+      </c>
+      <c r="E1773">
+        <v>12</v>
+      </c>
+      <c r="F1773">
+        <v>30</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1774">
+        <v>1</v>
+      </c>
+      <c r="B1774">
+        <v>19</v>
+      </c>
+      <c r="C1774">
+        <v>3</v>
+      </c>
+      <c r="D1774">
+        <v>25.4</v>
+      </c>
+      <c r="E1774">
+        <v>20</v>
+      </c>
+      <c r="F1774">
+        <v>120</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1775">
+        <v>1</v>
+      </c>
+      <c r="B1775">
+        <v>19</v>
+      </c>
+      <c r="C1775">
+        <v>4</v>
+      </c>
+      <c r="D1775">
+        <v>14.5</v>
+      </c>
+      <c r="E1775">
+        <v>15.5</v>
+      </c>
+      <c r="F1775">
+        <v>40</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1776">
+        <v>1</v>
+      </c>
+      <c r="B1776">
+        <v>19</v>
+      </c>
+      <c r="C1776">
+        <v>5</v>
+      </c>
+      <c r="D1776">
+        <v>14</v>
+      </c>
+      <c r="E1776">
+        <v>10.5</v>
+      </c>
+      <c r="F1776">
+        <v>14.5</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1777">
+        <v>1</v>
+      </c>
+      <c r="B1777">
+        <v>19</v>
+      </c>
+      <c r="C1777">
+        <v>6</v>
+      </c>
+      <c r="D1777">
+        <v>7</v>
+      </c>
+      <c r="E1777">
+        <v>6</v>
+      </c>
+      <c r="F1777">
+        <v>3.5</v>
+      </c>
+      <c r="I1777" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1778">
+        <v>1</v>
+      </c>
+      <c r="B1778">
+        <v>19</v>
+      </c>
+      <c r="C1778">
+        <v>7</v>
+      </c>
+      <c r="D1778">
+        <v>32.5</v>
+      </c>
+      <c r="E1778">
+        <v>23</v>
+      </c>
+      <c r="F1778">
+        <v>240</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1779">
+        <v>1</v>
+      </c>
+      <c r="B1779">
+        <v>19</v>
+      </c>
+      <c r="C1779">
+        <v>8</v>
+      </c>
+      <c r="D1779">
+        <v>22.1</v>
+      </c>
+      <c r="E1779">
+        <v>24</v>
+      </c>
+      <c r="F1779">
+        <v>110</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1780">
+        <v>1</v>
+      </c>
+      <c r="B1780">
+        <v>19</v>
+      </c>
+      <c r="C1780">
+        <v>9</v>
+      </c>
+      <c r="D1780">
+        <v>18</v>
+      </c>
+      <c r="E1780">
+        <v>16</v>
+      </c>
+      <c r="F1780">
+        <v>50</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1781">
+        <v>1</v>
+      </c>
+      <c r="B1781">
+        <v>19</v>
+      </c>
+      <c r="C1781">
+        <v>10</v>
+      </c>
+      <c r="D1781">
+        <v>13.4</v>
+      </c>
+      <c r="E1781">
+        <v>3.5</v>
+      </c>
+      <c r="F1781">
+        <v>26</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1782">
+        <v>1</v>
+      </c>
+      <c r="B1782">
+        <v>19</v>
+      </c>
+      <c r="C1782">
+        <v>11</v>
+      </c>
+      <c r="D1782">
+        <v>14.6</v>
+      </c>
+      <c r="E1782">
+        <v>13.5</v>
+      </c>
+      <c r="F1782">
+        <v>12</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1783">
+        <v>1</v>
+      </c>
+      <c r="B1783">
+        <v>19</v>
+      </c>
+      <c r="C1783">
+        <v>12</v>
+      </c>
+      <c r="D1783">
+        <v>11</v>
+      </c>
+      <c r="E1783">
+        <v>9.5</v>
+      </c>
+      <c r="F1783">
+        <v>10</v>
+      </c>
+      <c r="I1783" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1784">
+        <v>1</v>
+      </c>
+      <c r="B1784">
+        <v>19</v>
+      </c>
+      <c r="C1784">
+        <v>13</v>
+      </c>
+      <c r="D1784">
+        <v>31</v>
+      </c>
+      <c r="E1784">
+        <v>25</v>
+      </c>
+      <c r="F1784">
+        <v>270</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1785">
+        <v>1</v>
+      </c>
+      <c r="B1785">
+        <v>19</v>
+      </c>
+      <c r="C1785">
+        <v>14</v>
+      </c>
+      <c r="D1785">
+        <v>17.3</v>
+      </c>
+      <c r="E1785">
+        <v>16</v>
+      </c>
+      <c r="F1785">
+        <v>60</v>
+      </c>
+      <c r="I1785" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1786">
+        <v>1</v>
+      </c>
+      <c r="B1786">
+        <v>19</v>
+      </c>
+      <c r="C1786">
+        <v>15</v>
+      </c>
+      <c r="D1786">
+        <v>22.8</v>
+      </c>
+      <c r="E1786">
+        <v>31</v>
+      </c>
+      <c r="F1786">
+        <v>270</v>
+      </c>
+      <c r="I1786" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1787">
+        <v>1</v>
+      </c>
+      <c r="B1787">
+        <v>19</v>
+      </c>
+      <c r="C1787">
+        <v>16</v>
+      </c>
+      <c r="D1787">
+        <v>13.3</v>
+      </c>
+      <c r="E1787">
+        <v>14</v>
+      </c>
+      <c r="F1787">
+        <v>30</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1788">
+        <v>1</v>
+      </c>
+      <c r="B1788">
+        <v>19</v>
+      </c>
+      <c r="C1788">
+        <v>17</v>
+      </c>
+      <c r="D1788">
+        <v>10.1</v>
+      </c>
+      <c r="E1788">
+        <v>12</v>
+      </c>
+      <c r="F1788">
+        <v>20</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1789">
+        <v>1</v>
+      </c>
+      <c r="B1789">
+        <v>19</v>
+      </c>
+      <c r="C1789">
+        <v>18</v>
+      </c>
+      <c r="D1789">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E1789">
+        <v>8.5</v>
+      </c>
+      <c r="F1789">
+        <v>6.5</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1790">
+        <v>1</v>
+      </c>
+      <c r="B1790">
+        <v>19</v>
+      </c>
+      <c r="C1790">
+        <v>19</v>
+      </c>
+      <c r="D1790">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E1790">
+        <v>30</v>
+      </c>
+      <c r="F1790">
+        <v>270</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1791">
+        <v>1</v>
+      </c>
+      <c r="B1791">
+        <v>19</v>
+      </c>
+      <c r="C1791">
+        <v>20</v>
+      </c>
+      <c r="D1791">
+        <v>20</v>
+      </c>
+      <c r="E1791">
+        <v>22</v>
+      </c>
+      <c r="F1791">
+        <v>110</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1792">
+        <v>1</v>
+      </c>
+      <c r="B1792">
+        <v>19</v>
+      </c>
+      <c r="C1792">
+        <v>21</v>
+      </c>
+      <c r="D1792">
+        <v>13.3</v>
+      </c>
+      <c r="E1792">
+        <v>9.5</v>
+      </c>
+      <c r="F1792">
+        <v>16.5</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1793">
+        <v>1</v>
+      </c>
+      <c r="B1793">
+        <v>19</v>
+      </c>
+      <c r="C1793">
+        <v>22</v>
+      </c>
+      <c r="D1793">
+        <v>10.3</v>
+      </c>
+      <c r="E1793">
+        <v>17</v>
+      </c>
+      <c r="F1793">
+        <v>17</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1794">
+        <v>1</v>
+      </c>
+      <c r="B1794">
+        <v>19</v>
+      </c>
+      <c r="C1794">
+        <v>23</v>
+      </c>
+      <c r="D1794">
+        <v>11.4</v>
+      </c>
+      <c r="E1794">
+        <v>9</v>
+      </c>
+      <c r="F1794">
+        <v>6.5</v>
+      </c>
+      <c r="I1794" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1795">
+        <v>1</v>
+      </c>
+      <c r="B1795">
+        <v>19</v>
+      </c>
+      <c r="C1795">
+        <v>24</v>
+      </c>
+      <c r="D1795">
+        <v>10.4</v>
+      </c>
+      <c r="E1795">
+        <v>10.6</v>
+      </c>
+      <c r="F1795">
+        <v>16</v>
+      </c>
+      <c r="I1795" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1796">
+        <v>1</v>
+      </c>
+      <c r="B1796">
+        <v>19</v>
+      </c>
+      <c r="C1796">
+        <v>25</v>
+      </c>
+      <c r="D1796">
+        <v>20.9</v>
+      </c>
+      <c r="E1796">
+        <v>18</v>
+      </c>
+      <c r="F1796">
+        <v>110</v>
+      </c>
+      <c r="I1796" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1797">
+        <v>1</v>
+      </c>
+      <c r="B1797">
+        <v>19</v>
+      </c>
+      <c r="C1797">
+        <v>26</v>
+      </c>
+      <c r="D1797">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1797">
+        <v>14.5</v>
+      </c>
+      <c r="F1797">
+        <v>30</v>
+      </c>
+      <c r="I1797" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1798">
+        <v>1</v>
+      </c>
+      <c r="B1798">
+        <v>19</v>
+      </c>
+      <c r="C1798">
+        <v>27</v>
+      </c>
+      <c r="D1798">
+        <v>15.7</v>
+      </c>
+      <c r="E1798">
+        <v>14</v>
+      </c>
+      <c r="F1798">
+        <v>40</v>
+      </c>
+      <c r="I1798" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1799">
+        <v>1</v>
+      </c>
+      <c r="B1799">
+        <v>19</v>
+      </c>
+      <c r="C1799">
+        <v>28</v>
+      </c>
+      <c r="D1799">
+        <v>22.2</v>
+      </c>
+      <c r="E1799">
+        <v>19</v>
+      </c>
+      <c r="F1799">
+        <v>100</v>
+      </c>
+      <c r="I1799" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1800">
+        <v>1</v>
+      </c>
+      <c r="B1800">
+        <v>19</v>
+      </c>
+      <c r="C1800">
+        <v>29</v>
+      </c>
+      <c r="D1800">
+        <v>11.4</v>
+      </c>
+      <c r="E1800">
+        <v>11</v>
+      </c>
+      <c r="F1800">
+        <v>21</v>
+      </c>
+      <c r="I1800" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1801">
+        <v>1</v>
+      </c>
+      <c r="B1801">
+        <v>19</v>
+      </c>
+      <c r="C1801">
+        <v>30</v>
+      </c>
+      <c r="D1801">
+        <v>32</v>
+      </c>
+      <c r="E1801">
+        <v>20</v>
+      </c>
+      <c r="F1801">
+        <v>120</v>
+      </c>
+      <c r="I1801" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1802">
+        <v>1</v>
+      </c>
+      <c r="B1802">
+        <v>19</v>
+      </c>
+      <c r="C1802">
+        <v>31</v>
+      </c>
+      <c r="D1802">
+        <v>20.7</v>
+      </c>
+      <c r="E1802">
+        <v>24</v>
+      </c>
+      <c r="F1802">
+        <v>100</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1803">
+        <v>1</v>
+      </c>
+      <c r="B1803">
+        <v>19</v>
+      </c>
+      <c r="C1803">
+        <v>32</v>
+      </c>
+      <c r="D1803">
+        <v>14.1</v>
+      </c>
+      <c r="E1803">
+        <v>16</v>
+      </c>
+      <c r="F1803">
+        <v>50</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1804">
+        <v>1</v>
+      </c>
+      <c r="B1804">
+        <v>19</v>
+      </c>
+      <c r="C1804">
+        <v>33</v>
+      </c>
+      <c r="D1804">
+        <v>12.3</v>
+      </c>
+      <c r="E1804">
+        <v>16.5</v>
+      </c>
+      <c r="F1804">
+        <v>40</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1805">
+        <v>1</v>
+      </c>
+      <c r="B1805">
+        <v>19</v>
+      </c>
+      <c r="C1805">
+        <v>34</v>
+      </c>
+      <c r="D1805">
+        <v>22.3</v>
+      </c>
+      <c r="E1805">
+        <v>27</v>
+      </c>
+      <c r="F1805">
+        <v>310</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1806">
+        <v>1</v>
+      </c>
+      <c r="B1806">
+        <v>19</v>
+      </c>
+      <c r="C1806">
+        <v>35</v>
+      </c>
+      <c r="D1806">
+        <v>8.6</v>
+      </c>
+      <c r="E1806">
+        <v>9</v>
+      </c>
+      <c r="F1806">
+        <v>10.5</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1807">
+        <v>1</v>
+      </c>
+      <c r="B1807">
+        <v>19</v>
+      </c>
+      <c r="C1807">
+        <v>36</v>
+      </c>
+      <c r="D1807">
+        <v>18.2</v>
+      </c>
+      <c r="E1807">
+        <v>13</v>
+      </c>
+      <c r="F1807">
+        <v>40</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1808">
+        <v>1</v>
+      </c>
+      <c r="B1808">
+        <v>19</v>
+      </c>
+      <c r="C1808">
+        <v>37</v>
+      </c>
+      <c r="D1808">
+        <v>13.1</v>
+      </c>
+      <c r="E1808">
+        <v>12</v>
+      </c>
+      <c r="F1808">
+        <v>19</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1809">
+        <v>1</v>
+      </c>
+      <c r="B1809">
+        <v>19</v>
+      </c>
+      <c r="C1809">
+        <v>38</v>
+      </c>
+      <c r="D1809">
+        <v>6.9</v>
+      </c>
+      <c r="E1809">
+        <v>8</v>
+      </c>
+      <c r="F1809">
+        <v>4.5</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1810">
+        <v>1</v>
+      </c>
+      <c r="B1810">
+        <v>19</v>
+      </c>
+      <c r="C1810">
+        <v>39</v>
+      </c>
+      <c r="D1810">
+        <v>6.5</v>
+      </c>
+      <c r="E1810">
+        <v>10</v>
+      </c>
+      <c r="F1810">
+        <v>4</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1811">
+        <v>1</v>
+      </c>
+      <c r="B1811">
+        <v>19</v>
+      </c>
+      <c r="C1811">
+        <v>40</v>
+      </c>
+      <c r="D1811">
+        <v>7.7</v>
+      </c>
+      <c r="E1811">
+        <v>8.5</v>
+      </c>
+      <c r="F1811">
+        <v>6.5</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1812">
+        <v>1</v>
+      </c>
+      <c r="B1812">
+        <v>19</v>
+      </c>
+      <c r="C1812">
+        <v>41</v>
+      </c>
+      <c r="D1812">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E1812">
+        <v>7</v>
+      </c>
+      <c r="F1812">
+        <v>3</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1813">
+        <v>1</v>
+      </c>
+      <c r="B1813">
+        <v>19</v>
+      </c>
+      <c r="C1813">
+        <v>42</v>
+      </c>
+      <c r="D1813">
+        <v>4</v>
+      </c>
+      <c r="E1813">
+        <v>6</v>
+      </c>
+      <c r="F1813">
+        <v>1.5</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1814">
+        <v>1</v>
+      </c>
+      <c r="B1814">
+        <v>19</v>
+      </c>
+      <c r="C1814">
+        <v>43</v>
+      </c>
+      <c r="D1814">
+        <v>29.2</v>
+      </c>
+      <c r="E1814">
+        <v>24.5</v>
+      </c>
+      <c r="F1814">
+        <v>200</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1815">
+        <v>1</v>
+      </c>
+      <c r="B1815">
+        <v>19</v>
+      </c>
+      <c r="C1815">
+        <v>44</v>
+      </c>
+      <c r="D1815">
+        <v>24.6</v>
+      </c>
+      <c r="E1815">
+        <v>25</v>
+      </c>
+      <c r="F1815">
+        <v>150</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1816">
+        <v>1</v>
+      </c>
+      <c r="B1816">
+        <v>19</v>
+      </c>
+      <c r="C1816">
+        <v>45</v>
+      </c>
+      <c r="D1816">
+        <v>21.7</v>
+      </c>
+      <c r="E1816">
+        <v>22</v>
+      </c>
+      <c r="F1816">
+        <v>230</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1817">
+        <v>1</v>
+      </c>
+      <c r="B1817">
+        <v>19</v>
+      </c>
+      <c r="C1817">
+        <v>46</v>
+      </c>
+      <c r="D1817">
+        <v>21.8</v>
+      </c>
+      <c r="E1817">
+        <v>23</v>
+      </c>
+      <c r="F1817">
+        <v>150</v>
+      </c>
+      <c r="I1817" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1818">
+        <v>1</v>
+      </c>
+      <c r="B1818">
+        <v>19</v>
+      </c>
+      <c r="C1818">
+        <v>47</v>
+      </c>
+      <c r="D1818">
+        <v>32</v>
+      </c>
+      <c r="E1818">
+        <v>36.5</v>
+      </c>
+      <c r="F1818">
+        <v>450</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1819">
+        <v>1</v>
+      </c>
+      <c r="B1819">
+        <v>19</v>
+      </c>
+      <c r="C1819">
+        <v>48</v>
+      </c>
+      <c r="D1819">
+        <v>22.4</v>
+      </c>
+      <c r="E1819">
+        <v>29</v>
+      </c>
+      <c r="F1819">
+        <v>350</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1820">
+        <v>1</v>
+      </c>
+      <c r="B1820">
+        <v>19</v>
+      </c>
+      <c r="C1820">
+        <v>49</v>
+      </c>
+      <c r="D1820">
+        <v>17.2</v>
+      </c>
+      <c r="E1820">
+        <v>15</v>
+      </c>
+      <c r="F1820">
+        <v>50</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1821">
+        <v>1</v>
+      </c>
+      <c r="B1821">
+        <v>19</v>
+      </c>
+      <c r="C1821">
+        <v>50</v>
+      </c>
+      <c r="D1821">
+        <v>12.5</v>
+      </c>
+      <c r="E1821">
+        <v>12</v>
+      </c>
+      <c r="F1821">
+        <v>24.5</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1822">
+        <v>1</v>
+      </c>
+      <c r="B1822">
+        <v>19</v>
+      </c>
+      <c r="C1822">
+        <v>51</v>
+      </c>
+      <c r="D1822">
+        <v>27.4</v>
+      </c>
+      <c r="E1822">
+        <v>41</v>
+      </c>
+      <c r="F1822">
+        <v>350</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1823">
+        <v>1</v>
+      </c>
+      <c r="B1823">
+        <v>19</v>
+      </c>
+      <c r="C1823">
+        <v>52</v>
+      </c>
+      <c r="D1823">
+        <v>19.3</v>
+      </c>
+      <c r="E1823">
+        <v>16</v>
+      </c>
+      <c r="F1823">
+        <v>60</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1824">
+        <v>1</v>
+      </c>
+      <c r="B1824">
+        <v>19</v>
+      </c>
+      <c r="C1824">
+        <v>53</v>
+      </c>
+      <c r="D1824">
+        <v>36.6</v>
+      </c>
+      <c r="E1824">
+        <v>35</v>
+      </c>
+      <c r="F1824">
+        <v>400</v>
+      </c>
+      <c r="I1824" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1825">
+        <v>1</v>
+      </c>
+      <c r="B1825">
+        <v>19</v>
+      </c>
+      <c r="C1825">
+        <v>54</v>
+      </c>
+      <c r="D1825">
+        <v>20.2</v>
+      </c>
+      <c r="E1825">
+        <v>19</v>
+      </c>
+      <c r="F1825">
+        <v>80</v>
+      </c>
+      <c r="I1825" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1826">
+        <v>1</v>
+      </c>
+      <c r="B1826">
+        <v>19</v>
+      </c>
+      <c r="C1826">
+        <v>55</v>
+      </c>
+      <c r="D1826">
+        <v>38.1</v>
+      </c>
+      <c r="E1826">
+        <v>38</v>
+      </c>
+      <c r="F1826">
+        <v>620</v>
+      </c>
+      <c r="I1826" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1827">
+        <v>1</v>
+      </c>
+      <c r="B1827">
+        <v>19</v>
+      </c>
+      <c r="C1827">
+        <v>56</v>
+      </c>
+      <c r="D1827">
+        <v>37.4</v>
+      </c>
+      <c r="E1827">
+        <v>45</v>
+      </c>
+      <c r="F1827">
+        <v>650</v>
+      </c>
+      <c r="I1827" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1828">
+        <v>1</v>
+      </c>
+      <c r="B1828">
+        <v>19</v>
+      </c>
+      <c r="C1828">
+        <v>57</v>
+      </c>
+      <c r="D1828">
+        <v>43.6</v>
+      </c>
+      <c r="E1828">
+        <v>42</v>
+      </c>
+      <c r="F1828">
+        <v>840</v>
+      </c>
+      <c r="I1828" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1829">
+        <v>1</v>
+      </c>
+      <c r="B1829">
+        <v>19</v>
+      </c>
+      <c r="C1829">
+        <v>58</v>
+      </c>
+      <c r="D1829">
+        <v>42.2</v>
+      </c>
+      <c r="E1829">
+        <v>61</v>
+      </c>
+      <c r="F1829">
+        <v>1270</v>
+      </c>
+      <c r="I1829" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1830">
+        <v>1</v>
+      </c>
+      <c r="B1830">
+        <v>19</v>
+      </c>
+      <c r="C1830">
+        <v>59</v>
+      </c>
+      <c r="D1830">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E1830">
+        <v>45</v>
+      </c>
+      <c r="F1830">
+        <v>760</v>
+      </c>
+      <c r="I1830" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1831">
+        <v>1</v>
+      </c>
+      <c r="B1831">
+        <v>19</v>
+      </c>
+      <c r="C1831">
+        <v>60</v>
+      </c>
+      <c r="D1831">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E1831">
+        <v>44</v>
+      </c>
+      <c r="F1831">
+        <v>740</v>
+      </c>
+      <c r="I1831" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1832">
+        <v>1</v>
+      </c>
+      <c r="B1832">
+        <v>19</v>
+      </c>
+      <c r="C1832">
+        <v>61</v>
+      </c>
+      <c r="D1832">
+        <v>34.5</v>
+      </c>
+      <c r="E1832">
+        <v>39</v>
+      </c>
+      <c r="F1832">
+        <v>620</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1833">
+        <v>1</v>
+      </c>
+      <c r="B1833">
+        <v>19</v>
+      </c>
+      <c r="C1833">
+        <v>62</v>
+      </c>
+      <c r="D1833">
+        <v>71.2</v>
+      </c>
+      <c r="E1833">
+        <v>44</v>
+      </c>
+      <c r="F1833">
+        <v>2640</v>
+      </c>
+      <c r="I1833" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1834">
+        <v>1</v>
+      </c>
+      <c r="B1834">
+        <v>19</v>
+      </c>
+      <c r="C1834">
+        <v>63</v>
+      </c>
+      <c r="D1834">
+        <v>26.8</v>
+      </c>
+      <c r="E1834">
+        <v>14</v>
+      </c>
+      <c r="F1834">
+        <v>100</v>
+      </c>
+      <c r="I1834" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1835">
+        <v>1</v>
+      </c>
+      <c r="B1835">
+        <v>19</v>
+      </c>
+      <c r="C1835">
+        <v>64</v>
+      </c>
+      <c r="D1835">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="E1835">
+        <v>34</v>
+      </c>
+      <c r="F1835">
+        <v>470</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1836">
+        <v>1</v>
+      </c>
+      <c r="B1836">
+        <v>19</v>
+      </c>
+      <c r="C1836">
+        <v>65</v>
+      </c>
+      <c r="D1836">
+        <v>38</v>
+      </c>
+      <c r="E1836">
+        <v>36</v>
+      </c>
+      <c r="F1836">
+        <v>1500</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1837">
+        <v>1</v>
+      </c>
+      <c r="B1837">
+        <v>19</v>
+      </c>
+      <c r="C1837">
+        <v>66</v>
+      </c>
+      <c r="D1837">
+        <v>45.5</v>
+      </c>
+      <c r="E1837">
+        <v>60</v>
+      </c>
+      <c r="F1837">
+        <v>1540</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1838">
+        <v>1</v>
+      </c>
+      <c r="B1838">
+        <v>19</v>
+      </c>
+      <c r="C1838">
+        <v>67</v>
+      </c>
+      <c r="D1838">
+        <v>40.5</v>
+      </c>
+      <c r="E1838">
+        <v>39</v>
+      </c>
+      <c r="F1838">
+        <v>620</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1839">
+        <v>1</v>
+      </c>
+      <c r="B1839">
+        <v>19</v>
+      </c>
+      <c r="C1839">
+        <v>68</v>
+      </c>
+      <c r="D1839">
+        <v>56.8</v>
+      </c>
+      <c r="E1839">
+        <v>84</v>
+      </c>
+      <c r="F1839">
+        <v>2070</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1840">
+        <v>1</v>
+      </c>
+      <c r="B1840">
+        <v>19</v>
+      </c>
+      <c r="C1840">
+        <v>69</v>
+      </c>
+      <c r="D1840">
+        <v>42.9</v>
+      </c>
+      <c r="E1840">
+        <v>44</v>
+      </c>
+      <c r="F1840">
+        <v>710</v>
+      </c>
+      <c r="I1840" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1841">
+        <v>1</v>
+      </c>
+      <c r="B1841">
+        <v>19</v>
+      </c>
+      <c r="C1841">
+        <v>70</v>
+      </c>
+      <c r="D1841">
+        <v>71.2</v>
+      </c>
+      <c r="E1841">
+        <v>190</v>
+      </c>
+      <c r="F1841">
+        <v>6100</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1842">
+        <v>1</v>
+      </c>
+      <c r="B1842">
+        <v>19</v>
+      </c>
+      <c r="C1842">
+        <v>71</v>
+      </c>
+      <c r="D1842">
+        <v>52.5</v>
+      </c>
+      <c r="E1842">
+        <v>51</v>
+      </c>
+      <c r="F1842">
+        <v>850</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1843">
+        <v>1</v>
+      </c>
+      <c r="B1843">
+        <v>19</v>
+      </c>
+      <c r="C1843">
+        <v>72</v>
+      </c>
+      <c r="D1843">
+        <v>60.6</v>
+      </c>
+      <c r="E1843">
+        <v>101</v>
+      </c>
+      <c r="F1843">
+        <v>2300</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1844">
+        <v>1</v>
+      </c>
+      <c r="B1844">
+        <v>19</v>
+      </c>
+      <c r="C1844">
+        <v>73</v>
+      </c>
+      <c r="D1844">
+        <v>53.9</v>
+      </c>
+      <c r="E1844">
+        <v>80</v>
+      </c>
+      <c r="F1844">
+        <v>2250</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1845">
+        <v>1</v>
+      </c>
+      <c r="B1845">
+        <v>19</v>
+      </c>
+      <c r="C1845">
+        <v>74</v>
+      </c>
+      <c r="D1845">
+        <v>60.1</v>
+      </c>
+      <c r="E1845">
+        <v>74</v>
+      </c>
+      <c r="F1845">
+        <v>1640</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1846">
+        <v>1</v>
+      </c>
+      <c r="B1846">
+        <v>19</v>
+      </c>
+      <c r="C1846">
+        <v>75</v>
+      </c>
+      <c r="D1846">
+        <v>95.8</v>
+      </c>
+      <c r="E1846">
+        <v>146</v>
+      </c>
+      <c r="F1846">
+        <v>5160</v>
+      </c>
+      <c r="I1846" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1847">
+        <v>1</v>
+      </c>
+      <c r="B1847">
+        <v>19</v>
+      </c>
+      <c r="C1847">
+        <v>76</v>
+      </c>
+      <c r="D1847">
+        <v>50.2</v>
+      </c>
+      <c r="E1847">
+        <v>50</v>
+      </c>
+      <c r="F1847">
+        <v>1100</v>
+      </c>
+      <c r="I1847" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1848">
+        <v>1</v>
+      </c>
+      <c r="B1848">
+        <v>19</v>
+      </c>
+      <c r="C1848">
+        <v>77</v>
+      </c>
+      <c r="D1848">
+        <v>4.3</v>
+      </c>
+      <c r="E1848">
+        <v>11.2</v>
+      </c>
+      <c r="F1848">
+        <v>30</v>
+      </c>
+      <c r="I1848" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1849">
+        <v>1</v>
+      </c>
+      <c r="B1849">
+        <v>19</v>
+      </c>
+      <c r="C1849">
+        <v>78</v>
+      </c>
+      <c r="D1849">
+        <v>12.8</v>
+      </c>
+      <c r="E1849">
+        <v>11.5</v>
+      </c>
+      <c r="F1849">
+        <v>29</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1850">
+        <v>1</v>
+      </c>
+      <c r="B1850">
+        <v>19</v>
+      </c>
+      <c r="C1850">
+        <v>79</v>
+      </c>
+      <c r="D1850">
+        <v>14</v>
+      </c>
+      <c r="E1850">
+        <v>12</v>
+      </c>
+      <c r="F1850">
+        <v>17</v>
+      </c>
+      <c r="I1850" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1851">
+        <v>1</v>
+      </c>
+      <c r="B1851">
+        <v>18</v>
+      </c>
+      <c r="C1851">
+        <v>157</v>
+      </c>
+      <c r="D1851">
+        <v>10.1</v>
+      </c>
+      <c r="E1851">
+        <v>8.5</v>
+      </c>
+      <c r="F1851">
+        <v>3.5</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1852">
+        <v>1</v>
+      </c>
+      <c r="B1852">
+        <v>19</v>
+      </c>
+      <c r="C1852">
+        <v>80</v>
+      </c>
+      <c r="D1852">
+        <v>73</v>
+      </c>
+      <c r="E1852">
+        <v>330</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1853">
+        <v>1</v>
+      </c>
+      <c r="B1853">
+        <v>19</v>
+      </c>
+      <c r="C1853">
+        <v>81</v>
+      </c>
+      <c r="D1853">
+        <v>70</v>
+      </c>
+      <c r="E1853">
+        <v>300</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1854">
+        <v>1</v>
+      </c>
+      <c r="B1854">
+        <v>14</v>
+      </c>
+      <c r="C1854">
+        <v>112</v>
+      </c>
+      <c r="D1854">
+        <v>98</v>
+      </c>
+      <c r="E1854">
+        <v>420</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1855">
+        <v>1</v>
+      </c>
+      <c r="B1855">
+        <v>14</v>
+      </c>
+      <c r="C1855">
+        <v>113</v>
+      </c>
+      <c r="D1855">
+        <v>98</v>
+      </c>
+      <c r="E1855">
+        <v>430</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1856">
+        <v>1</v>
+      </c>
+      <c r="B1856">
+        <v>14</v>
+      </c>
+      <c r="C1856">
+        <v>114</v>
+      </c>
+      <c r="D1856">
+        <v>66</v>
+      </c>
+      <c r="E1856">
+        <v>420</v>
+      </c>
+      <c r="I1856" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1857">
+        <v>1</v>
+      </c>
+      <c r="B1857">
+        <v>14</v>
+      </c>
+      <c r="C1857">
+        <v>115</v>
+      </c>
+      <c r="D1857">
+        <v>65</v>
+      </c>
+      <c r="E1857">
+        <v>400</v>
+      </c>
+      <c r="I1857" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1858">
+        <v>1</v>
+      </c>
+      <c r="B1858">
+        <v>14</v>
+      </c>
+      <c r="C1858">
+        <v>116</v>
+      </c>
+      <c r="D1858">
+        <v>105</v>
+      </c>
+      <c r="E1858">
+        <v>460</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1530" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="A1:J1858" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023F480-C899-4FD8-9870-E0838526670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742CF7D-C01F-4725-9596-7894BDEDE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1858</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1877</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="21">
   <si>
     <t>Parcela</t>
   </si>
@@ -487,11 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J1858"/>
+  <dimension ref="A1:J1877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1838" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1860" sqref="B1860"/>
+      <pane ySplit="1" topLeftCell="A1854" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1860" sqref="J1860:J1877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43584,8 +43584,445 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1859" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1859">
+        <v>3</v>
+      </c>
+      <c r="B1859">
+        <v>35</v>
+      </c>
+      <c r="C1859">
+        <v>34</v>
+      </c>
+      <c r="D1859">
+        <v>90</v>
+      </c>
+      <c r="E1859">
+        <v>210</v>
+      </c>
+      <c r="I1859" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1860">
+        <v>3</v>
+      </c>
+      <c r="B1860">
+        <v>34</v>
+      </c>
+      <c r="C1860">
+        <v>26</v>
+      </c>
+      <c r="D1860">
+        <v>104</v>
+      </c>
+      <c r="E1860">
+        <v>240</v>
+      </c>
+      <c r="I1860" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1861">
+        <v>3</v>
+      </c>
+      <c r="B1861">
+        <v>34</v>
+      </c>
+      <c r="C1861">
+        <v>27</v>
+      </c>
+      <c r="D1861">
+        <v>39</v>
+      </c>
+      <c r="E1861">
+        <v>250</v>
+      </c>
+      <c r="I1861" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1862">
+        <v>1</v>
+      </c>
+      <c r="B1862">
+        <v>12</v>
+      </c>
+      <c r="C1862">
+        <v>62</v>
+      </c>
+      <c r="D1862">
+        <v>79</v>
+      </c>
+      <c r="E1862">
+        <v>240</v>
+      </c>
+      <c r="I1862" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1863">
+        <v>1</v>
+      </c>
+      <c r="B1863">
+        <v>12</v>
+      </c>
+      <c r="C1863">
+        <v>63</v>
+      </c>
+      <c r="D1863">
+        <v>136</v>
+      </c>
+      <c r="E1863">
+        <v>320</v>
+      </c>
+      <c r="I1863" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1864">
+        <v>1</v>
+      </c>
+      <c r="B1864">
+        <v>12</v>
+      </c>
+      <c r="C1864">
+        <v>64</v>
+      </c>
+      <c r="D1864">
+        <v>107</v>
+      </c>
+      <c r="E1864">
+        <v>300</v>
+      </c>
+      <c r="I1864" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1865">
+        <v>1</v>
+      </c>
+      <c r="B1865">
+        <v>12</v>
+      </c>
+      <c r="C1865">
+        <v>65</v>
+      </c>
+      <c r="D1865">
+        <v>125</v>
+      </c>
+      <c r="E1865">
+        <v>410</v>
+      </c>
+      <c r="I1865" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1866">
+        <v>1</v>
+      </c>
+      <c r="B1866">
+        <v>12</v>
+      </c>
+      <c r="C1866">
+        <v>66</v>
+      </c>
+      <c r="D1866">
+        <v>160</v>
+      </c>
+      <c r="E1866">
+        <v>400</v>
+      </c>
+      <c r="I1866" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1867">
+        <v>1</v>
+      </c>
+      <c r="B1867">
+        <v>12</v>
+      </c>
+      <c r="C1867">
+        <v>67</v>
+      </c>
+      <c r="D1867">
+        <v>104</v>
+      </c>
+      <c r="E1867">
+        <v>340</v>
+      </c>
+      <c r="I1867" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1868">
+        <v>1</v>
+      </c>
+      <c r="B1868">
+        <v>12</v>
+      </c>
+      <c r="C1868">
+        <v>68</v>
+      </c>
+      <c r="D1868">
+        <v>99</v>
+      </c>
+      <c r="E1868">
+        <v>250</v>
+      </c>
+      <c r="I1868" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1869">
+        <v>1</v>
+      </c>
+      <c r="B1869">
+        <v>11</v>
+      </c>
+      <c r="C1869">
+        <v>85</v>
+      </c>
+      <c r="D1869">
+        <v>90</v>
+      </c>
+      <c r="E1869">
+        <v>270</v>
+      </c>
+      <c r="I1869" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1870">
+        <v>1</v>
+      </c>
+      <c r="B1870">
+        <v>11</v>
+      </c>
+      <c r="C1870">
+        <v>86</v>
+      </c>
+      <c r="D1870">
+        <v>72</v>
+      </c>
+      <c r="E1870">
+        <v>210</v>
+      </c>
+      <c r="I1870" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1870" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1871">
+        <v>1</v>
+      </c>
+      <c r="B1871">
+        <v>11</v>
+      </c>
+      <c r="C1871">
+        <v>87</v>
+      </c>
+      <c r="D1871">
+        <v>72</v>
+      </c>
+      <c r="E1871">
+        <v>210</v>
+      </c>
+      <c r="I1871" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1871" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1872">
+        <v>1</v>
+      </c>
+      <c r="B1872">
+        <v>11</v>
+      </c>
+      <c r="C1872">
+        <v>88</v>
+      </c>
+      <c r="D1872">
+        <v>138</v>
+      </c>
+      <c r="E1872">
+        <v>450</v>
+      </c>
+      <c r="I1872" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1872" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1873">
+        <v>1</v>
+      </c>
+      <c r="B1873">
+        <v>11</v>
+      </c>
+      <c r="C1873">
+        <v>89</v>
+      </c>
+      <c r="D1873">
+        <v>129</v>
+      </c>
+      <c r="E1873">
+        <v>420</v>
+      </c>
+      <c r="I1873" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1873" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1874">
+        <v>1</v>
+      </c>
+      <c r="B1874">
+        <v>11</v>
+      </c>
+      <c r="C1874">
+        <v>90</v>
+      </c>
+      <c r="D1874">
+        <v>61</v>
+      </c>
+      <c r="E1874">
+        <v>200</v>
+      </c>
+      <c r="I1874" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1874" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1875">
+        <v>1</v>
+      </c>
+      <c r="B1875">
+        <v>11</v>
+      </c>
+      <c r="C1875">
+        <v>91</v>
+      </c>
+      <c r="D1875">
+        <v>78</v>
+      </c>
+      <c r="E1875">
+        <v>205</v>
+      </c>
+      <c r="I1875" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1876">
+        <v>1</v>
+      </c>
+      <c r="B1876">
+        <v>13</v>
+      </c>
+      <c r="C1876">
+        <v>63</v>
+      </c>
+      <c r="D1876">
+        <v>69</v>
+      </c>
+      <c r="E1876">
+        <v>250</v>
+      </c>
+      <c r="I1876" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1877">
+        <v>1</v>
+      </c>
+      <c r="B1877">
+        <v>14</v>
+      </c>
+      <c r="C1877">
+        <v>117</v>
+      </c>
+      <c r="D1877">
+        <v>109</v>
+      </c>
+      <c r="E1877">
+        <v>300</v>
+      </c>
+      <c r="I1877" s="2">
+        <v>45788</v>
+      </c>
+      <c r="J1877" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J1858" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="A1:J1877" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742CF7D-C01F-4725-9596-7894BDEDE2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F3545C-72C9-41DE-A2EF-D8DAFDC2394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -490,8 +490,8 @@
   <dimension ref="A1:J1877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1854" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1860" sqref="J1860:J1877"/>
+      <pane ySplit="1" topLeftCell="A330" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1331" sqref="E1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31454,7 +31454,7 @@
         <v>27.89</v>
       </c>
       <c r="E1331">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="F1331">
         <v>190</v>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F95B59-1224-46FD-B370-4132AF4E64B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2F683-0047-4B68-A05D-77698850FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="25">
   <si>
     <t>Parcela</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">partiu </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>13/02/2026</t>
   </si>
 </sst>
 </file>
@@ -499,11 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:J2288"/>
+  <dimension ref="A1:J2539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2213" sqref="G2213"/>
+      <pane ySplit="1" topLeftCell="A2507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2542" sqref="B2542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53488,6 +53488,5779 @@
         <v>40</v>
       </c>
       <c r="I2288" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2289">
+        <v>1</v>
+      </c>
+      <c r="B2289">
+        <v>10</v>
+      </c>
+      <c r="C2289">
+        <v>1</v>
+      </c>
+      <c r="D2289">
+        <v>36.67</v>
+      </c>
+      <c r="E2289">
+        <v>30</v>
+      </c>
+      <c r="F2289">
+        <v>360</v>
+      </c>
+      <c r="I2289" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2290">
+        <v>1</v>
+      </c>
+      <c r="B2290">
+        <v>10</v>
+      </c>
+      <c r="C2290">
+        <v>2</v>
+      </c>
+      <c r="D2290">
+        <v>26.54</v>
+      </c>
+      <c r="E2290">
+        <v>23</v>
+      </c>
+      <c r="F2290">
+        <v>250</v>
+      </c>
+      <c r="I2290" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2291">
+        <v>1</v>
+      </c>
+      <c r="B2291">
+        <v>10</v>
+      </c>
+      <c r="C2291">
+        <v>3</v>
+      </c>
+      <c r="D2291">
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="E2291">
+        <v>13.5</v>
+      </c>
+      <c r="F2291">
+        <v>30</v>
+      </c>
+      <c r="I2291" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2292">
+        <v>1</v>
+      </c>
+      <c r="B2292">
+        <v>10</v>
+      </c>
+      <c r="C2292">
+        <v>4</v>
+      </c>
+      <c r="D2292">
+        <v>28.07</v>
+      </c>
+      <c r="E2292">
+        <v>24.5</v>
+      </c>
+      <c r="F2292">
+        <v>260</v>
+      </c>
+      <c r="I2292" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2293">
+        <v>1</v>
+      </c>
+      <c r="B2293">
+        <v>10</v>
+      </c>
+      <c r="C2293">
+        <v>5</v>
+      </c>
+      <c r="D2293">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E2293">
+        <v>26</v>
+      </c>
+      <c r="F2293">
+        <v>200</v>
+      </c>
+      <c r="I2293" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2294">
+        <v>1</v>
+      </c>
+      <c r="B2294">
+        <v>10</v>
+      </c>
+      <c r="C2294">
+        <v>6</v>
+      </c>
+      <c r="D2294">
+        <v>30.17</v>
+      </c>
+      <c r="E2294">
+        <v>16</v>
+      </c>
+      <c r="F2294">
+        <v>180</v>
+      </c>
+      <c r="I2294" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2295">
+        <v>1</v>
+      </c>
+      <c r="B2295">
+        <v>10</v>
+      </c>
+      <c r="C2295">
+        <v>7</v>
+      </c>
+      <c r="D2295">
+        <v>33.53</v>
+      </c>
+      <c r="E2295">
+        <v>45</v>
+      </c>
+      <c r="F2295">
+        <v>880</v>
+      </c>
+      <c r="I2295" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2296">
+        <v>1</v>
+      </c>
+      <c r="B2296">
+        <v>10</v>
+      </c>
+      <c r="C2296">
+        <v>8</v>
+      </c>
+      <c r="D2296">
+        <v>23.89</v>
+      </c>
+      <c r="E2296">
+        <v>20.5</v>
+      </c>
+      <c r="F2296">
+        <v>110</v>
+      </c>
+      <c r="I2296" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2297">
+        <v>1</v>
+      </c>
+      <c r="B2297">
+        <v>10</v>
+      </c>
+      <c r="C2297">
+        <v>9</v>
+      </c>
+      <c r="D2297">
+        <v>30.47</v>
+      </c>
+      <c r="E2297">
+        <v>30</v>
+      </c>
+      <c r="F2297">
+        <v>320</v>
+      </c>
+      <c r="I2297" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2298">
+        <v>1</v>
+      </c>
+      <c r="B2298">
+        <v>10</v>
+      </c>
+      <c r="C2298">
+        <v>10</v>
+      </c>
+      <c r="D2298">
+        <v>25.65</v>
+      </c>
+      <c r="E2298">
+        <v>14</v>
+      </c>
+      <c r="F2298">
+        <v>60</v>
+      </c>
+      <c r="I2298" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2299">
+        <v>1</v>
+      </c>
+      <c r="B2299">
+        <v>10</v>
+      </c>
+      <c r="C2299">
+        <v>11</v>
+      </c>
+      <c r="D2299">
+        <v>13.1</v>
+      </c>
+      <c r="E2299">
+        <v>12</v>
+      </c>
+      <c r="F2299">
+        <v>40</v>
+      </c>
+      <c r="I2299" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2300">
+        <v>1</v>
+      </c>
+      <c r="B2300">
+        <v>10</v>
+      </c>
+      <c r="C2300">
+        <v>12</v>
+      </c>
+      <c r="D2300">
+        <v>17.21</v>
+      </c>
+      <c r="E2300">
+        <v>19.5</v>
+      </c>
+      <c r="F2300">
+        <v>60</v>
+      </c>
+      <c r="I2300" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2301">
+        <v>1</v>
+      </c>
+      <c r="B2301">
+        <v>10</v>
+      </c>
+      <c r="C2301">
+        <v>13</v>
+      </c>
+      <c r="D2301">
+        <v>23.71</v>
+      </c>
+      <c r="E2301">
+        <v>16</v>
+      </c>
+      <c r="F2301">
+        <v>100</v>
+      </c>
+      <c r="I2301" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2302">
+        <v>1</v>
+      </c>
+      <c r="B2302">
+        <v>10</v>
+      </c>
+      <c r="C2302">
+        <v>14</v>
+      </c>
+      <c r="D2302">
+        <v>12.68</v>
+      </c>
+      <c r="E2302">
+        <v>12.5</v>
+      </c>
+      <c r="F2302">
+        <v>40</v>
+      </c>
+      <c r="I2302" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2303">
+        <v>1</v>
+      </c>
+      <c r="B2303">
+        <v>10</v>
+      </c>
+      <c r="C2303">
+        <v>15</v>
+      </c>
+      <c r="D2303">
+        <v>10.88</v>
+      </c>
+      <c r="E2303">
+        <v>13</v>
+      </c>
+      <c r="F2303">
+        <v>18</v>
+      </c>
+      <c r="I2303" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2304">
+        <v>1</v>
+      </c>
+      <c r="B2304">
+        <v>10</v>
+      </c>
+      <c r="C2304">
+        <v>16</v>
+      </c>
+      <c r="D2304">
+        <v>12.05</v>
+      </c>
+      <c r="E2304">
+        <v>13</v>
+      </c>
+      <c r="F2304">
+        <v>30</v>
+      </c>
+      <c r="I2304" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2305">
+        <v>1</v>
+      </c>
+      <c r="B2305">
+        <v>10</v>
+      </c>
+      <c r="C2305">
+        <v>17</v>
+      </c>
+      <c r="D2305">
+        <v>18.61</v>
+      </c>
+      <c r="E2305">
+        <v>20</v>
+      </c>
+      <c r="F2305">
+        <v>90</v>
+      </c>
+      <c r="I2305" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2306">
+        <v>1</v>
+      </c>
+      <c r="B2306">
+        <v>10</v>
+      </c>
+      <c r="C2306">
+        <v>18</v>
+      </c>
+      <c r="D2306">
+        <v>8.89</v>
+      </c>
+      <c r="E2306">
+        <v>10</v>
+      </c>
+      <c r="F2306">
+        <v>17</v>
+      </c>
+      <c r="I2306" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2307">
+        <v>1</v>
+      </c>
+      <c r="B2307">
+        <v>10</v>
+      </c>
+      <c r="C2307">
+        <v>19</v>
+      </c>
+      <c r="D2307">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E2307">
+        <v>10.5</v>
+      </c>
+      <c r="F2307">
+        <v>10</v>
+      </c>
+      <c r="I2307" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2308">
+        <v>1</v>
+      </c>
+      <c r="B2308">
+        <v>10</v>
+      </c>
+      <c r="C2308">
+        <v>20</v>
+      </c>
+      <c r="D2308">
+        <v>10.95</v>
+      </c>
+      <c r="E2308">
+        <v>14.5</v>
+      </c>
+      <c r="F2308">
+        <v>23</v>
+      </c>
+      <c r="I2308" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2309">
+        <v>1</v>
+      </c>
+      <c r="B2309">
+        <v>10</v>
+      </c>
+      <c r="C2309">
+        <v>21</v>
+      </c>
+      <c r="D2309">
+        <v>10.6</v>
+      </c>
+      <c r="E2309">
+        <v>12</v>
+      </c>
+      <c r="F2309">
+        <v>19</v>
+      </c>
+      <c r="I2309" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2310">
+        <v>1</v>
+      </c>
+      <c r="B2310">
+        <v>10</v>
+      </c>
+      <c r="C2310">
+        <v>22</v>
+      </c>
+      <c r="D2310">
+        <v>14.73</v>
+      </c>
+      <c r="E2310">
+        <v>12</v>
+      </c>
+      <c r="F2310">
+        <v>24</v>
+      </c>
+      <c r="I2310" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2311">
+        <v>1</v>
+      </c>
+      <c r="B2311">
+        <v>10</v>
+      </c>
+      <c r="C2311">
+        <v>23</v>
+      </c>
+      <c r="D2311">
+        <v>17.14</v>
+      </c>
+      <c r="E2311">
+        <v>18</v>
+      </c>
+      <c r="F2311">
+        <v>70</v>
+      </c>
+      <c r="I2311" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2312">
+        <v>1</v>
+      </c>
+      <c r="B2312">
+        <v>10</v>
+      </c>
+      <c r="C2312">
+        <v>24</v>
+      </c>
+      <c r="D2312">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="E2312">
+        <v>17</v>
+      </c>
+      <c r="F2312">
+        <v>80</v>
+      </c>
+      <c r="I2312" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2313">
+        <v>1</v>
+      </c>
+      <c r="B2313">
+        <v>10</v>
+      </c>
+      <c r="C2313">
+        <v>25</v>
+      </c>
+      <c r="D2313">
+        <v>24.53</v>
+      </c>
+      <c r="E2313">
+        <v>28</v>
+      </c>
+      <c r="F2313">
+        <v>120</v>
+      </c>
+      <c r="I2313" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2314">
+        <v>1</v>
+      </c>
+      <c r="B2314">
+        <v>10</v>
+      </c>
+      <c r="C2314">
+        <v>26</v>
+      </c>
+      <c r="D2314">
+        <v>19.84</v>
+      </c>
+      <c r="E2314">
+        <v>18</v>
+      </c>
+      <c r="F2314">
+        <v>80</v>
+      </c>
+      <c r="I2314" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2315">
+        <v>1</v>
+      </c>
+      <c r="B2315">
+        <v>10</v>
+      </c>
+      <c r="C2315">
+        <v>27</v>
+      </c>
+      <c r="D2315">
+        <v>26.66</v>
+      </c>
+      <c r="E2315">
+        <v>22.5</v>
+      </c>
+      <c r="F2315">
+        <v>180</v>
+      </c>
+      <c r="I2315" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2316">
+        <v>1</v>
+      </c>
+      <c r="B2316">
+        <v>10</v>
+      </c>
+      <c r="C2316">
+        <v>28</v>
+      </c>
+      <c r="D2316">
+        <v>24.84</v>
+      </c>
+      <c r="E2316">
+        <v>25</v>
+      </c>
+      <c r="F2316">
+        <v>200</v>
+      </c>
+      <c r="I2316" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2317">
+        <v>1</v>
+      </c>
+      <c r="B2317">
+        <v>10</v>
+      </c>
+      <c r="C2317">
+        <v>29</v>
+      </c>
+      <c r="D2317">
+        <v>28.38</v>
+      </c>
+      <c r="E2317">
+        <v>24.5</v>
+      </c>
+      <c r="F2317">
+        <v>230</v>
+      </c>
+      <c r="I2317" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2318">
+        <v>1</v>
+      </c>
+      <c r="B2318">
+        <v>10</v>
+      </c>
+      <c r="C2318">
+        <v>30</v>
+      </c>
+      <c r="D2318">
+        <v>21.94</v>
+      </c>
+      <c r="E2318">
+        <v>26</v>
+      </c>
+      <c r="F2318">
+        <v>220</v>
+      </c>
+      <c r="I2318" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2319">
+        <v>1</v>
+      </c>
+      <c r="B2319">
+        <v>10</v>
+      </c>
+      <c r="C2319">
+        <v>31</v>
+      </c>
+      <c r="D2319">
+        <v>22.72</v>
+      </c>
+      <c r="E2319">
+        <v>28</v>
+      </c>
+      <c r="F2319">
+        <v>330</v>
+      </c>
+      <c r="I2319" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2320">
+        <v>1</v>
+      </c>
+      <c r="B2320">
+        <v>10</v>
+      </c>
+      <c r="C2320">
+        <v>32</v>
+      </c>
+      <c r="D2320">
+        <v>8.76</v>
+      </c>
+      <c r="E2320">
+        <v>7</v>
+      </c>
+      <c r="F2320">
+        <v>6</v>
+      </c>
+      <c r="I2320" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2321">
+        <v>1</v>
+      </c>
+      <c r="B2321">
+        <v>10</v>
+      </c>
+      <c r="C2321">
+        <v>33</v>
+      </c>
+      <c r="D2321">
+        <v>7.78</v>
+      </c>
+      <c r="E2321">
+        <v>9.5</v>
+      </c>
+      <c r="F2321">
+        <v>6</v>
+      </c>
+      <c r="I2321" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2322">
+        <v>1</v>
+      </c>
+      <c r="B2322">
+        <v>10</v>
+      </c>
+      <c r="C2322">
+        <v>34</v>
+      </c>
+      <c r="D2322">
+        <v>12.82</v>
+      </c>
+      <c r="E2322">
+        <v>10.5</v>
+      </c>
+      <c r="F2322">
+        <v>40</v>
+      </c>
+      <c r="I2322" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2323">
+        <v>1</v>
+      </c>
+      <c r="B2323">
+        <v>10</v>
+      </c>
+      <c r="C2323">
+        <v>35</v>
+      </c>
+      <c r="D2323">
+        <v>29.1</v>
+      </c>
+      <c r="E2323">
+        <v>24</v>
+      </c>
+      <c r="F2323">
+        <v>330</v>
+      </c>
+      <c r="I2323" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2324">
+        <v>1</v>
+      </c>
+      <c r="B2324">
+        <v>10</v>
+      </c>
+      <c r="C2324">
+        <v>36</v>
+      </c>
+      <c r="D2324">
+        <v>21.38</v>
+      </c>
+      <c r="E2324">
+        <v>19</v>
+      </c>
+      <c r="F2324">
+        <v>50</v>
+      </c>
+      <c r="I2324" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2325">
+        <v>1</v>
+      </c>
+      <c r="B2325">
+        <v>10</v>
+      </c>
+      <c r="C2325">
+        <v>37</v>
+      </c>
+      <c r="D2325">
+        <v>15.95</v>
+      </c>
+      <c r="E2325">
+        <v>18.5</v>
+      </c>
+      <c r="F2325">
+        <v>40</v>
+      </c>
+      <c r="I2325" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2326">
+        <v>1</v>
+      </c>
+      <c r="B2326">
+        <v>10</v>
+      </c>
+      <c r="C2326">
+        <v>38</v>
+      </c>
+      <c r="D2326">
+        <v>42.9</v>
+      </c>
+      <c r="E2326">
+        <v>31</v>
+      </c>
+      <c r="F2326">
+        <v>540</v>
+      </c>
+      <c r="I2326" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2327">
+        <v>1</v>
+      </c>
+      <c r="B2327">
+        <v>10</v>
+      </c>
+      <c r="C2327">
+        <v>39</v>
+      </c>
+      <c r="D2327">
+        <v>13</v>
+      </c>
+      <c r="E2327">
+        <v>16</v>
+      </c>
+      <c r="F2327">
+        <v>30</v>
+      </c>
+      <c r="I2327" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2328">
+        <v>1</v>
+      </c>
+      <c r="B2328">
+        <v>10</v>
+      </c>
+      <c r="C2328">
+        <v>40</v>
+      </c>
+      <c r="D2328">
+        <v>18.29</v>
+      </c>
+      <c r="E2328">
+        <v>21.5</v>
+      </c>
+      <c r="F2328">
+        <v>80</v>
+      </c>
+      <c r="I2328" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2329">
+        <v>1</v>
+      </c>
+      <c r="B2329">
+        <v>10</v>
+      </c>
+      <c r="C2329">
+        <v>41</v>
+      </c>
+      <c r="D2329">
+        <v>15.32</v>
+      </c>
+      <c r="E2329">
+        <v>16</v>
+      </c>
+      <c r="F2329">
+        <v>50</v>
+      </c>
+      <c r="I2329" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2330">
+        <v>1</v>
+      </c>
+      <c r="B2330">
+        <v>10</v>
+      </c>
+      <c r="C2330">
+        <v>42</v>
+      </c>
+      <c r="D2330">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E2330">
+        <v>11.5</v>
+      </c>
+      <c r="F2330">
+        <v>15</v>
+      </c>
+      <c r="I2330" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2331">
+        <v>1</v>
+      </c>
+      <c r="B2331">
+        <v>10</v>
+      </c>
+      <c r="C2331">
+        <v>43</v>
+      </c>
+      <c r="D2331">
+        <v>6.95</v>
+      </c>
+      <c r="E2331">
+        <v>10.5</v>
+      </c>
+      <c r="F2331">
+        <v>7</v>
+      </c>
+      <c r="I2331" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2332">
+        <v>1</v>
+      </c>
+      <c r="B2332">
+        <v>10</v>
+      </c>
+      <c r="C2332">
+        <v>44</v>
+      </c>
+      <c r="D2332">
+        <v>9.94</v>
+      </c>
+      <c r="E2332">
+        <v>13</v>
+      </c>
+      <c r="F2332">
+        <v>14</v>
+      </c>
+      <c r="I2332" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2333">
+        <v>1</v>
+      </c>
+      <c r="B2333">
+        <v>10</v>
+      </c>
+      <c r="C2333">
+        <v>45</v>
+      </c>
+      <c r="D2333">
+        <v>18.2</v>
+      </c>
+      <c r="E2333">
+        <v>16.5</v>
+      </c>
+      <c r="F2333">
+        <v>100</v>
+      </c>
+      <c r="I2333" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2334">
+        <v>1</v>
+      </c>
+      <c r="B2334">
+        <v>10</v>
+      </c>
+      <c r="C2334">
+        <v>46</v>
+      </c>
+      <c r="D2334">
+        <v>20.41</v>
+      </c>
+      <c r="E2334">
+        <v>22</v>
+      </c>
+      <c r="F2334">
+        <v>110</v>
+      </c>
+      <c r="I2334" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2335">
+        <v>1</v>
+      </c>
+      <c r="B2335">
+        <v>10</v>
+      </c>
+      <c r="C2335">
+        <v>47</v>
+      </c>
+      <c r="D2335">
+        <v>9.43</v>
+      </c>
+      <c r="E2335">
+        <v>14.5</v>
+      </c>
+      <c r="F2335">
+        <v>17</v>
+      </c>
+      <c r="I2335" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2336">
+        <v>1</v>
+      </c>
+      <c r="B2336">
+        <v>10</v>
+      </c>
+      <c r="C2336">
+        <v>48</v>
+      </c>
+      <c r="D2336">
+        <v>10.66</v>
+      </c>
+      <c r="E2336">
+        <v>11</v>
+      </c>
+      <c r="F2336">
+        <v>22</v>
+      </c>
+      <c r="I2336" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2337">
+        <v>1</v>
+      </c>
+      <c r="B2337">
+        <v>10</v>
+      </c>
+      <c r="C2337">
+        <v>49</v>
+      </c>
+      <c r="D2337">
+        <v>27.28</v>
+      </c>
+      <c r="E2337">
+        <v>22</v>
+      </c>
+      <c r="F2337">
+        <v>200</v>
+      </c>
+      <c r="I2337" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2338">
+        <v>1</v>
+      </c>
+      <c r="B2338">
+        <v>10</v>
+      </c>
+      <c r="C2338">
+        <v>50</v>
+      </c>
+      <c r="D2338">
+        <v>26.91</v>
+      </c>
+      <c r="E2338">
+        <v>21</v>
+      </c>
+      <c r="F2338">
+        <v>130</v>
+      </c>
+      <c r="I2338" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2339">
+        <v>1</v>
+      </c>
+      <c r="B2339">
+        <v>10</v>
+      </c>
+      <c r="C2339">
+        <v>51</v>
+      </c>
+      <c r="D2339">
+        <v>19.28</v>
+      </c>
+      <c r="E2339">
+        <v>15.8</v>
+      </c>
+      <c r="F2339">
+        <v>60</v>
+      </c>
+      <c r="I2339" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2340">
+        <v>1</v>
+      </c>
+      <c r="B2340">
+        <v>10</v>
+      </c>
+      <c r="C2340">
+        <v>52</v>
+      </c>
+      <c r="D2340">
+        <v>19.54</v>
+      </c>
+      <c r="E2340">
+        <v>15.5</v>
+      </c>
+      <c r="F2340">
+        <v>80</v>
+      </c>
+      <c r="I2340" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2341">
+        <v>1</v>
+      </c>
+      <c r="B2341">
+        <v>10</v>
+      </c>
+      <c r="C2341">
+        <v>53</v>
+      </c>
+      <c r="D2341">
+        <v>15.09</v>
+      </c>
+      <c r="E2341">
+        <v>13.7</v>
+      </c>
+      <c r="F2341">
+        <v>30</v>
+      </c>
+      <c r="I2341" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2342">
+        <v>1</v>
+      </c>
+      <c r="B2342">
+        <v>10</v>
+      </c>
+      <c r="C2342">
+        <v>54</v>
+      </c>
+      <c r="D2342">
+        <v>8.77</v>
+      </c>
+      <c r="E2342">
+        <v>10.5</v>
+      </c>
+      <c r="F2342">
+        <v>11</v>
+      </c>
+      <c r="I2342" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2343">
+        <v>1</v>
+      </c>
+      <c r="B2343">
+        <v>10</v>
+      </c>
+      <c r="C2343">
+        <v>55</v>
+      </c>
+      <c r="D2343">
+        <v>23.95</v>
+      </c>
+      <c r="E2343">
+        <v>20</v>
+      </c>
+      <c r="F2343">
+        <v>130</v>
+      </c>
+      <c r="I2343" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2344">
+        <v>1</v>
+      </c>
+      <c r="B2344">
+        <v>10</v>
+      </c>
+      <c r="C2344">
+        <v>56</v>
+      </c>
+      <c r="D2344">
+        <v>11.34</v>
+      </c>
+      <c r="E2344">
+        <v>13</v>
+      </c>
+      <c r="F2344">
+        <v>30</v>
+      </c>
+      <c r="I2344" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2345">
+        <v>1</v>
+      </c>
+      <c r="B2345">
+        <v>10</v>
+      </c>
+      <c r="C2345">
+        <v>57</v>
+      </c>
+      <c r="D2345">
+        <v>14.31</v>
+      </c>
+      <c r="E2345">
+        <v>16.5</v>
+      </c>
+      <c r="F2345">
+        <v>40</v>
+      </c>
+      <c r="I2345" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2346">
+        <v>1</v>
+      </c>
+      <c r="B2346">
+        <v>10</v>
+      </c>
+      <c r="C2346">
+        <v>58</v>
+      </c>
+      <c r="D2346">
+        <v>24.24</v>
+      </c>
+      <c r="E2346">
+        <v>21</v>
+      </c>
+      <c r="F2346">
+        <v>150</v>
+      </c>
+      <c r="I2346" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2347">
+        <v>1</v>
+      </c>
+      <c r="B2347">
+        <v>10</v>
+      </c>
+      <c r="C2347">
+        <v>59</v>
+      </c>
+      <c r="D2347">
+        <v>21.51</v>
+      </c>
+      <c r="E2347">
+        <v>24</v>
+      </c>
+      <c r="F2347">
+        <v>170</v>
+      </c>
+      <c r="I2347" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2348">
+        <v>1</v>
+      </c>
+      <c r="B2348">
+        <v>10</v>
+      </c>
+      <c r="C2348">
+        <v>60</v>
+      </c>
+      <c r="D2348">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E2348">
+        <v>14</v>
+      </c>
+      <c r="F2348">
+        <v>50</v>
+      </c>
+      <c r="I2348" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2349">
+        <v>1</v>
+      </c>
+      <c r="B2349">
+        <v>10</v>
+      </c>
+      <c r="C2349">
+        <v>61</v>
+      </c>
+      <c r="D2349">
+        <v>9.89</v>
+      </c>
+      <c r="E2349">
+        <v>9</v>
+      </c>
+      <c r="F2349">
+        <v>11</v>
+      </c>
+      <c r="I2349" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2350">
+        <v>1</v>
+      </c>
+      <c r="B2350">
+        <v>10</v>
+      </c>
+      <c r="C2350">
+        <v>62</v>
+      </c>
+      <c r="D2350">
+        <v>8.4</v>
+      </c>
+      <c r="E2350">
+        <v>11.5</v>
+      </c>
+      <c r="F2350">
+        <v>8</v>
+      </c>
+      <c r="I2350" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2351">
+        <v>1</v>
+      </c>
+      <c r="B2351">
+        <v>10</v>
+      </c>
+      <c r="C2351">
+        <v>63</v>
+      </c>
+      <c r="D2351">
+        <v>12.67</v>
+      </c>
+      <c r="E2351">
+        <v>15</v>
+      </c>
+      <c r="F2351">
+        <v>17</v>
+      </c>
+      <c r="I2351" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2352">
+        <v>1</v>
+      </c>
+      <c r="B2352">
+        <v>10</v>
+      </c>
+      <c r="C2352">
+        <v>64</v>
+      </c>
+      <c r="D2352">
+        <v>20.7</v>
+      </c>
+      <c r="E2352">
+        <v>16.5</v>
+      </c>
+      <c r="F2352">
+        <v>60</v>
+      </c>
+      <c r="I2352" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2353">
+        <v>1</v>
+      </c>
+      <c r="B2353">
+        <v>10</v>
+      </c>
+      <c r="C2353">
+        <v>65</v>
+      </c>
+      <c r="D2353">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E2353">
+        <v>8</v>
+      </c>
+      <c r="F2353">
+        <v>3</v>
+      </c>
+      <c r="I2353" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2354">
+        <v>1</v>
+      </c>
+      <c r="B2354">
+        <v>10</v>
+      </c>
+      <c r="C2354">
+        <v>66</v>
+      </c>
+      <c r="D2354">
+        <v>10.44</v>
+      </c>
+      <c r="E2354">
+        <v>13</v>
+      </c>
+      <c r="F2354">
+        <v>18</v>
+      </c>
+      <c r="I2354" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2355">
+        <v>1</v>
+      </c>
+      <c r="B2355">
+        <v>10</v>
+      </c>
+      <c r="C2355">
+        <v>67</v>
+      </c>
+      <c r="D2355">
+        <v>24.84</v>
+      </c>
+      <c r="E2355">
+        <v>22.5</v>
+      </c>
+      <c r="F2355">
+        <v>140</v>
+      </c>
+      <c r="I2355" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2356">
+        <v>1</v>
+      </c>
+      <c r="B2356">
+        <v>10</v>
+      </c>
+      <c r="C2356">
+        <v>68</v>
+      </c>
+      <c r="D2356">
+        <v>10</v>
+      </c>
+      <c r="E2356">
+        <v>10.5</v>
+      </c>
+      <c r="F2356">
+        <v>17</v>
+      </c>
+      <c r="I2356" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2357">
+        <v>1</v>
+      </c>
+      <c r="B2357">
+        <v>10</v>
+      </c>
+      <c r="C2357">
+        <v>69</v>
+      </c>
+      <c r="D2357">
+        <v>7.04</v>
+      </c>
+      <c r="E2357">
+        <v>14</v>
+      </c>
+      <c r="F2357">
+        <v>30</v>
+      </c>
+      <c r="I2357" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2358">
+        <v>1</v>
+      </c>
+      <c r="B2358">
+        <v>10</v>
+      </c>
+      <c r="C2358">
+        <v>70</v>
+      </c>
+      <c r="D2358">
+        <v>11.35</v>
+      </c>
+      <c r="E2358">
+        <v>14</v>
+      </c>
+      <c r="F2358">
+        <v>30</v>
+      </c>
+      <c r="I2358" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2359">
+        <v>1</v>
+      </c>
+      <c r="B2359">
+        <v>10</v>
+      </c>
+      <c r="C2359">
+        <v>71</v>
+      </c>
+      <c r="D2359">
+        <v>9.5</v>
+      </c>
+      <c r="E2359">
+        <v>8</v>
+      </c>
+      <c r="F2359">
+        <v>7</v>
+      </c>
+      <c r="I2359" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2360">
+        <v>1</v>
+      </c>
+      <c r="B2360">
+        <v>10</v>
+      </c>
+      <c r="C2360">
+        <v>72</v>
+      </c>
+      <c r="D2360">
+        <v>10.4</v>
+      </c>
+      <c r="E2360">
+        <v>13</v>
+      </c>
+      <c r="F2360">
+        <v>17</v>
+      </c>
+      <c r="I2360" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2361">
+        <v>1</v>
+      </c>
+      <c r="B2361">
+        <v>10</v>
+      </c>
+      <c r="C2361">
+        <v>73</v>
+      </c>
+      <c r="D2361">
+        <v>9.02</v>
+      </c>
+      <c r="E2361">
+        <v>11</v>
+      </c>
+      <c r="F2361">
+        <v>21</v>
+      </c>
+      <c r="I2361" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2362">
+        <v>1</v>
+      </c>
+      <c r="B2362">
+        <v>10</v>
+      </c>
+      <c r="C2362">
+        <v>74</v>
+      </c>
+      <c r="D2362">
+        <v>12.32</v>
+      </c>
+      <c r="E2362">
+        <v>18</v>
+      </c>
+      <c r="F2362">
+        <v>40</v>
+      </c>
+      <c r="I2362" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2363">
+        <v>1</v>
+      </c>
+      <c r="B2363">
+        <v>10</v>
+      </c>
+      <c r="C2363">
+        <v>75</v>
+      </c>
+      <c r="D2363">
+        <v>8.84</v>
+      </c>
+      <c r="E2363">
+        <v>12</v>
+      </c>
+      <c r="F2363">
+        <v>13</v>
+      </c>
+      <c r="I2363" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2364">
+        <v>1</v>
+      </c>
+      <c r="B2364">
+        <v>10</v>
+      </c>
+      <c r="C2364">
+        <v>76</v>
+      </c>
+      <c r="D2364">
+        <v>63.81</v>
+      </c>
+      <c r="E2364">
+        <v>105</v>
+      </c>
+      <c r="F2364">
+        <v>2630</v>
+      </c>
+      <c r="I2364" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2365">
+        <v>1</v>
+      </c>
+      <c r="B2365">
+        <v>10</v>
+      </c>
+      <c r="C2365">
+        <v>77</v>
+      </c>
+      <c r="D2365">
+        <v>19.53</v>
+      </c>
+      <c r="E2365">
+        <v>20.5</v>
+      </c>
+      <c r="F2365">
+        <v>190</v>
+      </c>
+      <c r="I2365" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2366">
+        <v>1</v>
+      </c>
+      <c r="B2366">
+        <v>10</v>
+      </c>
+      <c r="C2366">
+        <v>78</v>
+      </c>
+      <c r="D2366">
+        <v>14.31</v>
+      </c>
+      <c r="E2366">
+        <v>16</v>
+      </c>
+      <c r="F2366">
+        <v>110</v>
+      </c>
+      <c r="I2366" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2367">
+        <v>1</v>
+      </c>
+      <c r="B2367">
+        <v>10</v>
+      </c>
+      <c r="C2367">
+        <v>79</v>
+      </c>
+      <c r="D2367">
+        <v>13.44</v>
+      </c>
+      <c r="E2367">
+        <v>14</v>
+      </c>
+      <c r="F2367">
+        <v>40</v>
+      </c>
+      <c r="I2367" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2368">
+        <v>1</v>
+      </c>
+      <c r="B2368">
+        <v>10</v>
+      </c>
+      <c r="C2368">
+        <v>80</v>
+      </c>
+      <c r="D2368">
+        <v>9.75</v>
+      </c>
+      <c r="E2368">
+        <v>13</v>
+      </c>
+      <c r="F2368">
+        <v>40</v>
+      </c>
+      <c r="I2368" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2369">
+        <v>1</v>
+      </c>
+      <c r="B2369">
+        <v>10</v>
+      </c>
+      <c r="C2369">
+        <v>81</v>
+      </c>
+      <c r="D2369">
+        <v>13.96</v>
+      </c>
+      <c r="E2369">
+        <v>17</v>
+      </c>
+      <c r="F2369">
+        <v>70</v>
+      </c>
+      <c r="I2369" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2370">
+        <v>1</v>
+      </c>
+      <c r="B2370">
+        <v>10</v>
+      </c>
+      <c r="C2370">
+        <v>82</v>
+      </c>
+      <c r="D2370">
+        <v>11.57</v>
+      </c>
+      <c r="E2370">
+        <v>12.5</v>
+      </c>
+      <c r="F2370">
+        <v>40</v>
+      </c>
+      <c r="I2370" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2371">
+        <v>1</v>
+      </c>
+      <c r="B2371">
+        <v>10</v>
+      </c>
+      <c r="C2371">
+        <v>83</v>
+      </c>
+      <c r="D2371">
+        <v>13.47</v>
+      </c>
+      <c r="E2371">
+        <v>15.6</v>
+      </c>
+      <c r="F2371">
+        <v>80</v>
+      </c>
+      <c r="I2371" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2372">
+        <v>1</v>
+      </c>
+      <c r="B2372">
+        <v>10</v>
+      </c>
+      <c r="C2372">
+        <v>84</v>
+      </c>
+      <c r="D2372">
+        <v>14.38</v>
+      </c>
+      <c r="E2372">
+        <v>18</v>
+      </c>
+      <c r="F2372">
+        <v>70</v>
+      </c>
+      <c r="I2372" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2373">
+        <v>1</v>
+      </c>
+      <c r="B2373">
+        <v>10</v>
+      </c>
+      <c r="C2373">
+        <v>85</v>
+      </c>
+      <c r="D2373">
+        <v>8.6</v>
+      </c>
+      <c r="E2373">
+        <v>8</v>
+      </c>
+      <c r="F2373">
+        <v>26</v>
+      </c>
+      <c r="I2373" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2374">
+        <v>1</v>
+      </c>
+      <c r="B2374">
+        <v>10</v>
+      </c>
+      <c r="C2374">
+        <v>86</v>
+      </c>
+      <c r="D2374">
+        <v>17.04</v>
+      </c>
+      <c r="E2374">
+        <v>19</v>
+      </c>
+      <c r="F2374">
+        <v>80</v>
+      </c>
+      <c r="I2374" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2375">
+        <v>1</v>
+      </c>
+      <c r="B2375">
+        <v>10</v>
+      </c>
+      <c r="C2375">
+        <v>87</v>
+      </c>
+      <c r="D2375">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="E2375">
+        <v>20</v>
+      </c>
+      <c r="F2375">
+        <v>120</v>
+      </c>
+      <c r="I2375" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2376">
+        <v>1</v>
+      </c>
+      <c r="B2376">
+        <v>10</v>
+      </c>
+      <c r="C2376">
+        <v>88</v>
+      </c>
+      <c r="D2376">
+        <v>8.31</v>
+      </c>
+      <c r="E2376">
+        <v>9</v>
+      </c>
+      <c r="F2376">
+        <v>30</v>
+      </c>
+      <c r="I2376" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2377">
+        <v>1</v>
+      </c>
+      <c r="B2377">
+        <v>10</v>
+      </c>
+      <c r="C2377">
+        <v>89</v>
+      </c>
+      <c r="D2377">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="E2377">
+        <v>9</v>
+      </c>
+      <c r="F2377">
+        <v>9</v>
+      </c>
+      <c r="I2377" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2378">
+        <v>1</v>
+      </c>
+      <c r="B2378">
+        <v>10</v>
+      </c>
+      <c r="C2378">
+        <v>90</v>
+      </c>
+      <c r="D2378">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E2378">
+        <v>8</v>
+      </c>
+      <c r="F2378">
+        <v>10</v>
+      </c>
+      <c r="I2378" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2379">
+        <v>1</v>
+      </c>
+      <c r="B2379">
+        <v>10</v>
+      </c>
+      <c r="C2379">
+        <v>91</v>
+      </c>
+      <c r="D2379">
+        <v>10</v>
+      </c>
+      <c r="E2379">
+        <v>14</v>
+      </c>
+      <c r="F2379">
+        <v>60</v>
+      </c>
+      <c r="I2379" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2380">
+        <v>1</v>
+      </c>
+      <c r="B2380">
+        <v>10</v>
+      </c>
+      <c r="C2380">
+        <v>92</v>
+      </c>
+      <c r="D2380">
+        <v>14.03</v>
+      </c>
+      <c r="E2380">
+        <v>13.5</v>
+      </c>
+      <c r="F2380">
+        <v>25</v>
+      </c>
+      <c r="I2380" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2381">
+        <v>1</v>
+      </c>
+      <c r="B2381">
+        <v>10</v>
+      </c>
+      <c r="C2381">
+        <v>93</v>
+      </c>
+      <c r="D2381">
+        <v>10</v>
+      </c>
+      <c r="E2381">
+        <v>16.5</v>
+      </c>
+      <c r="F2381">
+        <v>60</v>
+      </c>
+      <c r="I2381" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2382">
+        <v>1</v>
+      </c>
+      <c r="B2382">
+        <v>10</v>
+      </c>
+      <c r="C2382">
+        <v>94</v>
+      </c>
+      <c r="D2382">
+        <v>14.4</v>
+      </c>
+      <c r="E2382">
+        <v>16.5</v>
+      </c>
+      <c r="F2382">
+        <v>40</v>
+      </c>
+      <c r="I2382" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2383">
+        <v>1</v>
+      </c>
+      <c r="B2383">
+        <v>10</v>
+      </c>
+      <c r="C2383">
+        <v>95</v>
+      </c>
+      <c r="D2383">
+        <v>9.49</v>
+      </c>
+      <c r="E2383">
+        <v>13.5</v>
+      </c>
+      <c r="F2383">
+        <v>21</v>
+      </c>
+      <c r="I2383" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2384">
+        <v>1</v>
+      </c>
+      <c r="B2384">
+        <v>10</v>
+      </c>
+      <c r="C2384">
+        <v>96</v>
+      </c>
+      <c r="D2384">
+        <v>11.07</v>
+      </c>
+      <c r="E2384">
+        <v>12.5</v>
+      </c>
+      <c r="F2384">
+        <v>21</v>
+      </c>
+      <c r="I2384" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2385">
+        <v>1</v>
+      </c>
+      <c r="B2385">
+        <v>10</v>
+      </c>
+      <c r="C2385">
+        <v>97</v>
+      </c>
+      <c r="D2385">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E2385">
+        <v>10.5</v>
+      </c>
+      <c r="F2385">
+        <v>20</v>
+      </c>
+      <c r="I2385" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2386">
+        <v>1</v>
+      </c>
+      <c r="B2386">
+        <v>10</v>
+      </c>
+      <c r="C2386">
+        <v>98</v>
+      </c>
+      <c r="D2386">
+        <v>7.31</v>
+      </c>
+      <c r="E2386">
+        <v>7</v>
+      </c>
+      <c r="F2386">
+        <v>13</v>
+      </c>
+      <c r="I2386" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2387">
+        <v>1</v>
+      </c>
+      <c r="B2387">
+        <v>10</v>
+      </c>
+      <c r="C2387">
+        <v>99</v>
+      </c>
+      <c r="D2387">
+        <v>7.71</v>
+      </c>
+      <c r="E2387">
+        <v>10</v>
+      </c>
+      <c r="F2387">
+        <v>12</v>
+      </c>
+      <c r="I2387" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2388">
+        <v>1</v>
+      </c>
+      <c r="B2388">
+        <v>10</v>
+      </c>
+      <c r="C2388">
+        <v>100</v>
+      </c>
+      <c r="D2388">
+        <v>16.13</v>
+      </c>
+      <c r="E2388">
+        <v>16.5</v>
+      </c>
+      <c r="F2388">
+        <v>70</v>
+      </c>
+      <c r="I2388" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2389">
+        <v>1</v>
+      </c>
+      <c r="B2389">
+        <v>10</v>
+      </c>
+      <c r="C2389">
+        <v>101</v>
+      </c>
+      <c r="D2389">
+        <v>11.43</v>
+      </c>
+      <c r="E2389">
+        <v>14</v>
+      </c>
+      <c r="F2389">
+        <v>22</v>
+      </c>
+      <c r="I2389" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2390">
+        <v>1</v>
+      </c>
+      <c r="B2390">
+        <v>10</v>
+      </c>
+      <c r="C2390">
+        <v>102</v>
+      </c>
+      <c r="D2390">
+        <v>8.39</v>
+      </c>
+      <c r="E2390">
+        <v>10.5</v>
+      </c>
+      <c r="F2390">
+        <v>8</v>
+      </c>
+      <c r="I2390" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2391">
+        <v>1</v>
+      </c>
+      <c r="B2391">
+        <v>10</v>
+      </c>
+      <c r="C2391">
+        <v>103</v>
+      </c>
+      <c r="D2391">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E2391">
+        <v>16</v>
+      </c>
+      <c r="F2391">
+        <v>24</v>
+      </c>
+      <c r="I2391" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2392">
+        <v>1</v>
+      </c>
+      <c r="B2392">
+        <v>10</v>
+      </c>
+      <c r="C2392">
+        <v>104</v>
+      </c>
+      <c r="D2392">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E2392">
+        <v>11</v>
+      </c>
+      <c r="F2392">
+        <v>16</v>
+      </c>
+      <c r="I2392" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2393">
+        <v>1</v>
+      </c>
+      <c r="B2393">
+        <v>10</v>
+      </c>
+      <c r="C2393">
+        <v>105</v>
+      </c>
+      <c r="D2393">
+        <v>6.48</v>
+      </c>
+      <c r="E2393">
+        <v>9</v>
+      </c>
+      <c r="F2393">
+        <v>11</v>
+      </c>
+      <c r="I2393" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2394">
+        <v>1</v>
+      </c>
+      <c r="B2394">
+        <v>10</v>
+      </c>
+      <c r="C2394">
+        <v>106</v>
+      </c>
+      <c r="D2394">
+        <v>12.24</v>
+      </c>
+      <c r="E2394">
+        <v>17</v>
+      </c>
+      <c r="F2394">
+        <v>70</v>
+      </c>
+      <c r="I2394" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2395">
+        <v>1</v>
+      </c>
+      <c r="B2395">
+        <v>10</v>
+      </c>
+      <c r="C2395">
+        <v>107</v>
+      </c>
+      <c r="D2395">
+        <v>11.38</v>
+      </c>
+      <c r="E2395">
+        <v>11.5</v>
+      </c>
+      <c r="F2395">
+        <v>40</v>
+      </c>
+      <c r="I2395" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2396">
+        <v>1</v>
+      </c>
+      <c r="B2396">
+        <v>10</v>
+      </c>
+      <c r="C2396">
+        <v>108</v>
+      </c>
+      <c r="D2396">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E2396">
+        <v>17</v>
+      </c>
+      <c r="F2396">
+        <v>60</v>
+      </c>
+      <c r="I2396" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2397">
+        <v>1</v>
+      </c>
+      <c r="B2397">
+        <v>10</v>
+      </c>
+      <c r="C2397">
+        <v>109</v>
+      </c>
+      <c r="D2397">
+        <v>11.1</v>
+      </c>
+      <c r="E2397">
+        <v>11.5</v>
+      </c>
+      <c r="F2397">
+        <v>50</v>
+      </c>
+      <c r="I2397" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2398">
+        <v>1</v>
+      </c>
+      <c r="B2398">
+        <v>10</v>
+      </c>
+      <c r="C2398">
+        <v>110</v>
+      </c>
+      <c r="D2398">
+        <v>7.9</v>
+      </c>
+      <c r="E2398">
+        <v>12.5</v>
+      </c>
+      <c r="F2398">
+        <v>16</v>
+      </c>
+      <c r="I2398" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2399">
+        <v>1</v>
+      </c>
+      <c r="B2399">
+        <v>10</v>
+      </c>
+      <c r="C2399">
+        <v>111</v>
+      </c>
+      <c r="D2399">
+        <v>11.9</v>
+      </c>
+      <c r="E2399">
+        <v>13</v>
+      </c>
+      <c r="F2399">
+        <v>24</v>
+      </c>
+      <c r="I2399" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2400">
+        <v>1</v>
+      </c>
+      <c r="B2400">
+        <v>10</v>
+      </c>
+      <c r="C2400">
+        <v>112</v>
+      </c>
+      <c r="D2400">
+        <v>5.64</v>
+      </c>
+      <c r="E2400">
+        <v>7</v>
+      </c>
+      <c r="F2400">
+        <v>14</v>
+      </c>
+      <c r="I2400" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2401">
+        <v>1</v>
+      </c>
+      <c r="B2401">
+        <v>10</v>
+      </c>
+      <c r="C2401">
+        <v>113</v>
+      </c>
+      <c r="D2401">
+        <v>5.81</v>
+      </c>
+      <c r="E2401">
+        <v>5.5</v>
+      </c>
+      <c r="F2401">
+        <v>6</v>
+      </c>
+      <c r="I2401" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2402">
+        <v>1</v>
+      </c>
+      <c r="B2402">
+        <v>10</v>
+      </c>
+      <c r="C2402">
+        <v>114</v>
+      </c>
+      <c r="D2402">
+        <v>5.48</v>
+      </c>
+      <c r="E2402">
+        <v>10</v>
+      </c>
+      <c r="F2402">
+        <v>7</v>
+      </c>
+      <c r="I2402" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2403">
+        <v>1</v>
+      </c>
+      <c r="B2403">
+        <v>10</v>
+      </c>
+      <c r="C2403">
+        <v>115</v>
+      </c>
+      <c r="D2403">
+        <v>6.49</v>
+      </c>
+      <c r="E2403">
+        <v>5.5</v>
+      </c>
+      <c r="F2403">
+        <v>11</v>
+      </c>
+      <c r="I2403" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2404">
+        <v>1</v>
+      </c>
+      <c r="B2404">
+        <v>10</v>
+      </c>
+      <c r="C2404">
+        <v>116</v>
+      </c>
+      <c r="D2404">
+        <v>7.52</v>
+      </c>
+      <c r="E2404">
+        <v>6.5</v>
+      </c>
+      <c r="F2404">
+        <v>5</v>
+      </c>
+      <c r="I2404" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2405">
+        <v>1</v>
+      </c>
+      <c r="B2405">
+        <v>10</v>
+      </c>
+      <c r="C2405">
+        <v>117</v>
+      </c>
+      <c r="D2405">
+        <v>3.53</v>
+      </c>
+      <c r="E2405">
+        <v>3.3</v>
+      </c>
+      <c r="F2405">
+        <v>3</v>
+      </c>
+      <c r="I2405" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2406">
+        <v>1</v>
+      </c>
+      <c r="B2406">
+        <v>10</v>
+      </c>
+      <c r="C2406">
+        <v>118</v>
+      </c>
+      <c r="D2406">
+        <v>11.18</v>
+      </c>
+      <c r="E2406">
+        <v>14.5</v>
+      </c>
+      <c r="F2406">
+        <v>40</v>
+      </c>
+      <c r="I2406" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2407">
+        <v>1</v>
+      </c>
+      <c r="B2407">
+        <v>10</v>
+      </c>
+      <c r="C2407">
+        <v>119</v>
+      </c>
+      <c r="D2407">
+        <v>8.91</v>
+      </c>
+      <c r="E2407">
+        <v>12.5</v>
+      </c>
+      <c r="F2407">
+        <v>16</v>
+      </c>
+      <c r="I2407" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2408">
+        <v>1</v>
+      </c>
+      <c r="B2408">
+        <v>10</v>
+      </c>
+      <c r="C2408">
+        <v>120</v>
+      </c>
+      <c r="D2408">
+        <v>8.92</v>
+      </c>
+      <c r="E2408">
+        <v>8.5</v>
+      </c>
+      <c r="F2408">
+        <v>7</v>
+      </c>
+      <c r="I2408" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2409">
+        <v>1</v>
+      </c>
+      <c r="B2409">
+        <v>10</v>
+      </c>
+      <c r="C2409">
+        <v>121</v>
+      </c>
+      <c r="D2409">
+        <v>5.91</v>
+      </c>
+      <c r="E2409">
+        <v>9.5</v>
+      </c>
+      <c r="F2409">
+        <v>6</v>
+      </c>
+      <c r="I2409" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2410">
+        <v>1</v>
+      </c>
+      <c r="B2410">
+        <v>10</v>
+      </c>
+      <c r="C2410">
+        <v>122</v>
+      </c>
+      <c r="D2410">
+        <v>16.97</v>
+      </c>
+      <c r="E2410">
+        <v>21</v>
+      </c>
+      <c r="F2410">
+        <v>170</v>
+      </c>
+      <c r="I2410" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2411">
+        <v>1</v>
+      </c>
+      <c r="B2411">
+        <v>10</v>
+      </c>
+      <c r="C2411">
+        <v>123</v>
+      </c>
+      <c r="D2411">
+        <v>9.35</v>
+      </c>
+      <c r="E2411">
+        <v>12.5</v>
+      </c>
+      <c r="F2411">
+        <v>30</v>
+      </c>
+      <c r="I2411" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2412">
+        <v>1</v>
+      </c>
+      <c r="B2412">
+        <v>10</v>
+      </c>
+      <c r="C2412">
+        <v>124</v>
+      </c>
+      <c r="D2412">
+        <v>14.5</v>
+      </c>
+      <c r="E2412">
+        <v>17</v>
+      </c>
+      <c r="F2412">
+        <v>60</v>
+      </c>
+      <c r="I2412" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2413">
+        <v>1</v>
+      </c>
+      <c r="B2413">
+        <v>10</v>
+      </c>
+      <c r="C2413">
+        <v>125</v>
+      </c>
+      <c r="D2413">
+        <v>29.55</v>
+      </c>
+      <c r="E2413">
+        <v>26</v>
+      </c>
+      <c r="F2413">
+        <v>310</v>
+      </c>
+      <c r="I2413" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2414">
+        <v>1</v>
+      </c>
+      <c r="B2414">
+        <v>10</v>
+      </c>
+      <c r="C2414">
+        <v>126</v>
+      </c>
+      <c r="D2414">
+        <v>15.08</v>
+      </c>
+      <c r="E2414">
+        <v>14</v>
+      </c>
+      <c r="F2414">
+        <v>40</v>
+      </c>
+      <c r="I2414" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2415">
+        <v>1</v>
+      </c>
+      <c r="B2415">
+        <v>10</v>
+      </c>
+      <c r="C2415">
+        <v>127</v>
+      </c>
+      <c r="D2415">
+        <v>22.39</v>
+      </c>
+      <c r="E2415">
+        <v>19.5</v>
+      </c>
+      <c r="F2415">
+        <v>130</v>
+      </c>
+      <c r="I2415" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2416">
+        <v>1</v>
+      </c>
+      <c r="B2416">
+        <v>10</v>
+      </c>
+      <c r="C2416">
+        <v>128</v>
+      </c>
+      <c r="D2416">
+        <v>14.67</v>
+      </c>
+      <c r="E2416">
+        <v>16.5</v>
+      </c>
+      <c r="F2416">
+        <v>70</v>
+      </c>
+      <c r="I2416" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2417">
+        <v>1</v>
+      </c>
+      <c r="B2417">
+        <v>10</v>
+      </c>
+      <c r="C2417">
+        <v>129</v>
+      </c>
+      <c r="D2417">
+        <v>11.77</v>
+      </c>
+      <c r="E2417">
+        <v>18</v>
+      </c>
+      <c r="F2417">
+        <v>90</v>
+      </c>
+      <c r="I2417" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2418">
+        <v>1</v>
+      </c>
+      <c r="B2418">
+        <v>10</v>
+      </c>
+      <c r="C2418">
+        <v>130</v>
+      </c>
+      <c r="D2418">
+        <v>25.14</v>
+      </c>
+      <c r="E2418">
+        <v>22</v>
+      </c>
+      <c r="F2418">
+        <v>170</v>
+      </c>
+      <c r="I2418" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2419">
+        <v>1</v>
+      </c>
+      <c r="B2419">
+        <v>10</v>
+      </c>
+      <c r="C2419">
+        <v>131</v>
+      </c>
+      <c r="D2419">
+        <v>23.63</v>
+      </c>
+      <c r="E2419">
+        <v>27</v>
+      </c>
+      <c r="F2419">
+        <v>170</v>
+      </c>
+      <c r="I2419" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2420">
+        <v>1</v>
+      </c>
+      <c r="B2420">
+        <v>10</v>
+      </c>
+      <c r="C2420">
+        <v>132</v>
+      </c>
+      <c r="D2420">
+        <v>19.23</v>
+      </c>
+      <c r="E2420">
+        <v>19</v>
+      </c>
+      <c r="F2420">
+        <v>90</v>
+      </c>
+      <c r="I2420" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2421">
+        <v>1</v>
+      </c>
+      <c r="B2421">
+        <v>10</v>
+      </c>
+      <c r="C2421">
+        <v>133</v>
+      </c>
+      <c r="D2421">
+        <v>37.46</v>
+      </c>
+      <c r="E2421">
+        <v>33.5</v>
+      </c>
+      <c r="F2421">
+        <v>400</v>
+      </c>
+      <c r="I2421" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2422">
+        <v>1</v>
+      </c>
+      <c r="B2422">
+        <v>10</v>
+      </c>
+      <c r="C2422">
+        <v>134</v>
+      </c>
+      <c r="D2422">
+        <v>8.4</v>
+      </c>
+      <c r="E2422">
+        <v>8.5</v>
+      </c>
+      <c r="F2422">
+        <v>7</v>
+      </c>
+      <c r="I2422" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2423">
+        <v>1</v>
+      </c>
+      <c r="B2423">
+        <v>10</v>
+      </c>
+      <c r="C2423">
+        <v>135</v>
+      </c>
+      <c r="D2423">
+        <v>16.75</v>
+      </c>
+      <c r="E2423">
+        <v>17</v>
+      </c>
+      <c r="F2423">
+        <v>90</v>
+      </c>
+      <c r="I2423" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2424">
+        <v>1</v>
+      </c>
+      <c r="B2424">
+        <v>10</v>
+      </c>
+      <c r="C2424">
+        <v>136</v>
+      </c>
+      <c r="D2424">
+        <v>13.26</v>
+      </c>
+      <c r="E2424">
+        <v>16.5</v>
+      </c>
+      <c r="F2424">
+        <v>90</v>
+      </c>
+      <c r="I2424" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2425">
+        <v>1</v>
+      </c>
+      <c r="B2425">
+        <v>10</v>
+      </c>
+      <c r="C2425">
+        <v>137</v>
+      </c>
+      <c r="D2425">
+        <v>7.33</v>
+      </c>
+      <c r="E2425">
+        <v>12</v>
+      </c>
+      <c r="F2425">
+        <v>7</v>
+      </c>
+      <c r="I2425" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2426">
+        <v>1</v>
+      </c>
+      <c r="B2426">
+        <v>10</v>
+      </c>
+      <c r="C2426">
+        <v>138</v>
+      </c>
+      <c r="D2426">
+        <v>7.75</v>
+      </c>
+      <c r="E2426">
+        <v>7.5</v>
+      </c>
+      <c r="F2426">
+        <v>6</v>
+      </c>
+      <c r="I2426" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2427">
+        <v>1</v>
+      </c>
+      <c r="B2427">
+        <v>10</v>
+      </c>
+      <c r="C2427">
+        <v>139</v>
+      </c>
+      <c r="D2427">
+        <v>7.03</v>
+      </c>
+      <c r="E2427">
+        <v>9</v>
+      </c>
+      <c r="F2427">
+        <v>8</v>
+      </c>
+      <c r="I2427" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2428">
+        <v>1</v>
+      </c>
+      <c r="B2428">
+        <v>10</v>
+      </c>
+      <c r="C2428">
+        <v>140</v>
+      </c>
+      <c r="D2428">
+        <v>4.84</v>
+      </c>
+      <c r="E2428">
+        <v>5.5</v>
+      </c>
+      <c r="F2428">
+        <v>10</v>
+      </c>
+      <c r="I2428" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2429">
+        <v>1</v>
+      </c>
+      <c r="B2429">
+        <v>10</v>
+      </c>
+      <c r="C2429">
+        <v>141</v>
+      </c>
+      <c r="D2429">
+        <v>8.56</v>
+      </c>
+      <c r="E2429">
+        <v>10</v>
+      </c>
+      <c r="F2429">
+        <v>9</v>
+      </c>
+      <c r="I2429" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2430">
+        <v>1</v>
+      </c>
+      <c r="B2430">
+        <v>10</v>
+      </c>
+      <c r="C2430">
+        <v>142</v>
+      </c>
+      <c r="D2430">
+        <v>31.5</v>
+      </c>
+      <c r="E2430">
+        <v>23</v>
+      </c>
+      <c r="F2430">
+        <v>230</v>
+      </c>
+      <c r="I2430" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2431">
+        <v>1</v>
+      </c>
+      <c r="B2431">
+        <v>10</v>
+      </c>
+      <c r="C2431">
+        <v>143</v>
+      </c>
+      <c r="D2431">
+        <v>30.6</v>
+      </c>
+      <c r="E2431">
+        <v>107</v>
+      </c>
+      <c r="F2431">
+        <v>3050</v>
+      </c>
+      <c r="I2431" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2432">
+        <v>1</v>
+      </c>
+      <c r="B2432">
+        <v>10</v>
+      </c>
+      <c r="C2432">
+        <v>144</v>
+      </c>
+      <c r="D2432">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E2432">
+        <v>134</v>
+      </c>
+      <c r="F2432">
+        <v>5440</v>
+      </c>
+      <c r="I2432" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2433">
+        <v>1</v>
+      </c>
+      <c r="B2433">
+        <v>10</v>
+      </c>
+      <c r="C2433">
+        <v>145</v>
+      </c>
+      <c r="D2433">
+        <v>46.92</v>
+      </c>
+      <c r="E2433">
+        <v>39</v>
+      </c>
+      <c r="F2433">
+        <v>780</v>
+      </c>
+      <c r="I2433" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2434">
+        <v>1</v>
+      </c>
+      <c r="B2434">
+        <v>10</v>
+      </c>
+      <c r="C2434">
+        <v>146</v>
+      </c>
+      <c r="D2434">
+        <v>75.88</v>
+      </c>
+      <c r="E2434">
+        <v>75</v>
+      </c>
+      <c r="F2434">
+        <v>2360</v>
+      </c>
+      <c r="I2434" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2435">
+        <v>1</v>
+      </c>
+      <c r="B2435">
+        <v>10</v>
+      </c>
+      <c r="C2435">
+        <v>147</v>
+      </c>
+      <c r="D2435">
+        <v>36.159999999999997</v>
+      </c>
+      <c r="E2435">
+        <v>36</v>
+      </c>
+      <c r="F2435">
+        <v>640</v>
+      </c>
+      <c r="I2435" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2436">
+        <v>1</v>
+      </c>
+      <c r="B2436">
+        <v>10</v>
+      </c>
+      <c r="C2436">
+        <v>148</v>
+      </c>
+      <c r="D2436">
+        <v>48.91</v>
+      </c>
+      <c r="E2436">
+        <v>41</v>
+      </c>
+      <c r="F2436">
+        <v>900</v>
+      </c>
+      <c r="I2436" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2437">
+        <v>1</v>
+      </c>
+      <c r="B2437">
+        <v>10</v>
+      </c>
+      <c r="C2437">
+        <v>149</v>
+      </c>
+      <c r="D2437">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E2437">
+        <v>18</v>
+      </c>
+      <c r="F2437">
+        <v>80</v>
+      </c>
+      <c r="I2437" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2438">
+        <v>1</v>
+      </c>
+      <c r="B2438">
+        <v>10</v>
+      </c>
+      <c r="C2438">
+        <v>150</v>
+      </c>
+      <c r="D2438">
+        <v>6.93</v>
+      </c>
+      <c r="E2438">
+        <v>9</v>
+      </c>
+      <c r="F2438">
+        <v>8</v>
+      </c>
+      <c r="I2438" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2439">
+        <v>1</v>
+      </c>
+      <c r="B2439">
+        <v>10</v>
+      </c>
+      <c r="C2439">
+        <v>151</v>
+      </c>
+      <c r="D2439">
+        <v>13.14</v>
+      </c>
+      <c r="E2439">
+        <v>15</v>
+      </c>
+      <c r="F2439">
+        <v>29</v>
+      </c>
+      <c r="I2439" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2440">
+        <v>1</v>
+      </c>
+      <c r="B2440">
+        <v>10</v>
+      </c>
+      <c r="C2440">
+        <v>152</v>
+      </c>
+      <c r="D2440">
+        <v>21.4</v>
+      </c>
+      <c r="E2440">
+        <v>19</v>
+      </c>
+      <c r="F2440">
+        <v>100</v>
+      </c>
+      <c r="I2440" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2441">
+        <v>1</v>
+      </c>
+      <c r="B2441">
+        <v>10</v>
+      </c>
+      <c r="C2441">
+        <v>153</v>
+      </c>
+      <c r="D2441">
+        <v>11.27</v>
+      </c>
+      <c r="E2441">
+        <v>13.5</v>
+      </c>
+      <c r="F2441">
+        <v>28</v>
+      </c>
+      <c r="I2441" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2442">
+        <v>1</v>
+      </c>
+      <c r="B2442">
+        <v>10</v>
+      </c>
+      <c r="C2442">
+        <v>154</v>
+      </c>
+      <c r="D2442">
+        <v>44.78</v>
+      </c>
+      <c r="E2442">
+        <v>34</v>
+      </c>
+      <c r="F2442">
+        <v>630</v>
+      </c>
+      <c r="I2442" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2443">
+        <v>1</v>
+      </c>
+      <c r="B2443">
+        <v>10</v>
+      </c>
+      <c r="C2443">
+        <v>155</v>
+      </c>
+      <c r="D2443">
+        <v>55.13</v>
+      </c>
+      <c r="E2443">
+        <v>59</v>
+      </c>
+      <c r="F2443">
+        <v>1600</v>
+      </c>
+      <c r="I2443" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2444">
+        <v>1</v>
+      </c>
+      <c r="B2444">
+        <v>10</v>
+      </c>
+      <c r="C2444">
+        <v>156</v>
+      </c>
+      <c r="D2444">
+        <v>43.78</v>
+      </c>
+      <c r="E2444">
+        <v>44</v>
+      </c>
+      <c r="F2444">
+        <v>950</v>
+      </c>
+      <c r="I2444" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2445">
+        <v>1</v>
+      </c>
+      <c r="B2445">
+        <v>10</v>
+      </c>
+      <c r="C2445">
+        <v>157</v>
+      </c>
+      <c r="D2445">
+        <v>43.25</v>
+      </c>
+      <c r="E2445">
+        <v>43</v>
+      </c>
+      <c r="F2445">
+        <v>630</v>
+      </c>
+      <c r="I2445" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2446">
+        <v>1</v>
+      </c>
+      <c r="B2446">
+        <v>10</v>
+      </c>
+      <c r="C2446">
+        <v>158</v>
+      </c>
+      <c r="D2446">
+        <v>33.43</v>
+      </c>
+      <c r="E2446">
+        <v>32</v>
+      </c>
+      <c r="F2446">
+        <v>420</v>
+      </c>
+      <c r="I2446" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2447">
+        <v>1</v>
+      </c>
+      <c r="B2447">
+        <v>10</v>
+      </c>
+      <c r="C2447">
+        <v>159</v>
+      </c>
+      <c r="D2447">
+        <v>23.17</v>
+      </c>
+      <c r="E2447">
+        <v>17</v>
+      </c>
+      <c r="F2447">
+        <v>70</v>
+      </c>
+      <c r="I2447" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2448">
+        <v>1</v>
+      </c>
+      <c r="B2448">
+        <v>10</v>
+      </c>
+      <c r="C2448">
+        <v>160</v>
+      </c>
+      <c r="D2448">
+        <v>11.1</v>
+      </c>
+      <c r="E2448">
+        <v>15.5</v>
+      </c>
+      <c r="F2448">
+        <v>30</v>
+      </c>
+      <c r="I2448" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2449">
+        <v>1</v>
+      </c>
+      <c r="B2449">
+        <v>10</v>
+      </c>
+      <c r="C2449">
+        <v>161</v>
+      </c>
+      <c r="D2449">
+        <v>6.15</v>
+      </c>
+      <c r="E2449">
+        <v>8</v>
+      </c>
+      <c r="F2449">
+        <v>4</v>
+      </c>
+      <c r="I2449" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2450">
+        <v>1</v>
+      </c>
+      <c r="B2450">
+        <v>10</v>
+      </c>
+      <c r="C2450">
+        <v>162</v>
+      </c>
+      <c r="D2450">
+        <v>13.6</v>
+      </c>
+      <c r="E2450">
+        <v>13.5</v>
+      </c>
+      <c r="F2450">
+        <v>30</v>
+      </c>
+      <c r="I2450" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2451">
+        <v>1</v>
+      </c>
+      <c r="B2451">
+        <v>10</v>
+      </c>
+      <c r="C2451">
+        <v>163</v>
+      </c>
+      <c r="D2451">
+        <v>10.14</v>
+      </c>
+      <c r="E2451">
+        <v>14</v>
+      </c>
+      <c r="F2451">
+        <v>22</v>
+      </c>
+      <c r="I2451" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2452">
+        <v>1</v>
+      </c>
+      <c r="B2452">
+        <v>10</v>
+      </c>
+      <c r="C2452">
+        <v>164</v>
+      </c>
+      <c r="D2452">
+        <v>24.5</v>
+      </c>
+      <c r="E2452">
+        <v>24</v>
+      </c>
+      <c r="F2452">
+        <v>180</v>
+      </c>
+      <c r="I2452" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2453">
+        <v>1</v>
+      </c>
+      <c r="B2453">
+        <v>10</v>
+      </c>
+      <c r="C2453">
+        <v>165</v>
+      </c>
+      <c r="D2453">
+        <v>12.93</v>
+      </c>
+      <c r="E2453">
+        <v>15</v>
+      </c>
+      <c r="F2453">
+        <v>30</v>
+      </c>
+      <c r="I2453" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2454">
+        <v>1</v>
+      </c>
+      <c r="B2454">
+        <v>10</v>
+      </c>
+      <c r="C2454">
+        <v>166</v>
+      </c>
+      <c r="D2454">
+        <v>12.01</v>
+      </c>
+      <c r="E2454">
+        <v>10.5</v>
+      </c>
+      <c r="F2454">
+        <v>14</v>
+      </c>
+      <c r="I2454" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2455">
+        <v>1</v>
+      </c>
+      <c r="B2455">
+        <v>10</v>
+      </c>
+      <c r="C2455">
+        <v>167</v>
+      </c>
+      <c r="D2455">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="E2455">
+        <v>23.5</v>
+      </c>
+      <c r="F2455">
+        <v>150</v>
+      </c>
+      <c r="I2455" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2456">
+        <v>1</v>
+      </c>
+      <c r="B2456">
+        <v>10</v>
+      </c>
+      <c r="C2456">
+        <v>168</v>
+      </c>
+      <c r="D2456">
+        <v>16.61</v>
+      </c>
+      <c r="E2456">
+        <v>17</v>
+      </c>
+      <c r="F2456">
+        <v>60</v>
+      </c>
+      <c r="I2456" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2457">
+        <v>1</v>
+      </c>
+      <c r="B2457">
+        <v>10</v>
+      </c>
+      <c r="C2457">
+        <v>169</v>
+      </c>
+      <c r="D2457">
+        <v>6.51</v>
+      </c>
+      <c r="E2457">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F2457">
+        <v>7</v>
+      </c>
+      <c r="I2457" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2458">
+        <v>1</v>
+      </c>
+      <c r="B2458">
+        <v>9</v>
+      </c>
+      <c r="C2458">
+        <v>1</v>
+      </c>
+      <c r="D2458">
+        <v>24.28</v>
+      </c>
+      <c r="E2458">
+        <v>17</v>
+      </c>
+      <c r="F2458">
+        <v>90</v>
+      </c>
+      <c r="I2458" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2459">
+        <v>1</v>
+      </c>
+      <c r="B2459">
+        <v>9</v>
+      </c>
+      <c r="C2459">
+        <v>2</v>
+      </c>
+      <c r="D2459">
+        <v>22.52</v>
+      </c>
+      <c r="E2459">
+        <v>18</v>
+      </c>
+      <c r="F2459">
+        <v>140</v>
+      </c>
+      <c r="I2459" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2460">
+        <v>1</v>
+      </c>
+      <c r="B2460">
+        <v>9</v>
+      </c>
+      <c r="C2460">
+        <v>3</v>
+      </c>
+      <c r="D2460">
+        <v>31.72</v>
+      </c>
+      <c r="E2460">
+        <v>23.5</v>
+      </c>
+      <c r="F2460">
+        <v>240</v>
+      </c>
+      <c r="I2460" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2461">
+        <v>1</v>
+      </c>
+      <c r="B2461">
+        <v>9</v>
+      </c>
+      <c r="C2461">
+        <v>4</v>
+      </c>
+      <c r="D2461">
+        <v>13.94</v>
+      </c>
+      <c r="E2461">
+        <v>12</v>
+      </c>
+      <c r="F2461">
+        <v>24</v>
+      </c>
+      <c r="I2461" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2462">
+        <v>1</v>
+      </c>
+      <c r="B2462">
+        <v>9</v>
+      </c>
+      <c r="C2462">
+        <v>5</v>
+      </c>
+      <c r="D2462">
+        <v>19.61</v>
+      </c>
+      <c r="E2462">
+        <v>16.5</v>
+      </c>
+      <c r="F2462">
+        <v>60</v>
+      </c>
+      <c r="I2462" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2463">
+        <v>1</v>
+      </c>
+      <c r="B2463">
+        <v>9</v>
+      </c>
+      <c r="C2463">
+        <v>6</v>
+      </c>
+      <c r="D2463">
+        <v>12.68</v>
+      </c>
+      <c r="E2463">
+        <v>10.5</v>
+      </c>
+      <c r="F2463">
+        <v>24</v>
+      </c>
+      <c r="I2463" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2464">
+        <v>1</v>
+      </c>
+      <c r="B2464">
+        <v>9</v>
+      </c>
+      <c r="C2464">
+        <v>7</v>
+      </c>
+      <c r="D2464">
+        <v>8.64</v>
+      </c>
+      <c r="E2464">
+        <v>8.5</v>
+      </c>
+      <c r="F2464">
+        <v>10</v>
+      </c>
+      <c r="I2464" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2465">
+        <v>1</v>
+      </c>
+      <c r="B2465">
+        <v>9</v>
+      </c>
+      <c r="C2465">
+        <v>8</v>
+      </c>
+      <c r="D2465">
+        <v>14.25</v>
+      </c>
+      <c r="E2465">
+        <v>11.5</v>
+      </c>
+      <c r="F2465">
+        <v>30</v>
+      </c>
+      <c r="I2465" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2466">
+        <v>1</v>
+      </c>
+      <c r="B2466">
+        <v>9</v>
+      </c>
+      <c r="C2466">
+        <v>9</v>
+      </c>
+      <c r="D2466">
+        <v>11.38</v>
+      </c>
+      <c r="E2466">
+        <v>12</v>
+      </c>
+      <c r="F2466">
+        <v>22</v>
+      </c>
+      <c r="I2466" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2467">
+        <v>1</v>
+      </c>
+      <c r="B2467">
+        <v>9</v>
+      </c>
+      <c r="C2467">
+        <v>10</v>
+      </c>
+      <c r="D2467">
+        <v>31.73</v>
+      </c>
+      <c r="E2467">
+        <v>30</v>
+      </c>
+      <c r="F2467">
+        <v>240</v>
+      </c>
+      <c r="I2467" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2468">
+        <v>1</v>
+      </c>
+      <c r="B2468">
+        <v>9</v>
+      </c>
+      <c r="C2468">
+        <v>11</v>
+      </c>
+      <c r="D2468">
+        <v>13.72</v>
+      </c>
+      <c r="E2468">
+        <v>12.5</v>
+      </c>
+      <c r="F2468">
+        <v>30</v>
+      </c>
+      <c r="I2468" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2469">
+        <v>1</v>
+      </c>
+      <c r="B2469">
+        <v>9</v>
+      </c>
+      <c r="C2469">
+        <v>12</v>
+      </c>
+      <c r="D2469">
+        <v>15.85</v>
+      </c>
+      <c r="E2469">
+        <v>16.5</v>
+      </c>
+      <c r="F2469">
+        <v>70</v>
+      </c>
+      <c r="I2469" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2470">
+        <v>1</v>
+      </c>
+      <c r="B2470">
+        <v>9</v>
+      </c>
+      <c r="C2470">
+        <v>13</v>
+      </c>
+      <c r="D2470">
+        <v>10.65</v>
+      </c>
+      <c r="E2470">
+        <v>10</v>
+      </c>
+      <c r="F2470">
+        <v>12</v>
+      </c>
+      <c r="I2470" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2471">
+        <v>1</v>
+      </c>
+      <c r="B2471">
+        <v>9</v>
+      </c>
+      <c r="C2471">
+        <v>14</v>
+      </c>
+      <c r="D2471">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E2471">
+        <v>8.5</v>
+      </c>
+      <c r="F2471">
+        <v>11</v>
+      </c>
+      <c r="I2471" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2472">
+        <v>1</v>
+      </c>
+      <c r="B2472">
+        <v>9</v>
+      </c>
+      <c r="C2472">
+        <v>15</v>
+      </c>
+      <c r="D2472">
+        <v>19.38</v>
+      </c>
+      <c r="E2472">
+        <v>13</v>
+      </c>
+      <c r="F2472">
+        <v>40</v>
+      </c>
+      <c r="I2472" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2473">
+        <v>1</v>
+      </c>
+      <c r="B2473">
+        <v>9</v>
+      </c>
+      <c r="C2473">
+        <v>16</v>
+      </c>
+      <c r="D2473">
+        <v>11.88</v>
+      </c>
+      <c r="E2473">
+        <v>10.5</v>
+      </c>
+      <c r="F2473">
+        <v>30</v>
+      </c>
+      <c r="I2473" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2474">
+        <v>1</v>
+      </c>
+      <c r="B2474">
+        <v>9</v>
+      </c>
+      <c r="C2474">
+        <v>17</v>
+      </c>
+      <c r="D2474">
+        <v>7.85</v>
+      </c>
+      <c r="E2474">
+        <v>8</v>
+      </c>
+      <c r="F2474">
+        <v>6</v>
+      </c>
+      <c r="I2474" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2475">
+        <v>1</v>
+      </c>
+      <c r="B2475">
+        <v>9</v>
+      </c>
+      <c r="C2475">
+        <v>18</v>
+      </c>
+      <c r="D2475">
+        <v>15.51</v>
+      </c>
+      <c r="E2475">
+        <v>16.5</v>
+      </c>
+      <c r="F2475">
+        <v>60</v>
+      </c>
+      <c r="I2475" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2476">
+        <v>1</v>
+      </c>
+      <c r="B2476">
+        <v>9</v>
+      </c>
+      <c r="C2476">
+        <v>19</v>
+      </c>
+      <c r="D2476">
+        <v>12.05</v>
+      </c>
+      <c r="E2476">
+        <v>14</v>
+      </c>
+      <c r="F2476">
+        <v>40</v>
+      </c>
+      <c r="I2476" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2477">
+        <v>1</v>
+      </c>
+      <c r="B2477">
+        <v>9</v>
+      </c>
+      <c r="C2477">
+        <v>20</v>
+      </c>
+      <c r="D2477">
+        <v>15.04</v>
+      </c>
+      <c r="E2477">
+        <v>15.5</v>
+      </c>
+      <c r="F2477">
+        <v>40</v>
+      </c>
+      <c r="I2477" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2478">
+        <v>1</v>
+      </c>
+      <c r="B2478">
+        <v>9</v>
+      </c>
+      <c r="C2478">
+        <v>21</v>
+      </c>
+      <c r="D2478">
+        <v>24.04</v>
+      </c>
+      <c r="E2478">
+        <v>15</v>
+      </c>
+      <c r="F2478">
+        <v>60</v>
+      </c>
+      <c r="I2478" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2479">
+        <v>1</v>
+      </c>
+      <c r="B2479">
+        <v>9</v>
+      </c>
+      <c r="C2479">
+        <v>22</v>
+      </c>
+      <c r="D2479">
+        <v>14.58</v>
+      </c>
+      <c r="E2479">
+        <v>14</v>
+      </c>
+      <c r="F2479">
+        <v>70</v>
+      </c>
+      <c r="I2479" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2480">
+        <v>1</v>
+      </c>
+      <c r="B2480">
+        <v>9</v>
+      </c>
+      <c r="C2480">
+        <v>23</v>
+      </c>
+      <c r="D2480">
+        <v>14.24</v>
+      </c>
+      <c r="E2480">
+        <v>14</v>
+      </c>
+      <c r="F2480">
+        <v>40</v>
+      </c>
+      <c r="I2480" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2481">
+        <v>1</v>
+      </c>
+      <c r="B2481">
+        <v>9</v>
+      </c>
+      <c r="C2481">
+        <v>24</v>
+      </c>
+      <c r="D2481">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="E2481">
+        <v>38</v>
+      </c>
+      <c r="F2481">
+        <v>530</v>
+      </c>
+      <c r="I2481" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2482">
+        <v>1</v>
+      </c>
+      <c r="B2482">
+        <v>9</v>
+      </c>
+      <c r="C2482">
+        <v>25</v>
+      </c>
+      <c r="D2482">
+        <v>30.94</v>
+      </c>
+      <c r="E2482">
+        <v>31.5</v>
+      </c>
+      <c r="F2482">
+        <v>360</v>
+      </c>
+      <c r="I2482" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2483">
+        <v>1</v>
+      </c>
+      <c r="B2483">
+        <v>9</v>
+      </c>
+      <c r="C2483">
+        <v>26</v>
+      </c>
+      <c r="D2483">
+        <v>13.44</v>
+      </c>
+      <c r="E2483">
+        <v>11</v>
+      </c>
+      <c r="F2483">
+        <v>21</v>
+      </c>
+      <c r="I2483" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2484">
+        <v>1</v>
+      </c>
+      <c r="B2484">
+        <v>9</v>
+      </c>
+      <c r="C2484">
+        <v>27</v>
+      </c>
+      <c r="D2484">
+        <v>42.59</v>
+      </c>
+      <c r="E2484">
+        <v>40</v>
+      </c>
+      <c r="F2484">
+        <v>590</v>
+      </c>
+      <c r="I2484" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2485">
+        <v>1</v>
+      </c>
+      <c r="B2485">
+        <v>9</v>
+      </c>
+      <c r="C2485">
+        <v>28</v>
+      </c>
+      <c r="D2485">
+        <v>10.37</v>
+      </c>
+      <c r="E2485">
+        <v>13</v>
+      </c>
+      <c r="F2485">
+        <v>30</v>
+      </c>
+      <c r="I2485" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2486">
+        <v>1</v>
+      </c>
+      <c r="B2486">
+        <v>9</v>
+      </c>
+      <c r="C2486">
+        <v>29</v>
+      </c>
+      <c r="D2486">
+        <v>11.6</v>
+      </c>
+      <c r="E2486">
+        <v>12.5</v>
+      </c>
+      <c r="F2486">
+        <v>30</v>
+      </c>
+      <c r="I2486" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2487">
+        <v>1</v>
+      </c>
+      <c r="B2487">
+        <v>9</v>
+      </c>
+      <c r="C2487">
+        <v>30</v>
+      </c>
+      <c r="D2487">
+        <v>17.07</v>
+      </c>
+      <c r="E2487">
+        <v>17</v>
+      </c>
+      <c r="F2487">
+        <v>90</v>
+      </c>
+      <c r="I2487" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2488">
+        <v>1</v>
+      </c>
+      <c r="B2488">
+        <v>9</v>
+      </c>
+      <c r="C2488">
+        <v>31</v>
+      </c>
+      <c r="D2488">
+        <v>14.7</v>
+      </c>
+      <c r="E2488">
+        <v>12.5</v>
+      </c>
+      <c r="F2488">
+        <v>40</v>
+      </c>
+      <c r="I2488" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2489">
+        <v>1</v>
+      </c>
+      <c r="B2489">
+        <v>9</v>
+      </c>
+      <c r="C2489">
+        <v>32</v>
+      </c>
+      <c r="D2489">
+        <v>1301</v>
+      </c>
+      <c r="E2489">
+        <v>13.5</v>
+      </c>
+      <c r="F2489">
+        <v>30</v>
+      </c>
+      <c r="I2489" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2490">
+        <v>1</v>
+      </c>
+      <c r="B2490">
+        <v>9</v>
+      </c>
+      <c r="C2490">
+        <v>33</v>
+      </c>
+      <c r="D2490">
+        <v>14.51</v>
+      </c>
+      <c r="E2490">
+        <v>16</v>
+      </c>
+      <c r="F2490">
+        <v>30</v>
+      </c>
+      <c r="I2490" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2491">
+        <v>1</v>
+      </c>
+      <c r="B2491">
+        <v>9</v>
+      </c>
+      <c r="C2491">
+        <v>34</v>
+      </c>
+      <c r="D2491">
+        <v>16.34</v>
+      </c>
+      <c r="E2491">
+        <v>17</v>
+      </c>
+      <c r="F2491">
+        <v>70</v>
+      </c>
+      <c r="I2491" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2492">
+        <v>1</v>
+      </c>
+      <c r="B2492">
+        <v>9</v>
+      </c>
+      <c r="C2492">
+        <v>35</v>
+      </c>
+      <c r="D2492">
+        <v>7.51</v>
+      </c>
+      <c r="E2492">
+        <v>10</v>
+      </c>
+      <c r="F2492">
+        <v>9</v>
+      </c>
+      <c r="I2492" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2493">
+        <v>1</v>
+      </c>
+      <c r="B2493">
+        <v>9</v>
+      </c>
+      <c r="C2493">
+        <v>36</v>
+      </c>
+      <c r="D2493">
+        <v>14.54</v>
+      </c>
+      <c r="E2493">
+        <v>9.5</v>
+      </c>
+      <c r="F2493">
+        <v>23</v>
+      </c>
+      <c r="I2493" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2494">
+        <v>1</v>
+      </c>
+      <c r="B2494">
+        <v>9</v>
+      </c>
+      <c r="C2494">
+        <v>37</v>
+      </c>
+      <c r="D2494">
+        <v>7.18</v>
+      </c>
+      <c r="E2494">
+        <v>10.5</v>
+      </c>
+      <c r="F2494">
+        <v>11</v>
+      </c>
+      <c r="I2494" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2495">
+        <v>1</v>
+      </c>
+      <c r="B2495">
+        <v>9</v>
+      </c>
+      <c r="C2495">
+        <v>38</v>
+      </c>
+      <c r="D2495">
+        <v>21.21</v>
+      </c>
+      <c r="E2495">
+        <v>17.5</v>
+      </c>
+      <c r="F2495">
+        <v>90</v>
+      </c>
+      <c r="I2495" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2496">
+        <v>1</v>
+      </c>
+      <c r="B2496">
+        <v>9</v>
+      </c>
+      <c r="C2496">
+        <v>39</v>
+      </c>
+      <c r="D2496">
+        <v>12.28</v>
+      </c>
+      <c r="E2496">
+        <v>14.1</v>
+      </c>
+      <c r="F2496">
+        <v>40</v>
+      </c>
+      <c r="I2496" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2497">
+        <v>1</v>
+      </c>
+      <c r="B2497">
+        <v>9</v>
+      </c>
+      <c r="C2497">
+        <v>40</v>
+      </c>
+      <c r="D2497">
+        <v>8.89</v>
+      </c>
+      <c r="E2497">
+        <v>12</v>
+      </c>
+      <c r="F2497">
+        <v>15</v>
+      </c>
+      <c r="I2497" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2498">
+        <v>1</v>
+      </c>
+      <c r="B2498">
+        <v>9</v>
+      </c>
+      <c r="C2498">
+        <v>41</v>
+      </c>
+      <c r="D2498">
+        <v>21.92</v>
+      </c>
+      <c r="E2498">
+        <v>20</v>
+      </c>
+      <c r="F2498">
+        <v>140</v>
+      </c>
+      <c r="I2498" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2499">
+        <v>1</v>
+      </c>
+      <c r="B2499">
+        <v>9</v>
+      </c>
+      <c r="C2499">
+        <v>42</v>
+      </c>
+      <c r="D2499">
+        <v>8.58</v>
+      </c>
+      <c r="E2499">
+        <v>9.5</v>
+      </c>
+      <c r="F2499">
+        <v>15</v>
+      </c>
+      <c r="I2499" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2500">
+        <v>1</v>
+      </c>
+      <c r="B2500">
+        <v>9</v>
+      </c>
+      <c r="C2500">
+        <v>43</v>
+      </c>
+      <c r="D2500">
+        <v>38.03</v>
+      </c>
+      <c r="E2500">
+        <v>43</v>
+      </c>
+      <c r="F2500">
+        <v>930</v>
+      </c>
+      <c r="I2500" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2501">
+        <v>1</v>
+      </c>
+      <c r="B2501">
+        <v>9</v>
+      </c>
+      <c r="C2501">
+        <v>44</v>
+      </c>
+      <c r="D2501">
+        <v>70.11</v>
+      </c>
+      <c r="E2501">
+        <v>112</v>
+      </c>
+      <c r="F2501">
+        <v>3330</v>
+      </c>
+      <c r="I2501" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2502">
+        <v>1</v>
+      </c>
+      <c r="B2502">
+        <v>9</v>
+      </c>
+      <c r="C2502">
+        <v>45</v>
+      </c>
+      <c r="D2502">
+        <v>51.42</v>
+      </c>
+      <c r="E2502">
+        <v>62</v>
+      </c>
+      <c r="F2502">
+        <v>1740</v>
+      </c>
+      <c r="I2502" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2503">
+        <v>1</v>
+      </c>
+      <c r="B2503">
+        <v>9</v>
+      </c>
+      <c r="C2503">
+        <v>46</v>
+      </c>
+      <c r="D2503">
+        <v>85.26</v>
+      </c>
+      <c r="E2503">
+        <v>152</v>
+      </c>
+      <c r="F2503">
+        <v>5610</v>
+      </c>
+      <c r="I2503" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2504">
+        <v>1</v>
+      </c>
+      <c r="B2504">
+        <v>9</v>
+      </c>
+      <c r="C2504">
+        <v>47</v>
+      </c>
+      <c r="D2504">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="E2504">
+        <v>40</v>
+      </c>
+      <c r="F2504">
+        <v>650</v>
+      </c>
+      <c r="I2504" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2505">
+        <v>1</v>
+      </c>
+      <c r="B2505">
+        <v>9</v>
+      </c>
+      <c r="C2505">
+        <v>48</v>
+      </c>
+      <c r="D2505">
+        <v>6.7</v>
+      </c>
+      <c r="E2505">
+        <v>11</v>
+      </c>
+      <c r="F2505">
+        <v>17</v>
+      </c>
+      <c r="I2505" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2506">
+        <v>1</v>
+      </c>
+      <c r="B2506">
+        <v>9</v>
+      </c>
+      <c r="C2506">
+        <v>49</v>
+      </c>
+      <c r="D2506">
+        <v>10.87</v>
+      </c>
+      <c r="E2506">
+        <v>12</v>
+      </c>
+      <c r="F2506">
+        <v>18</v>
+      </c>
+      <c r="I2506" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2507">
+        <v>1</v>
+      </c>
+      <c r="B2507">
+        <v>9</v>
+      </c>
+      <c r="C2507">
+        <v>50</v>
+      </c>
+      <c r="D2507">
+        <v>10.32</v>
+      </c>
+      <c r="E2507">
+        <v>12.5</v>
+      </c>
+      <c r="F2507">
+        <v>20</v>
+      </c>
+      <c r="I2507" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2508">
+        <v>1</v>
+      </c>
+      <c r="B2508">
+        <v>9</v>
+      </c>
+      <c r="C2508">
+        <v>51</v>
+      </c>
+      <c r="D2508">
+        <v>13.1</v>
+      </c>
+      <c r="E2508">
+        <v>13</v>
+      </c>
+      <c r="F2508">
+        <v>25</v>
+      </c>
+      <c r="I2508" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2509">
+        <v>1</v>
+      </c>
+      <c r="B2509">
+        <v>9</v>
+      </c>
+      <c r="C2509">
+        <v>52</v>
+      </c>
+      <c r="D2509">
+        <v>10.32</v>
+      </c>
+      <c r="E2509">
+        <v>7</v>
+      </c>
+      <c r="F2509">
+        <v>8</v>
+      </c>
+      <c r="I2509" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2510">
+        <v>1</v>
+      </c>
+      <c r="B2510">
+        <v>9</v>
+      </c>
+      <c r="C2510">
+        <v>53</v>
+      </c>
+      <c r="D2510">
+        <v>11</v>
+      </c>
+      <c r="E2510">
+        <v>12.5</v>
+      </c>
+      <c r="F2510">
+        <v>25</v>
+      </c>
+      <c r="I2510" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2511">
+        <v>1</v>
+      </c>
+      <c r="B2511">
+        <v>9</v>
+      </c>
+      <c r="C2511">
+        <v>54</v>
+      </c>
+      <c r="D2511">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="E2511">
+        <v>11</v>
+      </c>
+      <c r="F2511">
+        <v>17</v>
+      </c>
+      <c r="I2511" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2512">
+        <v>1</v>
+      </c>
+      <c r="B2512">
+        <v>9</v>
+      </c>
+      <c r="C2512">
+        <v>55</v>
+      </c>
+      <c r="D2512">
+        <v>11.6</v>
+      </c>
+      <c r="E2512">
+        <v>13</v>
+      </c>
+      <c r="F2512">
+        <v>18</v>
+      </c>
+      <c r="I2512" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2513">
+        <v>1</v>
+      </c>
+      <c r="B2513">
+        <v>9</v>
+      </c>
+      <c r="C2513">
+        <v>56</v>
+      </c>
+      <c r="D2513">
+        <v>11.03</v>
+      </c>
+      <c r="E2513">
+        <v>10</v>
+      </c>
+      <c r="F2513">
+        <v>13</v>
+      </c>
+      <c r="I2513" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2514">
+        <v>1</v>
+      </c>
+      <c r="B2514">
+        <v>9</v>
+      </c>
+      <c r="C2514">
+        <v>57</v>
+      </c>
+      <c r="D2514">
+        <v>6.99</v>
+      </c>
+      <c r="E2514">
+        <v>8</v>
+      </c>
+      <c r="F2514">
+        <v>7</v>
+      </c>
+      <c r="I2514" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2515">
+        <v>1</v>
+      </c>
+      <c r="B2515">
+        <v>9</v>
+      </c>
+      <c r="C2515">
+        <v>58</v>
+      </c>
+      <c r="D2515">
+        <v>17.52</v>
+      </c>
+      <c r="E2515">
+        <v>18</v>
+      </c>
+      <c r="F2515">
+        <v>50</v>
+      </c>
+      <c r="I2515" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2516">
+        <v>1</v>
+      </c>
+      <c r="B2516">
+        <v>9</v>
+      </c>
+      <c r="C2516">
+        <v>59</v>
+      </c>
+      <c r="D2516">
+        <v>45.98</v>
+      </c>
+      <c r="E2516">
+        <v>34</v>
+      </c>
+      <c r="F2516">
+        <v>320</v>
+      </c>
+      <c r="I2516" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2517">
+        <v>1</v>
+      </c>
+      <c r="B2517">
+        <v>9</v>
+      </c>
+      <c r="C2517">
+        <v>60</v>
+      </c>
+      <c r="D2517">
+        <v>49</v>
+      </c>
+      <c r="E2517">
+        <v>56</v>
+      </c>
+      <c r="F2517">
+        <v>1300</v>
+      </c>
+      <c r="I2517" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2518">
+        <v>1</v>
+      </c>
+      <c r="B2518">
+        <v>9</v>
+      </c>
+      <c r="C2518">
+        <v>61</v>
+      </c>
+      <c r="D2518">
+        <v>8.39</v>
+      </c>
+      <c r="E2518">
+        <v>9.5</v>
+      </c>
+      <c r="F2518">
+        <v>9</v>
+      </c>
+      <c r="I2518" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2519">
+        <v>1</v>
+      </c>
+      <c r="B2519">
+        <v>9</v>
+      </c>
+      <c r="C2519">
+        <v>62</v>
+      </c>
+      <c r="D2519">
+        <v>15.85</v>
+      </c>
+      <c r="E2519">
+        <v>15.5</v>
+      </c>
+      <c r="F2519">
+        <v>40</v>
+      </c>
+      <c r="I2519" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2520">
+        <v>1</v>
+      </c>
+      <c r="B2520">
+        <v>9</v>
+      </c>
+      <c r="C2520">
+        <v>63</v>
+      </c>
+      <c r="D2520">
+        <v>19.88</v>
+      </c>
+      <c r="E2520">
+        <v>17</v>
+      </c>
+      <c r="F2520">
+        <v>50</v>
+      </c>
+      <c r="I2520" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2521">
+        <v>1</v>
+      </c>
+      <c r="B2521">
+        <v>9</v>
+      </c>
+      <c r="C2521">
+        <v>64</v>
+      </c>
+      <c r="D2521">
+        <v>17.2</v>
+      </c>
+      <c r="E2521">
+        <v>16.5</v>
+      </c>
+      <c r="F2521">
+        <v>50</v>
+      </c>
+      <c r="I2521" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2522">
+        <v>1</v>
+      </c>
+      <c r="B2522">
+        <v>9</v>
+      </c>
+      <c r="C2522">
+        <v>65</v>
+      </c>
+      <c r="D2522">
+        <v>13.17</v>
+      </c>
+      <c r="E2522">
+        <v>12.5</v>
+      </c>
+      <c r="F2522">
+        <v>40</v>
+      </c>
+      <c r="I2522" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2523">
+        <v>1</v>
+      </c>
+      <c r="B2523">
+        <v>9</v>
+      </c>
+      <c r="C2523">
+        <v>66</v>
+      </c>
+      <c r="D2523">
+        <v>13.02</v>
+      </c>
+      <c r="E2523">
+        <v>12.5</v>
+      </c>
+      <c r="F2523">
+        <v>50</v>
+      </c>
+      <c r="I2523" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2524">
+        <v>1</v>
+      </c>
+      <c r="B2524">
+        <v>9</v>
+      </c>
+      <c r="C2524">
+        <v>67</v>
+      </c>
+      <c r="D2524">
+        <v>15.4</v>
+      </c>
+      <c r="E2524">
+        <v>13</v>
+      </c>
+      <c r="F2524">
+        <v>40</v>
+      </c>
+      <c r="I2524" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2525">
+        <v>1</v>
+      </c>
+      <c r="B2525">
+        <v>9</v>
+      </c>
+      <c r="C2525">
+        <v>68</v>
+      </c>
+      <c r="D2525">
+        <v>27.03</v>
+      </c>
+      <c r="E2525">
+        <v>22</v>
+      </c>
+      <c r="F2525">
+        <v>130</v>
+      </c>
+      <c r="I2525" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2526">
+        <v>1</v>
+      </c>
+      <c r="B2526">
+        <v>9</v>
+      </c>
+      <c r="C2526">
+        <v>69</v>
+      </c>
+      <c r="D2526">
+        <v>9.5</v>
+      </c>
+      <c r="E2526">
+        <v>10</v>
+      </c>
+      <c r="F2526">
+        <v>15</v>
+      </c>
+      <c r="I2526" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2527">
+        <v>1</v>
+      </c>
+      <c r="B2527">
+        <v>9</v>
+      </c>
+      <c r="C2527">
+        <v>70</v>
+      </c>
+      <c r="D2527">
+        <v>8.11</v>
+      </c>
+      <c r="E2527">
+        <v>10</v>
+      </c>
+      <c r="F2527">
+        <v>9</v>
+      </c>
+      <c r="I2527" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2528">
+        <v>1</v>
+      </c>
+      <c r="B2528">
+        <v>9</v>
+      </c>
+      <c r="C2528">
+        <v>71</v>
+      </c>
+      <c r="D2528">
+        <v>29.07</v>
+      </c>
+      <c r="E2528">
+        <v>19</v>
+      </c>
+      <c r="F2528">
+        <v>60</v>
+      </c>
+      <c r="I2528" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2529">
+        <v>1</v>
+      </c>
+      <c r="B2529">
+        <v>9</v>
+      </c>
+      <c r="C2529">
+        <v>72</v>
+      </c>
+      <c r="D2529">
+        <v>34.29</v>
+      </c>
+      <c r="E2529">
+        <v>27</v>
+      </c>
+      <c r="F2529">
+        <v>300</v>
+      </c>
+      <c r="I2529" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2530">
+        <v>1</v>
+      </c>
+      <c r="B2530">
+        <v>9</v>
+      </c>
+      <c r="C2530">
+        <v>73</v>
+      </c>
+      <c r="D2530">
+        <v>20.12</v>
+      </c>
+      <c r="E2530">
+        <v>13</v>
+      </c>
+      <c r="F2530">
+        <v>40</v>
+      </c>
+      <c r="I2530" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2531">
+        <v>1</v>
+      </c>
+      <c r="B2531">
+        <v>9</v>
+      </c>
+      <c r="C2531">
+        <v>74</v>
+      </c>
+      <c r="D2531">
+        <v>12.3</v>
+      </c>
+      <c r="E2531">
+        <v>10.5</v>
+      </c>
+      <c r="F2531">
+        <v>23</v>
+      </c>
+      <c r="I2531" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2532">
+        <v>1</v>
+      </c>
+      <c r="B2532">
+        <v>9</v>
+      </c>
+      <c r="C2532">
+        <v>75</v>
+      </c>
+      <c r="D2532">
+        <v>17.45</v>
+      </c>
+      <c r="E2532">
+        <v>16</v>
+      </c>
+      <c r="F2532">
+        <v>50</v>
+      </c>
+      <c r="I2532" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2533">
+        <v>1</v>
+      </c>
+      <c r="B2533">
+        <v>9</v>
+      </c>
+      <c r="C2533">
+        <v>76</v>
+      </c>
+      <c r="D2533">
+        <v>34.86</v>
+      </c>
+      <c r="E2533">
+        <v>30</v>
+      </c>
+      <c r="F2533">
+        <v>320</v>
+      </c>
+      <c r="I2533" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2534">
+        <v>1</v>
+      </c>
+      <c r="B2534">
+        <v>9</v>
+      </c>
+      <c r="C2534">
+        <v>77</v>
+      </c>
+      <c r="D2534">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E2534">
+        <v>10.5</v>
+      </c>
+      <c r="F2534">
+        <v>11</v>
+      </c>
+      <c r="I2534" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2535">
+        <v>1</v>
+      </c>
+      <c r="B2535">
+        <v>9</v>
+      </c>
+      <c r="C2535">
+        <v>78</v>
+      </c>
+      <c r="D2535">
+        <v>10.5</v>
+      </c>
+      <c r="E2535">
+        <v>12</v>
+      </c>
+      <c r="F2535">
+        <v>27</v>
+      </c>
+      <c r="I2535" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2536">
+        <v>1</v>
+      </c>
+      <c r="B2536">
+        <v>9</v>
+      </c>
+      <c r="C2536">
+        <v>79</v>
+      </c>
+      <c r="D2536">
+        <v>10.92</v>
+      </c>
+      <c r="E2536">
+        <v>11</v>
+      </c>
+      <c r="F2536">
+        <v>18</v>
+      </c>
+      <c r="I2536" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2537">
+        <v>1</v>
+      </c>
+      <c r="B2537">
+        <v>9</v>
+      </c>
+      <c r="C2537">
+        <v>80</v>
+      </c>
+      <c r="D2537">
+        <v>53.78</v>
+      </c>
+      <c r="E2537">
+        <v>58</v>
+      </c>
+      <c r="F2537">
+        <v>1060</v>
+      </c>
+      <c r="I2537" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2538">
+        <v>1</v>
+      </c>
+      <c r="B2538">
+        <v>9</v>
+      </c>
+      <c r="C2538">
+        <v>81</v>
+      </c>
+      <c r="D2538">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="E2538">
+        <v>18</v>
+      </c>
+      <c r="F2538">
+        <v>140</v>
+      </c>
+      <c r="I2538" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2539">
+        <v>1</v>
+      </c>
+      <c r="B2539">
+        <v>9</v>
+      </c>
+      <c r="C2539">
+        <v>82</v>
+      </c>
+      <c r="D2539">
+        <v>6.3</v>
+      </c>
+      <c r="E2539">
+        <v>6.5</v>
+      </c>
+      <c r="F2539">
+        <v>3</v>
+      </c>
+      <c r="I2539" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/biomass_data_matinha_USP.xlsx
+++ b/biomass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2F683-0047-4B68-A05D-77698850FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F39C5E-58F8-4151-B205-DD7F52D88756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$2288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$2539</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -502,8 +502,8 @@
   <dimension ref="A1:J2539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2507" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2542" sqref="B2542"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B114" sqref="A1:J2539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C113">
         <v>1</v>
       </c>
       <c r="D113">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E113">
         <v>14</v>
@@ -3223,13 +3223,13 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="E114">
         <v>16</v>
@@ -3253,7 +3253,7 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -3283,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C119">
         <v>7</v>
@@ -3396,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C120">
         <v>8</v>
@@ -3419,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -3442,7 +3442,7 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C122">
         <v>10</v>
@@ -3472,7 +3472,7 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -3495,7 +3495,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C124">
         <v>12</v>
@@ -3518,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C125">
         <v>14</v>
@@ -3541,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="B126">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C126">
         <v>14</v>
@@ -3564,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="B127">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C127">
         <v>15</v>
@@ -3587,7 +3587,7 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C128">
         <v>16</v>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="B129">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C129">
         <v>17</v>
@@ -3633,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="B130">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C130">
         <v>18</v>
@@ -3656,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="B131">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C131">
         <v>19</v>
@@ -3679,7 +3679,7 @@
         <v>4</v>
       </c>
       <c r="B132">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C132">
         <v>20</v>
@@ -3702,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="B133">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C133">
         <v>21</v>
@@ -3725,7 +3725,7 @@
         <v>4</v>
       </c>
       <c r="B134">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C134">
         <v>22</v>
@@ -3748,7 +3748,7 @@
         <v>4</v>
       </c>
       <c r="B135">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C135">
         <v>24</v>
@@ -3771,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="B136">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C136">
         <v>24</v>
@@ -3794,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="B137">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C137">
         <v>25</v>
@@ -3817,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="B138">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C138">
         <v>26</v>
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="B139">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C139">
         <v>27</v>
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="B140">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C140">
         <v>28</v>
@@ -3886,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="B141">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C141">
         <v>29</v>
@@ -3909,7 +3909,7 @@
         <v>4</v>
       </c>
       <c r="B142">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C142">
         <v>40</v>
@@ -3932,7 +3932,7 @@
         <v>4</v>
       </c>
       <c r="B143">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C143">
         <v>41</v>
@@ -3955,7 +3955,7 @@
         <v>4</v>
       </c>
       <c r="B144">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C144">
         <v>42</v>
@@ -3978,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="B145">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C145">
         <v>44</v>
@@ -4001,7 +4001,7 @@
         <v>4</v>
       </c>
       <c r="B146">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C146">
         <v>44</v>
@@ -4024,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="B147">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C147">
         <v>45</v>
@@ -4047,7 +4047,7 @@
         <v>4</v>
       </c>
       <c r="B148">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C148">
         <v>46</v>
@@ -4070,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="B149">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C149">
         <v>47</v>
@@ -4093,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="B150">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C150">
         <v>48</v>
@@ -4116,10 +4116,10 @@
         <v>4</v>
       </c>
       <c r="B151">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C151">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D151">
         <v>20</v>
@@ -4139,7 +4139,7 @@
         <v>4</v>
       </c>
       <c r="B152">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C152">
         <v>40</v>
@@ -4169,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="B153">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C153">
         <v>41</v>
@@ -4192,7 +4192,7 @@
         <v>4</v>
       </c>
       <c r="B154">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C154">
         <v>42</v>
@@ -4215,7 +4215,7 @@
         <v>4</v>
       </c>
       <c r="B155">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C155">
         <v>44</v>
@@ -4238,7 +4238,7 @@
         <v>4</v>
       </c>
       <c r="B156">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C156">
         <v>44</v>
@@ -4268,7 +4268,7 @@
         <v>4</v>
       </c>
       <c r="B157">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C157">
         <v>45</v>
@@ -4291,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="B158">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C158">
         <v>46</v>
@@ -4314,7 +4314,7 @@
         <v>4</v>
       </c>
       <c r="B159">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C159">
         <v>47</v>
@@ -4337,7 +4337,7 @@
         <v>4</v>
       </c>
       <c r="B160">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C160">
         <v>48</v>
@@ -4360,10 +4360,10 @@
         <v>4</v>
       </c>
       <c r="B161">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C161">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D161">
         <v>7.5</v>
@@ -4383,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="B162">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C162">
         <v>50</v>
@@ -4406,7 +4406,7 @@
         <v>4</v>
       </c>
       <c r="B163">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C163">
         <v>51</v>
@@ -4429,7 +4429,7 @@
         <v>4</v>
       </c>
       <c r="B164">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C164">
         <v>52</v>
@@ -4452,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="B165">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C165">
         <v>54</v>
@@ -4475,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="B166">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C166">
         <v>54</v>
@@ -4498,7 +4498,7 @@
         <v>4</v>
       </c>
       <c r="B167">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C167">
         <v>55</v>
@@ -4521,7 +4521,7 @@
         <v>4</v>
       </c>
       <c r="B168">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C168">
         <v>56</v>
@@ -4544,7 +4544,7 @@
         <v>4</v>
       </c>
       <c r="B169">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C169">
         <v>57</v>
@@ -4567,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="B170">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C170">
         <v>58</v>
@@ -4590,7 +4590,7 @@
         <v>4</v>
       </c>
       <c r="B171">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C171">
         <v>59</v>
@@ -4613,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B172">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C172">
         <v>60</v>
@@ -4636,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="B173">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C173">
         <v>61</v>
@@ -4659,7 +4659,7 @@
         <v>4</v>
       </c>
       <c r="B174">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C174">
         <v>62</v>
@@ -4682,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="B175">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C175">
         <v>64</v>
@@ -4705,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="B176">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C176">
         <v>64</v>
@@ -4728,7 +4728,7 @@
         <v>4</v>
       </c>
       <c r="B177">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C177">
         <v>65</v>
@@ -4751,7 +4751,7 @@
         <v>4</v>
       </c>
       <c r="B178">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C178">
         <v>66</v>
@@ -4774,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="B179">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C179">
         <v>67</v>
@@ -4797,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="B180">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C180">
         <v>68</v>
@@ -4820,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="B181">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C181">
         <v>69</v>
@@ -4843,7 +4843,7 @@
         <v>4</v>
       </c>
       <c r="B182">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C182">
         <v>70</v>
@@ -4866,7 +4866,7 @@
         <v>4</v>
       </c>
       <c r="B183">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C183">
         <v>71</v>
@@ -4889,7 +4889,7 @@
         <v>4</v>
       </c>
       <c r="B184">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C184">
         <v>72</v>
@@ -4912,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="B185">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C185">
         <v>74</v>
@@ -4935,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="B186">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C186">
         <v>74</v>
@@ -4958,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="B187">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C187">
         <v>75</v>
@@ -4981,7 +4981,7 @@
         <v>4</v>
       </c>
       <c r="B188">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C188">
         <v>76</v>
@@ -5004,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="B189">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C189">
         <v>77</v>
@@ -5027,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="B190">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C190">
         <v>78</v>
@@ -5050,7 +5050,7 @@
         <v>4</v>
       </c>
       <c r="B191">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C191">
         <v>79</v>
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="B192">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C192">
         <v>80</v>
@@ -5096,7 +5096,7 @@
         <v>4</v>
       </c>
       <c r="B193">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C193">
         <v>81</v>
@@ -5119,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C194">
         <v>82</v>
@@ -5142,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="B195">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C195">
         <v>84</v>
@@ -5165,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B196">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C196">
         <v>84</v>
@@ -5188,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="B197">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C197">
         <v>85</v>
@@ -5211,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="B198">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C198">
         <v>86</v>
@@ -5234,7 +5234,7 @@
         <v>4</v>
       </c>
       <c r="B199">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C199">
         <v>87</v>
@@ -5257,7 +5257,7 @@
         <v>4</v>
       </c>
       <c r="B200">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C200">
         <v>88</v>
@@ -5280,7 +5280,7 @@
         <v>4</v>
       </c>
       <c r="B201">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C201">
         <v>89</v>
@@ -5303,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="B202">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C202">
         <v>90</v>
@@ -5326,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="B203">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C203">
         <v>91</v>
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="B204">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C204">
         <v>92</v>
@@ -5372,7 +5372,7 @@
         <v>4</v>
       </c>
       <c r="B205">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C205">
         <v>94</v>
@@ -5395,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="B206">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C206">
         <v>94</v>
@@ -5418,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="B207">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C207">
         <v>95</v>
@@ -5441,13 +5441,13 @@
         <v>4</v>
       </c>
       <c r="B208">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C208">
         <v>96</v>
       </c>
       <c r="D208">
-        <v>49.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E208">
         <v>44</v>
@@ -5464,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="B209">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C209">
         <v>97</v>
@@ -5487,7 +5487,7 @@
         <v>4</v>
       </c>
       <c r="B210">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C210">
         <v>98</v>
@@ -5510,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="B211">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C211">
         <v>99</v>
@@ -5533,7 +5533,7 @@
         <v>4</v>
       </c>
       <c r="B212">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C212">
         <v>100</v>
@@ -5556,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="B213">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C213">
         <v>101</v>
@@ -5579,7 +5579,7 @@
         <v>4</v>
       </c>
       <c r="B214">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C214">
         <v>102</v>
@@ -5602,7 +5602,7 @@
         <v>4</v>
       </c>
       <c r="B215">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C215">
         <v>104</v>
@@ -5625,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="B216">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C216">
         <v>104</v>
@@ -5648,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="B217">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C217">
         <v>105</v>
@@ -5671,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="B218">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C218">
         <v>106</v>
@@ -5694,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="B219">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C219">
         <v>107</v>
@@ -5717,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="B220">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C220">
         <v>108</v>
@@ -5740,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="B221">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C221">
         <v>109</v>
@@ -5763,7 +5763,7 @@
         <v>4</v>
       </c>
       <c r="B222">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C222">
         <v>120</v>
@@ -5786,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="B223">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C223">
         <v>121</v>
@@ -5809,7 +5809,7 @@
         <v>4</v>
       </c>
       <c r="B224">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C224">
         <v>122</v>
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="B225">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C225">
         <v>124</v>
@@ -5855,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="B226">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C226">
         <v>124</v>
@@ -5878,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="B227">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C227">
         <v>125</v>
@@ -5901,7 +5901,7 @@
         <v>4</v>
       </c>
       <c r="B228">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C228">
         <v>126</v>
@@ -5924,7 +5924,7 @@
         <v>4</v>
       </c>
       <c r="B229">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C229">
         <v>127</v>
@@ -5947,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B230">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C230">
         <v>128</v>
@@ -5970,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="B231">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C231">
         <v>129</v>
@@ -5993,7 +5993,7 @@
         <v>4</v>
       </c>
       <c r="B232">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C232">
         <v>140</v>
@@ -6016,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="B233">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C233">
         <v>141</v>
@@ -6039,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="B234">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C234">
         <v>142</v>
@@ -6062,7 +6062,7 @@
         <v>4</v>
       </c>
       <c r="B235">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C235">
         <v>144</v>
@@ -6085,7 +6085,7 @@
         <v>4</v>
       </c>
       <c r="B236">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C236">
         <v>144</v>
@@ -6108,7 +6108,7 @@
         <v>4</v>
       </c>
       <c r="B237">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C237">
         <v>145</v>
@@ -6131,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="B238">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C238">
         <v>146</v>
@@ -6154,7 +6154,7 @@
         <v>4</v>
       </c>
       <c r="B239">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C239">
         <v>147</v>
@@ -6177,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="B240">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C240">
         <v>148</v>
@@ -6200,10 +6200,10 @@
         <v>4</v>
       </c>
       <c r="B241">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C241">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D241">
         <v>47</v>
@@ -6223,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="B242">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C242">
         <v>140</v>
@@ -6246,7 +6246,7 @@
         <v>4</v>
       </c>
       <c r="B243">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C243">
         <v>141</v>
@@ -6269,7 +6269,7 @@
         <v>4</v>
       </c>
       <c r="B244">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C244">
         <v>142</v>
@@ -6292,7 +6292,7 @@
         <v>4</v>
       </c>
       <c r="B245">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C245">
         <v>144</v>
@@ -6315,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="B246">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C246">
         <v>144</v>
@@ -6338,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="B247">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C247">
         <v>145</v>
@@ -6361,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="B248">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C248">
         <v>146</v>
@@ -6384,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="B249">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C249">
         <v>147</v>
@@ -6407,7 +6407,7 @@
         <v>4</v>
       </c>
       <c r="B250">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C250">
         <v>148</v>
@@ -6430,10 +6430,10 @@
         <v>4</v>
       </c>
       <c r="B251">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C251">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I251" s="2">
         <v>45755</v>
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="B252">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C252">
         <v>150</v>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="B253">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C253">
         <v>151</v>
@@ -6481,7 +6481,7 @@
         <v>4</v>
       </c>
       <c r="B254">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C254">
         <v>152</v>
@@ -6504,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="B255">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C255">
         <v>154</v>
@@ -6527,7 +6527,7 @@
         <v>4</v>
       </c>
       <c r="B256">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C256">
         <v>154</v>
@@ -6550,7 +6550,7 @@
         <v>4</v>
       </c>
       <c r="B257">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C257">
         <v>155</v>
@@ -6573,7 +6573,7 @@
         <v>4</v>
       </c>
       <c r="B258">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C258">
         <v>156</v>
@@ -6596,7 +6596,7 @@
         <v>4</v>
       </c>
       <c r="B259">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C259">
         <v>157</v>
@@ -6619,7 +6619,7 @@
         <v>4</v>
       </c>
       <c r="B260">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C260">
         <v>158</v>
@@ -6642,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="B261">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C261">
         <v>159</v>
@@ -6665,7 +6665,7 @@
         <v>4</v>
       </c>
       <c r="B262">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C262">
         <v>160</v>
@@ -6688,7 +6688,7 @@
         <v>4</v>
       </c>
       <c r="B263">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C263">
         <v>161</v>
@@ -6711,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="B264">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C264">
         <v>162</v>
@@ -6734,7 +6734,7 @@
         <v>4</v>
       </c>
       <c r="B265">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C265">
         <v>164</v>
@@ -6757,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="B266">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C266">
         <v>164</v>
@@ -6780,7 +6780,7 @@
         <v>4</v>
       </c>
       <c r="B267">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C267">
         <v>165</v>
@@ -6803,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="B268">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C268">
         <v>166</v>
@@ -6826,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="B269">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C269">
         <v>167</v>
@@ -6849,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="B270">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C270">
         <v>168</v>
@@ -6872,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="B271">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C271">
         <v>169</v>
@@ -6895,7 +6895,7 @@
         <v>4</v>
       </c>
       <c r="B272">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C272">
         <v>170</v>
@@ -6918,7 +6918,7 @@
         <v>4</v>
       </c>
       <c r="B273">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C273">
         <v>171</v>
@@ -6932,7 +6932,7 @@
         <v>4</v>
       </c>
       <c r="B274">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C274">
         <v>172</v>
@@ -6955,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="B275">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C275">
         <v>174</v>
@@ -6978,7 +6978,7 @@
         <v>4</v>
       </c>
       <c r="B276">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C276">
         <v>174</v>
@@ -7001,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="B277">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C277">
         <v>175</v>
@@ -7024,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="B278">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C278">
         <v>176</v>
@@ -7047,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="B279">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C279">
         <v>177</v>
@@ -7070,7 +7070,7 @@
         <v>4</v>
       </c>
       <c r="B280">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C280">
         <v>178</v>
@@ -7093,7 +7093,7 @@
         <v>4</v>
       </c>
       <c r="B281">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C281">
         <v>179</v>
@@ -7116,7 +7116,7 @@
         <v>4</v>
       </c>
       <c r="B282">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C282">
         <v>180</v>
@@ -7139,7 +7139,7 @@
         <v>4</v>
       </c>
       <c r="B283">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C283">
         <v>181</v>
@@ -7162,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="B284">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C284">
         <v>182</v>
@@ -7185,7 +7185,7 @@
         <v>4</v>
       </c>
       <c r="B285">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C285">
         <v>184</v>
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="B286">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C286">
         <v>184</v>
@@ -7231,7 +7231,7 @@
         <v>4</v>
       </c>
       <c r="B287">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C287">
         <v>185</v>
@@ -7254,7 +7254,7 @@
         <v>4</v>
       </c>
       <c r="B288">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C288">
         <v>186</v>
@@ -7277,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="B289">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C289">
         <v>187</v>
@@ -7300,7 +7300,7 @@
         <v>4</v>
       </c>
       <c r="B290">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C290">
         <v>188</v>
@@ -7323,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="B291">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C291">
         <v>189</v>
@@ -7346,7 +7346,7 @@
         <v>4</v>
       </c>
       <c r="B292">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C292">
         <v>190</v>
@@ -7369,7 +7369,7 @@
         <v>4</v>
       </c>
       <c r="B293">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C293">
         <v>191</v>
@@ -7392,7 +7392,7 @@
         <v>4</v>
       </c>
       <c r="B294">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C294">
         <v>192</v>
@@ -7415,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="B295">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C295">
         <v>194</v>
@@ -7438,7 +7438,7 @@
         <v>4</v>
       </c>
       <c r="B296">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C296">
         <v>194</v>
@@ -7461,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="B297">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C297">
         <v>195</v>
@@ -7484,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="B298">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C298">
         <v>196</v>
@@ -7507,7 +7507,7 @@
         <v>4</v>
       </c>
       <c r="B299">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C299">
         <v>197</v>
@@ -7530,7 +7530,7 @@
         <v>4</v>
       </c>
       <c r="B300">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C300">
         <v>198</v>
@@ -7553,7 +7553,7 @@
         <v>4</v>
       </c>
       <c r="B301">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C301">
         <v>199</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="B302">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C302">
         <v>200</v>
@@ -7599,7 +7599,7 @@
         <v>4</v>
       </c>
       <c r="B303">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C303">
         <v>201</v>
@@ -7622,7 +7622,7 @@
         <v>4</v>
       </c>
       <c r="B304">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C304">
         <v>202</v>
@@ -7645,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="B305">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C305">
         <v>204</v>
@@ -7668,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="B306">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C306">
         <v>204</v>
@@ -7691,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="B307">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C307">
         <v>205</v>
@@ -7714,7 +7714,7 @@
         <v>4</v>
       </c>
       <c r="B308">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C308">
         <v>206</v>
@@ -7737,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="B309">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C309">
         <v>207</v>
@@ -7760,7 +7760,7 @@
         <v>4</v>
       </c>
       <c r="B310">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C310">
         <v>208</v>
@@ -7783,7 +7783,7 @@
         <v>4</v>
       </c>
       <c r="B311">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C311">
         <v>209</v>
@@ -7806,7 +7806,7 @@
         <v>4</v>
       </c>
       <c r="B312">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C312">
         <v>210</v>
@@ -7829,7 +7829,7 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C313">
         <v>211</v>
@@ -7852,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="B314">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C314">
         <v>212</v>
@@ -7875,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="B315">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C315">
         <v>214</v>
@@ -7898,7 +7898,7 @@
         <v>4</v>
       </c>
       <c r="B316">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C316">
         <v>214</v>
@@ -7921,7 +7921,7 @@
         <v>4</v>
       </c>
       <c r="B317">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C317">
         <v>215</v>
@@ -7944,7 +7944,7 @@
         <v>4</v>
       </c>
       <c r="B318">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C318">
         <v>216</v>
@@ -7967,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="B319">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C319">
         <v>217</v>
@@ -7979,7 +7979,7 @@
         <v>45</v>
       </c>
       <c r="F319">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="I319" s="2">
         <v>45846</v>
@@ -7990,7 +7990,7 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C320">
         <v>218</v>
@@ -8013,7 +8013,7 @@
         <v>4</v>
       </c>
       <c r="B321">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C321">
         <v>219</v>
@@ -8036,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="B322">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C322">
         <v>220</v>
@@ -8059,7 +8059,7 @@
         <v>4</v>
       </c>
       <c r="B323">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C323">
         <v>221</v>
@@ -8082,7 +8082,7 @@
         <v>4</v>
       </c>
       <c r="B324">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C324">
         <v>222</v>
@@ -8105,7 +8105,7 @@
         <v>4</v>
       </c>
       <c r="B325">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C325">
         <v>224</v>
@@ -8128,7 +8128,7 @@
         <v>4</v>
       </c>
       <c r="B326">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C326">
         <v>224</v>
@@ -8151,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C327">
         <v>225</v>
@@ -8174,7 +8174,7 @@
         <v>4</v>
       </c>
       <c r="B328">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C328">
         <v>226</v>
@@ -8197,7 +8197,7 @@
         <v>4</v>
       </c>
       <c r="B329">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C329">
         <v>227</v>
@@ -8220,7 +8220,7 @@
         <v>4</v>
       </c>
       <c r="B330">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C330">
         <v>228</v>
@@ -11755,7 +11755,7 @@
         <v>4</v>
       </c>
       <c r="B482">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -11778,7 +11778,7 @@
         <v>4</v>
       </c>
       <c r="B483">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -11801,7 +11801,7 @@
         <v>4</v>
       </c>
       <c r="B484">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C484">
         <v>4</v>
@@ -11824,7 +11824,7 @@
         <v>4</v>
       </c>
       <c r="B485">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C485">
         <v>4</v>
@@ -11854,7 +11854,7 @@
         <v>4</v>
       </c>
       <c r="B486">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C486">
         <v>5</v>
@@ -11877,7 +11877,7 @@
         <v>4</v>
       </c>
       <c r="B487">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C487">
         <v>6</v>
@@ -11891,7 +11891,7 @@
         <v>4</v>
       </c>
       <c r="B488">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C488">
         <v>7</v>
@@ -11921,7 +11921,7 @@
         <v>4</v>
       </c>
       <c r="B489">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C489">
         <v>8</v>
@@ -11944,7 +11944,7 @@
         <v>4</v>
       </c>
       <c r="B490">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C490">
         <v>9</v>
@@ -11967,7 +11967,7 @@
         <v>4</v>
       </c>
       <c r="B491">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C491">
         <v>10</v>
@@ -11990,7 +11990,7 @@
         <v>4</v>
       </c>
       <c r="B492">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C492">
         <v>11</v>
@@ -12013,7 +12013,7 @@
         <v>4</v>
       </c>
       <c r="B493">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C493">
         <v>12</v>
@@ -12036,7 +12036,7 @@
         <v>4</v>
       </c>
       <c r="B494">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C494">
         <v>14</v>
@@ -12059,7 +12059,7 @@
         <v>4</v>
       </c>
       <c r="B495">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C495">
         <v>14</v>
@@ -12082,7 +12082,7 @@
         <v>4</v>
       </c>
       <c r="B496">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C496">
         <v>15</v>
@@ -12105,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="B497">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C497">
         <v>16</v>
@@ -12128,7 +12128,7 @@
         <v>4</v>
       </c>
       <c r="B498">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C498">
         <v>17</v>
@@ -12151,7 +12151,7 @@
         <v>4</v>
       </c>
       <c r="B499">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C499">
         <v>18</v>
@@ -12181,7 +12181,7 @@
         <v>4</v>
       </c>
       <c r="B500">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C500">
         <v>19</v>
@@ -12204,7 +12204,7 @@
         <v>4</v>
       </c>
       <c r="B501">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C501">
         <v>20</v>
@@ -12227,7 +12227,7 @@
         <v>4</v>
       </c>
       <c r="B502">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C502">
         <v>21</v>
@@ -12250,7 +12250,7 @@
         <v>4</v>
       </c>
       <c r="B503">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C503">
         <v>22</v>
@@ -12273,7 +12273,7 @@
         <v>4</v>
       </c>
       <c r="B504">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C504">
         <v>24</v>
@@ -12296,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="B505">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C505">
         <v>24</v>
@@ -12319,7 +12319,7 @@
         <v>4</v>
       </c>
       <c r="B506">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C506">
         <v>25</v>
@@ -12342,7 +12342,7 @@
         <v>4</v>
       </c>
       <c r="B507">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C507">
         <v>26</v>
@@ -12365,7 +12365,7 @@
         <v>4</v>
       </c>
       <c r="B508">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C508">
         <v>27</v>
@@ -12388,7 +12388,7 @@
         <v>4</v>
       </c>
       <c r="B509">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C509">
         <v>28</v>
@@ -12411,7 +12411,7 @@
         <v>4</v>
       </c>
       <c r="B510">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C510">
         <v>29</v>
@@ -12434,7 +12434,7 @@
         <v>4</v>
       </c>
       <c r="B511">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C511">
         <v>40</v>
@@ -12457,7 +12457,7 @@
         <v>4</v>
       </c>
       <c r="B512">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C512">
         <v>41</v>
@@ -12480,7 +12480,7 @@
         <v>4</v>
       </c>
       <c r="B513">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C513">
         <v>42</v>
@@ -12503,7 +12503,7 @@
         <v>4</v>
       </c>
       <c r="B514">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C514">
         <v>44</v>
@@ -12526,7 +12526,7 @@
         <v>4</v>
       </c>
       <c r="B515">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C515">
         <v>44</v>
@@ -12549,7 +12549,7 @@
         <v>4</v>
       </c>
       <c r="B516">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C516">
         <v>45</v>
@@ -12579,7 +12579,7 @@
         <v>4</v>
       </c>
       <c r="B517">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C517">
         <v>46</v>
@@ -12602,7 +12602,7 @@
         <v>4</v>
       </c>
       <c r="B518">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C518">
         <v>47</v>
@@ -12625,7 +12625,7 @@
         <v>4</v>
       </c>
       <c r="B519">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C519">
         <v>48</v>
@@ -12651,7 +12651,7 @@
         <v>4</v>
       </c>
       <c r="B520">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C520">
         <v>49</v>
@@ -12671,7 +12671,7 @@
         <v>4</v>
       </c>
       <c r="B521">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C521">
         <v>40</v>
@@ -12694,7 +12694,7 @@
         <v>4</v>
       </c>
       <c r="B522">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C522">
         <v>41</v>
@@ -12717,7 +12717,7 @@
         <v>4</v>
       </c>
       <c r="B523">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C523">
         <v>42</v>
@@ -12740,7 +12740,7 @@
         <v>4</v>
       </c>
       <c r="B524">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C524">
         <v>44</v>
@@ -12763,7 +12763,7 @@
         <v>4</v>
       </c>
       <c r="B525">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C525">
         <v>44</v>
@@ -12793,7 +12793,7 @@
         <v>4</v>
       </c>
       <c r="B526">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C526">
         <v>45</v>
@@ -12816,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="B527">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C527">
         <v>46</v>
@@ -12839,7 +12839,7 @@
         <v>4</v>
       </c>
       <c r="B528">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C528">
         <v>47</v>
@@ -12862,7 +12862,7 @@
         <v>4</v>
       </c>
       <c r="B529">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C529">
         <v>48</v>
@@ -12892,7 +12892,7 @@
         <v>4</v>
       </c>
       <c r="B530">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C530">
         <v>49</v>
@@ -12915,7 +12915,7 @@
         <v>4</v>
       </c>
       <c r="B531">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C531">
         <v>50</v>
@@ -12938,7 +12938,7 @@
         <v>4</v>
       </c>
       <c r="B532">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C532">
         <v>51</v>
@@ -12961,7 +12961,7 @@
         <v>4</v>
       </c>
       <c r="B533">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C533">
         <v>52</v>
@@ -12984,7 +12984,7 @@
         <v>4</v>
       </c>
       <c r="B534">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C534">
         <v>54</v>
@@ -13007,7 +13007,7 @@
         <v>4</v>
       </c>
       <c r="B535">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C535">
         <v>54</v>
@@ -13030,7 +13030,7 @@
         <v>4</v>
       </c>
       <c r="B536">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C536">
         <v>55</v>
@@ -13053,7 +13053,7 @@
         <v>4</v>
       </c>
       <c r="B537">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C537">
         <v>56</v>
@@ -13076,7 +13076,7 @@
         <v>4</v>
       </c>
       <c r="B538">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C538">
         <v>57</v>
@@ -13099,7 +13099,7 @@
         <v>4</v>
       </c>
       <c r="B539">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C539">
         <v>58</v>
@@ -13122,7 +13122,7 @@
         <v>4</v>
       </c>
       <c r="B540">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C540">
         <v>59</v>
@@ -13145,7 +13145,7 @@
         <v>4</v>
       </c>
       <c r="B541">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C541">
         <v>60</v>
@@ -13168,7 +13168,7 @@
         <v>4</v>
       </c>
       <c r="B542">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C542">
         <v>61</v>
@@ -13191,7 +13191,7 @@
         <v>4</v>
       </c>
       <c r="B543">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C543">
         <v>62</v>
@@ -13214,7 +13214,7 @@
         <v>4</v>
       </c>
       <c r="B544">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C544">
         <v>64</v>
@@ -13237,7 +13237,7 @@
         <v>4</v>
       </c>
       <c r="B545">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C545">
         <v>64</v>
@@ -13260,7 +13260,7 @@
         <v>4</v>
       </c>
       <c r="B546">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C546">
         <v>65</v>
@@ -13283,7 +13283,7 @@
         <v>4</v>
       </c>
       <c r="B547">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C547">
         <v>66</v>
@@ -13306,7 +13306,7 @@
         <v>4</v>
       </c>
       <c r="B548">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C548">
         <v>67</v>
@@ -13329,7 +13329,7 @@
         <v>4</v>
       </c>
       <c r="B549">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C549">
         <v>68</v>
@@ -13352,7 +13352,7 @@
         <v>4</v>
       </c>
       <c r="B550">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C550">
         <v>229</v>
@@ -13375,7 +13375,7 @@
         <v>4</v>
       </c>
       <c r="B551">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C551">
         <v>240</v>
@@ -13398,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="B552">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -13410,7 +13410,7 @@
         <v>7</v>
       </c>
       <c r="F552">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I552" s="2" t="s">
         <v>11</v>
@@ -13421,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="B553">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C553">
         <v>2</v>
@@ -13444,7 +13444,7 @@
         <v>4</v>
       </c>
       <c r="B554">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C554">
         <v>4</v>
@@ -13467,7 +13467,7 @@
         <v>4</v>
       </c>
       <c r="B555">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C555">
         <v>4</v>
@@ -13490,7 +13490,7 @@
         <v>4</v>
       </c>
       <c r="B556">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C556">
         <v>5</v>
@@ -13513,7 +13513,7 @@
         <v>4</v>
       </c>
       <c r="B557">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C557">
         <v>6</v>
@@ -13536,7 +13536,7 @@
         <v>4</v>
       </c>
       <c r="B558">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C558">
         <v>7</v>
@@ -13559,7 +13559,7 @@
         <v>4</v>
       </c>
       <c r="B559">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C559">
         <v>8</v>
@@ -13582,7 +13582,7 @@
         <v>4</v>
       </c>
       <c r="B560">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C560">
         <v>9</v>
@@ -13605,7 +13605,7 @@
         <v>4</v>
       </c>
       <c r="B561">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C561">
         <v>10</v>
@@ -13628,7 +13628,7 @@
         <v>4</v>
       </c>
       <c r="B562">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C562">
         <v>11</v>
@@ -13651,7 +13651,7 @@
         <v>4</v>
       </c>
       <c r="B563">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C563">
         <v>12</v>
@@ -13674,7 +13674,7 @@
         <v>4</v>
       </c>
       <c r="B564">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C564">
         <v>14</v>
@@ -13697,7 +13697,7 @@
         <v>4</v>
       </c>
       <c r="B565">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C565">
         <v>14</v>
@@ -13720,7 +13720,7 @@
         <v>4</v>
       </c>
       <c r="B566">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C566">
         <v>15</v>
@@ -13743,7 +13743,7 @@
         <v>4</v>
       </c>
       <c r="B567">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C567">
         <v>16</v>
@@ -13766,7 +13766,7 @@
         <v>4</v>
       </c>
       <c r="B568">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C568">
         <v>17</v>
@@ -13789,7 +13789,7 @@
         <v>4</v>
       </c>
       <c r="B569">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C569">
         <v>18</v>
@@ -13812,7 +13812,7 @@
         <v>4</v>
       </c>
       <c r="B570">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C570">
         <v>19</v>
@@ -13835,7 +13835,7 @@
         <v>4</v>
       </c>
       <c r="B571">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C571">
         <v>20</v>
@@ -13858,7 +13858,7 @@
         <v>4</v>
       </c>
       <c r="B572">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C572">
         <v>21</v>
@@ -13881,7 +13881,7 @@
         <v>4</v>
       </c>
       <c r="B573">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C573">
         <v>22</v>
@@ -13904,7 +13904,7 @@
         <v>4</v>
       </c>
       <c r="B574">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C574">
         <v>24</v>
@@ -13927,7 +13927,7 @@
         <v>4</v>
       </c>
       <c r="B575">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C575">
         <v>24</v>
@@ -13950,7 +13950,7 @@
         <v>4</v>
       </c>
       <c r="B576">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C576">
         <v>25</v>
@@ -13973,7 +13973,7 @@
         <v>4</v>
       </c>
       <c r="B577">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C577">
         <v>26</v>
@@ -13996,7 +13996,7 @@
         <v>4</v>
       </c>
       <c r="B578">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C578">
         <v>27</v>
@@ -14019,7 +14019,7 @@
         <v>4</v>
       </c>
       <c r="B579">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C579">
         <v>28</v>
@@ -14042,7 +14042,7 @@
         <v>4</v>
       </c>
       <c r="B580">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C580">
         <v>29</v>
@@ -14065,7 +14065,7 @@
         <v>4</v>
       </c>
       <c r="B581">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C581">
         <v>40</v>
@@ -14088,7 +14088,7 @@
         <v>4</v>
       </c>
       <c r="B582">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C582">
         <v>41</v>
@@ -14111,7 +14111,7 @@
         <v>4</v>
       </c>
       <c r="B583">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C583">
         <v>42</v>
@@ -14134,7 +14134,7 @@
         <v>4</v>
       </c>
       <c r="B584">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C584">
         <v>44</v>
@@ -14157,7 +14157,7 @@
         <v>4</v>
       </c>
       <c r="B585">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C585">
         <v>44</v>
@@ -14180,7 +14180,7 @@
         <v>4</v>
       </c>
       <c r="B586">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C586">
         <v>45</v>
@@ -14203,7 +14203,7 @@
         <v>4</v>
       </c>
       <c r="B587">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C587">
         <v>46</v>
@@ -14226,7 +14226,7 @@
         <v>4</v>
       </c>
       <c r="B588">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C588">
         <v>47</v>
@@ -14249,7 +14249,7 @@
         <v>4</v>
       </c>
       <c r="B589">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C589">
         <v>48</v>
@@ -14272,7 +14272,7 @@
         <v>4</v>
       </c>
       <c r="B590">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C590">
         <v>49</v>
@@ -14295,7 +14295,7 @@
         <v>4</v>
       </c>
       <c r="B591">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C591">
         <v>40</v>
@@ -14318,7 +14318,7 @@
         <v>4</v>
       </c>
       <c r="B592">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C592">
         <v>41</v>
@@ -14341,7 +14341,7 @@
         <v>4</v>
       </c>
       <c r="B593">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C593">
         <v>42</v>
@@ -14364,7 +14364,7 @@
         <v>4</v>
       </c>
       <c r="B594">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C594">
         <v>44</v>
@@ -14387,7 +14387,7 @@
         <v>4</v>
       </c>
       <c r="B595">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C595">
         <v>44</v>
@@ -14410,7 +14410,7 @@
         <v>4</v>
       </c>
       <c r="B596">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C596">
         <v>45</v>
@@ -14433,7 +14433,7 @@
         <v>4</v>
       </c>
       <c r="B597">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C597">
         <v>46</v>
@@ -14456,7 +14456,7 @@
         <v>4</v>
       </c>
       <c r="B598">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C598">
         <v>47</v>
@@ -14479,7 +14479,7 @@
         <v>4</v>
       </c>
       <c r="B599">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C599">
         <v>48</v>
@@ -14502,7 +14502,7 @@
         <v>4</v>
       </c>
       <c r="B600">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C600">
         <v>49</v>
@@ -14525,7 +14525,7 @@
         <v>4</v>
       </c>
       <c r="B601">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C601">
         <v>50</v>
@@ -14548,7 +14548,7 @@
         <v>4</v>
       </c>
       <c r="B602">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C602">
         <v>51</v>
@@ -14571,7 +14571,7 @@
         <v>4</v>
       </c>
       <c r="B603">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C603">
         <v>52</v>
@@ -14594,7 +14594,7 @@
         <v>4</v>
       </c>
       <c r="B604">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C604">
         <v>54</v>
@@ -14617,7 +14617,7 @@
         <v>4</v>
       </c>
       <c r="B605">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C605">
         <v>54</v>
@@ -14640,7 +14640,7 @@
         <v>4</v>
       </c>
       <c r="B606">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C606">
         <v>55</v>
@@ -14663,7 +14663,7 @@
         <v>4</v>
       </c>
       <c r="B607">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C607">
         <v>56</v>
@@ -14686,7 +14686,7 @@
         <v>4</v>
       </c>
       <c r="B608">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C608">
         <v>57</v>
@@ -14709,7 +14709,7 @@
         <v>4</v>
       </c>
       <c r="B609">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C609">
         <v>58</v>
@@ -14732,7 +14732,7 @@
         <v>4</v>
       </c>
       <c r="B610">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C610">
         <v>59</v>
@@ -14755,7 +14755,7 @@
         <v>4</v>
       </c>
       <c r="B611">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C611">
         <v>60</v>
@@ -14778,7 +14778,7 @@
         <v>4</v>
       </c>
       <c r="B612">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C612">
         <v>61</v>
@@ -14801,7 +14801,7 @@
         <v>4</v>
       </c>
       <c r="B613">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C613">
         <v>62</v>
@@ -14824,7 +14824,7 @@
         <v>4</v>
       </c>
       <c r="B614">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C614">
         <v>64</v>
@@ -14847,7 +14847,7 @@
         <v>4</v>
       </c>
       <c r="B615">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C615">
         <v>64</v>
@@ -14870,7 +14870,7 @@
         <v>4</v>
       </c>
       <c r="B616">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C616">
         <v>65</v>
@@ -14893,7 +14893,7 @@
         <v>4</v>
       </c>
       <c r="B617">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C617">
         <v>66</v>
@@ -14916,7 +14916,7 @@
         <v>4</v>
       </c>
       <c r="B618">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C618">
         <v>67</v>
@@ -14939,7 +14939,7 @@
         <v>4</v>
       </c>
       <c r="B619">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C619">
         <v>68</v>
@@ -14962,7 +14962,7 @@
         <v>4</v>
       </c>
       <c r="B620">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C620">
         <v>69</v>
@@ -14985,7 +14985,7 @@
         <v>4</v>
       </c>
       <c r="B621">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C621">
         <v>70</v>
@@ -15008,7 +15008,7 @@
         <v>4</v>
       </c>
       <c r="B622">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C622">
         <v>71</v>
@@ -15031,7 +15031,7 @@
         <v>4</v>
       </c>
       <c r="B623">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C623">
         <v>72</v>
@@ -15054,13 +15054,13 @@
         <v>4</v>
       </c>
       <c r="B624">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C624">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D624">
-        <v>42.54</v>
+        <v>32.53</v>
       </c>
       <c r="E624">
         <v>24.5</v>
@@ -15077,7 +15077,7 @@
         <v>4</v>
       </c>
       <c r="B625">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C625">
         <v>241</v>
@@ -15100,7 +15100,7 @@
         <v>4</v>
       </c>
       <c r="B626">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C626">
         <v>74</v>
@@ -15146,7 +15146,7 @@
         <v>4</v>
       </c>
       <c r="B628">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -15169,7 +15169,7 @@
         <v>4</v>
       </c>
       <c r="B629">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C629">
         <v>2</v>
@@ -15192,7 +15192,7 @@
         <v>4</v>
       </c>
       <c r="B630">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C630">
         <v>4</v>
@@ -15215,7 +15215,7 @@
         <v>4</v>
       </c>
       <c r="B631">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C631">
         <v>4</v>
@@ -15238,7 +15238,7 @@
         <v>4</v>
       </c>
       <c r="B632">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C632">
         <v>5</v>
@@ -15268,7 +15268,7 @@
         <v>4</v>
       </c>
       <c r="B633">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C633">
         <v>6</v>
@@ -15298,7 +15298,7 @@
         <v>4</v>
       </c>
       <c r="B634">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C634">
         <v>7</v>
@@ -15321,7 +15321,7 @@
         <v>4</v>
       </c>
       <c r="B635">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C635">
         <v>8</v>
@@ -15344,7 +15344,7 @@
         <v>4</v>
       </c>
       <c r="B636">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C636">
         <v>9</v>
@@ -15367,7 +15367,7 @@
         <v>4</v>
       </c>
       <c r="B637">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C637">
         <v>10</v>
@@ -15390,7 +15390,7 @@
         <v>4</v>
       </c>
       <c r="B638">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C638">
         <v>11</v>
@@ -15413,7 +15413,7 @@
         <v>4</v>
       </c>
       <c r="B639">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C639">
         <v>12</v>
@@ -15436,7 +15436,7 @@
         <v>4</v>
       </c>
       <c r="B640">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C640">
         <v>14</v>
@@ -15459,7 +15459,7 @@
         <v>4</v>
       </c>
       <c r="B641">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C641">
         <v>14</v>
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="B642">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C642">
         <v>15</v>
@@ -15505,7 +15505,7 @@
         <v>4</v>
       </c>
       <c r="B643">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C643">
         <v>16</v>
@@ -15528,7 +15528,7 @@
         <v>4</v>
       </c>
       <c r="B644">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C644">
         <v>17</v>
@@ -15551,7 +15551,7 @@
         <v>4</v>
       </c>
       <c r="B645">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C645">
         <v>18</v>
@@ -15574,7 +15574,7 @@
         <v>4</v>
       </c>
       <c r="B646">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C646">
         <v>19</v>
@@ -15597,7 +15597,7 @@
         <v>4</v>
       </c>
       <c r="B647">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C647">
         <v>20</v>
@@ -15620,7 +15620,7 @@
         <v>4</v>
       </c>
       <c r="B648">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C648">
         <v>21</v>
@@ -15643,7 +15643,7 @@
         <v>4</v>
       </c>
       <c r="B649">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C649">
         <v>22</v>
@@ -15666,7 +15666,7 @@
         <v>4</v>
       </c>
       <c r="B650">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C650">
         <v>24</v>
@@ -15689,7 +15689,7 @@
         <v>4</v>
       </c>
       <c r="B651">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C651">
         <v>24</v>
@@ -15712,7 +15712,7 @@
         <v>4</v>
       </c>
       <c r="B652">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C652">
         <v>25</v>
@@ -15735,7 +15735,7 @@
         <v>4</v>
       </c>
       <c r="B653">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C653">
         <v>26</v>
@@ -15758,7 +15758,7 @@
         <v>4</v>
       </c>
       <c r="B654">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C654">
         <v>27</v>
@@ -15781,7 +15781,7 @@
         <v>4</v>
       </c>
       <c r="B655">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C655">
         <v>28</v>
@@ -15804,7 +15804,7 @@
         <v>4</v>
       </c>
       <c r="B656">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C656">
         <v>29</v>
@@ -15827,7 +15827,7 @@
         <v>4</v>
       </c>
       <c r="B657">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C657">
         <v>40</v>
@@ -15850,7 +15850,7 @@
         <v>4</v>
       </c>
       <c r="B658">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C658">
         <v>41</v>
@@ -15873,7 +15873,7 @@
         <v>4</v>
       </c>
       <c r="B659">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C659">
         <v>42</v>
@@ -15896,7 +15896,7 @@
         <v>4</v>
       </c>
       <c r="B660">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C660">
         <v>44</v>
@@ -15919,7 +15919,7 @@
         <v>4</v>
       </c>
       <c r="B661">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C661">
         <v>44</v>
@@ -15942,7 +15942,7 @@
         <v>4</v>
       </c>
       <c r="B662">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C662">
         <v>45</v>
@@ -15965,7 +15965,7 @@
         <v>4</v>
       </c>
       <c r="B663">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C663">
         <v>46</v>
@@ -15988,7 +15988,7 @@
         <v>4</v>
       </c>
       <c r="B664">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C664">
         <v>47</v>
@@ -16011,7 +16011,7 @@
         <v>4</v>
       </c>
       <c r="B665">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C665">
         <v>48</v>
@@ -16034,7 +16034,7 @@
         <v>4</v>
       </c>
       <c r="B666">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C666">
         <v>49</v>
@@ -16057,7 +16057,7 @@
         <v>4</v>
       </c>
       <c r="B667">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C667">
         <v>40</v>
@@ -16080,7 +16080,7 @@
         <v>4</v>
       </c>
       <c r="B668">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C668">
         <v>41</v>
@@ -16103,7 +16103,7 @@
         <v>4</v>
       </c>
       <c r="B669">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C669">
         <v>42</v>
@@ -16126,7 +16126,7 @@
         <v>4</v>
       </c>
       <c r="B670">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C670">
         <v>44</v>
@@ -16149,7 +16149,7 @@
         <v>4</v>
       </c>
       <c r="B671">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C671">
         <v>44</v>
@@ -16172,7 +16172,7 @@
         <v>4</v>
       </c>
       <c r="B672">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C672">
         <v>45</v>
@@ -16195,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="B673">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C673">
         <v>46</v>
@@ -16218,7 +16218,7 @@
         <v>4</v>
       </c>
       <c r="B674">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -16241,7 +16241,7 @@
         <v>4</v>
       </c>
       <c r="B675">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C675">
         <v>2</v>
@@ -16264,7 +16264,7 @@
         <v>4</v>
       </c>
       <c r="B676">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C676">
         <v>4</v>
@@ -16287,7 +16287,7 @@
         <v>4</v>
       </c>
       <c r="B677">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C677">
         <v>4</v>
@@ -16310,7 +16310,7 @@
         <v>4</v>
       </c>
       <c r="B678">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C678">
         <v>5</v>
@@ -16333,7 +16333,7 @@
         <v>4</v>
       </c>
       <c r="B679">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C679">
         <v>6</v>
@@ -16356,7 +16356,7 @@
         <v>4</v>
       </c>
       <c r="B680">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C680">
         <v>7</v>
@@ -16379,7 +16379,7 @@
         <v>4</v>
       </c>
       <c r="B681">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C681">
         <v>8</v>
@@ -16402,7 +16402,7 @@
         <v>4</v>
       </c>
       <c r="B682">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C682">
         <v>9</v>
@@ -16425,7 +16425,7 @@
         <v>4</v>
       </c>
       <c r="B683">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C683">
         <v>10</v>
@@ -16448,7 +16448,7 @@
         <v>4</v>
       </c>
       <c r="B684">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C684">
         <v>11</v>
@@ -16471,7 +16471,7 @@
         <v>4</v>
       </c>
       <c r="B685">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C685">
         <v>12</v>
@@ -16494,7 +16494,7 @@
         <v>4</v>
       </c>
       <c r="B686">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C686">
         <v>14</v>
@@ -16517,7 +16517,7 @@
         <v>4</v>
       </c>
       <c r="B687">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C687">
         <v>14</v>
@@ -16540,7 +16540,7 @@
         <v>4</v>
       </c>
       <c r="B688">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C688">
         <v>15</v>
@@ -16563,7 +16563,7 @@
         <v>4</v>
       </c>
       <c r="B689">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C689">
         <v>16</v>
@@ -16586,7 +16586,7 @@
         <v>4</v>
       </c>
       <c r="B690">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C690">
         <v>17</v>
@@ -16609,7 +16609,7 @@
         <v>4</v>
       </c>
       <c r="B691">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C691">
         <v>18</v>
@@ -16632,7 +16632,7 @@
         <v>4</v>
       </c>
       <c r="B692">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C692">
         <v>19</v>
@@ -16655,7 +16655,7 @@
         <v>4</v>
       </c>
       <c r="B693">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C693">
         <v>20</v>
@@ -16678,7 +16678,7 @@
         <v>4</v>
       </c>
       <c r="B694">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C694">
         <v>21</v>
@@ -16701,7 +16701,7 @@
         <v>4</v>
       </c>
       <c r="B695">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C695">
         <v>22</v>
@@ -16724,7 +16724,7 @@
         <v>4</v>
       </c>
       <c r="B696">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C696">
         <v>24</v>
@@ -16747,7 +16747,7 @@
         <v>4</v>
       </c>
       <c r="B697">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C697">
         <v>24</v>
@@ -16770,7 +16770,7 @@
         <v>4</v>
       </c>
       <c r="B698">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C698">
         <v>25</v>
@@ -16793,7 +16793,7 @@
         <v>4</v>
       </c>
       <c r="B699">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C699">
         <v>26</v>
@@ -16816,7 +16816,7 @@
         <v>4</v>
       </c>
       <c r="B700">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C700">
         <v>27</v>
@@ -16839,7 +16839,7 @@
         <v>4</v>
       </c>
       <c r="B701">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C701">
         <v>28</v>
@@ -16862,7 +16862,7 @@
         <v>4</v>
       </c>
       <c r="B702">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C702">
         <v>29</v>
@@ -16885,7 +16885,7 @@
         <v>4</v>
       </c>
       <c r="B703">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C703">
         <v>40</v>
@@ -16908,7 +16908,7 @@
         <v>4</v>
       </c>
       <c r="B704">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C704">
         <v>41</v>
@@ -16931,7 +16931,7 @@
         <v>4</v>
       </c>
       <c r="B705">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C705">
         <v>42</v>
@@ -16954,7 +16954,7 @@
         <v>4</v>
       </c>
       <c r="B706">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -16977,7 +16977,7 @@
         <v>4</v>
       </c>
       <c r="B707">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C707">
         <v>2</v>
@@ -17000,7 +17000,7 @@
         <v>4</v>
       </c>
       <c r="B708">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C708">
         <v>4</v>
@@ -17023,7 +17023,7 @@
         <v>4</v>
       </c>
       <c r="B709">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C709">
         <v>4</v>
@@ -17046,7 +17046,7 @@
         <v>4</v>
       </c>
       <c r="B710">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C710">
         <v>5</v>
@@ -17069,7 +17069,7 @@
         <v>4</v>
       </c>
       <c r="B711">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C711">
         <v>6</v>
@@ -17092,7 +17092,7 @@
         <v>4</v>
       </c>
       <c r="B712">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C712">
         <v>7</v>
@@ -17115,7 +17115,7 @@
         <v>4</v>
       </c>
       <c r="B713">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C713">
         <v>8</v>
@@ -17138,7 +17138,7 @@
         <v>4</v>
       </c>
       <c r="B714">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C714">
         <v>9</v>
@@ -17161,7 +17161,7 @@
         <v>4</v>
       </c>
       <c r="B715">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C715">
         <v>10</v>
@@ -17184,7 +17184,7 @@
         <v>4</v>
       </c>
       <c r="B716">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C716">
         <v>11</v>
@@ -17207,7 +17207,7 @@
         <v>4</v>
       </c>
       <c r="B717">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C717">
         <v>12</v>
@@ -17230,7 +17230,7 @@
         <v>4</v>
       </c>
       <c r="B718">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C718">
         <v>14</v>
@@ -17253,7 +17253,7 @@
         <v>4</v>
       </c>
       <c r="B719">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C719">
         <v>14</v>
@@ -17276,7 +17276,7 @@
         <v>4</v>
       </c>
       <c r="B720">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C720">
         <v>15</v>
@@ -17299,7 +17299,7 @@
         <v>4</v>
       </c>
       <c r="B721">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C721">
         <v>16</v>
@@ -17322,7 +17322,7 @@
         <v>4</v>
       </c>
       <c r="B722">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C722">
         <v>17</v>
@@ -17345,7 +17345,7 @@
         <v>4</v>
       </c>
       <c r="B723">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C723">
         <v>18</v>
@@ -17368,7 +17368,7 @@
         <v>4</v>
       </c>
       <c r="B724">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C724">
         <v>19</v>
@@ -17391,7 +17391,7 @@
         <v>4</v>
       </c>
       <c r="B725">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C725">
         <v>20</v>
@@ -17414,7 +17414,7 @@
         <v>4</v>
       </c>
       <c r="B726">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C726">
         <v>21</v>
@@ -17437,7 +17437,7 @@
         <v>4</v>
       </c>
       <c r="B727">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C727">
         <v>22</v>
@@ -17460,7 +17460,7 @@
         <v>4</v>
       </c>
       <c r="B728">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C728">
         <v>24</v>
@@ -17483,7 +17483,7 @@
         <v>4</v>
       </c>
       <c r="B729">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C729">
         <v>24</v>
@@ -17506,7 +17506,7 @@
         <v>4</v>
       </c>
       <c r="B730">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C730">
         <v>25</v>
@@ -17529,7 +17529,7 @@
         <v>4</v>
       </c>
       <c r="B731">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C731">
         <v>44</v>
@@ -17552,7 +17552,7 @@
         <v>4</v>
       </c>
       <c r="B732">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C732">
         <v>1</v>
@@ -17575,7 +17575,7 @@
         <v>4</v>
       </c>
       <c r="B733">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C733">
         <v>2</v>
@@ -17598,7 +17598,7 @@
         <v>4</v>
       </c>
       <c r="B734">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C734">
         <v>4</v>
@@ -17621,7 +17621,7 @@
         <v>4</v>
       </c>
       <c r="B735">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C735">
         <v>4</v>
@@ -17644,7 +17644,7 @@
         <v>4</v>
       </c>
       <c r="B736">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C736">
         <v>5</v>
@@ -17667,7 +17667,7 @@
         <v>4</v>
       </c>
       <c r="B737">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C737">
         <v>6</v>
@@ -17690,7 +17690,7 @@
         <v>4</v>
       </c>
       <c r="B738">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C738">
         <v>7</v>
@@ -17713,7 +17713,7 @@
         <v>4</v>
       </c>
       <c r="B739">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C739">
         <v>8</v>
@@ -17736,7 +17736,7 @@
         <v>4</v>
       </c>
       <c r="B740">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C740">
         <v>9</v>
@@ -17759,7 +17759,7 @@
         <v>4</v>
       </c>
       <c r="B741">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C741">
         <v>10</v>
@@ -17782,7 +17782,7 @@
         <v>4</v>
       </c>
       <c r="B742">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C742">
         <v>11</v>
@@ -17805,7 +17805,7 @@
         <v>4</v>
       </c>
       <c r="B743">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C743">
         <v>12</v>
@@ -17828,7 +17828,7 @@
         <v>4</v>
       </c>
       <c r="B744">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C744">
         <v>14</v>
@@ -17851,7 +17851,7 @@
         <v>4</v>
       </c>
       <c r="B745">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C745">
         <v>14</v>
@@ -17874,7 +17874,7 @@
         <v>4</v>
       </c>
       <c r="B746">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C746">
         <v>15</v>
@@ -17897,7 +17897,7 @@
         <v>4</v>
       </c>
       <c r="B747">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C747">
         <v>16</v>
@@ -17920,7 +17920,7 @@
         <v>4</v>
       </c>
       <c r="B748">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C748">
         <v>17</v>
@@ -17943,7 +17943,7 @@
         <v>4</v>
       </c>
       <c r="B749">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C749">
         <v>18</v>
@@ -17966,7 +17966,7 @@
         <v>4</v>
       </c>
       <c r="B750">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C750">
         <v>19</v>
@@ -17989,7 +17989,7 @@
         <v>4</v>
       </c>
       <c r="B751">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C751">
         <v>20</v>
@@ -18012,7 +18012,7 @@
         <v>4</v>
       </c>
       <c r="B752">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C752">
         <v>21</v>
@@ -18035,7 +18035,7 @@
         <v>4</v>
       </c>
       <c r="B753">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C753">
         <v>22</v>
@@ -18058,7 +18058,7 @@
         <v>4</v>
       </c>
       <c r="B754">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C754">
         <v>24</v>
@@ -18081,7 +18081,7 @@
         <v>4</v>
       </c>
       <c r="B755">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C755">
         <v>24</v>
@@ -18104,7 +18104,7 @@
         <v>4</v>
       </c>
       <c r="B756">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C756">
         <v>25</v>
@@ -18127,7 +18127,7 @@
         <v>4</v>
       </c>
       <c r="B757">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C757">
         <v>26</v>
@@ -18150,7 +18150,7 @@
         <v>4</v>
       </c>
       <c r="B758">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C758">
         <v>27</v>
@@ -18173,7 +18173,7 @@
         <v>4</v>
       </c>
       <c r="B759">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C759">
         <v>28</v>
@@ -18196,7 +18196,7 @@
         <v>4</v>
       </c>
       <c r="B760">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C760">
         <v>29</v>
@@ -18219,7 +18219,7 @@
         <v>4</v>
       </c>
       <c r="B761">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C761">
         <v>40</v>
@@ -18242,7 +18242,7 @@
         <v>4</v>
       </c>
       <c r="B762">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C762">
         <v>41</v>
@@ -18265,7 +18265,7 @@
         <v>4</v>
       </c>
       <c r="B763">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C763">
         <v>42</v>
@@ -18288,7 +18288,7 @@
         <v>4</v>
       </c>
       <c r="B764">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C764">
         <v>44</v>
@@ -18311,7 +18311,7 @@
         <v>4</v>
       </c>
       <c r="B765">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C765">
         <v>44</v>
@@ -18334,7 +18334,7 @@
         <v>4</v>
       </c>
       <c r="B766">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C766">
         <v>45</v>
@@ -18357,7 +18357,7 @@
         <v>4</v>
       </c>
       <c r="B767">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C767">
         <v>46</v>
@@ -18380,7 +18380,7 @@
         <v>4</v>
       </c>
       <c r="B768">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C768">
         <v>47</v>
@@ -18403,7 +18403,7 @@
         <v>4</v>
       </c>
       <c r="B769">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C769">
         <v>48</v>
@@ -18426,7 +18426,7 @@
         <v>4</v>
       </c>
       <c r="B770">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C770">
         <v>49</v>
@@ -18449,7 +18449,7 @@
         <v>4</v>
       </c>
       <c r="B771">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C771">
         <v>40</v>
@@ -18472,7 +18472,7 @@
         <v>4</v>
       </c>
       <c r="B772">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C772">
         <v>41</v>
@@ -18495,7 +18495,7 @@
         <v>4</v>
       </c>
       <c r="B773">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C773">
         <v>42</v>
@@ -18518,7 +18518,7 @@
         <v>4</v>
       </c>
       <c r="B774">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C774">
         <v>44</v>
@@ -18541,7 +18541,7 @@
         <v>4</v>
       </c>
       <c r="B775">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C775">
         <v>44</v>
@@ -18564,7 +18564,7 @@
         <v>4</v>
       </c>
       <c r="B776">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C776">
         <v>45</v>
@@ -18587,7 +18587,7 @@
         <v>4</v>
       </c>
       <c r="B777">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C777">
         <v>46</v>
@@ -18610,7 +18610,7 @@
         <v>4</v>
       </c>
       <c r="B778">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C778">
         <v>47</v>
@@ -18633,7 +18633,7 @@
         <v>4</v>
       </c>
       <c r="B779">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C779">
         <v>48</v>
@@ -18656,7 +18656,7 @@
         <v>4</v>
       </c>
       <c r="B780">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C780">
         <v>49</v>
@@ -18679,7 +18679,7 @@
         <v>4</v>
       </c>
       <c r="B781">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C781">
         <v>50</v>
@@ -18702,7 +18702,7 @@
         <v>4</v>
       </c>
       <c r="B782">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C782">
         <v>51</v>
@@ -18725,7 +18725,7 @@
         <v>4</v>
       </c>
       <c r="B783">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C783">
         <v>52</v>
@@ -18748,7 +18748,7 @@
         <v>4</v>
       </c>
       <c r="B784">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C784">
         <v>54</v>
@@ -18771,7 +18771,7 @@
         <v>4</v>
       </c>
       <c r="B785">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C785">
         <v>54</v>
@@ -18794,7 +18794,7 @@
         <v>4</v>
       </c>
       <c r="B786">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C786">
         <v>55</v>
@@ -18817,7 +18817,7 @@
         <v>4</v>
       </c>
       <c r="B787">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C787">
         <v>56</v>
@@ -18840,7 +18840,7 @@
         <v>4</v>
       </c>
       <c r="B788">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C788">
         <v>57</v>
@@ -18863,7 +18863,7 @@
         <v>4</v>
       </c>
       <c r="B789">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C789">
         <v>58</v>
@@ -18886,7 +18886,7 @@
         <v>4</v>
       </c>
       <c r="B790">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C790">
         <v>59</v>
@@ -18909,7 +18909,7 @@
         <v>4</v>
       </c>
       <c r="B791">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C791">
         <v>60</v>
@@ -18932,7 +18932,7 @@
         <v>4</v>
       </c>
       <c r="B792">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C792">
         <v>61</v>
@@ -18955,7 +18955,7 @@
         <v>4</v>
       </c>
       <c r="B793">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C793">
         <v>62</v>
@@ -18978,7 +18978,7 @@
         <v>4</v>
       </c>
       <c r="B794">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C794">
         <v>64</v>
@@ -19001,7 +19001,7 @@
         <v>4</v>
       </c>
       <c r="B795">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C795">
         <v>64</v>
@@ -19024,7 +19024,7 @@
         <v>4</v>
       </c>
       <c r="B796">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C796">
         <v>65</v>
@@ -19047,7 +19047,7 @@
         <v>4</v>
       </c>
       <c r="B797">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C797">
         <v>66</v>
@@ -19070,7 +19070,7 @@
         <v>4</v>
       </c>
       <c r="B798">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C798">
         <v>67</v>
@@ -19093,7 +19093,7 @@
         <v>4</v>
       </c>
       <c r="B799">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C799">
         <v>68</v>
@@ -19116,7 +19116,7 @@
         <v>4</v>
       </c>
       <c r="B800">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C800">
         <v>69</v>
@@ -19139,7 +19139,7 @@
         <v>4</v>
       </c>
       <c r="B801">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C801">
         <v>70</v>
@@ -19162,7 +19162,7 @@
         <v>4</v>
       </c>
       <c r="B802">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C802">
         <v>71</v>
@@ -19185,7 +19185,7 @@
         <v>4</v>
       </c>
       <c r="B803">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C803">
         <v>72</v>
@@ -19208,7 +19208,7 @@
         <v>4</v>
       </c>
       <c r="B804">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C804">
         <v>74</v>
@@ -19231,7 +19231,7 @@
         <v>4</v>
       </c>
       <c r="B805">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C805">
         <v>74</v>
@@ -19254,7 +19254,7 @@
         <v>4</v>
       </c>
       <c r="B806">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C806">
         <v>75</v>
@@ -19277,7 +19277,7 @@
         <v>4</v>
       </c>
       <c r="B807">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C807">
         <v>76</v>
@@ -19300,7 +19300,7 @@
         <v>4</v>
       </c>
       <c r="B808">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C808">
         <v>77</v>
@@ -19323,7 +19323,7 @@
         <v>4</v>
       </c>
       <c r="B809">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C809">
         <v>78</v>
@@ -19346,7 +19346,7 @@
         <v>4</v>
       </c>
       <c r="B810">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C810">
         <v>79</v>
@@ -19369,7 +19369,7 @@
         <v>4</v>
       </c>
       <c r="B811">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C811">
         <v>80</v>
@@ -19392,7 +19392,7 @@
         <v>4</v>
       </c>
       <c r="B812">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C812">
         <v>1</v>
@@ -19415,7 +19415,7 @@
         <v>4</v>
       </c>
       <c r="B813">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C813">
         <v>2</v>
@@ -19438,7 +19438,7 @@
         <v>4</v>
       </c>
       <c r="B814">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C814">
         <v>4</v>
@@ -19461,7 +19461,7 @@
         <v>4</v>
       </c>
       <c r="B815">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C815">
         <v>4</v>
@@ -19484,7 +19484,7 @@
         <v>4</v>
       </c>
       <c r="B816">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C816">
         <v>5</v>
@@ -19507,7 +19507,7 @@
         <v>4</v>
       </c>
       <c r="B817">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C817">
         <v>6</v>
@@ -19530,7 +19530,7 @@
         <v>4</v>
       </c>
       <c r="B818">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C818">
         <v>7</v>
@@ -19553,7 +19553,7 @@
         <v>4</v>
       </c>
       <c r="B819">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C819">
         <v>8</v>
@@ -19576,7 +19576,7 @@
         <v>4</v>
       </c>
       <c r="B820">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C820">
         <v>9</v>
@@ -19599,7 +19599,7 @@
         <v>4</v>
       </c>
       <c r="B821">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C821">
         <v>10</v>
@@ -19622,7 +19622,7 @@
         <v>4</v>
       </c>
       <c r="B822">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C822">
         <v>11</v>
@@ -19645,7 +19645,7 @@
         <v>4</v>
       </c>
       <c r="B823">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C823">
         <v>12</v>
@@ -19668,7 +19668,7 @@
         <v>4</v>
       </c>
       <c r="B824">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C824">
         <v>14</v>
@@ -19691,7 +19691,7 @@
         <v>4</v>
       </c>
       <c r="B825">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C825">
         <v>14</v>
@@ -19714,7 +19714,7 @@
         <v>4</v>
       </c>
       <c r="B826">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C826">
         <v>15</v>
@@ -19737,7 +19737,7 @@
         <v>4</v>
       </c>
       <c r="B827">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C827">
         <v>16</v>
@@ -19760,7 +19760,7 @@
         <v>4</v>
       </c>
       <c r="B828">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C828">
         <v>17</v>
@@ -43602,7 +43602,7 @@
         <v>4</v>
       </c>
       <c r="B1859">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C1859">
         <v>44</v>
@@ -43626,7 +43626,7 @@
         <v>4</v>
       </c>
       <c r="B1860">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1860">
         <v>26</v>
@@ -43649,7 +43649,7 @@
         <v>4</v>
       </c>
       <c r="B1861">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1861">
         <v>27</v>
@@ -59265,7 +59265,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2288" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
+  <autoFilter ref="A1:J2539" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
